--- a/part2/tables-2/dom_validty_part-2.xlsx
+++ b/part2/tables-2/dom_validty_part-2.xlsx
@@ -423,13 +423,13 @@
         <v>1078</v>
       </c>
       <c r="C2">
-        <v>0.004101</v>
+        <v>0.037104</v>
       </c>
       <c r="D2">
-        <v>0.003532</v>
+        <v>0.034175</v>
       </c>
       <c r="F2">
-        <v>0.138682</v>
+        <v>0.078943</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -437,13 +437,13 @@
         <v>212</v>
       </c>
       <c r="C3">
-        <v>0.000121</v>
+        <v>0.00466</v>
       </c>
       <c r="D3">
-        <v>0.000216</v>
+        <v>0.003775</v>
       </c>
       <c r="F3">
-        <v>-0.78032</v>
+        <v>0.18986</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -451,13 +451,13 @@
         <v>807</v>
       </c>
       <c r="C4">
-        <v>0.00054</v>
+        <v>0.000779</v>
       </c>
       <c r="D4">
-        <v>0.002169</v>
+        <v>0.002862</v>
       </c>
       <c r="F4">
-        <v>-3.020742</v>
+        <v>-2.674999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -465,13 +465,13 @@
         <v>1454</v>
       </c>
       <c r="C5">
-        <v>0.000157</v>
+        <v>0.067659</v>
       </c>
       <c r="D5">
-        <v>0.000516</v>
+        <v>0.052117</v>
       </c>
       <c r="F5">
-        <v>-2.290844</v>
+        <v>0.229721</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -479,13 +479,13 @@
         <v>1175</v>
       </c>
       <c r="C6">
-        <v>6.999999999999999E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="D6">
-        <v>9.399999999999999E-05</v>
+        <v>0.000923</v>
       </c>
       <c r="F6">
-        <v>-0.339062</v>
+        <v>-1.342207</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -493,13 +493,13 @@
         <v>459</v>
       </c>
       <c r="C7">
-        <v>6.4E-05</v>
+        <v>0.000393</v>
       </c>
       <c r="D7">
-        <v>5.5E-05</v>
+        <v>0.000243</v>
       </c>
       <c r="F7">
-        <v>0.138791</v>
+        <v>0.380288</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -507,13 +507,13 @@
         <v>1813</v>
       </c>
       <c r="C8">
-        <v>0.000267</v>
+        <v>0.000416</v>
       </c>
       <c r="D8">
-        <v>0.000204</v>
+        <v>0.00023</v>
       </c>
       <c r="F8">
-        <v>0.238295</v>
+        <v>0.446999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -521,13 +521,13 @@
         <v>1304</v>
       </c>
       <c r="C9">
-        <v>0.000937</v>
+        <v>0.023888</v>
       </c>
       <c r="D9">
-        <v>0.000577</v>
+        <v>0.013607</v>
       </c>
       <c r="F9">
-        <v>0.383738</v>
+        <v>0.430399</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -535,13 +535,13 @@
         <v>1710</v>
       </c>
       <c r="C10">
-        <v>0.000262</v>
+        <v>0.001881</v>
       </c>
       <c r="D10">
-        <v>4.1E-05</v>
+        <v>0.000545</v>
       </c>
       <c r="F10">
-        <v>0.843145</v>
+        <v>0.710232</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.00016</v>
+        <v>0.001176</v>
       </c>
       <c r="D11">
-        <v>5.9E-05</v>
+        <v>0.000627</v>
       </c>
       <c r="F11">
-        <v>0.63146</v>
+        <v>0.46693</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.000566</v>
+        <v>0.007953999999999999</v>
       </c>
       <c r="D12">
-        <v>0.000314</v>
+        <v>0.007127</v>
       </c>
       <c r="F12">
-        <v>0.445092</v>
+        <v>0.103968</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -586,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.000873</v>
+        <v>0.003085</v>
       </c>
       <c r="D13">
-        <v>0.000688</v>
+        <v>0.002201</v>
       </c>
       <c r="F13">
-        <v>0.21177</v>
+        <v>0.286602</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -603,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>0.000369</v>
+        <v>0.014194</v>
       </c>
       <c r="D14">
-        <v>0.000252</v>
+        <v>0.005449</v>
       </c>
       <c r="F14">
-        <v>0.316367</v>
+        <v>0.61613</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -617,13 +617,13 @@
         <v>1917</v>
       </c>
       <c r="C15">
-        <v>6.499999999999999E-05</v>
+        <v>0.000349</v>
       </c>
       <c r="D15">
-        <v>2.9E-05</v>
+        <v>0.000297</v>
       </c>
       <c r="F15">
-        <v>0.552187</v>
+        <v>0.146723</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -631,13 +631,13 @@
         <v>2060</v>
       </c>
       <c r="C16">
-        <v>2.6E-05</v>
+        <v>0.000261</v>
       </c>
       <c r="D16">
-        <v>1.3E-05</v>
+        <v>0.000205</v>
       </c>
       <c r="F16">
-        <v>0.487731</v>
+        <v>0.213407</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -645,13 +645,13 @@
         <v>1692</v>
       </c>
       <c r="C17">
-        <v>0.000597</v>
+        <v>0.001337</v>
       </c>
       <c r="D17">
-        <v>0.000411</v>
+        <v>0.001123</v>
       </c>
       <c r="F17">
-        <v>0.311446</v>
+        <v>0.159558</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -659,13 +659,13 @@
         <v>2109</v>
       </c>
       <c r="C18">
-        <v>0.000127</v>
+        <v>0.001278</v>
       </c>
       <c r="D18">
-        <v>6.7E-05</v>
+        <v>0.000992</v>
       </c>
       <c r="F18">
-        <v>0.471748</v>
+        <v>0.223531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -676,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0.00066</v>
+        <v>0.003987</v>
       </c>
       <c r="D19">
-        <v>0.00074</v>
+        <v>0.005163</v>
       </c>
       <c r="F19">
-        <v>-0.122585</v>
+        <v>-0.294991</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -693,13 +693,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.000368</v>
+        <v>0.005172</v>
       </c>
       <c r="D20">
-        <v>0.000147</v>
+        <v>0.002582</v>
       </c>
       <c r="F20">
-        <v>0.5991379999999999</v>
+        <v>0.50074</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -707,13 +707,13 @@
         <v>109</v>
       </c>
       <c r="C21">
-        <v>0.000141</v>
+        <v>0.005415</v>
       </c>
       <c r="D21">
-        <v>0.000189</v>
+        <v>0.0043</v>
       </c>
       <c r="F21">
-        <v>-0.341294</v>
+        <v>0.205823</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -721,13 +721,13 @@
         <v>966</v>
       </c>
       <c r="C22">
-        <v>1E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="D22">
-        <v>5E-05</v>
+        <v>0.000329</v>
       </c>
       <c r="F22">
-        <v>-42.570129</v>
+        <v>-34.548391</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -735,13 +735,13 @@
         <v>2371</v>
       </c>
       <c r="C23">
-        <v>0.0005509999999999999</v>
+        <v>0.007898000000000001</v>
       </c>
       <c r="D23">
-        <v>0.000372</v>
+        <v>0.005284</v>
       </c>
       <c r="F23">
-        <v>0.324605</v>
+        <v>0.330967</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -749,13 +749,13 @@
         <v>1765</v>
       </c>
       <c r="C24">
-        <v>0.000239</v>
+        <v>0.001654</v>
       </c>
       <c r="D24">
-        <v>9.7E-05</v>
+        <v>0.000891</v>
       </c>
       <c r="F24">
-        <v>0.593241</v>
+        <v>0.461061</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -763,13 +763,13 @@
         <v>2399</v>
       </c>
       <c r="C25">
-        <v>8E-06</v>
+        <v>0.000131</v>
       </c>
       <c r="D25">
-        <v>2.1E-05</v>
+        <v>0.000238</v>
       </c>
       <c r="F25">
-        <v>-1.726677</v>
+        <v>-0.816979</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -777,13 +777,13 @@
         <v>777</v>
       </c>
       <c r="C26">
-        <v>0.000857</v>
+        <v>0.006179</v>
       </c>
       <c r="D26">
-        <v>0.000257</v>
+        <v>0.001387</v>
       </c>
       <c r="F26">
-        <v>0.699969</v>
+        <v>0.775473</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -791,13 +791,13 @@
         <v>913</v>
       </c>
       <c r="C27">
-        <v>0.000516</v>
+        <v>0.003725</v>
       </c>
       <c r="D27">
-        <v>0.00045</v>
+        <v>0.002445</v>
       </c>
       <c r="F27">
-        <v>0.128747</v>
+        <v>0.343433</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -808,13 +808,13 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>0.000236</v>
+        <v>0.001238</v>
       </c>
       <c r="D28">
-        <v>0.000223</v>
+        <v>0.001166</v>
       </c>
       <c r="F28">
-        <v>0.055503</v>
+        <v>0.057979</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -822,13 +822,13 @@
         <v>2310</v>
       </c>
       <c r="C29">
-        <v>0.000316</v>
+        <v>0.004444</v>
       </c>
       <c r="D29">
-        <v>0.00011</v>
+        <v>0.001772</v>
       </c>
       <c r="F29">
-        <v>0.6516690000000001</v>
+        <v>0.601227</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -836,13 +836,13 @@
         <v>1002</v>
       </c>
       <c r="C30">
-        <v>0.00013</v>
+        <v>0.001227</v>
       </c>
       <c r="D30">
-        <v>5.4E-05</v>
+        <v>0.000502</v>
       </c>
       <c r="F30">
-        <v>0.586211</v>
+        <v>0.591001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -850,13 +850,13 @@
         <v>1777</v>
       </c>
       <c r="C31">
-        <v>0.000339</v>
+        <v>0.002204</v>
       </c>
       <c r="D31">
-        <v>6.4E-05</v>
+        <v>0.000793</v>
       </c>
       <c r="F31">
-        <v>0.811632</v>
+        <v>0.640093</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -867,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0.002539</v>
+        <v>0.004953</v>
       </c>
       <c r="D32">
-        <v>0.000362</v>
+        <v>0.000829</v>
       </c>
       <c r="F32">
-        <v>0.857384</v>
+        <v>0.832602</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -884,13 +884,13 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>6.8E-05</v>
+        <v>0.000399</v>
       </c>
       <c r="D33">
-        <v>2.7E-05</v>
+        <v>0.000307</v>
       </c>
       <c r="F33">
-        <v>0.604889</v>
+        <v>0.230529</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -898,13 +898,13 @@
         <v>492</v>
       </c>
       <c r="C34">
-        <v>0.000209</v>
+        <v>0.001196</v>
       </c>
       <c r="D34">
-        <v>0.000109</v>
+        <v>0.000655</v>
       </c>
       <c r="F34">
-        <v>0.477373</v>
+        <v>0.452674</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -912,13 +912,13 @@
         <v>1693</v>
       </c>
       <c r="C35">
-        <v>0.000249</v>
+        <v>0.00101</v>
       </c>
       <c r="D35">
-        <v>0.000121</v>
+        <v>0.0007069999999999999</v>
       </c>
       <c r="F35">
-        <v>0.514031</v>
+        <v>0.299702</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -926,13 +926,13 @@
         <v>2251</v>
       </c>
       <c r="C36">
-        <v>6.999999999999999E-05</v>
+        <v>0.000352</v>
       </c>
       <c r="D36">
-        <v>0.000302</v>
+        <v>0.00206</v>
       </c>
       <c r="F36">
-        <v>-3.332707</v>
+        <v>-4.85265</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -940,13 +940,13 @@
         <v>453</v>
       </c>
       <c r="C37">
-        <v>0.002787</v>
+        <v>0.019881</v>
       </c>
       <c r="D37">
-        <v>0.00074</v>
+        <v>0.008437</v>
       </c>
       <c r="F37">
-        <v>0.7344619999999999</v>
+        <v>0.575635</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -957,13 +957,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.000374</v>
+        <v>0.005257</v>
       </c>
       <c r="D38">
-        <v>0.000426</v>
+        <v>0.004459</v>
       </c>
       <c r="F38">
-        <v>-0.13944</v>
+        <v>0.15173</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -971,13 +971,13 @@
         <v>2058</v>
       </c>
       <c r="C39">
-        <v>0.0003</v>
+        <v>0.001206</v>
       </c>
       <c r="D39">
-        <v>0.000144</v>
+        <v>0.000718</v>
       </c>
       <c r="F39">
-        <v>0.520573</v>
+        <v>0.404945</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -988,13 +988,13 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.005974</v>
+        <v>0.055625</v>
       </c>
       <c r="D40">
-        <v>0.004787</v>
+        <v>0.045805</v>
       </c>
       <c r="F40">
-        <v>0.198693</v>
+        <v>0.176534</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1002,13 +1002,13 @@
         <v>354</v>
       </c>
       <c r="C41">
-        <v>6E-06</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D41">
-        <v>0.000123</v>
+        <v>0.00079</v>
       </c>
       <c r="F41">
-        <v>-20.947152</v>
+        <v>-21.585195</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1016,13 +1016,13 @@
         <v>1445</v>
       </c>
       <c r="C42">
-        <v>0.000608</v>
+        <v>0.051344</v>
       </c>
       <c r="D42">
-        <v>0.000634</v>
+        <v>0.07255399999999999</v>
       </c>
       <c r="F42">
-        <v>-0.042488</v>
+        <v>-0.413086</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1030,13 +1030,13 @@
         <v>2227</v>
       </c>
       <c r="C43">
-        <v>0.000114</v>
+        <v>0.001153</v>
       </c>
       <c r="D43">
-        <v>0.00021</v>
+        <v>0.002317</v>
       </c>
       <c r="F43">
-        <v>-0.837374</v>
+        <v>-1.009274</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1047,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.000129</v>
+        <v>0.000457</v>
       </c>
       <c r="D44">
-        <v>2.8E-05</v>
+        <v>0.000198</v>
       </c>
       <c r="F44">
-        <v>0.7827539999999999</v>
+        <v>0.566089</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1061,13 +1061,13 @@
         <v>1675</v>
       </c>
       <c r="C45">
-        <v>6E-06</v>
+        <v>0.000204</v>
       </c>
       <c r="D45">
-        <v>6E-06</v>
+        <v>0.00013</v>
       </c>
       <c r="F45">
-        <v>-0.029421</v>
+        <v>0.361742</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1075,13 +1075,13 @@
         <v>1463</v>
       </c>
       <c r="C46">
-        <v>0.000187</v>
+        <v>0.023253</v>
       </c>
       <c r="D46">
-        <v>0.000221</v>
+        <v>0.031843</v>
       </c>
       <c r="F46">
-        <v>-0.180935</v>
+        <v>-0.369398</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1089,13 +1089,13 @@
         <v>2004</v>
       </c>
       <c r="C47">
-        <v>0.003042</v>
+        <v>0.005934</v>
       </c>
       <c r="D47">
-        <v>0.00074</v>
+        <v>0.001405</v>
       </c>
       <c r="F47">
-        <v>0.756738</v>
+        <v>0.763304</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1106,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.004841</v>
+        <v>0.007179</v>
       </c>
       <c r="D48">
-        <v>0.001312</v>
+        <v>0.002544</v>
       </c>
       <c r="F48">
-        <v>0.728955</v>
+        <v>0.645594</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>2252</v>
       </c>
       <c r="C49">
-        <v>3.5E-05</v>
+        <v>0.000178</v>
       </c>
       <c r="D49">
-        <v>0.000271</v>
+        <v>0.001918</v>
       </c>
       <c r="F49">
-        <v>-6.707341</v>
+        <v>-9.773331000000001</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1134,13 +1134,13 @@
         <v>2096</v>
       </c>
       <c r="C50">
-        <v>9E-06</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="D50">
-        <v>1.3E-05</v>
+        <v>0.000205</v>
       </c>
       <c r="F50">
-        <v>-0.418647</v>
+        <v>-1.178343</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1148,13 +1148,13 @@
         <v>1344</v>
       </c>
       <c r="C51">
-        <v>6.600000000000001E-05</v>
+        <v>0.00203</v>
       </c>
       <c r="D51">
-        <v>8.3E-05</v>
+        <v>0.000958</v>
       </c>
       <c r="F51">
-        <v>-0.254396</v>
+        <v>0.528035</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1162,13 +1162,13 @@
         <v>2014</v>
       </c>
       <c r="C52">
-        <v>0.000105</v>
+        <v>0.000204</v>
       </c>
       <c r="D52">
-        <v>4.5E-05</v>
+        <v>0.000118</v>
       </c>
       <c r="F52">
-        <v>0.565777</v>
+        <v>0.422291</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1179,13 +1179,13 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>4.6E-05</v>
+        <v>0.000178</v>
       </c>
       <c r="D53">
-        <v>9E-06</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F53">
-        <v>0.815788</v>
+        <v>0.481595</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1193,13 +1193,13 @@
         <v>1451</v>
       </c>
       <c r="C54">
-        <v>0.000267</v>
+        <v>0.068553</v>
       </c>
       <c r="D54">
-        <v>0.000267</v>
+        <v>0.054317</v>
       </c>
       <c r="F54">
-        <v>-0.000746</v>
+        <v>0.207665</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1207,13 +1207,13 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>0.000136</v>
+        <v>0.005216</v>
       </c>
       <c r="D55">
-        <v>0.000101</v>
+        <v>0.001766</v>
       </c>
       <c r="F55">
-        <v>0.254099</v>
+        <v>0.661424</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1221,13 +1221,13 @@
         <v>374</v>
       </c>
       <c r="C56">
-        <v>7.1E-05</v>
+        <v>0.000486</v>
       </c>
       <c r="D56">
-        <v>0.000135</v>
+        <v>0.000894</v>
       </c>
       <c r="F56">
-        <v>-0.9111</v>
+        <v>-0.841421</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1235,13 +1235,13 @@
         <v>1512</v>
       </c>
       <c r="C57">
-        <v>0.000142</v>
+        <v>0.000746</v>
       </c>
       <c r="D57">
-        <v>0.00017</v>
+        <v>0.000581</v>
       </c>
       <c r="F57">
-        <v>-0.192984</v>
+        <v>0.221019</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>1609</v>
       </c>
       <c r="C58">
-        <v>2.3E-05</v>
+        <v>0.000143</v>
       </c>
       <c r="D58">
-        <v>8E-06</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F58">
-        <v>0.667474</v>
+        <v>0.711357</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1263,13 +1263,13 @@
         <v>2105</v>
       </c>
       <c r="C59">
-        <v>0.000327</v>
+        <v>0.001316</v>
       </c>
       <c r="D59">
-        <v>0.000228</v>
+        <v>0.001116</v>
       </c>
       <c r="F59">
-        <v>0.302248</v>
+        <v>0.151634</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1277,13 +1277,13 @@
         <v>1341</v>
       </c>
       <c r="C60">
-        <v>9.000000000000001E-05</v>
+        <v>0.002768</v>
       </c>
       <c r="D60">
-        <v>8.3E-05</v>
+        <v>0.000958</v>
       </c>
       <c r="F60">
-        <v>0.08006000000000001</v>
+        <v>0.653873</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1294,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="C61">
-        <v>7.7E-05</v>
+        <v>0.001769</v>
       </c>
       <c r="D61">
-        <v>4.9E-05</v>
+        <v>0.0005330000000000001</v>
       </c>
       <c r="F61">
-        <v>0.362109</v>
+        <v>0.698812</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1308,13 +1308,13 @@
         <v>1358</v>
       </c>
       <c r="C62">
-        <v>3.3E-05</v>
+        <v>0.000886</v>
       </c>
       <c r="D62">
-        <v>5E-05</v>
+        <v>0.0005</v>
       </c>
       <c r="F62">
-        <v>-0.511783</v>
+        <v>0.435789</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1322,13 +1322,13 @@
         <v>1354</v>
       </c>
       <c r="C63">
-        <v>0.000896</v>
+        <v>0.009287999999999999</v>
       </c>
       <c r="D63">
-        <v>0.0006089999999999999</v>
+        <v>0.005861</v>
       </c>
       <c r="F63">
-        <v>0.320446</v>
+        <v>0.368991</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1336,13 +1336,13 @@
         <v>2082</v>
       </c>
       <c r="C64">
-        <v>3.5E-05</v>
+        <v>0.000349</v>
       </c>
       <c r="D64">
-        <v>1.6E-05</v>
+        <v>0.00018</v>
       </c>
       <c r="F64">
-        <v>0.53213</v>
+        <v>0.483324</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1353,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>0.001597</v>
+        <v>0.010173</v>
       </c>
       <c r="D65">
-        <v>0.0009</v>
+        <v>0.007203</v>
       </c>
       <c r="F65">
-        <v>0.436611</v>
+        <v>0.291936</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1367,13 +1367,13 @@
         <v>2241</v>
       </c>
       <c r="C66">
-        <v>0.000445</v>
+        <v>0.00449</v>
       </c>
       <c r="D66">
-        <v>0.000324</v>
+        <v>0.003562</v>
       </c>
       <c r="F66">
-        <v>0.271934</v>
+        <v>0.206783</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1381,13 +1381,13 @@
         <v>1507</v>
       </c>
       <c r="C67">
-        <v>3E-05</v>
+        <v>0.000741</v>
       </c>
       <c r="D67">
-        <v>4.8E-05</v>
+        <v>0.000671</v>
       </c>
       <c r="F67">
-        <v>-0.595612</v>
+        <v>0.09400500000000001</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1395,13 +1395,13 @@
         <v>1987</v>
       </c>
       <c r="C68">
-        <v>0.000165</v>
+        <v>0.000664</v>
       </c>
       <c r="D68">
-        <v>3.7E-05</v>
+        <v>0.000186</v>
       </c>
       <c r="F68">
-        <v>0.773637</v>
+        <v>0.7198870000000001</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1412,13 +1412,13 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.00137</v>
+        <v>0.008384000000000001</v>
       </c>
       <c r="D69">
-        <v>0.000464</v>
+        <v>0.002903</v>
       </c>
       <c r="F69">
-        <v>0.661411</v>
+        <v>0.653731</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1426,13 +1426,13 @@
         <v>1883</v>
       </c>
       <c r="C70">
-        <v>6E-06</v>
+        <v>0.000661</v>
       </c>
       <c r="D70">
-        <v>4.8E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="F70">
-        <v>-7.289012</v>
+        <v>0.231153</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>554</v>
       </c>
       <c r="C71">
-        <v>0.002292</v>
+        <v>0.003399</v>
       </c>
       <c r="D71">
-        <v>0.004769</v>
+        <v>0.0086</v>
       </c>
       <c r="F71">
-        <v>-1.080435</v>
+        <v>-1.53011</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>2268</v>
       </c>
       <c r="C72">
-        <v>1E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D72">
-        <v>6.4E-05</v>
+        <v>0.000261</v>
       </c>
       <c r="F72">
-        <v>-5.21875</v>
+        <v>-4.013502</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1468,13 +1468,13 @@
         <v>1797</v>
       </c>
       <c r="C73">
-        <v>5.7E-05</v>
+        <v>0.000194</v>
       </c>
       <c r="D73">
-        <v>6.2E-05</v>
+        <v>0.000248</v>
       </c>
       <c r="F73">
-        <v>-0.082527</v>
+        <v>-0.280079</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1482,13 +1482,13 @@
         <v>1739</v>
       </c>
       <c r="C74">
-        <v>0.000442</v>
+        <v>0.001136</v>
       </c>
       <c r="D74">
-        <v>7.6E-05</v>
+        <v>0.000484</v>
       </c>
       <c r="F74">
-        <v>0.829133</v>
+        <v>0.573736</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1496,13 +1496,13 @@
         <v>1898</v>
       </c>
       <c r="C75">
-        <v>1E-06</v>
+        <v>0.000419</v>
       </c>
       <c r="D75">
-        <v>1.5E-05</v>
+        <v>0.000475</v>
       </c>
       <c r="F75">
-        <v>-10.160042</v>
+        <v>-0.133828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1510,13 +1510,13 @@
         <v>1743</v>
       </c>
       <c r="C76">
-        <v>0.0007</v>
+        <v>0.001493</v>
       </c>
       <c r="D76">
-        <v>0.000317</v>
+        <v>0.000883</v>
       </c>
       <c r="F76">
-        <v>0.547111</v>
+        <v>0.408475</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1524,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>0.000117</v>
+        <v>0.001685</v>
       </c>
       <c r="D77">
-        <v>3.4E-05</v>
+        <v>0.000364</v>
       </c>
       <c r="F77">
-        <v>0.710598</v>
+        <v>0.783691</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1538,13 +1538,13 @@
         <v>1448</v>
       </c>
       <c r="C78">
-        <v>0.000243</v>
+        <v>0.056633</v>
       </c>
       <c r="D78">
-        <v>0.000275</v>
+        <v>0.068552</v>
       </c>
       <c r="F78">
-        <v>-0.129282</v>
+        <v>-0.210472</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1552,13 +1552,13 @@
         <v>630</v>
       </c>
       <c r="C79">
-        <v>0.000215</v>
+        <v>0.000757</v>
       </c>
       <c r="D79">
-        <v>0.000512</v>
+        <v>0.001852</v>
       </c>
       <c r="F79">
-        <v>-1.376218</v>
+        <v>-1.446357</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1566,13 +1566,13 @@
         <v>1993</v>
       </c>
       <c r="C80">
-        <v>0.000476</v>
+        <v>0.000928</v>
       </c>
       <c r="D80">
-        <v>0.0001</v>
+        <v>0.000229</v>
       </c>
       <c r="F80">
-        <v>0.790398</v>
+        <v>0.753675</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1580,13 +1580,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>9.000000000000001E-05</v>
+        <v>0.001862</v>
       </c>
       <c r="D81">
-        <v>7.9E-05</v>
+        <v>0.000962</v>
       </c>
       <c r="F81">
-        <v>0.126866</v>
+        <v>0.483508</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1594,13 +1594,13 @@
         <v>763</v>
       </c>
       <c r="C82">
-        <v>0.006514</v>
+        <v>0.014601</v>
       </c>
       <c r="D82">
-        <v>0.00525</v>
+        <v>0.01082</v>
       </c>
       <c r="F82">
-        <v>0.194147</v>
+        <v>0.258969</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1608,13 +1608,13 @@
         <v>1848</v>
       </c>
       <c r="C83">
-        <v>0.000184</v>
+        <v>0.000606</v>
       </c>
       <c r="D83">
-        <v>0.000168</v>
+        <v>0.000603</v>
       </c>
       <c r="F83">
-        <v>0.08655</v>
+        <v>0.005577</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1622,13 +1622,13 @@
         <v>1974</v>
       </c>
       <c r="C84">
-        <v>0.000182</v>
+        <v>0.000322</v>
       </c>
       <c r="D84">
-        <v>7.3E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="F84">
-        <v>0.600231</v>
+        <v>0.613864</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1636,13 +1636,13 @@
         <v>1648</v>
       </c>
       <c r="C85">
-        <v>1E-06</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D85">
-        <v>4E-06</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F85">
-        <v>-1.785871</v>
+        <v>-1.191085</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1650,13 +1650,13 @@
         <v>1252</v>
       </c>
       <c r="C86">
-        <v>0.001382</v>
+        <v>0.008855999999999999</v>
       </c>
       <c r="D86">
-        <v>0.001652</v>
+        <v>0.010391</v>
       </c>
       <c r="F86">
-        <v>-0.194837</v>
+        <v>-0.17331</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1664,13 +1664,13 @@
         <v>2024</v>
       </c>
       <c r="C87">
-        <v>0.000424</v>
+        <v>0.000828</v>
       </c>
       <c r="D87">
-        <v>0.0001</v>
+        <v>0.000229</v>
       </c>
       <c r="F87">
-        <v>0.765015</v>
+        <v>0.723844</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>1165</v>
       </c>
       <c r="C88">
-        <v>0.000144</v>
+        <v>0.000926</v>
       </c>
       <c r="D88">
-        <v>0.000198</v>
+        <v>0.003041</v>
       </c>
       <c r="F88">
-        <v>-0.369487</v>
+        <v>-2.284843</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C89">
-        <v>9E-06</v>
+        <v>7.9E-05</v>
       </c>
       <c r="D89">
-        <v>2E-06</v>
+        <v>0.00011</v>
       </c>
       <c r="F89">
-        <v>0.762511</v>
+        <v>-0.399737</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1706,13 +1706,13 @@
         <v>356</v>
       </c>
       <c r="C90">
-        <v>7E-06</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D90">
-        <v>6.8E-05</v>
+        <v>0.000719</v>
       </c>
       <c r="F90">
-        <v>-9.327839000000001</v>
+        <v>-7.920584</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1723,13 +1723,13 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>0.002956</v>
+        <v>0.013401</v>
       </c>
       <c r="D91">
-        <v>0.002471</v>
+        <v>0.013706</v>
       </c>
       <c r="F91">
-        <v>0.163899</v>
+        <v>-0.022789</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1737,13 +1737,13 @@
         <v>2308</v>
       </c>
       <c r="C92">
-        <v>0.000425</v>
+        <v>0.00598</v>
       </c>
       <c r="D92">
-        <v>0.000148</v>
+        <v>0.002586</v>
       </c>
       <c r="F92">
-        <v>0.6527809999999999</v>
+        <v>0.567582</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1751,13 +1751,13 @@
         <v>767</v>
       </c>
       <c r="C93">
-        <v>0.006277</v>
+        <v>0.040424</v>
       </c>
       <c r="D93">
-        <v>0.006876</v>
+        <v>0.040918</v>
       </c>
       <c r="F93">
-        <v>-0.09547799999999999</v>
+        <v>-0.012214</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1765,13 +1765,13 @@
         <v>63</v>
       </c>
       <c r="C94">
-        <v>0.001027</v>
+        <v>0.008899000000000001</v>
       </c>
       <c r="D94">
-        <v>0.000119</v>
+        <v>0.002341</v>
       </c>
       <c r="F94">
-        <v>0.884458</v>
+        <v>0.7369790000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1779,13 +1779,13 @@
         <v>2203</v>
       </c>
       <c r="C95">
-        <v>2.8E-05</v>
+        <v>0.000282</v>
       </c>
       <c r="D95">
-        <v>6.7E-05</v>
+        <v>0.000992</v>
       </c>
       <c r="F95">
-        <v>-1.392996</v>
+        <v>-2.517428</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>1406</v>
       </c>
       <c r="C96">
-        <v>0.004789</v>
+        <v>0.01431</v>
       </c>
       <c r="D96">
-        <v>0.007599</v>
+        <v>0.030204</v>
       </c>
       <c r="F96">
-        <v>-0.586939</v>
+        <v>-1.110731</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>1517</v>
       </c>
       <c r="C97">
-        <v>2.4E-05</v>
+        <v>0.000158</v>
       </c>
       <c r="D97">
-        <v>7.6E-05</v>
+        <v>0.000306</v>
       </c>
       <c r="F97">
-        <v>-2.187115</v>
+        <v>-0.943889</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1821,13 +1821,13 @@
         <v>1951</v>
       </c>
       <c r="C98">
-        <v>3.7E-05</v>
+        <v>0.000231</v>
       </c>
       <c r="D98">
-        <v>2.8E-05</v>
+        <v>0.000275</v>
       </c>
       <c r="F98">
-        <v>0.259473</v>
+        <v>-0.187526</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1835,13 +1835,13 @@
         <v>1608</v>
       </c>
       <c r="C99">
-        <v>1E-06</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D99">
-        <v>3E-06</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F99">
-        <v>-3.089963</v>
+        <v>-1.696672</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>1376</v>
       </c>
       <c r="C100">
-        <v>0.000232</v>
+        <v>0.004489</v>
       </c>
       <c r="D100">
-        <v>0.000916</v>
+        <v>0.005313</v>
       </c>
       <c r="F100">
-        <v>-2.95081</v>
+        <v>-0.183665</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>2283</v>
       </c>
       <c r="C101">
-        <v>3.3E-05</v>
+        <v>0.000168</v>
       </c>
       <c r="D101">
-        <v>0.000103</v>
+        <v>0.000471</v>
       </c>
       <c r="F101">
-        <v>-2.093956</v>
+        <v>-1.804056</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -1877,13 +1877,13 @@
         <v>2219</v>
       </c>
       <c r="C102">
-        <v>7E-06</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D102">
-        <v>0.000152</v>
+        <v>0.001019</v>
       </c>
       <c r="F102">
-        <v>-21.387643</v>
+        <v>-28.759779</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -1891,13 +1891,13 @@
         <v>1246</v>
       </c>
       <c r="C103">
-        <v>0.003237</v>
+        <v>0.013731</v>
       </c>
       <c r="D103">
-        <v>0.002218</v>
+        <v>0.012149</v>
       </c>
       <c r="F103">
-        <v>0.315026</v>
+        <v>0.115201</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -1905,13 +1905,13 @@
         <v>2325</v>
       </c>
       <c r="C104">
-        <v>0.000379</v>
+        <v>0.005322</v>
       </c>
       <c r="D104">
-        <v>8.6E-05</v>
+        <v>0.001275</v>
       </c>
       <c r="F104">
-        <v>0.77183</v>
+        <v>0.760494</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -1922,13 +1922,13 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>0.0005419999999999999</v>
+        <v>0.007624</v>
       </c>
       <c r="D105">
-        <v>0.000147</v>
+        <v>0.002582</v>
       </c>
       <c r="F105">
-        <v>0.728095</v>
+        <v>0.661351</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -1936,13 +1936,13 @@
         <v>1181</v>
       </c>
       <c r="C106">
-        <v>4.6E-05</v>
+        <v>0.00028</v>
       </c>
       <c r="D106">
-        <v>3.9E-05</v>
+        <v>0.00048</v>
       </c>
       <c r="F106">
-        <v>0.162688</v>
+        <v>-0.716323</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -1953,13 +1953,13 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>6E-06</v>
+        <v>0.000108</v>
       </c>
       <c r="D107">
-        <v>1.9E-05</v>
+        <v>0.000214</v>
       </c>
       <c r="F107">
-        <v>-2.001393</v>
+        <v>-0.977046</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -1967,13 +1967,13 @@
         <v>1955</v>
       </c>
       <c r="C108">
-        <v>0.000292</v>
+        <v>0.000908</v>
       </c>
       <c r="D108">
-        <v>1.8E-05</v>
+        <v>0.000126</v>
       </c>
       <c r="F108">
-        <v>0.939127</v>
+        <v>0.8616</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -1981,13 +1981,13 @@
         <v>364</v>
       </c>
       <c r="C109">
-        <v>0.000361</v>
+        <v>0.005312</v>
       </c>
       <c r="D109">
-        <v>0.000685</v>
+        <v>0.008208</v>
       </c>
       <c r="F109">
-        <v>-0.9001749999999999</v>
+        <v>-0.545176</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -1995,13 +1995,13 @@
         <v>1236</v>
       </c>
       <c r="C110">
-        <v>0.001125</v>
+        <v>0.004057</v>
       </c>
       <c r="D110">
-        <v>0.000236</v>
+        <v>0.003279</v>
       </c>
       <c r="F110">
-        <v>0.7897960000000001</v>
+        <v>0.191759</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2012,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>1.9E-05</v>
+        <v>0.000185</v>
       </c>
       <c r="D111">
-        <v>1.2E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F111">
-        <v>0.367149</v>
+        <v>0.420482</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2026,13 +2026,13 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>8E-06</v>
+        <v>4E-05</v>
       </c>
       <c r="D112">
-        <v>1E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F112">
-        <v>-0.194618</v>
+        <v>-0.17438</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2040,13 +2040,13 @@
         <v>1820</v>
       </c>
       <c r="C113">
-        <v>9.899999999999999E-05</v>
+        <v>0.000614</v>
       </c>
       <c r="D113">
-        <v>0.000101</v>
+        <v>0.000497</v>
       </c>
       <c r="F113">
-        <v>-0.014558</v>
+        <v>0.190302</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2054,13 +2054,13 @@
         <v>1273</v>
       </c>
       <c r="C114">
-        <v>0.000136</v>
+        <v>0.000456</v>
       </c>
       <c r="D114">
-        <v>0.000264</v>
+        <v>0.001063</v>
       </c>
       <c r="F114">
-        <v>-0.94661</v>
+        <v>-1.328789</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2068,13 +2068,13 @@
         <v>1697</v>
       </c>
       <c r="C115">
-        <v>0.000277</v>
+        <v>0.001135</v>
       </c>
       <c r="D115">
-        <v>0.000141</v>
+        <v>0.000796</v>
       </c>
       <c r="F115">
-        <v>0.490595</v>
+        <v>0.298389</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2082,13 +2082,13 @@
         <v>2299</v>
       </c>
       <c r="C116">
-        <v>6E-05</v>
+        <v>0.000305</v>
       </c>
       <c r="D116">
-        <v>0.000146</v>
+        <v>0.000779</v>
       </c>
       <c r="F116">
-        <v>-1.422455</v>
+        <v>-1.556244</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2096,13 +2096,13 @@
         <v>1779</v>
       </c>
       <c r="C117">
+        <v>0.0009840000000000001</v>
+      </c>
+      <c r="D117">
         <v>0.000429</v>
       </c>
-      <c r="D117">
-        <v>6.999999999999999E-05</v>
-      </c>
       <c r="F117">
-        <v>0.837182</v>
+        <v>0.563544</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2110,13 +2110,13 @@
         <v>644</v>
       </c>
       <c r="C118">
-        <v>0.0006089999999999999</v>
+        <v>0.003609</v>
       </c>
       <c r="D118">
-        <v>0.000503</v>
+        <v>0.003049</v>
       </c>
       <c r="F118">
-        <v>0.173725</v>
+        <v>0.154942</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2124,13 +2124,13 @@
         <v>1760</v>
       </c>
       <c r="C119">
-        <v>0.00046</v>
+        <v>0.001867</v>
       </c>
       <c r="D119">
-        <v>0.000133</v>
+        <v>0.00078</v>
       </c>
       <c r="F119">
-        <v>0.710043</v>
+        <v>0.5822619999999999</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2138,13 +2138,13 @@
         <v>1933</v>
       </c>
       <c r="C120">
-        <v>9.2E-05</v>
+        <v>0.00026</v>
       </c>
       <c r="D120">
-        <v>2.3E-05</v>
+        <v>0.000157</v>
       </c>
       <c r="F120">
-        <v>0.752775</v>
+        <v>0.397552</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2152,13 +2152,13 @@
         <v>1413</v>
       </c>
       <c r="C121">
-        <v>0.000868</v>
+        <v>0.002096</v>
       </c>
       <c r="D121">
-        <v>0.000726</v>
+        <v>0.001909</v>
       </c>
       <c r="F121">
-        <v>0.163396</v>
+        <v>0.089405</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2166,13 +2166,13 @@
         <v>1780</v>
       </c>
       <c r="C122">
-        <v>0.000749</v>
+        <v>0.002377</v>
       </c>
       <c r="D122">
-        <v>9.2E-05</v>
+        <v>0.00061</v>
       </c>
       <c r="F122">
-        <v>0.8768820000000001</v>
+        <v>0.743262</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2180,13 +2180,13 @@
         <v>435</v>
       </c>
       <c r="C123">
-        <v>7E-06</v>
+        <v>8.4E-05</v>
       </c>
       <c r="D123">
-        <v>4.8E-05</v>
+        <v>0.000543</v>
       </c>
       <c r="F123">
-        <v>-5.970942</v>
+        <v>-5.451553</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2194,13 +2194,13 @@
         <v>867</v>
       </c>
       <c r="C124">
-        <v>0.006268</v>
+        <v>0.024003</v>
       </c>
       <c r="D124">
-        <v>0.005297</v>
+        <v>0.020602</v>
       </c>
       <c r="F124">
-        <v>0.154961</v>
+        <v>0.141683</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2208,13 +2208,13 @@
         <v>2155</v>
       </c>
       <c r="C125">
-        <v>5E-06</v>
+        <v>9E-06</v>
       </c>
       <c r="D125">
-        <v>0.000155</v>
+        <v>0.000339</v>
       </c>
       <c r="F125">
-        <v>-32.591135</v>
+        <v>-36.630975</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2222,13 +2222,13 @@
         <v>26</v>
       </c>
       <c r="C126">
-        <v>7.7E-05</v>
+        <v>0.001126</v>
       </c>
       <c r="D126">
-        <v>3E-05</v>
+        <v>0.000293</v>
       </c>
       <c r="F126">
-        <v>0.607412</v>
+        <v>0.739479</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2236,13 +2236,13 @@
         <v>491</v>
       </c>
       <c r="C127">
-        <v>0.002197</v>
+        <v>0.008640999999999999</v>
       </c>
       <c r="D127">
-        <v>0.000745</v>
+        <v>0.003326</v>
       </c>
       <c r="F127">
-        <v>0.660659</v>
+        <v>0.615162</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2250,13 +2250,13 @@
         <v>17</v>
       </c>
       <c r="C128">
-        <v>8.4E-05</v>
+        <v>0.001729</v>
       </c>
       <c r="D128">
-        <v>3.8E-05</v>
+        <v>0.000451</v>
       </c>
       <c r="F128">
-        <v>0.545142</v>
+        <v>0.739371</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>441</v>
       </c>
       <c r="C129">
-        <v>0.010976</v>
+        <v>0.016737</v>
       </c>
       <c r="D129">
-        <v>0.004258</v>
+        <v>0.007651</v>
       </c>
       <c r="F129">
-        <v>0.612042</v>
+        <v>0.5428809999999999</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2278,13 +2278,13 @@
         <v>809</v>
       </c>
       <c r="C130">
-        <v>0.009769</v>
+        <v>0.021502</v>
       </c>
       <c r="D130">
-        <v>0.007662</v>
+        <v>0.019904</v>
       </c>
       <c r="F130">
-        <v>0.215694</v>
+        <v>0.074312</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2292,13 +2292,13 @@
         <v>42</v>
       </c>
       <c r="C131">
-        <v>0.000359</v>
+        <v>0.002561</v>
       </c>
       <c r="D131">
-        <v>0.000153</v>
+        <v>0.001291</v>
       </c>
       <c r="F131">
-        <v>0.572774</v>
+        <v>0.495658</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2306,13 +2306,13 @@
         <v>443</v>
       </c>
       <c r="C132">
-        <v>0.004527</v>
+        <v>0.026456</v>
       </c>
       <c r="D132">
-        <v>0.002531</v>
+        <v>0.017318</v>
       </c>
       <c r="F132">
-        <v>0.441018</v>
+        <v>0.345376</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2320,13 +2320,13 @@
         <v>1656</v>
       </c>
       <c r="C133">
-        <v>1.5E-05</v>
+        <v>0.00054</v>
       </c>
       <c r="D133">
-        <v>2E-06</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F133">
-        <v>0.8592649999999999</v>
+        <v>0.853229</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2334,13 +2334,13 @@
         <v>1908</v>
       </c>
       <c r="C134">
-        <v>2E-06</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D134">
-        <v>2.2E-05</v>
+        <v>0.00017</v>
       </c>
       <c r="F134">
-        <v>-11.942928</v>
+        <v>-1.921489</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2348,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="C135">
-        <v>0.000777</v>
+        <v>0.007814</v>
       </c>
       <c r="D135">
-        <v>0.000241</v>
+        <v>0.003286</v>
       </c>
       <c r="F135">
-        <v>0.690405</v>
+        <v>0.579462</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2362,13 +2362,13 @@
         <v>460</v>
       </c>
       <c r="C136">
-        <v>0.000115</v>
+        <v>0.000838</v>
       </c>
       <c r="D136">
-        <v>8.3E-05</v>
+        <v>0.000419</v>
       </c>
       <c r="F136">
-        <v>0.279688</v>
+        <v>0.499914</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2376,13 +2376,13 @@
         <v>161</v>
       </c>
       <c r="C137">
-        <v>7.1E-05</v>
+        <v>0.000616</v>
       </c>
       <c r="D137">
-        <v>4.3E-05</v>
+        <v>0.000574</v>
       </c>
       <c r="F137">
-        <v>0.396728</v>
+        <v>0.067882</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2390,13 +2390,13 @@
         <v>1177</v>
       </c>
       <c r="C138">
-        <v>4.1E-05</v>
+        <v>0.000151</v>
       </c>
       <c r="D138">
-        <v>7.7E-05</v>
+        <v>0.000645</v>
       </c>
       <c r="F138">
-        <v>-0.902838</v>
+        <v>-3.262314</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2404,13 +2404,13 @@
         <v>463</v>
       </c>
       <c r="C139">
-        <v>0.001177</v>
+        <v>0.001801</v>
       </c>
       <c r="D139">
-        <v>0.000347</v>
+        <v>0.000471</v>
       </c>
       <c r="F139">
-        <v>0.705135</v>
+        <v>0.738184</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2418,13 +2418,13 @@
         <v>1141</v>
       </c>
       <c r="C140">
-        <v>2E-06</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D140">
-        <v>6.3E-05</v>
+        <v>0.000209</v>
       </c>
       <c r="F140">
-        <v>-28.776411</v>
+        <v>-7.832016</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2432,13 +2432,13 @@
         <v>1282</v>
       </c>
       <c r="C141">
-        <v>0.000156</v>
+        <v>0.000992</v>
       </c>
       <c r="D141">
-        <v>0.000161</v>
+        <v>0.000842</v>
       </c>
       <c r="F141">
-        <v>-0.035486</v>
+        <v>0.150779</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2446,13 +2446,13 @@
         <v>1664</v>
       </c>
       <c r="C142">
-        <v>3.8E-05</v>
+        <v>0.000239</v>
       </c>
       <c r="D142">
-        <v>1.8E-05</v>
+        <v>0.000146</v>
       </c>
       <c r="F142">
-        <v>0.527554</v>
+        <v>0.387206</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2460,13 +2460,13 @@
         <v>2134</v>
       </c>
       <c r="C143">
-        <v>0.000168</v>
+        <v>0.000327</v>
       </c>
       <c r="D143">
-        <v>0.000362</v>
+        <v>0.000829</v>
       </c>
       <c r="F143">
-        <v>-1.158258</v>
+        <v>-1.533301</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2474,13 +2474,13 @@
         <v>1530</v>
       </c>
       <c r="C144">
-        <v>0.000475</v>
+        <v>0.001989</v>
       </c>
       <c r="D144">
-        <v>0.000261</v>
+        <v>0.001044</v>
       </c>
       <c r="F144">
-        <v>0.44972</v>
+        <v>0.4754</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2488,13 +2488,13 @@
         <v>391</v>
       </c>
       <c r="C145">
-        <v>0.000164</v>
+        <v>0.001845</v>
       </c>
       <c r="D145">
-        <v>0.000176</v>
+        <v>0.001501</v>
       </c>
       <c r="F145">
-        <v>-0.076444</v>
+        <v>0.186398</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2502,13 +2502,13 @@
         <v>1930</v>
       </c>
       <c r="C146">
-        <v>3.2E-05</v>
+        <v>0.000219</v>
       </c>
       <c r="D146">
-        <v>7E-06</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F146">
-        <v>0.7884640000000001</v>
+        <v>0.871298</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2516,13 +2516,13 @@
         <v>879</v>
       </c>
       <c r="C147">
-        <v>0.000435</v>
+        <v>0.003949</v>
       </c>
       <c r="D147">
-        <v>0.000129</v>
+        <v>0.000851</v>
       </c>
       <c r="F147">
-        <v>0.704025</v>
+        <v>0.78452</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2533,13 +2533,13 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>1.2E-05</v>
+        <v>0.000412</v>
       </c>
       <c r="D148">
-        <v>0.000102</v>
+        <v>0.000488</v>
       </c>
       <c r="F148">
-        <v>-7.769765</v>
+        <v>-0.182658</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2547,13 +2547,13 @@
         <v>1689</v>
       </c>
       <c r="C149">
-        <v>0.000212</v>
+        <v>0.000401</v>
       </c>
       <c r="D149">
-        <v>8.500000000000001E-05</v>
+        <v>0.000316</v>
       </c>
       <c r="F149">
-        <v>0.600612</v>
+        <v>0.210857</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2561,13 +2561,13 @@
         <v>1880</v>
       </c>
       <c r="C150">
-        <v>3E-06</v>
+        <v>0.000192</v>
       </c>
       <c r="D150">
-        <v>1.9E-05</v>
+        <v>0.000232</v>
       </c>
       <c r="F150">
-        <v>-5.59519</v>
+        <v>-0.208679</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2575,13 +2575,13 @@
         <v>551</v>
       </c>
       <c r="C151">
-        <v>0.008965000000000001</v>
+        <v>0.018432</v>
       </c>
       <c r="D151">
-        <v>0.010173</v>
+        <v>0.021137</v>
       </c>
       <c r="F151">
-        <v>-0.134785</v>
+        <v>-0.14676</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2589,13 +2589,13 @@
         <v>1676</v>
       </c>
       <c r="C152">
-        <v>7E-06</v>
+        <v>0.000112</v>
       </c>
       <c r="D152">
-        <v>4E-06</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F152">
-        <v>0.485605</v>
+        <v>0.414161</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2603,13 +2603,13 @@
         <v>2030</v>
       </c>
       <c r="C153">
-        <v>5.3E-05</v>
+        <v>0.000537</v>
       </c>
       <c r="D153">
-        <v>1.3E-05</v>
+        <v>0.000205</v>
       </c>
       <c r="F153">
-        <v>0.751046</v>
+        <v>0.617729</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2617,13 +2617,13 @@
         <v>1497</v>
       </c>
       <c r="C154">
-        <v>4.3E-05</v>
+        <v>0.001392</v>
       </c>
       <c r="D154">
-        <v>6E-05</v>
+        <v>0.000906</v>
       </c>
       <c r="F154">
-        <v>-0.382768</v>
+        <v>0.349264</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -2631,13 +2631,13 @@
         <v>253</v>
       </c>
       <c r="C155">
-        <v>3.7E-05</v>
+        <v>0.001429</v>
       </c>
       <c r="D155">
-        <v>0.000108</v>
+        <v>0.002839</v>
       </c>
       <c r="F155">
-        <v>-1.906554</v>
+        <v>-0.986545</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -2648,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="C156">
-        <v>1E-06</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D156">
-        <v>2.4E-05</v>
+        <v>0.000309</v>
       </c>
       <c r="F156">
-        <v>-43.157546</v>
+        <v>-20.802576</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -2662,13 +2662,13 @@
         <v>2331</v>
       </c>
       <c r="C157">
-        <v>0.000449</v>
+        <v>0.006308</v>
       </c>
       <c r="D157">
-        <v>0.000314</v>
+        <v>0.007127</v>
       </c>
       <c r="F157">
-        <v>0.300361</v>
+        <v>-0.129735</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -2676,13 +2676,13 @@
         <v>1465</v>
       </c>
       <c r="C158">
-        <v>0.000155</v>
+        <v>0.012443</v>
       </c>
       <c r="D158">
-        <v>0.000102</v>
+        <v>0.012666</v>
       </c>
       <c r="F158">
-        <v>0.34406</v>
+        <v>-0.017987</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -2690,13 +2690,13 @@
         <v>1458</v>
       </c>
       <c r="C159">
-        <v>0.000896</v>
+        <v>0.012935</v>
       </c>
       <c r="D159">
-        <v>0.000705</v>
+        <v>0.014434</v>
       </c>
       <c r="F159">
-        <v>0.212499</v>
+        <v>-0.11584</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -2704,13 +2704,13 @@
         <v>1899</v>
       </c>
       <c r="C160">
-        <v>3E-06</v>
+        <v>4.7E-05</v>
       </c>
       <c r="D160">
-        <v>1.6E-05</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F160">
-        <v>-3.998254</v>
+        <v>-0.582661</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2718,13 +2718,13 @@
         <v>1509</v>
       </c>
       <c r="C161">
-        <v>0.000243</v>
+        <v>0.003163</v>
       </c>
       <c r="D161">
-        <v>0.000307</v>
+        <v>0.002917</v>
       </c>
       <c r="F161">
-        <v>-0.262288</v>
+        <v>0.07796699999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2732,13 +2732,13 @@
         <v>727</v>
       </c>
       <c r="C162">
-        <v>0.006965</v>
+        <v>0.043724</v>
       </c>
       <c r="D162">
-        <v>0.006229</v>
+        <v>0.039405</v>
       </c>
       <c r="F162">
-        <v>0.105543</v>
+        <v>0.09876799999999999</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2749,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>1.2E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="D163">
-        <v>8.7E-05</v>
+        <v>0.00041</v>
       </c>
       <c r="F163">
-        <v>-6.051424</v>
+        <v>-5.566</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -2763,13 +2763,13 @@
         <v>89</v>
       </c>
       <c r="C164">
-        <v>6.1E-05</v>
+        <v>0.001311</v>
       </c>
       <c r="D164">
-        <v>7.1E-05</v>
+        <v>0.001079</v>
       </c>
       <c r="F164">
-        <v>-0.165215</v>
+        <v>0.177324</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2777,13 +2777,13 @@
         <v>832</v>
       </c>
       <c r="C165">
-        <v>0.000186</v>
+        <v>0.001158</v>
       </c>
       <c r="D165">
-        <v>0.000108</v>
+        <v>0.000648</v>
       </c>
       <c r="F165">
-        <v>0.421671</v>
+        <v>0.440722</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -2791,13 +2791,13 @@
         <v>1079</v>
       </c>
       <c r="C166">
-        <v>0.003735</v>
+        <v>0.037468</v>
       </c>
       <c r="D166">
-        <v>0.004352</v>
+        <v>0.043882</v>
       </c>
       <c r="F166">
-        <v>-0.165252</v>
+        <v>-0.171178</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -2805,13 +2805,13 @@
         <v>1483</v>
       </c>
       <c r="C167">
-        <v>2.7E-05</v>
+        <v>0.011551</v>
       </c>
       <c r="D167">
-        <v>4.5E-05</v>
+        <v>0.010706</v>
       </c>
       <c r="F167">
-        <v>-0.670942</v>
+        <v>0.073181</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -2819,13 +2819,13 @@
         <v>2393</v>
       </c>
       <c r="C168">
-        <v>0.000388</v>
+        <v>0.005455</v>
       </c>
       <c r="D168">
-        <v>0.000308</v>
+        <v>0.004266</v>
       </c>
       <c r="F168">
-        <v>0.206052</v>
+        <v>0.217953</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -2833,13 +2833,13 @@
         <v>1977</v>
       </c>
       <c r="C169">
-        <v>0.000182</v>
+        <v>0.000322</v>
       </c>
       <c r="D169">
-        <v>7.3E-05</v>
+        <v>0.000124</v>
       </c>
       <c r="F169">
-        <v>0.600974</v>
+        <v>0.615878</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -2847,13 +2847,13 @@
         <v>1438</v>
       </c>
       <c r="C170">
-        <v>0.004346</v>
+        <v>0.06296400000000001</v>
       </c>
       <c r="D170">
-        <v>0.003799</v>
+        <v>0.059779</v>
       </c>
       <c r="F170">
-        <v>0.125851</v>
+        <v>0.050585</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -2861,13 +2861,13 @@
         <v>1776</v>
       </c>
       <c r="C171">
-        <v>0.000183</v>
+        <v>0.001039</v>
       </c>
       <c r="D171">
-        <v>2.9E-05</v>
+        <v>0.000508</v>
       </c>
       <c r="F171">
-        <v>0.844091</v>
+        <v>0.510704</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>954</v>
       </c>
       <c r="C172">
-        <v>0.000743</v>
+        <v>0.001928</v>
       </c>
       <c r="D172">
-        <v>0.000992</v>
+        <v>0.002641</v>
       </c>
       <c r="F172">
-        <v>-0.335438</v>
+        <v>-0.369707</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>1173</v>
       </c>
       <c r="C173">
-        <v>0.000107</v>
+        <v>0.000313</v>
       </c>
       <c r="D173">
-        <v>7.7E-05</v>
+        <v>0.000714</v>
       </c>
       <c r="F173">
-        <v>0.276693</v>
+        <v>-1.286068</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -2903,13 +2903,13 @@
         <v>1968</v>
       </c>
       <c r="C174">
-        <v>0.000128</v>
+        <v>0.000197</v>
       </c>
       <c r="D174">
-        <v>8.000000000000001E-05</v>
+        <v>0.000134</v>
       </c>
       <c r="F174">
-        <v>0.375588</v>
+        <v>0.319694</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -2917,13 +2917,13 @@
         <v>1259</v>
       </c>
       <c r="C175">
-        <v>0.001114</v>
+        <v>0.006139</v>
       </c>
       <c r="D175">
-        <v>0.000598</v>
+        <v>0.003541</v>
       </c>
       <c r="F175">
-        <v>0.462997</v>
+        <v>0.423178</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -2931,13 +2931,13 @@
         <v>1774</v>
       </c>
       <c r="C176">
-        <v>0.000188</v>
+        <v>0.001116</v>
       </c>
       <c r="D176">
-        <v>4.8E-05</v>
+        <v>0.000656</v>
       </c>
       <c r="F176">
-        <v>0.745242</v>
+        <v>0.411634</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -2945,13 +2945,13 @@
         <v>2032</v>
       </c>
       <c r="C177">
-        <v>0.000735</v>
+        <v>0.007385</v>
       </c>
       <c r="D177">
-        <v>0.000163</v>
+        <v>0.001548</v>
       </c>
       <c r="F177">
-        <v>0.77876</v>
+        <v>0.790408</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -2959,13 +2959,13 @@
         <v>2068</v>
       </c>
       <c r="C178">
-        <v>0.0012</v>
+        <v>0.004825</v>
       </c>
       <c r="D178">
-        <v>0.000632</v>
+        <v>0.003189</v>
       </c>
       <c r="F178">
-        <v>0.473343</v>
+        <v>0.338957</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -2973,13 +2973,13 @@
         <v>2382</v>
       </c>
       <c r="C179">
-        <v>0.000174</v>
+        <v>0.002449</v>
       </c>
       <c r="D179">
-        <v>0.000183</v>
+        <v>0.002178</v>
       </c>
       <c r="F179">
-        <v>-0.052332</v>
+        <v>0.110768</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -2987,13 +2987,13 @@
         <v>1442</v>
       </c>
       <c r="C180">
-        <v>0.001647</v>
+        <v>0.0592</v>
       </c>
       <c r="D180">
-        <v>0.001126</v>
+        <v>0.057867</v>
       </c>
       <c r="F180">
-        <v>0.316707</v>
+        <v>0.022513</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3001,13 +3001,13 @@
         <v>1793</v>
       </c>
       <c r="C181">
-        <v>9.8E-05</v>
+        <v>0.000144</v>
       </c>
       <c r="D181">
-        <v>0.000161</v>
+        <v>0.000174</v>
       </c>
       <c r="F181">
-        <v>-0.6422099999999999</v>
+        <v>-0.210153</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3015,13 +3015,13 @@
         <v>711</v>
       </c>
       <c r="C182">
-        <v>0.000151</v>
+        <v>0.000857</v>
       </c>
       <c r="D182">
-        <v>0.00011</v>
+        <v>0.000654</v>
       </c>
       <c r="F182">
-        <v>0.269449</v>
+        <v>0.236603</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3029,13 +3029,13 @@
         <v>1843</v>
       </c>
       <c r="C183">
-        <v>0.000243</v>
+        <v>0.000393</v>
       </c>
       <c r="D183">
-        <v>0.000233</v>
+        <v>0.000441</v>
       </c>
       <c r="F183">
-        <v>0.041785</v>
+        <v>-0.121325</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3043,13 +3043,13 @@
         <v>1207</v>
       </c>
       <c r="C184">
-        <v>4E-06</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D184">
-        <v>5.5E-05</v>
+        <v>0.000662</v>
       </c>
       <c r="F184">
-        <v>-14.075668</v>
+        <v>-25.125008</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3057,13 +3057,13 @@
         <v>1233</v>
       </c>
       <c r="C185">
-        <v>0.000142</v>
+        <v>0.003075</v>
       </c>
       <c r="D185">
-        <v>0.000196</v>
+        <v>0.002437</v>
       </c>
       <c r="F185">
-        <v>-0.377361</v>
+        <v>0.20737</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3071,13 +3071,13 @@
         <v>2129</v>
       </c>
       <c r="C186">
-        <v>6E-06</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D186">
-        <v>6E-06</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="F186">
-        <v>0.087078</v>
+        <v>-0.423793</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3085,13 +3085,13 @@
         <v>1865</v>
       </c>
       <c r="C187">
-        <v>5.1E-05</v>
+        <v>0.000302</v>
       </c>
       <c r="D187">
-        <v>1.2E-05</v>
+        <v>0.000222</v>
       </c>
       <c r="F187">
-        <v>0.77401</v>
+        <v>0.262469</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3099,13 +3099,13 @@
         <v>1649</v>
       </c>
       <c r="C188">
-        <v>1.4E-05</v>
+        <v>0.000488</v>
       </c>
       <c r="D188">
-        <v>3E-06</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F188">
-        <v>0.807492</v>
+        <v>0.855954</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3113,13 +3113,13 @@
         <v>1410</v>
       </c>
       <c r="C189">
-        <v>0.005301</v>
+        <v>0.033771</v>
       </c>
       <c r="D189">
-        <v>0.006605</v>
+        <v>0.044657</v>
       </c>
       <c r="F189">
-        <v>-0.24607</v>
+        <v>-0.322352</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3127,13 +3127,13 @@
         <v>1257</v>
       </c>
       <c r="C190">
-        <v>0.000105</v>
+        <v>0.000296</v>
       </c>
       <c r="D190">
-        <v>0.000129</v>
+        <v>0.000838</v>
       </c>
       <c r="F190">
-        <v>-0.234661</v>
+        <v>-1.83538</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3141,13 +3141,13 @@
         <v>1811</v>
       </c>
       <c r="C191">
-        <v>8.8E-05</v>
+        <v>0.00012</v>
       </c>
       <c r="D191">
-        <v>6.1E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F191">
-        <v>0.309809</v>
+        <v>0.441452</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3155,13 +3155,13 @@
         <v>656</v>
       </c>
       <c r="C192">
-        <v>0.006005</v>
+        <v>0.018452</v>
       </c>
       <c r="D192">
-        <v>0.007697</v>
+        <v>0.024965</v>
       </c>
       <c r="F192">
-        <v>-0.281871</v>
+        <v>-0.352943</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3169,13 +3169,13 @@
         <v>2112</v>
       </c>
       <c r="C193">
-        <v>0.000738</v>
+        <v>0.007414</v>
       </c>
       <c r="D193">
-        <v>0.000567</v>
+        <v>0.006366</v>
       </c>
       <c r="F193">
-        <v>0.231811</v>
+        <v>0.141346</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3183,13 +3183,13 @@
         <v>1762</v>
       </c>
       <c r="C194">
-        <v>0.000251</v>
+        <v>0.0009959999999999999</v>
       </c>
       <c r="D194">
-        <v>8.3E-05</v>
+        <v>0.000539</v>
       </c>
       <c r="F194">
-        <v>0.670425</v>
+        <v>0.458228</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3197,13 +3197,13 @@
         <v>1501</v>
       </c>
       <c r="C195">
-        <v>4.7E-05</v>
+        <v>0.000739</v>
       </c>
       <c r="D195">
-        <v>5.1E-05</v>
+        <v>0.000537</v>
       </c>
       <c r="F195">
-        <v>-0.07029199999999999</v>
+        <v>0.27389</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3214,13 +3214,13 @@
         <v>6</v>
       </c>
       <c r="C196">
-        <v>4E-06</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D196">
-        <v>1.6E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="F196">
-        <v>-3.223335</v>
+        <v>-3.24217</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3228,13 +3228,13 @@
         <v>2001</v>
       </c>
       <c r="C197">
-        <v>0.00036</v>
+        <v>0.003618</v>
       </c>
       <c r="D197">
-        <v>0.000163</v>
+        <v>0.001548</v>
       </c>
       <c r="F197">
-        <v>0.548431</v>
+        <v>0.572205</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3242,13 +3242,13 @@
         <v>1143</v>
       </c>
       <c r="C198">
-        <v>1.5E-05</v>
+        <v>0.000168</v>
       </c>
       <c r="D198">
-        <v>5.6E-05</v>
+        <v>0.000191</v>
       </c>
       <c r="F198">
-        <v>-2.787077</v>
+        <v>-0.134584</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3256,13 +3256,13 @@
         <v>1789</v>
       </c>
       <c r="C199">
-        <v>2.4E-05</v>
+        <v>0.000149</v>
       </c>
       <c r="D199">
-        <v>9.000000000000001E-05</v>
+        <v>0.000469</v>
       </c>
       <c r="F199">
-        <v>-2.67727</v>
+        <v>-2.152711</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3270,13 +3270,13 @@
         <v>1708</v>
       </c>
       <c r="C200">
-        <v>0.000311</v>
+        <v>0.001545</v>
       </c>
       <c r="D200">
-        <v>8.2E-05</v>
+        <v>0.000866</v>
       </c>
       <c r="F200">
-        <v>0.736379</v>
+        <v>0.439556</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3284,13 +3284,13 @@
         <v>1355</v>
       </c>
       <c r="C201">
-        <v>3E-06</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D201">
-        <v>4.2E-05</v>
+        <v>0.000299</v>
       </c>
       <c r="F201">
-        <v>-13.059292</v>
+        <v>-7.129194</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3298,13 +3298,13 @@
         <v>1121</v>
       </c>
       <c r="C202">
-        <v>0.007761</v>
+        <v>0.115471</v>
       </c>
       <c r="D202">
-        <v>0.000228</v>
+        <v>0.009964000000000001</v>
       </c>
       <c r="F202">
-        <v>0.970583</v>
+        <v>0.913707</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3312,13 +3312,13 @@
         <v>815</v>
       </c>
       <c r="C203">
-        <v>6.2E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="D203">
-        <v>4.3E-05</v>
+        <v>0.000263</v>
       </c>
       <c r="F203">
-        <v>0.308885</v>
+        <v>0.330666</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3326,13 +3326,13 @@
         <v>534</v>
       </c>
       <c r="C204">
-        <v>0.000525</v>
+        <v>0.00313</v>
       </c>
       <c r="D204">
-        <v>0.000749</v>
+        <v>0.005042</v>
       </c>
       <c r="F204">
-        <v>-0.426104</v>
+        <v>-0.610665</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3340,13 +3340,13 @@
         <v>1630</v>
       </c>
       <c r="C205">
-        <v>1E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D205">
-        <v>1.7E-05</v>
+        <v>0.00015</v>
       </c>
       <c r="F205">
-        <v>-14.788024</v>
+        <v>-8.046131000000001</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3354,13 +3354,13 @@
         <v>59</v>
       </c>
       <c r="C206">
-        <v>0.000226</v>
+        <v>0.001956</v>
       </c>
       <c r="D206">
-        <v>9.1E-05</v>
+        <v>0.001039</v>
       </c>
       <c r="F206">
-        <v>0.595793</v>
+        <v>0.468907</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3368,13 +3368,13 @@
         <v>2027</v>
       </c>
       <c r="C207">
-        <v>8.4E-05</v>
+        <v>0.000339</v>
       </c>
       <c r="D207">
-        <v>5.6E-05</v>
+        <v>0.000284</v>
       </c>
       <c r="F207">
-        <v>0.338346</v>
+        <v>0.159832</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3382,13 +3382,13 @@
         <v>30</v>
       </c>
       <c r="C208">
-        <v>4E-06</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D208">
-        <v>7E-06</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F208">
-        <v>-0.77034</v>
+        <v>-0.571375</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3396,13 +3396,13 @@
         <v>2047</v>
       </c>
       <c r="C209">
-        <v>7E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D209">
-        <v>1.9E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="F209">
-        <v>-1.870153</v>
+        <v>-3.226782</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3410,13 +3410,13 @@
         <v>1342</v>
       </c>
       <c r="C210">
-        <v>0.001514</v>
+        <v>0.010519</v>
       </c>
       <c r="D210">
-        <v>0.001147</v>
+        <v>0.008546</v>
       </c>
       <c r="F210">
-        <v>0.242302</v>
+        <v>0.187565</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3424,13 +3424,13 @@
         <v>1182</v>
       </c>
       <c r="C211">
-        <v>4.2E-05</v>
+        <v>0.000194</v>
       </c>
       <c r="D211">
-        <v>3.3E-05</v>
+        <v>0.000364</v>
       </c>
       <c r="F211">
-        <v>0.214158</v>
+        <v>-0.875057</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3438,13 +3438,13 @@
         <v>1297</v>
       </c>
       <c r="C212">
-        <v>0.00223</v>
+        <v>0.01079</v>
       </c>
       <c r="D212">
-        <v>0.001399</v>
+        <v>0.009371000000000001</v>
       </c>
       <c r="F212">
-        <v>0.372525</v>
+        <v>0.13151</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -3452,13 +3452,13 @@
         <v>2348</v>
       </c>
       <c r="C213">
-        <v>0.000328</v>
+        <v>0.004617</v>
       </c>
       <c r="D213">
-        <v>0.000426</v>
+        <v>0.004459</v>
       </c>
       <c r="F213">
-        <v>-0.297332</v>
+        <v>0.034185</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3469,13 +3469,13 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.00107</v>
+        <v>0.009362000000000001</v>
       </c>
       <c r="D214">
-        <v>0.000901</v>
+        <v>0.006955</v>
       </c>
       <c r="F214">
-        <v>0.158439</v>
+        <v>0.257102</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -3483,13 +3483,13 @@
         <v>1746</v>
       </c>
       <c r="C215">
-        <v>0.000382</v>
+        <v>0.001625</v>
       </c>
       <c r="D215">
-        <v>0.000215</v>
+        <v>0.001116</v>
       </c>
       <c r="F215">
-        <v>0.437031</v>
+        <v>0.313141</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -3497,13 +3497,13 @@
         <v>2364</v>
       </c>
       <c r="C216">
-        <v>0.000319</v>
+        <v>0.004488</v>
       </c>
       <c r="D216">
-        <v>0.000329</v>
+        <v>0.004622</v>
       </c>
       <c r="F216">
-        <v>-0.031989</v>
+        <v>-0.02998</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>6</v>
       </c>
       <c r="C217">
-        <v>0.006338</v>
+        <v>0.039852</v>
       </c>
       <c r="D217">
-        <v>0.006772</v>
+        <v>0.041204</v>
       </c>
       <c r="F217">
-        <v>-0.06836200000000001</v>
+        <v>-0.033925</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -3528,13 +3528,13 @@
         <v>1471</v>
       </c>
       <c r="C218">
-        <v>3.3E-05</v>
+        <v>0.013844</v>
       </c>
       <c r="D218">
-        <v>4.8E-05</v>
+        <v>0.011833</v>
       </c>
       <c r="F218">
-        <v>-0.455525</v>
+        <v>0.145293</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -3542,13 +3542,13 @@
         <v>1991</v>
       </c>
       <c r="C219">
-        <v>0.000375</v>
+        <v>0.003773</v>
       </c>
       <c r="D219">
-        <v>4.9E-05</v>
+        <v>0.000388</v>
       </c>
       <c r="F219">
-        <v>0.870737</v>
+        <v>0.897099</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -3556,13 +3556,13 @@
         <v>825</v>
       </c>
       <c r="C220">
-        <v>0.007105</v>
+        <v>0.036243</v>
       </c>
       <c r="D220">
-        <v>0.004595</v>
+        <v>0.023044</v>
       </c>
       <c r="F220">
-        <v>0.3533</v>
+        <v>0.364188</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -3570,13 +3570,13 @@
         <v>998</v>
       </c>
       <c r="C221">
-        <v>0.00409</v>
+        <v>0.039852</v>
       </c>
       <c r="D221">
-        <v>0.004064</v>
+        <v>0.04116</v>
       </c>
       <c r="F221">
-        <v>0.006495</v>
+        <v>-0.032828</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -3584,13 +3584,13 @@
         <v>1370</v>
       </c>
       <c r="C222">
-        <v>0.000231</v>
+        <v>0.004013</v>
       </c>
       <c r="D222">
-        <v>0.000242</v>
+        <v>0.001924</v>
       </c>
       <c r="F222">
-        <v>-0.048472</v>
+        <v>0.520634</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -3598,13 +3598,13 @@
         <v>1432</v>
       </c>
       <c r="C223">
-        <v>0.005235</v>
+        <v>0.033354</v>
       </c>
       <c r="D223">
-        <v>0.002729</v>
+        <v>0.024239</v>
       </c>
       <c r="F223">
-        <v>0.478721</v>
+        <v>0.273273</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -3612,13 +3612,13 @@
         <v>842</v>
       </c>
       <c r="C224">
-        <v>0.006243</v>
+        <v>0.040356</v>
       </c>
       <c r="D224">
-        <v>0.006892</v>
+        <v>0.041625</v>
       </c>
       <c r="F224">
-        <v>-0.103965</v>
+        <v>-0.031448</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -3626,13 +3626,13 @@
         <v>2245</v>
       </c>
       <c r="C225">
-        <v>0.000172</v>
+        <v>0.001729</v>
       </c>
       <c r="D225">
-        <v>0.000256</v>
+        <v>0.003038</v>
       </c>
       <c r="F225">
-        <v>-0.492589</v>
+        <v>-0.757248</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -3640,13 +3640,13 @@
         <v>1707</v>
       </c>
       <c r="C226">
-        <v>0.000393</v>
+        <v>0.002011</v>
       </c>
       <c r="D226">
-        <v>0.000105</v>
+        <v>0.001088</v>
       </c>
       <c r="F226">
-        <v>0.733241</v>
+        <v>0.458816</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -3654,13 +3654,13 @@
         <v>1605</v>
       </c>
       <c r="C227">
-        <v>6E-06</v>
+        <v>3.5E-05</v>
       </c>
       <c r="D227">
-        <v>4E-06</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F227">
-        <v>0.365895</v>
+        <v>0.256538</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3668,13 +3668,13 @@
         <v>1677</v>
       </c>
       <c r="C228">
-        <v>8E-06</v>
+        <v>0.000128</v>
       </c>
       <c r="D228">
-        <v>4E-06</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F228">
-        <v>0.562768</v>
+        <v>0.502085</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3682,13 +3682,13 @@
         <v>2002</v>
       </c>
       <c r="C229">
-        <v>0.001032</v>
+        <v>0.002013</v>
       </c>
       <c r="D229">
-        <v>8.6E-05</v>
+        <v>0.00017</v>
       </c>
       <c r="F229">
-        <v>0.91625</v>
+        <v>0.91536</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -3696,13 +3696,13 @@
         <v>2388</v>
       </c>
       <c r="C230">
-        <v>0.000404</v>
+        <v>0.005677</v>
       </c>
       <c r="D230">
-        <v>0.000373</v>
+        <v>0.005346</v>
       </c>
       <c r="F230">
-        <v>0.076414</v>
+        <v>0.05831</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -3710,13 +3710,13 @@
         <v>1391</v>
       </c>
       <c r="C231">
-        <v>0.000305</v>
+        <v>0.00316</v>
       </c>
       <c r="D231">
-        <v>0.000307</v>
+        <v>0.001611</v>
       </c>
       <c r="F231">
-        <v>-0.007168</v>
+        <v>0.490024</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -3724,13 +3724,13 @@
         <v>1954</v>
       </c>
       <c r="C232">
-        <v>0.000546</v>
+        <v>0.001219</v>
       </c>
       <c r="D232">
-        <v>0.000112</v>
+        <v>0.000954</v>
       </c>
       <c r="F232">
-        <v>0.795607</v>
+        <v>0.21758</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3738,13 +3738,13 @@
         <v>1415</v>
       </c>
       <c r="C233">
-        <v>0.000696</v>
+        <v>0.004483</v>
       </c>
       <c r="D233">
-        <v>0.00084</v>
+        <v>0.006009</v>
       </c>
       <c r="F233">
-        <v>-0.206308</v>
+        <v>-0.340462</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3752,13 +3752,13 @@
         <v>1614</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>8E-06</v>
       </c>
       <c r="D234">
-        <v>1E-06</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F234">
-        <v>-1.963634</v>
+        <v>-1.737473</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -3766,13 +3766,13 @@
         <v>1277</v>
       </c>
       <c r="C235">
-        <v>0.00024</v>
+        <v>0.003429</v>
       </c>
       <c r="D235">
-        <v>0.00016</v>
+        <v>0.001936</v>
       </c>
       <c r="F235">
-        <v>0.335868</v>
+        <v>0.435368</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -3780,13 +3780,13 @@
         <v>338</v>
       </c>
       <c r="C236">
-        <v>0.001322</v>
+        <v>0.015196</v>
       </c>
       <c r="D236">
-        <v>0.000745</v>
+        <v>0.0092</v>
       </c>
       <c r="F236">
-        <v>0.436054</v>
+        <v>0.394567</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -3794,13 +3794,13 @@
         <v>1830</v>
       </c>
       <c r="C237">
-        <v>0.000541</v>
+        <v>0.002196</v>
       </c>
       <c r="D237">
-        <v>9.899999999999999E-05</v>
+        <v>0.000578</v>
       </c>
       <c r="F237">
-        <v>0.817125</v>
+        <v>0.736854</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -3808,13 +3808,13 @@
         <v>896</v>
       </c>
       <c r="C238">
-        <v>2.2E-05</v>
+        <v>0.000194</v>
       </c>
       <c r="D238">
-        <v>1.2E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F238">
-        <v>0.451757</v>
+        <v>0.559209</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -3822,13 +3822,13 @@
         <v>1540</v>
       </c>
       <c r="C239">
-        <v>0.000158</v>
+        <v>0.001975</v>
       </c>
       <c r="D239">
-        <v>0.000124</v>
+        <v>0.001009</v>
       </c>
       <c r="F239">
-        <v>0.211024</v>
+        <v>0.488941</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -3836,13 +3836,13 @@
         <v>1911</v>
       </c>
       <c r="C240">
-        <v>0</v>
+        <v>3E-06</v>
       </c>
       <c r="D240">
-        <v>1.9E-05</v>
+        <v>0.000264</v>
       </c>
       <c r="F240">
-        <v>-366.487514</v>
+        <v>-76.024992</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -3850,13 +3850,13 @@
         <v>1489</v>
       </c>
       <c r="C241">
-        <v>5.1E-05</v>
+        <v>0.000825</v>
       </c>
       <c r="D241">
-        <v>6.3E-05</v>
+        <v>0.000828</v>
       </c>
       <c r="F241">
-        <v>-0.231928</v>
+        <v>-0.002674</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -3864,13 +3864,13 @@
         <v>1178</v>
       </c>
       <c r="C242">
-        <v>1.8E-05</v>
+        <v>0.000226</v>
       </c>
       <c r="D242">
-        <v>0.000109</v>
+        <v>0.00167</v>
       </c>
       <c r="F242">
-        <v>-5.148756</v>
+        <v>-6.375033</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -3878,13 +3878,13 @@
         <v>1665</v>
       </c>
       <c r="C243">
-        <v>9E-06</v>
+        <v>0.000136</v>
       </c>
       <c r="D243">
-        <v>2.9E-05</v>
+        <v>0.000334</v>
       </c>
       <c r="F243">
-        <v>-2.300278</v>
+        <v>-1.453525</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -3892,13 +3892,13 @@
         <v>1281</v>
       </c>
       <c r="C244">
-        <v>2.3E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="D244">
-        <v>0.000129</v>
+        <v>0.000535</v>
       </c>
       <c r="F244">
-        <v>-4.54664</v>
+        <v>-5.372456</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -3906,13 +3906,13 @@
         <v>1447</v>
       </c>
       <c r="C245">
-        <v>0.000703</v>
+        <v>0.062585</v>
       </c>
       <c r="D245">
-        <v>0.000403</v>
+        <v>0.062286</v>
       </c>
       <c r="F245">
-        <v>0.425945</v>
+        <v>0.00477</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -3920,13 +3920,13 @@
         <v>597</v>
       </c>
       <c r="C246">
-        <v>0.001369</v>
+        <v>0.008161</v>
       </c>
       <c r="D246">
-        <v>0.000749</v>
+        <v>0.004853</v>
       </c>
       <c r="F246">
-        <v>0.452979</v>
+        <v>0.405355</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -3934,13 +3934,13 @@
         <v>930</v>
       </c>
       <c r="C247">
-        <v>5E-06</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D247">
-        <v>2.6E-05</v>
+        <v>0.000229</v>
       </c>
       <c r="F247">
-        <v>-3.984524</v>
+        <v>-3.520959</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -3948,13 +3948,13 @@
         <v>1435</v>
       </c>
       <c r="C248">
-        <v>0.023731</v>
+        <v>0.056715</v>
       </c>
       <c r="D248">
-        <v>0.014385</v>
+        <v>0.05159</v>
       </c>
       <c r="F248">
-        <v>0.393825</v>
+        <v>0.090365</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -3962,13 +3962,13 @@
         <v>2165</v>
       </c>
       <c r="C249">
-        <v>0.000214</v>
+        <v>0.000417</v>
       </c>
       <c r="D249">
-        <v>0.00074</v>
+        <v>0.001405</v>
       </c>
       <c r="F249">
-        <v>-2.463662</v>
+        <v>-2.370166</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -3976,13 +3976,13 @@
         <v>1872</v>
       </c>
       <c r="C250">
-        <v>2E-06</v>
+        <v>0.000129</v>
       </c>
       <c r="D250">
-        <v>2.1E-05</v>
+        <v>0.000252</v>
       </c>
       <c r="F250">
-        <v>-7.605265</v>
+        <v>-0.9615320000000001</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -3990,13 +3990,13 @@
         <v>935</v>
       </c>
       <c r="C251">
-        <v>5.6E-05</v>
+        <v>0.000233</v>
       </c>
       <c r="D251">
-        <v>0.000363</v>
+        <v>0.001133</v>
       </c>
       <c r="F251">
-        <v>-5.468931</v>
+        <v>-3.871269</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4004,13 +4004,13 @@
         <v>146</v>
       </c>
       <c r="C252">
-        <v>0.001274</v>
+        <v>0.011033</v>
       </c>
       <c r="D252">
-        <v>0.000985</v>
+        <v>0.006717</v>
       </c>
       <c r="F252">
-        <v>0.226685</v>
+        <v>0.391162</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4018,13 +4018,13 @@
         <v>997</v>
       </c>
       <c r="C253">
-        <v>0.004653</v>
+        <v>0.042161</v>
       </c>
       <c r="D253">
-        <v>0.003242</v>
+        <v>0.03128</v>
       </c>
       <c r="F253">
-        <v>0.303127</v>
+        <v>0.258096</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4032,13 +4032,13 @@
         <v>1826</v>
       </c>
       <c r="C254">
-        <v>0.000477</v>
+        <v>0.001309</v>
       </c>
       <c r="D254">
-        <v>0.000166</v>
+        <v>0.000617</v>
       </c>
       <c r="F254">
-        <v>0.652237</v>
+        <v>0.528925</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -4049,13 +4049,13 @@
         <v>6</v>
       </c>
       <c r="C255">
-        <v>0.000225</v>
+        <v>0.003168</v>
       </c>
       <c r="D255">
-        <v>0.000144</v>
+        <v>0.002674</v>
       </c>
       <c r="F255">
-        <v>0.359517</v>
+        <v>0.155991</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4063,13 +4063,13 @@
         <v>2211</v>
       </c>
       <c r="C256">
-        <v>5.4E-05</v>
+        <v>0.000544</v>
       </c>
       <c r="D256">
-        <v>0.00015</v>
+        <v>0.001605</v>
       </c>
       <c r="F256">
-        <v>-1.774171</v>
+        <v>-1.948397</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4077,13 +4077,13 @@
         <v>1519</v>
       </c>
       <c r="C257">
-        <v>3.2E-05</v>
+        <v>0.000617</v>
       </c>
       <c r="D257">
-        <v>7.1E-05</v>
+        <v>0.000565</v>
       </c>
       <c r="F257">
-        <v>-1.243335</v>
+        <v>0.083608</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4091,13 +4091,13 @@
         <v>1221</v>
       </c>
       <c r="C258">
-        <v>0.000278</v>
+        <v>0.001003</v>
       </c>
       <c r="D258">
-        <v>0.000241</v>
+        <v>0.001026</v>
       </c>
       <c r="F258">
-        <v>0.132135</v>
+        <v>-0.023368</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4105,13 +4105,13 @@
         <v>1920</v>
       </c>
       <c r="C259">
-        <v>6E-06</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D259">
-        <v>4E-06</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F259">
-        <v>0.411152</v>
+        <v>-0.092561</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4119,13 +4119,13 @@
         <v>2376</v>
       </c>
       <c r="C260">
-        <v>8.3E-05</v>
+        <v>0.00116</v>
       </c>
       <c r="D260">
-        <v>0.00016</v>
+        <v>0.001878</v>
       </c>
       <c r="F260">
-        <v>-0.938379</v>
+        <v>-0.618911</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>194</v>
       </c>
       <c r="C261">
-        <v>0.000121</v>
+        <v>0.00259</v>
       </c>
       <c r="D261">
-        <v>0.000177</v>
+        <v>0.002581</v>
       </c>
       <c r="F261">
-        <v>-0.461505</v>
+        <v>0.003813</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -4147,13 +4147,13 @@
         <v>1683</v>
       </c>
       <c r="C262">
-        <v>0.00027</v>
+        <v>0.001142</v>
       </c>
       <c r="D262">
-        <v>8.000000000000001E-05</v>
+        <v>0.000668</v>
       </c>
       <c r="F262">
-        <v>0.703638</v>
+        <v>0.41477</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4161,13 +4161,13 @@
         <v>1416</v>
       </c>
       <c r="C263">
-        <v>0.001586</v>
+        <v>0.010107</v>
       </c>
       <c r="D263">
-        <v>0.000884</v>
+        <v>0.007133</v>
       </c>
       <c r="F263">
-        <v>0.442863</v>
+        <v>0.294321</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4175,13 +4175,13 @@
         <v>1816</v>
       </c>
       <c r="C264">
-        <v>0.000116</v>
+        <v>0.000334</v>
       </c>
       <c r="D264">
-        <v>5.1E-05</v>
+        <v>0.000173</v>
       </c>
       <c r="F264">
-        <v>0.558812</v>
+        <v>0.481328</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4189,13 +4189,13 @@
         <v>596</v>
       </c>
       <c r="C265">
-        <v>0.0009970000000000001</v>
+        <v>0.005871</v>
       </c>
       <c r="D265">
-        <v>0.0005330000000000001</v>
+        <v>0.003208</v>
       </c>
       <c r="F265">
-        <v>0.465687</v>
+        <v>0.453652</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4203,13 +4203,13 @@
         <v>1709</v>
       </c>
       <c r="C266">
-        <v>0.000196</v>
+        <v>0.000865</v>
       </c>
       <c r="D266">
-        <v>3E-05</v>
+        <v>0.000342</v>
       </c>
       <c r="F266">
-        <v>0.845189</v>
+        <v>0.604646</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4217,13 +4217,13 @@
         <v>18</v>
       </c>
       <c r="C267">
-        <v>0.000154</v>
+        <v>0.003391</v>
       </c>
       <c r="D267">
-        <v>6.4E-05</v>
+        <v>0.000703</v>
       </c>
       <c r="F267">
-        <v>0.5832540000000001</v>
+        <v>0.79283</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4231,13 +4231,13 @@
         <v>1525</v>
       </c>
       <c r="C268">
-        <v>5.4E-05</v>
+        <v>0.000357</v>
       </c>
       <c r="D268">
-        <v>7.2E-05</v>
+        <v>0.000328</v>
       </c>
       <c r="F268">
-        <v>-0.319782</v>
+        <v>0.082008</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4245,13 +4245,13 @@
         <v>693</v>
       </c>
       <c r="C269">
-        <v>5.6E-05</v>
+        <v>0.000194</v>
       </c>
       <c r="D269">
-        <v>0.000109</v>
+        <v>0.000341</v>
       </c>
       <c r="F269">
-        <v>-0.9396060000000001</v>
+        <v>-0.760458</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4259,13 +4259,13 @@
         <v>1477</v>
       </c>
       <c r="C270">
-        <v>0.000293</v>
+        <v>0.009254</v>
       </c>
       <c r="D270">
-        <v>0.000226</v>
+        <v>0.009155999999999999</v>
       </c>
       <c r="F270">
-        <v>0.228194</v>
+        <v>0.010553</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>1737</v>
       </c>
       <c r="C271">
-        <v>0.000605</v>
+        <v>0.001637</v>
       </c>
       <c r="D271">
-        <v>8.6E-05</v>
+        <v>0.000534</v>
       </c>
       <c r="F271">
-        <v>0.858491</v>
+        <v>0.674094</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -4287,13 +4287,13 @@
         <v>1317</v>
       </c>
       <c r="C272">
-        <v>0.000287</v>
+        <v>0.006738</v>
       </c>
       <c r="D272">
-        <v>0.000176</v>
+        <v>0.002862</v>
       </c>
       <c r="F272">
-        <v>0.38756</v>
+        <v>0.575206</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -4301,13 +4301,13 @@
         <v>511</v>
       </c>
       <c r="C273">
-        <v>0.000595</v>
+        <v>0.003707</v>
       </c>
       <c r="D273">
-        <v>0.000757</v>
+        <v>0.005189</v>
       </c>
       <c r="F273">
-        <v>-0.272677</v>
+        <v>-0.399565</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -4315,13 +4315,13 @@
         <v>46</v>
       </c>
       <c r="C274">
-        <v>0.002097</v>
+        <v>0.018168</v>
       </c>
       <c r="D274">
-        <v>0.0018</v>
+        <v>0.012306</v>
       </c>
       <c r="F274">
-        <v>0.141965</v>
+        <v>0.322654</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -4329,13 +4329,13 @@
         <v>1639</v>
       </c>
       <c r="C275">
-        <v>2E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="D275">
-        <v>6E-06</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F275">
-        <v>0.6816410000000001</v>
+        <v>0.426716</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -4343,13 +4343,13 @@
         <v>657</v>
       </c>
       <c r="C276">
-        <v>0.005773</v>
+        <v>0.020095</v>
       </c>
       <c r="D276">
-        <v>0.01174</v>
+        <v>0.029879</v>
       </c>
       <c r="F276">
-        <v>-1.033587</v>
+        <v>-0.486862</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -4357,13 +4357,13 @@
         <v>926</v>
       </c>
       <c r="C277">
-        <v>0.000197</v>
+        <v>0.00164</v>
       </c>
       <c r="D277">
-        <v>0.00013</v>
+        <v>0.00098</v>
       </c>
       <c r="F277">
-        <v>0.341518</v>
+        <v>0.402014</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -4371,13 +4371,13 @@
         <v>1941</v>
       </c>
       <c r="C278">
-        <v>4.7E-05</v>
+        <v>0.000208</v>
       </c>
       <c r="D278">
-        <v>2.9E-05</v>
+        <v>0.000269</v>
       </c>
       <c r="F278">
-        <v>0.377069</v>
+        <v>-0.288523</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -4385,13 +4385,13 @@
         <v>2106</v>
       </c>
       <c r="C279">
-        <v>0.000722</v>
+        <v>0.002906</v>
       </c>
       <c r="D279">
-        <v>0.000632</v>
+        <v>0.003189</v>
       </c>
       <c r="F279">
-        <v>0.125544</v>
+        <v>-0.09758799999999999</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -4399,13 +4399,13 @@
         <v>2246</v>
       </c>
       <c r="C280">
-        <v>7.7E-05</v>
+        <v>0.0007739999999999999</v>
       </c>
       <c r="D280">
-        <v>0.000217</v>
+        <v>0.0027</v>
       </c>
       <c r="F280">
-        <v>-1.827855</v>
+        <v>-2.490208</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -4413,13 +4413,13 @@
         <v>1369</v>
       </c>
       <c r="C281">
-        <v>3E-05</v>
+        <v>0.000515</v>
       </c>
       <c r="D281">
-        <v>8.000000000000001E-05</v>
+        <v>0.00052</v>
       </c>
       <c r="F281">
-        <v>-1.712472</v>
+        <v>-0.009474</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -4427,13 +4427,13 @@
         <v>1170</v>
       </c>
       <c r="C282">
-        <v>6.8E-05</v>
+        <v>0.000433</v>
       </c>
       <c r="D282">
-        <v>0.000101</v>
+        <v>0.001469</v>
       </c>
       <c r="F282">
-        <v>-0.495677</v>
+        <v>-2.39705</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -4441,13 +4441,13 @@
         <v>1939</v>
       </c>
       <c r="C283">
-        <v>0.00011</v>
+        <v>0.000439</v>
       </c>
       <c r="D283">
-        <v>1.3E-05</v>
+        <v>0.000119</v>
       </c>
       <c r="F283">
-        <v>0.8858279999999999</v>
+        <v>0.728774</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -4455,13 +4455,13 @@
         <v>2340</v>
       </c>
       <c r="C284">
-        <v>0.00041</v>
+        <v>0.005759</v>
       </c>
       <c r="D284">
-        <v>0.000526</v>
+        <v>0.008971</v>
       </c>
       <c r="F284">
-        <v>-0.283253</v>
+        <v>-0.557736</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -4469,13 +4469,13 @@
         <v>2262</v>
       </c>
       <c r="C285">
-        <v>1.7E-05</v>
+        <v>0.000169</v>
       </c>
       <c r="D285">
-        <v>3.7E-05</v>
+        <v>0.000347</v>
       </c>
       <c r="F285">
-        <v>-1.204167</v>
+        <v>-1.053229</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -4483,13 +4483,13 @@
         <v>1276</v>
       </c>
       <c r="C286">
-        <v>0.000249</v>
+        <v>0.003473</v>
       </c>
       <c r="D286">
-        <v>0.000177</v>
+        <v>0.002057</v>
       </c>
       <c r="F286">
-        <v>0.290098</v>
+        <v>0.407495</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -4497,13 +4497,13 @@
         <v>2217</v>
       </c>
       <c r="C287">
-        <v>2E-05</v>
+        <v>0.000154</v>
       </c>
       <c r="D287">
-        <v>0.00014</v>
+        <v>0.001294</v>
       </c>
       <c r="F287">
-        <v>-5.910128</v>
+        <v>-7.399151</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -4511,13 +4511,13 @@
         <v>497</v>
       </c>
       <c r="C288">
-        <v>0.006764</v>
+        <v>0.025271</v>
       </c>
       <c r="D288">
-        <v>0.008704999999999999</v>
+        <v>0.030372</v>
       </c>
       <c r="F288">
-        <v>-0.286877</v>
+        <v>-0.201861</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -4525,13 +4525,13 @@
         <v>2081</v>
       </c>
       <c r="C289">
-        <v>2E-06</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D289">
-        <v>4E-06</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F289">
-        <v>-1.094632</v>
+        <v>-2.630777</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -4539,13 +4539,13 @@
         <v>1870</v>
       </c>
       <c r="C290">
-        <v>6E-06</v>
+        <v>0.000386</v>
       </c>
       <c r="D290">
-        <v>4.5E-05</v>
+        <v>0.000412</v>
       </c>
       <c r="F290">
-        <v>-6.978166</v>
+        <v>-0.068398</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -4553,13 +4553,13 @@
         <v>1882</v>
       </c>
       <c r="C291">
-        <v>4E-06</v>
+        <v>0.000622</v>
       </c>
       <c r="D291">
-        <v>5.3E-05</v>
+        <v>0.000623</v>
       </c>
       <c r="F291">
-        <v>-11.715122</v>
+        <v>-0.001698</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -4567,13 +4567,13 @@
         <v>1183</v>
       </c>
       <c r="C292">
-        <v>2.7E-05</v>
+        <v>0.000101</v>
       </c>
       <c r="D292">
-        <v>2.9E-05</v>
+        <v>0.000283</v>
       </c>
       <c r="F292">
-        <v>-0.049993</v>
+        <v>-1.802987</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -4581,13 +4581,13 @@
         <v>2339</v>
       </c>
       <c r="C293">
-        <v>0.000426</v>
+        <v>0.005988</v>
       </c>
       <c r="D293">
-        <v>0.000274</v>
+        <v>0.004726</v>
       </c>
       <c r="F293">
-        <v>0.357096</v>
+        <v>0.210831</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4595,13 +4595,13 @@
         <v>1897</v>
       </c>
       <c r="C294">
-        <v>2E-06</v>
+        <v>0.000568</v>
       </c>
       <c r="D294">
-        <v>1.3E-05</v>
+        <v>0.000451</v>
       </c>
       <c r="F294">
-        <v>-6.444043</v>
+        <v>0.205227</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -4609,13 +4609,13 @@
         <v>1549</v>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>2E-06</v>
       </c>
       <c r="D295">
-        <v>0</v>
+        <v>4E-06</v>
       </c>
       <c r="F295">
-        <v>-0.809567</v>
+        <v>-0.580824</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -4623,13 +4623,13 @@
         <v>2261</v>
       </c>
       <c r="C296">
-        <v>4E-05</v>
+        <v>0.0004</v>
       </c>
       <c r="D296">
-        <v>5.1E-05</v>
+        <v>0.000447</v>
       </c>
       <c r="F296">
-        <v>-0.279982</v>
+        <v>-0.119474</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -4637,13 +4637,13 @@
         <v>2017</v>
       </c>
       <c r="C297">
-        <v>1.3E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D297">
-        <v>1.9E-05</v>
+        <v>0.000112</v>
       </c>
       <c r="F297">
-        <v>-0.487044</v>
+        <v>-1.189922</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -4651,13 +4651,13 @@
         <v>1864</v>
       </c>
       <c r="C298">
-        <v>0.000126</v>
+        <v>0.00043</v>
       </c>
       <c r="D298">
-        <v>8.000000000000001E-05</v>
+        <v>0.000345</v>
       </c>
       <c r="F298">
-        <v>0.364522</v>
+        <v>0.197719</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -4665,13 +4665,13 @@
         <v>1616</v>
       </c>
       <c r="C299">
-        <v>1E-06</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D299">
-        <v>2E-06</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F299">
-        <v>-1.116999</v>
+        <v>-0.168093</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -4679,13 +4679,13 @@
         <v>2312</v>
       </c>
       <c r="C300">
-        <v>0.000181</v>
+        <v>0.002551</v>
       </c>
       <c r="D300">
-        <v>8.4E-05</v>
+        <v>0.001246</v>
       </c>
       <c r="F300">
-        <v>0.534904</v>
+        <v>0.511788</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -4693,13 +4693,13 @@
         <v>1618</v>
       </c>
       <c r="C301">
-        <v>5E-06</v>
+        <v>8.1E-05</v>
       </c>
       <c r="D301">
-        <v>2.2E-05</v>
+        <v>0.000174</v>
       </c>
       <c r="F301">
-        <v>-3.269651</v>
+        <v>-1.158187</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -4707,13 +4707,13 @@
         <v>2402</v>
       </c>
       <c r="C302">
-        <v>2E-06</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D302">
-        <v>2.3E-05</v>
+        <v>0.000218</v>
       </c>
       <c r="F302">
-        <v>-10.651114</v>
+        <v>-6.041088</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -4721,13 +4721,13 @@
         <v>1576</v>
       </c>
       <c r="C303">
-        <v>0</v>
+        <v>2E-06</v>
       </c>
       <c r="D303">
-        <v>1E-06</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F303">
-        <v>-12.061254</v>
+        <v>-5.029291</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4735,13 +4735,13 @@
         <v>36</v>
       </c>
       <c r="C304">
-        <v>2.7E-05</v>
+        <v>0.000404</v>
       </c>
       <c r="D304">
-        <v>1.9E-05</v>
+        <v>0.000172</v>
       </c>
       <c r="F304">
-        <v>0.325439</v>
+        <v>0.57519</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -4749,13 +4749,13 @@
         <v>2075</v>
       </c>
       <c r="C305">
-        <v>0.000108</v>
+        <v>0.000211</v>
       </c>
       <c r="D305">
-        <v>3.6E-05</v>
+        <v>9.899999999999999E-05</v>
       </c>
       <c r="F305">
-        <v>0.670297</v>
+        <v>0.532569</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -4763,13 +4763,13 @@
         <v>1218</v>
       </c>
       <c r="C306">
-        <v>0.000182</v>
+        <v>0.000603</v>
       </c>
       <c r="D306">
-        <v>0.000259</v>
+        <v>0.001076</v>
       </c>
       <c r="F306">
-        <v>-0.424774</v>
+        <v>-0.784869</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -4777,13 +4777,13 @@
         <v>442</v>
       </c>
       <c r="C307">
-        <v>0.003004</v>
+        <v>0.017826</v>
       </c>
       <c r="D307">
-        <v>0.000973</v>
+        <v>0.008355</v>
       </c>
       <c r="F307">
-        <v>0.675967</v>
+        <v>0.531289</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -4791,13 +4791,13 @@
         <v>808</v>
       </c>
       <c r="C308">
-        <v>0.00549</v>
+        <v>0.011892</v>
       </c>
       <c r="D308">
-        <v>0.005458</v>
+        <v>0.010689</v>
       </c>
       <c r="F308">
-        <v>0.005845</v>
+        <v>0.101133</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -4805,13 +4805,13 @@
         <v>31</v>
       </c>
       <c r="C309">
-        <v>7.1E-05</v>
+        <v>0.000982</v>
       </c>
       <c r="D309">
-        <v>2.5E-05</v>
+        <v>0.000231</v>
       </c>
       <c r="F309">
-        <v>0.652657</v>
+        <v>0.765132</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -4819,13 +4819,13 @@
         <v>1492</v>
       </c>
       <c r="C310">
-        <v>0.000123</v>
+        <v>0.002061</v>
       </c>
       <c r="D310">
-        <v>0.000141</v>
+        <v>0.001222</v>
       </c>
       <c r="F310">
-        <v>-0.144641</v>
+        <v>0.407177</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -4833,13 +4833,13 @@
         <v>1718</v>
       </c>
       <c r="C311">
-        <v>9.8E-05</v>
+        <v>0.000526</v>
       </c>
       <c r="D311">
-        <v>4.5E-05</v>
+        <v>0.000547</v>
       </c>
       <c r="F311">
-        <v>0.540828</v>
+        <v>-0.039947</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -4847,13 +4847,13 @@
         <v>1340</v>
       </c>
       <c r="C312">
-        <v>0.000319</v>
+        <v>0.011167</v>
       </c>
       <c r="D312">
-        <v>0.00034</v>
+        <v>0.005784</v>
       </c>
       <c r="F312">
-        <v>-0.065262</v>
+        <v>0.482064</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -4861,13 +4861,13 @@
         <v>1946</v>
       </c>
       <c r="C313">
-        <v>2.7E-05</v>
+        <v>0.000101</v>
       </c>
       <c r="D313">
-        <v>1.3E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F313">
-        <v>0.515221</v>
+        <v>-0.285269</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4875,13 +4875,13 @@
         <v>1622</v>
       </c>
       <c r="C314">
-        <v>2E-06</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D314">
-        <v>1.7E-05</v>
+        <v>0.000139</v>
       </c>
       <c r="F314">
-        <v>-6.512901</v>
+        <v>-3.052141</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -4889,13 +4889,13 @@
         <v>2210</v>
       </c>
       <c r="C315">
-        <v>6.999999999999999E-05</v>
+        <v>0.000706</v>
       </c>
       <c r="D315">
-        <v>0.000153</v>
+        <v>0.001634</v>
       </c>
       <c r="F315">
-        <v>-1.189683</v>
+        <v>-1.313509</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -4903,13 +4903,13 @@
         <v>1728</v>
       </c>
       <c r="C316">
-        <v>0.000502</v>
+        <v>0.002472</v>
       </c>
       <c r="D316">
-        <v>0.000106</v>
+        <v>0.000862</v>
       </c>
       <c r="F316">
-        <v>0.789135</v>
+        <v>0.651421</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -4917,13 +4917,13 @@
         <v>2107</v>
       </c>
       <c r="C317">
-        <v>7E-06</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D317">
-        <v>2.8E-05</v>
+        <v>0.000236</v>
       </c>
       <c r="F317">
-        <v>-3.131043</v>
+        <v>-2.502572</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -4931,13 +4931,13 @@
         <v>1455</v>
       </c>
       <c r="C318">
-        <v>0.000706</v>
+        <v>0.002895</v>
       </c>
       <c r="D318">
-        <v>0.000909</v>
+        <v>0.003157</v>
       </c>
       <c r="F318">
-        <v>-0.286908</v>
+        <v>-0.090405</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>485</v>
       </c>
       <c r="C319">
-        <v>9E-06</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D319">
-        <v>2.4E-05</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F319">
-        <v>-1.512391</v>
+        <v>-0.358065</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -4959,13 +4959,13 @@
         <v>1541</v>
       </c>
       <c r="C320">
-        <v>0.000286</v>
+        <v>0.001362</v>
       </c>
       <c r="D320">
-        <v>0.000198</v>
+        <v>0.000703</v>
       </c>
       <c r="F320">
-        <v>0.308211</v>
+        <v>0.484236</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -4973,13 +4973,13 @@
         <v>2397</v>
       </c>
       <c r="C321">
-        <v>2E-06</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D321">
-        <v>4E-06</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F321">
-        <v>-1.144834</v>
+        <v>-2.176546</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -4987,13 +4987,13 @@
         <v>2008</v>
       </c>
       <c r="C322">
-        <v>8.7E-05</v>
+        <v>0.000877</v>
       </c>
       <c r="D322">
-        <v>2.8E-05</v>
+        <v>0.000236</v>
       </c>
       <c r="F322">
-        <v>0.68272</v>
+        <v>0.730989</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -5001,13 +5001,13 @@
         <v>1970</v>
       </c>
       <c r="C323">
-        <v>4E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D323">
-        <v>0.000124</v>
+        <v>0.000188</v>
       </c>
       <c r="F323">
-        <v>-2.079171</v>
+        <v>-2.269945</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -5015,13 +5015,13 @@
         <v>215</v>
       </c>
       <c r="C324">
-        <v>0.000472</v>
+        <v>0.01814</v>
       </c>
       <c r="D324">
-        <v>0.000549</v>
+        <v>0.01382</v>
       </c>
       <c r="F324">
-        <v>-0.163915</v>
+        <v>0.238136</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -5029,13 +5029,13 @@
         <v>1861</v>
       </c>
       <c r="C325">
-        <v>6.8E-05</v>
+        <v>0.000225</v>
       </c>
       <c r="D325">
-        <v>2.5E-05</v>
+        <v>0.000177</v>
       </c>
       <c r="F325">
-        <v>0.6301020000000001</v>
+        <v>0.213835</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -5043,13 +5043,13 @@
         <v>2086</v>
       </c>
       <c r="C326">
-        <v>0.000152</v>
+        <v>0.000296</v>
       </c>
       <c r="D326">
-        <v>0.0001</v>
+        <v>0.000229</v>
       </c>
       <c r="F326">
-        <v>0.343678</v>
+        <v>0.228688</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -5057,13 +5057,13 @@
         <v>1761</v>
       </c>
       <c r="C327">
-        <v>0.000342</v>
+        <v>0.001363</v>
       </c>
       <c r="D327">
-        <v>9.899999999999999E-05</v>
+        <v>0.000616</v>
       </c>
       <c r="F327">
-        <v>0.711748</v>
+        <v>0.547614</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -5071,13 +5071,13 @@
         <v>2345</v>
       </c>
       <c r="C328">
-        <v>0.000364</v>
+        <v>0.005119</v>
       </c>
       <c r="D328">
-        <v>0.000426</v>
+        <v>0.004459</v>
       </c>
       <c r="F328">
-        <v>-0.170052</v>
+        <v>0.128941</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -5085,13 +5085,13 @@
         <v>631</v>
       </c>
       <c r="C329">
-        <v>0.000514</v>
+        <v>0.001962</v>
       </c>
       <c r="D329">
-        <v>0.000752</v>
+        <v>0.003291</v>
       </c>
       <c r="F329">
-        <v>-0.463023</v>
+        <v>-0.6777069999999999</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -5099,13 +5099,13 @@
         <v>581</v>
       </c>
       <c r="C330">
-        <v>0.000103</v>
+        <v>0.000167</v>
       </c>
       <c r="D330">
-        <v>0.000428</v>
+        <v>0.000597</v>
       </c>
       <c r="F330">
-        <v>-3.15819</v>
+        <v>-2.564465</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -5113,13 +5113,13 @@
         <v>714</v>
       </c>
       <c r="C331">
-        <v>0.000278</v>
+        <v>0.001983</v>
       </c>
       <c r="D331">
-        <v>6.3E-05</v>
+        <v>0.000439</v>
       </c>
       <c r="F331">
-        <v>0.773891</v>
+        <v>0.778901</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -5127,13 +5127,13 @@
         <v>1990</v>
       </c>
       <c r="C332">
-        <v>0.000143</v>
+        <v>0.001435</v>
       </c>
       <c r="D332">
-        <v>1.6E-05</v>
+        <v>0.00018</v>
       </c>
       <c r="F332">
-        <v>0.886261</v>
+        <v>0.874397</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -5141,13 +5141,13 @@
         <v>1206</v>
       </c>
       <c r="C333">
-        <v>4.9E-05</v>
+        <v>0.000318</v>
       </c>
       <c r="D333">
-        <v>5E-05</v>
+        <v>0.000587</v>
       </c>
       <c r="F333">
-        <v>-0.031531</v>
+        <v>-0.844727</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -5155,13 +5155,13 @@
         <v>1375</v>
       </c>
       <c r="C334">
-        <v>3.7E-05</v>
+        <v>0.000319</v>
       </c>
       <c r="D334">
-        <v>3.6E-05</v>
+        <v>0.000217</v>
       </c>
       <c r="F334">
-        <v>0.025402</v>
+        <v>0.320659</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -5169,13 +5169,13 @@
         <v>987</v>
       </c>
       <c r="C335">
-        <v>0.001183</v>
+        <v>0.011437</v>
       </c>
       <c r="D335">
-        <v>0.001074</v>
+        <v>0.009117</v>
       </c>
       <c r="F335">
-        <v>0.09232899999999999</v>
+        <v>0.202798</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -5183,13 +5183,13 @@
         <v>747</v>
       </c>
       <c r="C336">
-        <v>0.001201</v>
+        <v>0.001929</v>
       </c>
       <c r="D336">
-        <v>0.001571</v>
+        <v>0.002401</v>
       </c>
       <c r="F336">
-        <v>-0.307804</v>
+        <v>-0.244967</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -5200,13 +5200,13 @@
         <v>6</v>
       </c>
       <c r="C337">
-        <v>0.002285</v>
+        <v>0.019795</v>
       </c>
       <c r="D337">
-        <v>0.000902</v>
+        <v>0.008952999999999999</v>
       </c>
       <c r="F337">
-        <v>0.605303</v>
+        <v>0.547713</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -5214,13 +5214,13 @@
         <v>2152</v>
       </c>
       <c r="C338">
-        <v>7E-06</v>
+        <v>7.4E-05</v>
       </c>
       <c r="D338">
-        <v>4.9E-05</v>
+        <v>0.000388</v>
       </c>
       <c r="F338">
-        <v>-5.599203</v>
+        <v>-4.253363</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -5228,13 +5228,13 @@
         <v>1534</v>
       </c>
       <c r="C339">
-        <v>6.7E-05</v>
+        <v>0.000365</v>
       </c>
       <c r="D339">
-        <v>9.1E-05</v>
+        <v>0.000376</v>
       </c>
       <c r="F339">
-        <v>-0.360113</v>
+        <v>-0.030605</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -5245,13 +5245,13 @@
         <v>6</v>
       </c>
       <c r="C340">
-        <v>0.000141</v>
+        <v>0.000638</v>
       </c>
       <c r="D340">
-        <v>0.000225</v>
+        <v>0.001071</v>
       </c>
       <c r="F340">
-        <v>-0.602115</v>
+        <v>-0.679128</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -5259,13 +5259,13 @@
         <v>154</v>
       </c>
       <c r="C341">
-        <v>0.000252</v>
+        <v>0.002181</v>
       </c>
       <c r="D341">
-        <v>0.00019</v>
+        <v>0.001406</v>
       </c>
       <c r="F341">
-        <v>0.245088</v>
+        <v>0.35534</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -5273,13 +5273,13 @@
         <v>1732</v>
       </c>
       <c r="C342">
-        <v>0.000156</v>
+        <v>0.000887</v>
       </c>
       <c r="D342">
-        <v>2.9E-05</v>
+        <v>0.000513</v>
       </c>
       <c r="F342">
-        <v>0.8140810000000001</v>
+        <v>0.42135</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>6</v>
       </c>
       <c r="C343">
-        <v>0.00063</v>
+        <v>0.007856</v>
       </c>
       <c r="D343">
-        <v>0.000682</v>
+        <v>0.007562</v>
       </c>
       <c r="F343">
-        <v>-0.081633</v>
+        <v>0.037349</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -5304,13 +5304,13 @@
         <v>970</v>
       </c>
       <c r="C344">
-        <v>0.003676</v>
+        <v>0.028257</v>
       </c>
       <c r="D344">
-        <v>0.003179</v>
+        <v>0.023747</v>
       </c>
       <c r="F344">
-        <v>0.134998</v>
+        <v>0.159621</v>
       </c>
     </row>
   </sheetData>

--- a/part2/tables-2/dom_validty_part-2.xlsx
+++ b/part2/tables-2/dom_validty_part-2.xlsx
@@ -423,13 +423,13 @@
         <v>1078</v>
       </c>
       <c r="C2">
-        <v>0.037104</v>
+        <v>0.005136</v>
       </c>
       <c r="D2">
-        <v>0.034175</v>
+        <v>0.005612</v>
       </c>
       <c r="F2">
-        <v>0.078943</v>
+        <v>-0.092705</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -437,13 +437,13 @@
         <v>212</v>
       </c>
       <c r="C3">
-        <v>0.00466</v>
+        <v>0.001005</v>
       </c>
       <c r="D3">
-        <v>0.003775</v>
+        <v>0.000919</v>
       </c>
       <c r="F3">
-        <v>0.18986</v>
+        <v>0.08542</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -451,13 +451,13 @@
         <v>807</v>
       </c>
       <c r="C4">
-        <v>0.000779</v>
+        <v>2E-05</v>
       </c>
       <c r="D4">
-        <v>0.002862</v>
+        <v>0.000191</v>
       </c>
       <c r="F4">
-        <v>-2.674999</v>
+        <v>-8.539930999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -465,13 +465,13 @@
         <v>1454</v>
       </c>
       <c r="C5">
-        <v>0.067659</v>
+        <v>0.00444</v>
       </c>
       <c r="D5">
-        <v>0.052117</v>
+        <v>0.018522</v>
       </c>
       <c r="F5">
-        <v>0.229721</v>
+        <v>-3.17165</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -479,13 +479,13 @@
         <v>1175</v>
       </c>
       <c r="C6">
-        <v>0.000394</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D6">
-        <v>0.000923</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F6">
-        <v>-1.342207</v>
+        <v>-0.884984</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -493,13 +493,13 @@
         <v>459</v>
       </c>
       <c r="C7">
-        <v>0.000393</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D7">
-        <v>0.000243</v>
+        <v>8.7E-05</v>
       </c>
       <c r="F7">
-        <v>0.380288</v>
+        <v>-0.815779</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -507,13 +507,13 @@
         <v>1813</v>
       </c>
       <c r="C8">
-        <v>0.000416</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D8">
-        <v>0.00023</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F8">
-        <v>0.446999</v>
+        <v>0.28353</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -521,13 +521,13 @@
         <v>1304</v>
       </c>
       <c r="C9">
-        <v>0.023888</v>
+        <v>0.002918</v>
       </c>
       <c r="D9">
-        <v>0.013607</v>
+        <v>0.002375</v>
       </c>
       <c r="F9">
-        <v>0.430399</v>
+        <v>0.18604</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -535,13 +535,13 @@
         <v>1710</v>
       </c>
       <c r="C10">
-        <v>0.001881</v>
+        <v>5.5E-05</v>
       </c>
       <c r="D10">
-        <v>0.000545</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F10">
-        <v>0.710232</v>
+        <v>0.034841</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.001176</v>
+        <v>0.00011</v>
       </c>
       <c r="D11">
-        <v>0.000627</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F11">
-        <v>0.46693</v>
+        <v>0.352217</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -569,13 +569,13 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.007953999999999999</v>
+        <v>0.000781</v>
       </c>
       <c r="D12">
-        <v>0.007127</v>
+        <v>0.000605</v>
       </c>
       <c r="F12">
-        <v>0.103968</v>
+        <v>0.225408</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -586,13 +586,13 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.003085</v>
+        <v>0.00049</v>
       </c>
       <c r="D13">
-        <v>0.002201</v>
+        <v>0.000383</v>
       </c>
       <c r="F13">
-        <v>0.286602</v>
+        <v>0.217638</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -603,13 +603,13 @@
         <v>6</v>
       </c>
       <c r="C14">
-        <v>0.014194</v>
+        <v>0.002404</v>
       </c>
       <c r="D14">
-        <v>0.005449</v>
+        <v>0.001009</v>
       </c>
       <c r="F14">
-        <v>0.61613</v>
+        <v>0.580452</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -617,13 +617,13 @@
         <v>1917</v>
       </c>
       <c r="C15">
-        <v>0.000349</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D15">
-        <v>0.000297</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F15">
-        <v>0.146723</v>
+        <v>-0.044433</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -631,13 +631,13 @@
         <v>2060</v>
       </c>
       <c r="C16">
-        <v>0.000261</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D16">
-        <v>0.000205</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F16">
-        <v>0.213407</v>
+        <v>0.375215</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -645,13 +645,13 @@
         <v>1692</v>
       </c>
       <c r="C17">
-        <v>0.001337</v>
+        <v>0.000121</v>
       </c>
       <c r="D17">
-        <v>0.001123</v>
+        <v>0.000168</v>
       </c>
       <c r="F17">
-        <v>0.159558</v>
+        <v>-0.388086</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -659,13 +659,13 @@
         <v>2109</v>
       </c>
       <c r="C18">
-        <v>0.001278</v>
+        <v>0.000108</v>
       </c>
       <c r="D18">
-        <v>0.000992</v>
+        <v>0.000171</v>
       </c>
       <c r="F18">
-        <v>0.223531</v>
+        <v>-0.5868949999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -676,13 +676,13 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0.003987</v>
+        <v>0.000769</v>
       </c>
       <c r="D19">
-        <v>0.005163</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="F19">
-        <v>-0.294991</v>
+        <v>-0.156403</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -693,13 +693,13 @@
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.005172</v>
+        <v>0.000161</v>
       </c>
       <c r="D20">
-        <v>0.002582</v>
+        <v>0.000185</v>
       </c>
       <c r="F20">
-        <v>0.50074</v>
+        <v>-0.14692</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -707,13 +707,13 @@
         <v>109</v>
       </c>
       <c r="C21">
-        <v>0.005415</v>
+        <v>0.000705</v>
       </c>
       <c r="D21">
-        <v>0.0043</v>
+        <v>0.000659</v>
       </c>
       <c r="F21">
-        <v>0.205823</v>
+        <v>0.064848</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -721,13 +721,13 @@
         <v>966</v>
       </c>
       <c r="C22">
-        <v>9E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D22">
-        <v>0.000329</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F22">
-        <v>-34.548391</v>
+        <v>-7.379274</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -735,13 +735,13 @@
         <v>2371</v>
       </c>
       <c r="C23">
-        <v>0.007898000000000001</v>
+        <v>0.000646</v>
       </c>
       <c r="D23">
-        <v>0.005284</v>
+        <v>0.000511</v>
       </c>
       <c r="F23">
-        <v>0.330967</v>
+        <v>0.209703</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -749,13 +749,13 @@
         <v>1765</v>
       </c>
       <c r="C24">
-        <v>0.001654</v>
+        <v>0.00013</v>
       </c>
       <c r="D24">
-        <v>0.000891</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F24">
-        <v>0.461061</v>
+        <v>0.497236</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -763,13 +763,13 @@
         <v>2399</v>
       </c>
       <c r="C25">
-        <v>0.000131</v>
+        <v>7.9E-05</v>
       </c>
       <c r="D25">
-        <v>0.000238</v>
+        <v>6E-05</v>
       </c>
       <c r="F25">
-        <v>-0.816979</v>
+        <v>0.242314</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -777,13 +777,13 @@
         <v>777</v>
       </c>
       <c r="C26">
-        <v>0.006179</v>
+        <v>0.001565</v>
       </c>
       <c r="D26">
-        <v>0.001387</v>
+        <v>0.000919</v>
       </c>
       <c r="F26">
-        <v>0.775473</v>
+        <v>0.412589</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -791,13 +791,13 @@
         <v>913</v>
       </c>
       <c r="C27">
-        <v>0.003725</v>
+        <v>0.00042</v>
       </c>
       <c r="D27">
-        <v>0.002445</v>
+        <v>0.000444</v>
       </c>
       <c r="F27">
-        <v>0.343433</v>
+        <v>-0.058077</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -808,13 +808,13 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>0.001238</v>
+        <v>0.000134</v>
       </c>
       <c r="D28">
-        <v>0.001166</v>
+        <v>0.000176</v>
       </c>
       <c r="F28">
-        <v>0.057979</v>
+        <v>-0.315762</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -822,13 +822,13 @@
         <v>2310</v>
       </c>
       <c r="C29">
-        <v>0.004444</v>
+        <v>0.000139</v>
       </c>
       <c r="D29">
-        <v>0.001772</v>
+        <v>0.000145</v>
       </c>
       <c r="F29">
-        <v>0.601227</v>
+        <v>-0.044894</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -836,13 +836,13 @@
         <v>1002</v>
       </c>
       <c r="C30">
-        <v>0.001227</v>
+        <v>0.000174</v>
       </c>
       <c r="D30">
-        <v>0.000502</v>
+        <v>0.000107</v>
       </c>
       <c r="F30">
-        <v>0.591001</v>
+        <v>0.385334</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -850,13 +850,13 @@
         <v>1777</v>
       </c>
       <c r="C31">
-        <v>0.002204</v>
+        <v>0.000119</v>
       </c>
       <c r="D31">
-        <v>0.000793</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F31">
-        <v>0.640093</v>
+        <v>0.444307</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -867,13 +867,13 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0.004953</v>
+        <v>0.000419</v>
       </c>
       <c r="D32">
-        <v>0.000829</v>
+        <v>7.6E-05</v>
       </c>
       <c r="F32">
-        <v>0.832602</v>
+        <v>0.8182120000000001</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -884,13 +884,13 @@
         <v>6</v>
       </c>
       <c r="C33">
-        <v>0.000399</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D33">
-        <v>0.000307</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F33">
-        <v>0.230529</v>
+        <v>0.368878</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -898,13 +898,13 @@
         <v>492</v>
       </c>
       <c r="C34">
-        <v>0.001196</v>
+        <v>8.8E-05</v>
       </c>
       <c r="D34">
-        <v>0.000655</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F34">
-        <v>0.452674</v>
+        <v>0.425627</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -912,13 +912,13 @@
         <v>1693</v>
       </c>
       <c r="C35">
-        <v>0.00101</v>
+        <v>7.9E-05</v>
       </c>
       <c r="D35">
-        <v>0.0007069999999999999</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F35">
-        <v>0.299702</v>
+        <v>0.343411</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -926,13 +926,13 @@
         <v>2251</v>
       </c>
       <c r="C36">
-        <v>0.000352</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D36">
-        <v>0.00206</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F36">
-        <v>-4.85265</v>
+        <v>0.309998</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -940,13 +940,13 @@
         <v>453</v>
       </c>
       <c r="C37">
-        <v>0.019881</v>
+        <v>0.001279</v>
       </c>
       <c r="D37">
-        <v>0.008437</v>
+        <v>0.000753</v>
       </c>
       <c r="F37">
-        <v>0.575635</v>
+        <v>0.411339</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -957,13 +957,13 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.005257</v>
+        <v>0.000516</v>
       </c>
       <c r="D38">
-        <v>0.004459</v>
+        <v>0.000466</v>
       </c>
       <c r="F38">
-        <v>0.15173</v>
+        <v>0.097012</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -971,13 +971,13 @@
         <v>2058</v>
       </c>
       <c r="C39">
-        <v>0.001206</v>
+        <v>0.000157</v>
       </c>
       <c r="D39">
-        <v>0.000718</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F39">
-        <v>0.404945</v>
+        <v>0.453147</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -988,13 +988,13 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.055625</v>
+        <v>0.014429</v>
       </c>
       <c r="D40">
-        <v>0.045805</v>
+        <v>0.010953</v>
       </c>
       <c r="F40">
-        <v>0.176534</v>
+        <v>0.240884</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1002,13 +1002,13 @@
         <v>354</v>
       </c>
       <c r="C41">
-        <v>3.5E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D41">
-        <v>0.00079</v>
+        <v>0.000158</v>
       </c>
       <c r="F41">
-        <v>-21.585195</v>
+        <v>-16.600413</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1016,13 +1016,13 @@
         <v>1445</v>
       </c>
       <c r="C42">
-        <v>0.051344</v>
+        <v>0.0146</v>
       </c>
       <c r="D42">
-        <v>0.07255399999999999</v>
+        <v>0.016529</v>
       </c>
       <c r="F42">
-        <v>-0.413086</v>
+        <v>-0.132092</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1030,13 +1030,13 @@
         <v>2227</v>
       </c>
       <c r="C43">
-        <v>0.001153</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D43">
-        <v>0.002317</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F43">
-        <v>-1.009274</v>
+        <v>-0.226973</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1047,13 +1047,13 @@
         <v>6</v>
       </c>
       <c r="C44">
-        <v>0.000457</v>
+        <v>3.2E-05</v>
       </c>
       <c r="D44">
-        <v>0.000198</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F44">
-        <v>0.566089</v>
+        <v>0.552437</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1061,13 +1061,13 @@
         <v>1675</v>
       </c>
       <c r="C45">
-        <v>0.000204</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D45">
-        <v>0.00013</v>
+        <v>0.000822</v>
       </c>
       <c r="F45">
-        <v>0.361742</v>
+        <v>-31.479565</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1075,13 +1075,13 @@
         <v>1463</v>
       </c>
       <c r="C46">
-        <v>0.023253</v>
+        <v>0.00676</v>
       </c>
       <c r="D46">
-        <v>0.031843</v>
+        <v>0.007343</v>
       </c>
       <c r="F46">
-        <v>-0.369398</v>
+        <v>-0.086203</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1089,13 +1089,13 @@
         <v>2004</v>
       </c>
       <c r="C47">
-        <v>0.005934</v>
+        <v>0.000773</v>
       </c>
       <c r="D47">
-        <v>0.001405</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F47">
-        <v>0.763304</v>
+        <v>0.893306</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1106,13 +1106,13 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.007179</v>
+        <v>0.000306</v>
       </c>
       <c r="D48">
-        <v>0.002544</v>
+        <v>0.000269</v>
       </c>
       <c r="F48">
-        <v>0.645594</v>
+        <v>0.120941</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1120,13 +1120,13 @@
         <v>2252</v>
       </c>
       <c r="C49">
-        <v>0.000178</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D49">
-        <v>0.001918</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F49">
-        <v>-9.773331000000001</v>
+        <v>-0.067733</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1134,13 +1134,13 @@
         <v>2096</v>
       </c>
       <c r="C50">
-        <v>9.399999999999999E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D50">
-        <v>0.000205</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F50">
-        <v>-1.178343</v>
+        <v>-0.730241</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1148,13 +1148,13 @@
         <v>1344</v>
       </c>
       <c r="C51">
-        <v>0.00203</v>
+        <v>0.000369</v>
       </c>
       <c r="D51">
-        <v>0.000958</v>
+        <v>0.000167</v>
       </c>
       <c r="F51">
-        <v>0.528035</v>
+        <v>0.548712</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1162,13 +1162,13 @@
         <v>2014</v>
       </c>
       <c r="C52">
-        <v>0.000204</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D52">
-        <v>0.000118</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F52">
-        <v>0.422291</v>
+        <v>0.38713</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1179,13 +1179,13 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>0.000178</v>
+        <v>8E-06</v>
       </c>
       <c r="D53">
-        <v>9.3E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F53">
-        <v>0.481595</v>
+        <v>-1.58589</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1193,13 +1193,13 @@
         <v>1451</v>
       </c>
       <c r="C54">
-        <v>0.068553</v>
+        <v>0.00741</v>
       </c>
       <c r="D54">
-        <v>0.054317</v>
+        <v>0.006854</v>
       </c>
       <c r="F54">
-        <v>0.207665</v>
+        <v>0.075041</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1207,13 +1207,13 @@
         <v>105</v>
       </c>
       <c r="C55">
-        <v>0.005216</v>
+        <v>0.000865</v>
       </c>
       <c r="D55">
-        <v>0.001766</v>
+        <v>0.000495</v>
       </c>
       <c r="F55">
-        <v>0.661424</v>
+        <v>0.427885</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1221,13 +1221,13 @@
         <v>374</v>
       </c>
       <c r="C56">
-        <v>0.000486</v>
+        <v>0.000125</v>
       </c>
       <c r="D56">
-        <v>0.000894</v>
+        <v>0.000208</v>
       </c>
       <c r="F56">
-        <v>-0.841421</v>
+        <v>-0.660794</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1235,13 +1235,13 @@
         <v>1512</v>
       </c>
       <c r="C57">
-        <v>0.000746</v>
+        <v>0.000129</v>
       </c>
       <c r="D57">
-        <v>0.000581</v>
+        <v>0.0001</v>
       </c>
       <c r="F57">
-        <v>0.221019</v>
+        <v>0.223376</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1249,13 +1249,13 @@
         <v>1609</v>
       </c>
       <c r="C58">
-        <v>0.000143</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D58">
-        <v>4.1E-05</v>
+        <v>0.000263</v>
       </c>
       <c r="F58">
-        <v>0.711357</v>
+        <v>-6.319065</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1263,13 +1263,13 @@
         <v>2105</v>
       </c>
       <c r="C59">
-        <v>0.001316</v>
+        <v>0.000111</v>
       </c>
       <c r="D59">
-        <v>0.001116</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F59">
-        <v>0.151634</v>
+        <v>0.284034</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1277,13 +1277,13 @@
         <v>1341</v>
       </c>
       <c r="C60">
-        <v>0.002768</v>
+        <v>0.000504</v>
       </c>
       <c r="D60">
-        <v>0.000958</v>
+        <v>0.000167</v>
       </c>
       <c r="F60">
-        <v>0.653873</v>
+        <v>0.669037</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1294,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="C61">
-        <v>0.001769</v>
+        <v>0.000505</v>
       </c>
       <c r="D61">
-        <v>0.0005330000000000001</v>
+        <v>0.000219</v>
       </c>
       <c r="F61">
-        <v>0.698812</v>
+        <v>0.566812</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1308,13 +1308,13 @@
         <v>1358</v>
       </c>
       <c r="C62">
-        <v>0.000886</v>
+        <v>0.000248</v>
       </c>
       <c r="D62">
-        <v>0.0005</v>
+        <v>0.000195</v>
       </c>
       <c r="F62">
-        <v>0.435789</v>
+        <v>0.215915</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1322,13 +1322,13 @@
         <v>1354</v>
       </c>
       <c r="C63">
-        <v>0.009287999999999999</v>
+        <v>0.00169</v>
       </c>
       <c r="D63">
-        <v>0.005861</v>
+        <v>0.00159</v>
       </c>
       <c r="F63">
-        <v>0.368991</v>
+        <v>0.059365</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1336,13 +1336,13 @@
         <v>2082</v>
       </c>
       <c r="C64">
-        <v>0.000349</v>
+        <v>4.5E-05</v>
       </c>
       <c r="D64">
-        <v>0.00018</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F64">
-        <v>0.483324</v>
+        <v>0.62086</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1353,13 +1353,13 @@
         <v>6</v>
       </c>
       <c r="C65">
-        <v>0.010173</v>
+        <v>0.002556</v>
       </c>
       <c r="D65">
-        <v>0.007203</v>
+        <v>0.001984</v>
       </c>
       <c r="F65">
-        <v>0.291936</v>
+        <v>0.223965</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1367,13 +1367,13 @@
         <v>2241</v>
       </c>
       <c r="C66">
-        <v>0.00449</v>
+        <v>0.000347</v>
       </c>
       <c r="D66">
-        <v>0.003562</v>
+        <v>0.000259</v>
       </c>
       <c r="F66">
-        <v>0.206783</v>
+        <v>0.254262</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1381,13 +1381,13 @@
         <v>1507</v>
       </c>
       <c r="C67">
-        <v>0.000741</v>
+        <v>0.000119</v>
       </c>
       <c r="D67">
-        <v>0.000671</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F67">
-        <v>0.09400500000000001</v>
+        <v>0.307405</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1395,13 +1395,13 @@
         <v>1987</v>
       </c>
       <c r="C68">
-        <v>0.000664</v>
+        <v>8.6E-05</v>
       </c>
       <c r="D68">
-        <v>0.000186</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F68">
-        <v>0.7198870000000001</v>
+        <v>0.72899</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1412,13 +1412,13 @@
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.008384000000000001</v>
+        <v>0.001051</v>
       </c>
       <c r="D69">
-        <v>0.002903</v>
+        <v>0.000506</v>
       </c>
       <c r="F69">
-        <v>0.653731</v>
+        <v>0.518207</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1426,13 +1426,13 @@
         <v>1883</v>
       </c>
       <c r="C70">
-        <v>0.000661</v>
+        <v>0.00084</v>
       </c>
       <c r="D70">
-        <v>0.000508</v>
+        <v>0.001027</v>
       </c>
       <c r="F70">
-        <v>0.231153</v>
+        <v>-0.222464</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1440,13 +1440,13 @@
         <v>554</v>
       </c>
       <c r="C71">
-        <v>0.003399</v>
+        <v>0.00025</v>
       </c>
       <c r="D71">
-        <v>0.0086</v>
+        <v>0.000481</v>
       </c>
       <c r="F71">
-        <v>-1.53011</v>
+        <v>-0.924671</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1454,13 +1454,13 @@
         <v>2268</v>
       </c>
       <c r="C72">
-        <v>5.2E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D72">
-        <v>0.000261</v>
+        <v>4E-06</v>
       </c>
       <c r="F72">
-        <v>-4.013502</v>
+        <v>-0.109158</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1468,13 +1468,13 @@
         <v>1797</v>
       </c>
       <c r="C73">
-        <v>0.000194</v>
+        <v>1E-05</v>
       </c>
       <c r="D73">
-        <v>0.000248</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F73">
-        <v>-0.280079</v>
+        <v>-0.500436</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1482,13 +1482,13 @@
         <v>1739</v>
       </c>
       <c r="C74">
-        <v>0.001136</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D74">
-        <v>0.000484</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F74">
-        <v>0.573736</v>
+        <v>0.165071</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1496,13 +1496,13 @@
         <v>1898</v>
       </c>
       <c r="C75">
-        <v>0.000419</v>
+        <v>0.000403</v>
       </c>
       <c r="D75">
-        <v>0.000475</v>
+        <v>0.000577</v>
       </c>
       <c r="F75">
-        <v>-0.133828</v>
+        <v>-0.4309</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1510,13 +1510,13 @@
         <v>1743</v>
       </c>
       <c r="C76">
-        <v>0.001493</v>
+        <v>0.000122</v>
       </c>
       <c r="D76">
-        <v>0.000883</v>
+        <v>0.000111</v>
       </c>
       <c r="F76">
-        <v>0.408475</v>
+        <v>0.090639</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1524,13 +1524,13 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>0.001685</v>
+        <v>0.000315</v>
       </c>
       <c r="D77">
-        <v>0.000364</v>
+        <v>0.000893</v>
       </c>
       <c r="F77">
-        <v>0.783691</v>
+        <v>-1.839216</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1538,13 +1538,13 @@
         <v>1448</v>
       </c>
       <c r="C78">
-        <v>0.056633</v>
+        <v>0.014</v>
       </c>
       <c r="D78">
-        <v>0.068552</v>
+        <v>0.014476</v>
       </c>
       <c r="F78">
-        <v>-0.210472</v>
+        <v>-0.033997</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1552,13 +1552,13 @@
         <v>630</v>
       </c>
       <c r="C79">
-        <v>0.000757</v>
+        <v>8.3E-05</v>
       </c>
       <c r="D79">
-        <v>0.001852</v>
+        <v>0.000271</v>
       </c>
       <c r="F79">
-        <v>-1.446357</v>
+        <v>-2.260482</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1566,13 +1566,13 @@
         <v>1993</v>
       </c>
       <c r="C80">
-        <v>0.000928</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D80">
-        <v>0.000229</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F80">
-        <v>0.753675</v>
+        <v>0.845988</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1580,13 +1580,13 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>0.001862</v>
+        <v>0.000491</v>
       </c>
       <c r="D81">
-        <v>0.000962</v>
+        <v>0.001829</v>
       </c>
       <c r="F81">
-        <v>0.483508</v>
+        <v>-2.724728</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1594,13 +1594,13 @@
         <v>763</v>
       </c>
       <c r="C82">
-        <v>0.014601</v>
+        <v>0.000726</v>
       </c>
       <c r="D82">
-        <v>0.01082</v>
+        <v>0.001355</v>
       </c>
       <c r="F82">
-        <v>0.258969</v>
+        <v>-0.866248</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1608,13 +1608,13 @@
         <v>1848</v>
       </c>
       <c r="C83">
-        <v>0.000606</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D83">
-        <v>0.000603</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F83">
-        <v>0.005577</v>
+        <v>0.437636</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1622,13 +1622,13 @@
         <v>1974</v>
       </c>
       <c r="C84">
-        <v>0.000322</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D84">
-        <v>0.000124</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F84">
-        <v>0.613864</v>
+        <v>0.19801</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1636,13 +1636,13 @@
         <v>1648</v>
       </c>
       <c r="C85">
-        <v>3.6E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="D85">
-        <v>7.9E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F85">
-        <v>-1.191085</v>
+        <v>-1.171449</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1650,13 +1650,13 @@
         <v>1252</v>
       </c>
       <c r="C86">
-        <v>0.008855999999999999</v>
+        <v>0.001139</v>
       </c>
       <c r="D86">
-        <v>0.010391</v>
+        <v>0.002296</v>
       </c>
       <c r="F86">
-        <v>-0.17331</v>
+        <v>-1.016328</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1664,13 +1664,13 @@
         <v>2024</v>
       </c>
       <c r="C87">
-        <v>0.000828</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="D87">
-        <v>0.000229</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F87">
-        <v>0.723844</v>
+        <v>0.827337</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1678,13 +1678,13 @@
         <v>1165</v>
       </c>
       <c r="C88">
-        <v>0.000926</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D88">
-        <v>0.003041</v>
+        <v>0.000151</v>
       </c>
       <c r="F88">
-        <v>-2.284843</v>
+        <v>-3.148996</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1692,13 +1692,13 @@
         <v>67</v>
       </c>
       <c r="C89">
-        <v>7.9E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D89">
-        <v>0.00011</v>
+        <v>3E-06</v>
       </c>
       <c r="F89">
-        <v>-0.399737</v>
+        <v>-0.307548</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1706,13 +1706,13 @@
         <v>356</v>
       </c>
       <c r="C90">
-        <v>8.1E-05</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D90">
-        <v>0.000719</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F90">
-        <v>-7.920584</v>
+        <v>-2.159075</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1723,13 +1723,13 @@
         <v>6</v>
       </c>
       <c r="C91">
-        <v>0.013401</v>
+        <v>0.001428</v>
       </c>
       <c r="D91">
-        <v>0.013706</v>
+        <v>0.001039</v>
       </c>
       <c r="F91">
-        <v>-0.022789</v>
+        <v>0.272417</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1737,13 +1737,13 @@
         <v>2308</v>
       </c>
       <c r="C92">
-        <v>0.00598</v>
+        <v>0.000187</v>
       </c>
       <c r="D92">
-        <v>0.002586</v>
+        <v>0.000186</v>
       </c>
       <c r="F92">
-        <v>0.567582</v>
+        <v>0.005387</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1751,13 +1751,13 @@
         <v>767</v>
       </c>
       <c r="C93">
-        <v>0.040424</v>
+        <v>0.008486</v>
       </c>
       <c r="D93">
-        <v>0.040918</v>
+        <v>0.008973999999999999</v>
       </c>
       <c r="F93">
-        <v>-0.012214</v>
+        <v>-0.057478</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1765,13 +1765,13 @@
         <v>63</v>
       </c>
       <c r="C94">
-        <v>0.008899000000000001</v>
+        <v>0.000275</v>
       </c>
       <c r="D94">
-        <v>0.002341</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F94">
-        <v>0.7369790000000001</v>
+        <v>0.663371</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1779,13 +1779,13 @@
         <v>2203</v>
       </c>
       <c r="C95">
-        <v>0.000282</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D95">
-        <v>0.000992</v>
+        <v>0.000171</v>
       </c>
       <c r="F95">
-        <v>-2.517428</v>
+        <v>-6.188681</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>1406</v>
       </c>
       <c r="C96">
-        <v>0.01431</v>
+        <v>0.00117</v>
       </c>
       <c r="D96">
-        <v>0.030204</v>
+        <v>0.002161</v>
       </c>
       <c r="F96">
-        <v>-1.110731</v>
+        <v>-0.846635</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1807,13 +1807,13 @@
         <v>1517</v>
       </c>
       <c r="C97">
-        <v>0.000158</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D97">
-        <v>0.000306</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F97">
-        <v>-0.943889</v>
+        <v>0.169986</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1821,13 +1821,13 @@
         <v>1951</v>
       </c>
       <c r="C98">
-        <v>0.000231</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D98">
-        <v>0.000275</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F98">
-        <v>-0.187526</v>
+        <v>-0.526483</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1835,13 +1835,13 @@
         <v>1608</v>
       </c>
       <c r="C99">
-        <v>2.4E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D99">
-        <v>6.4E-05</v>
+        <v>8.1E-05</v>
       </c>
       <c r="F99">
-        <v>-1.696672</v>
+        <v>-11.423476</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -1849,13 +1849,13 @@
         <v>1376</v>
       </c>
       <c r="C100">
-        <v>0.004489</v>
+        <v>0.001864</v>
       </c>
       <c r="D100">
-        <v>0.005313</v>
+        <v>0.001523</v>
       </c>
       <c r="F100">
-        <v>-0.183665</v>
+        <v>0.182818</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1863,13 +1863,13 @@
         <v>2283</v>
       </c>
       <c r="C101">
-        <v>0.000168</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D101">
-        <v>0.000471</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F101">
-        <v>-1.804056</v>
+        <v>-0.157109</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -1877,13 +1877,13 @@
         <v>2219</v>
       </c>
       <c r="C102">
-        <v>3.4E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D102">
-        <v>0.001019</v>
+        <v>1E-06</v>
       </c>
       <c r="F102">
-        <v>-28.759779</v>
+        <v>0.169392</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -1891,13 +1891,13 @@
         <v>1246</v>
       </c>
       <c r="C103">
-        <v>0.013731</v>
+        <v>0.00138</v>
       </c>
       <c r="D103">
-        <v>0.012149</v>
+        <v>0.000705</v>
       </c>
       <c r="F103">
-        <v>0.115201</v>
+        <v>0.489033</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -1905,13 +1905,13 @@
         <v>2325</v>
       </c>
       <c r="C104">
-        <v>0.005322</v>
+        <v>0.000166</v>
       </c>
       <c r="D104">
-        <v>0.001275</v>
+        <v>0.000119</v>
       </c>
       <c r="F104">
-        <v>0.760494</v>
+        <v>0.285435</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -1922,13 +1922,13 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>0.007624</v>
+        <v>0.000238</v>
       </c>
       <c r="D105">
-        <v>0.002582</v>
+        <v>0.000185</v>
       </c>
       <c r="F105">
-        <v>0.661351</v>
+        <v>0.222043</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -1936,13 +1936,13 @@
         <v>1181</v>
       </c>
       <c r="C106">
-        <v>0.00028</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D106">
-        <v>0.00048</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F106">
-        <v>-0.716323</v>
+        <v>0.062054</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -1953,13 +1953,13 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>0.000108</v>
+        <v>6.4E-05</v>
       </c>
       <c r="D107">
-        <v>0.000214</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F107">
-        <v>-0.977046</v>
+        <v>0.249591</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -1967,13 +1967,13 @@
         <v>1955</v>
       </c>
       <c r="C108">
-        <v>0.000908</v>
+        <v>7.4E-05</v>
       </c>
       <c r="D108">
-        <v>0.000126</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F108">
-        <v>0.8616</v>
+        <v>0.686314</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -1981,13 +1981,13 @@
         <v>364</v>
       </c>
       <c r="C109">
-        <v>0.005312</v>
+        <v>0.001533</v>
       </c>
       <c r="D109">
-        <v>0.008208</v>
+        <v>0.001772</v>
       </c>
       <c r="F109">
-        <v>-0.545176</v>
+        <v>-0.155836</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -1995,13 +1995,13 @@
         <v>1236</v>
       </c>
       <c r="C110">
-        <v>0.004057</v>
+        <v>0.000105</v>
       </c>
       <c r="D110">
-        <v>0.003279</v>
+        <v>9.8E-05</v>
       </c>
       <c r="F110">
-        <v>0.191759</v>
+        <v>0.06857000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2012,13 +2012,13 @@
         <v>6</v>
       </c>
       <c r="C111">
-        <v>0.000185</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D111">
-        <v>0.000107</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F111">
-        <v>0.420482</v>
+        <v>-1.551791</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2026,13 +2026,13 @@
         <v>9</v>
       </c>
       <c r="C112">
-        <v>4E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D112">
-        <v>4.7E-05</v>
+        <v>0.326341</v>
       </c>
       <c r="F112">
-        <v>-0.17438</v>
+        <v>-89933.838758</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2040,13 +2040,13 @@
         <v>1820</v>
       </c>
       <c r="C113">
-        <v>0.000614</v>
+        <v>5E-05</v>
       </c>
       <c r="D113">
-        <v>0.000497</v>
+        <v>3E-05</v>
       </c>
       <c r="F113">
-        <v>0.190302</v>
+        <v>0.408317</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2054,13 +2054,13 @@
         <v>1273</v>
       </c>
       <c r="C114">
-        <v>0.000456</v>
+        <v>4.5E-05</v>
       </c>
       <c r="D114">
-        <v>0.001063</v>
+        <v>0.000133</v>
       </c>
       <c r="F114">
-        <v>-1.328789</v>
+        <v>-1.990223</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2068,13 +2068,13 @@
         <v>1697</v>
       </c>
       <c r="C115">
-        <v>0.001135</v>
+        <v>9.3E-05</v>
       </c>
       <c r="D115">
-        <v>0.000796</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F115">
-        <v>0.298389</v>
+        <v>0.287791</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2082,13 +2082,13 @@
         <v>2299</v>
       </c>
       <c r="C116">
-        <v>0.000305</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D116">
-        <v>0.000779</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F116">
-        <v>-1.556244</v>
+        <v>0.104405</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2096,13 +2096,13 @@
         <v>1779</v>
       </c>
       <c r="C117">
-        <v>0.0009840000000000001</v>
+        <v>4.2E-05</v>
       </c>
       <c r="D117">
-        <v>0.000429</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F117">
-        <v>0.563544</v>
+        <v>0.209716</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2110,13 +2110,13 @@
         <v>644</v>
       </c>
       <c r="C118">
-        <v>0.003609</v>
+        <v>0.000464</v>
       </c>
       <c r="D118">
-        <v>0.003049</v>
+        <v>0.000501</v>
       </c>
       <c r="F118">
-        <v>0.154942</v>
+        <v>-0.080818</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2124,13 +2124,13 @@
         <v>1760</v>
       </c>
       <c r="C119">
-        <v>0.001867</v>
+        <v>0.000147</v>
       </c>
       <c r="D119">
-        <v>0.00078</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F119">
-        <v>0.5822619999999999</v>
+        <v>0.548453</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2138,13 +2138,13 @@
         <v>1933</v>
       </c>
       <c r="C120">
-        <v>0.00026</v>
+        <v>2E-05</v>
       </c>
       <c r="D120">
-        <v>0.000157</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F120">
-        <v>0.397552</v>
+        <v>0.447863</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2152,13 +2152,13 @@
         <v>1413</v>
       </c>
       <c r="C121">
-        <v>0.002096</v>
+        <v>0.000233</v>
       </c>
       <c r="D121">
-        <v>0.001909</v>
+        <v>0.00022</v>
       </c>
       <c r="F121">
-        <v>0.089405</v>
+        <v>0.056396</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2166,13 +2166,13 @@
         <v>1780</v>
       </c>
       <c r="C122">
-        <v>0.002377</v>
+        <v>0.000125</v>
       </c>
       <c r="D122">
-        <v>0.00061</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F122">
-        <v>0.743262</v>
+        <v>0.416829</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2180,13 +2180,13 @@
         <v>435</v>
       </c>
       <c r="C123">
-        <v>8.4E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D123">
-        <v>0.000543</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F123">
-        <v>-5.451553</v>
+        <v>-1.392827</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2194,13 +2194,13 @@
         <v>867</v>
       </c>
       <c r="C124">
-        <v>0.024003</v>
+        <v>0.001803</v>
       </c>
       <c r="D124">
-        <v>0.020602</v>
+        <v>0.001772</v>
       </c>
       <c r="F124">
-        <v>0.141683</v>
+        <v>0.017143</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2208,13 +2208,13 @@
         <v>2155</v>
       </c>
       <c r="C125">
-        <v>9E-06</v>
+        <v>1E-06</v>
       </c>
       <c r="D125">
-        <v>0.000339</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F125">
-        <v>-36.630975</v>
+        <v>-38.212216</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2222,13 +2222,13 @@
         <v>26</v>
       </c>
       <c r="C126">
-        <v>0.001126</v>
+        <v>0.000227</v>
       </c>
       <c r="D126">
-        <v>0.000293</v>
+        <v>0.000252</v>
       </c>
       <c r="F126">
-        <v>0.739479</v>
+        <v>-0.111548</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2236,13 +2236,13 @@
         <v>491</v>
       </c>
       <c r="C127">
-        <v>0.008640999999999999</v>
+        <v>0.001298</v>
       </c>
       <c r="D127">
-        <v>0.003326</v>
+        <v>0.000569</v>
       </c>
       <c r="F127">
-        <v>0.615162</v>
+        <v>0.5617490000000001</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2250,13 +2250,13 @@
         <v>17</v>
       </c>
       <c r="C128">
-        <v>0.001729</v>
+        <v>0.000447</v>
       </c>
       <c r="D128">
-        <v>0.000451</v>
+        <v>0.000316</v>
       </c>
       <c r="F128">
-        <v>0.739371</v>
+        <v>0.291715</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2264,13 +2264,13 @@
         <v>441</v>
       </c>
       <c r="C129">
-        <v>0.016737</v>
+        <v>0.001164</v>
       </c>
       <c r="D129">
-        <v>0.007651</v>
+        <v>0.001378</v>
       </c>
       <c r="F129">
-        <v>0.5428809999999999</v>
+        <v>-0.184196</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2278,13 +2278,13 @@
         <v>809</v>
       </c>
       <c r="C130">
-        <v>0.021502</v>
+        <v>0.001591</v>
       </c>
       <c r="D130">
-        <v>0.019904</v>
+        <v>0.001814</v>
       </c>
       <c r="F130">
-        <v>0.074312</v>
+        <v>-0.139904</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2292,13 +2292,13 @@
         <v>42</v>
       </c>
       <c r="C131">
-        <v>0.002561</v>
+        <v>0.00041</v>
       </c>
       <c r="D131">
-        <v>0.001291</v>
+        <v>0.000619</v>
       </c>
       <c r="F131">
-        <v>0.495658</v>
+        <v>-0.511167</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2306,13 +2306,13 @@
         <v>443</v>
       </c>
       <c r="C132">
-        <v>0.026456</v>
+        <v>0.003023</v>
       </c>
       <c r="D132">
-        <v>0.017318</v>
+        <v>0.003383</v>
       </c>
       <c r="F132">
-        <v>0.345376</v>
+        <v>-0.118965</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2320,13 +2320,13 @@
         <v>1656</v>
       </c>
       <c r="C133">
-        <v>0.00054</v>
+        <v>7.6E-05</v>
       </c>
       <c r="D133">
-        <v>7.9E-05</v>
+        <v>0.000107</v>
       </c>
       <c r="F133">
-        <v>0.853229</v>
+        <v>-0.412835</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2334,13 +2334,13 @@
         <v>1908</v>
       </c>
       <c r="C134">
-        <v>5.8E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D134">
-        <v>0.00017</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F134">
-        <v>-1.921489</v>
+        <v>-0.940925</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2348,13 +2348,13 @@
         <v>2010</v>
       </c>
       <c r="C135">
-        <v>0.007814</v>
+        <v>0.001017</v>
       </c>
       <c r="D135">
-        <v>0.003286</v>
+        <v>0.000472</v>
       </c>
       <c r="F135">
-        <v>0.579462</v>
+        <v>0.536479</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2362,13 +2362,13 @@
         <v>460</v>
       </c>
       <c r="C136">
-        <v>0.000838</v>
+        <v>0.000136</v>
       </c>
       <c r="D136">
-        <v>0.000419</v>
+        <v>0.002033</v>
       </c>
       <c r="F136">
-        <v>0.499914</v>
+        <v>-13.945316</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2376,13 +2376,13 @@
         <v>161</v>
       </c>
       <c r="C137">
-        <v>0.000616</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D137">
-        <v>0.000574</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F137">
-        <v>0.067882</v>
+        <v>0.585686</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2390,13 +2390,13 @@
         <v>1177</v>
       </c>
       <c r="C138">
-        <v>0.000151</v>
+        <v>7E-06</v>
       </c>
       <c r="D138">
-        <v>0.000645</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F138">
-        <v>-3.262314</v>
+        <v>-2.280722</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2404,13 +2404,13 @@
         <v>463</v>
       </c>
       <c r="C139">
-        <v>0.001801</v>
+        <v>0.00013</v>
       </c>
       <c r="D139">
-        <v>0.000471</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F139">
-        <v>0.738184</v>
+        <v>0.780295</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2418,13 +2418,13 @@
         <v>1141</v>
       </c>
       <c r="C140">
-        <v>2.4E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="D140">
-        <v>0.000209</v>
+        <v>0.001993</v>
       </c>
       <c r="F140">
-        <v>-7.832016</v>
+        <v>-393.703368</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2432,13 +2432,13 @@
         <v>1282</v>
       </c>
       <c r="C141">
-        <v>0.000992</v>
+        <v>0.000129</v>
       </c>
       <c r="D141">
-        <v>0.000842</v>
+        <v>0.000138</v>
       </c>
       <c r="F141">
-        <v>0.150779</v>
+        <v>-0.07013800000000001</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2446,13 +2446,13 @@
         <v>1664</v>
       </c>
       <c r="C142">
-        <v>0.000239</v>
+        <v>8.2E-05</v>
       </c>
       <c r="D142">
-        <v>0.000146</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F142">
-        <v>0.387206</v>
+        <v>0.004361</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2460,13 +2460,13 @@
         <v>2134</v>
       </c>
       <c r="C143">
-        <v>0.000327</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D143">
-        <v>0.000829</v>
+        <v>7.6E-05</v>
       </c>
       <c r="F143">
-        <v>-1.533301</v>
+        <v>-1.751066</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2474,13 +2474,13 @@
         <v>1530</v>
       </c>
       <c r="C144">
-        <v>0.001989</v>
+        <v>0.000243</v>
       </c>
       <c r="D144">
-        <v>0.001044</v>
+        <v>0.000184</v>
       </c>
       <c r="F144">
-        <v>0.4754</v>
+        <v>0.242118</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2488,13 +2488,13 @@
         <v>391</v>
       </c>
       <c r="C145">
-        <v>0.001845</v>
+        <v>0.00058</v>
       </c>
       <c r="D145">
-        <v>0.001501</v>
+        <v>0.000413</v>
       </c>
       <c r="F145">
-        <v>0.186398</v>
+        <v>0.287218</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2502,13 +2502,13 @@
         <v>1930</v>
       </c>
       <c r="C146">
-        <v>0.000219</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D146">
-        <v>2.8E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F146">
-        <v>0.871298</v>
+        <v>-0.237278</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2516,13 +2516,13 @@
         <v>879</v>
       </c>
       <c r="C147">
-        <v>0.003949</v>
+        <v>0.000767</v>
       </c>
       <c r="D147">
-        <v>0.000851</v>
+        <v>0.000601</v>
       </c>
       <c r="F147">
-        <v>0.78452</v>
+        <v>0.216528</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2533,13 +2533,13 @@
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.000412</v>
+        <v>0.000355</v>
       </c>
       <c r="D148">
-        <v>0.000488</v>
+        <v>0.00033</v>
       </c>
       <c r="F148">
-        <v>-0.182658</v>
+        <v>0.071127</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2547,13 +2547,13 @@
         <v>1689</v>
       </c>
       <c r="C149">
-        <v>0.000401</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D149">
-        <v>0.000316</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F149">
-        <v>0.210857</v>
+        <v>-0.655341</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2561,13 +2561,13 @@
         <v>1880</v>
       </c>
       <c r="C150">
-        <v>0.000192</v>
+        <v>0.00016</v>
       </c>
       <c r="D150">
-        <v>0.000232</v>
+        <v>0.000132</v>
       </c>
       <c r="F150">
-        <v>-0.208679</v>
+        <v>0.176185</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2575,13 +2575,13 @@
         <v>551</v>
       </c>
       <c r="C151">
-        <v>0.018432</v>
+        <v>0.000891</v>
       </c>
       <c r="D151">
-        <v>0.021137</v>
+        <v>0.001028</v>
       </c>
       <c r="F151">
-        <v>-0.14676</v>
+        <v>-0.153276</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2589,13 +2589,13 @@
         <v>1676</v>
       </c>
       <c r="C152">
-        <v>0.000112</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D152">
-        <v>6.499999999999999E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F152">
-        <v>0.414161</v>
+        <v>-0.053525</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2603,13 +2603,13 @@
         <v>2030</v>
       </c>
       <c r="C153">
-        <v>0.000537</v>
+        <v>4.5E-05</v>
       </c>
       <c r="D153">
-        <v>0.000205</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F153">
-        <v>0.617729</v>
+        <v>0.696365</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2617,13 +2617,13 @@
         <v>1497</v>
       </c>
       <c r="C154">
-        <v>0.001392</v>
+        <v>0.000226</v>
       </c>
       <c r="D154">
-        <v>0.000906</v>
+        <v>0.000125</v>
       </c>
       <c r="F154">
-        <v>0.349264</v>
+        <v>0.44587</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -2631,13 +2631,13 @@
         <v>253</v>
       </c>
       <c r="C155">
-        <v>0.001429</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="D155">
-        <v>0.002839</v>
+        <v>0.000383</v>
       </c>
       <c r="F155">
-        <v>-0.986545</v>
+        <v>-3.249062</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -2648,13 +2648,13 @@
         <v>6</v>
       </c>
       <c r="C156">
-        <v>1.4E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D156">
-        <v>0.000309</v>
+        <v>3E-05</v>
       </c>
       <c r="F156">
-        <v>-20.802576</v>
+        <v>-6.488936</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -2662,13 +2662,13 @@
         <v>2331</v>
       </c>
       <c r="C157">
-        <v>0.006308</v>
+        <v>0.000619</v>
       </c>
       <c r="D157">
-        <v>0.007127</v>
+        <v>0.000605</v>
       </c>
       <c r="F157">
-        <v>-0.129735</v>
+        <v>0.023378</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -2676,13 +2676,13 @@
         <v>1465</v>
       </c>
       <c r="C158">
-        <v>0.012443</v>
+        <v>0.00162</v>
       </c>
       <c r="D158">
-        <v>0.012666</v>
+        <v>0.001986</v>
       </c>
       <c r="F158">
-        <v>-0.017987</v>
+        <v>-0.225835</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -2690,13 +2690,13 @@
         <v>1458</v>
       </c>
       <c r="C159">
-        <v>0.012935</v>
+        <v>0.00158</v>
       </c>
       <c r="D159">
-        <v>0.014434</v>
+        <v>0.00152</v>
       </c>
       <c r="F159">
-        <v>-0.11584</v>
+        <v>0.038227</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -2704,13 +2704,13 @@
         <v>1899</v>
       </c>
       <c r="C160">
-        <v>4.7E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D160">
-        <v>7.499999999999999E-05</v>
+        <v>0.000507</v>
       </c>
       <c r="F160">
-        <v>-0.582661</v>
+        <v>-25.562555</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2718,13 +2718,13 @@
         <v>1509</v>
       </c>
       <c r="C161">
-        <v>0.003163</v>
+        <v>0.000519</v>
       </c>
       <c r="D161">
-        <v>0.002917</v>
+        <v>0.000427</v>
       </c>
       <c r="F161">
-        <v>0.07796699999999999</v>
+        <v>0.177789</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2732,13 +2732,13 @@
         <v>727</v>
       </c>
       <c r="C162">
-        <v>0.043724</v>
+        <v>0.006818</v>
       </c>
       <c r="D162">
-        <v>0.039405</v>
+        <v>0.005783</v>
       </c>
       <c r="F162">
-        <v>0.09876799999999999</v>
+        <v>0.151822</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2749,13 +2749,13 @@
         <v>6</v>
       </c>
       <c r="C163">
-        <v>6.2E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D163">
-        <v>0.00041</v>
+        <v>7E-06</v>
       </c>
       <c r="F163">
-        <v>-5.566</v>
+        <v>-0.7435079999999999</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -2763,13 +2763,13 @@
         <v>89</v>
       </c>
       <c r="C164">
-        <v>0.001311</v>
+        <v>0.000156</v>
       </c>
       <c r="D164">
-        <v>0.001079</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F164">
-        <v>0.177324</v>
+        <v>0.475981</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2777,13 +2777,13 @@
         <v>832</v>
       </c>
       <c r="C165">
-        <v>0.001158</v>
+        <v>0.000172</v>
       </c>
       <c r="D165">
-        <v>0.000648</v>
+        <v>0.00022</v>
       </c>
       <c r="F165">
-        <v>0.440722</v>
+        <v>-0.278721</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -2791,13 +2791,13 @@
         <v>1079</v>
       </c>
       <c r="C166">
-        <v>0.037468</v>
+        <v>0.007347</v>
       </c>
       <c r="D166">
-        <v>0.043882</v>
+        <v>0.007846000000000001</v>
       </c>
       <c r="F166">
-        <v>-0.171178</v>
+        <v>-0.06786499999999999</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -2805,13 +2805,13 @@
         <v>1483</v>
       </c>
       <c r="C167">
-        <v>0.011551</v>
+        <v>0.00302</v>
       </c>
       <c r="D167">
-        <v>0.010706</v>
+        <v>0.002297</v>
       </c>
       <c r="F167">
-        <v>0.073181</v>
+        <v>0.239413</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -2819,13 +2819,13 @@
         <v>2393</v>
       </c>
       <c r="C168">
-        <v>0.005455</v>
+        <v>0.00044</v>
       </c>
       <c r="D168">
-        <v>0.004266</v>
+        <v>0.000435</v>
       </c>
       <c r="F168">
-        <v>0.217953</v>
+        <v>0.011416</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -2833,13 +2833,13 @@
         <v>1977</v>
       </c>
       <c r="C169">
-        <v>0.000322</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D169">
-        <v>0.000124</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F169">
-        <v>0.615878</v>
+        <v>0.199045</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -2847,13 +2847,13 @@
         <v>1438</v>
       </c>
       <c r="C170">
-        <v>0.06296400000000001</v>
+        <v>0.00381</v>
       </c>
       <c r="D170">
-        <v>0.059779</v>
+        <v>0.012444</v>
       </c>
       <c r="F170">
-        <v>0.050585</v>
+        <v>-2.266262</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -2861,13 +2861,13 @@
         <v>1776</v>
       </c>
       <c r="C171">
-        <v>0.001039</v>
+        <v>4E-05</v>
       </c>
       <c r="D171">
-        <v>0.000508</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F171">
-        <v>0.510704</v>
+        <v>0.344657</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>954</v>
       </c>
       <c r="C172">
-        <v>0.001928</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D172">
-        <v>0.002641</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F172">
-        <v>-0.369707</v>
+        <v>0.443107</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -2889,13 +2889,13 @@
         <v>1173</v>
       </c>
       <c r="C173">
-        <v>0.000313</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D173">
-        <v>0.000714</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F173">
-        <v>-1.286068</v>
+        <v>-2.210339</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -2903,13 +2903,13 @@
         <v>1968</v>
       </c>
       <c r="C174">
-        <v>0.000197</v>
+        <v>8E-06</v>
       </c>
       <c r="D174">
-        <v>0.000134</v>
+        <v>7E-06</v>
       </c>
       <c r="F174">
-        <v>0.319694</v>
+        <v>0.126712</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -2917,13 +2917,13 @@
         <v>1259</v>
       </c>
       <c r="C175">
-        <v>0.006139</v>
+        <v>0.000664</v>
       </c>
       <c r="D175">
-        <v>0.003541</v>
+        <v>0.000835</v>
       </c>
       <c r="F175">
-        <v>0.423178</v>
+        <v>-0.257755</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -2931,13 +2931,13 @@
         <v>1774</v>
       </c>
       <c r="C176">
-        <v>0.001116</v>
+        <v>5.3E-05</v>
       </c>
       <c r="D176">
-        <v>0.000656</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F176">
-        <v>0.411634</v>
+        <v>0.187458</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -2945,13 +2945,13 @@
         <v>2032</v>
       </c>
       <c r="C177">
-        <v>0.007385</v>
+        <v>0.001344</v>
       </c>
       <c r="D177">
-        <v>0.001548</v>
+        <v>0.000251</v>
       </c>
       <c r="F177">
-        <v>0.790408</v>
+        <v>0.812905</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -2959,13 +2959,13 @@
         <v>2068</v>
       </c>
       <c r="C178">
-        <v>0.004825</v>
+        <v>0.000628</v>
       </c>
       <c r="D178">
-        <v>0.003189</v>
+        <v>0.000224</v>
       </c>
       <c r="F178">
-        <v>0.338957</v>
+        <v>0.643143</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -2973,13 +2973,13 @@
         <v>2382</v>
       </c>
       <c r="C179">
-        <v>0.002449</v>
+        <v>0.000197</v>
       </c>
       <c r="D179">
-        <v>0.002178</v>
+        <v>0.000121</v>
       </c>
       <c r="F179">
-        <v>0.110768</v>
+        <v>0.389329</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -2987,13 +2987,13 @@
         <v>1442</v>
       </c>
       <c r="C180">
-        <v>0.0592</v>
+        <v>0.00509</v>
       </c>
       <c r="D180">
-        <v>0.057867</v>
+        <v>0.006214</v>
       </c>
       <c r="F180">
-        <v>0.022513</v>
+        <v>-0.220791</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3001,13 +3001,13 @@
         <v>1793</v>
       </c>
       <c r="C181">
-        <v>0.000144</v>
+        <v>8E-06</v>
       </c>
       <c r="D181">
-        <v>0.000174</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F181">
-        <v>-0.210153</v>
+        <v>-1.148667</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3015,13 +3015,13 @@
         <v>711</v>
       </c>
       <c r="C182">
-        <v>0.000857</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D182">
-        <v>0.000654</v>
+        <v>5E-05</v>
       </c>
       <c r="F182">
-        <v>0.236603</v>
+        <v>0.201653</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3029,13 +3029,13 @@
         <v>1843</v>
       </c>
       <c r="C183">
-        <v>0.000393</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D183">
-        <v>0.000441</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F183">
-        <v>-0.121325</v>
+        <v>-0.240358</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3043,13 +3043,13 @@
         <v>1207</v>
       </c>
       <c r="C184">
-        <v>2.5E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="D184">
-        <v>0.000662</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F184">
-        <v>-25.125008</v>
+        <v>-20.061535</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3057,13 +3057,13 @@
         <v>1233</v>
       </c>
       <c r="C185">
-        <v>0.003075</v>
+        <v>0.000543</v>
       </c>
       <c r="D185">
-        <v>0.002437</v>
+        <v>0.000569</v>
       </c>
       <c r="F185">
-        <v>0.20737</v>
+        <v>-0.048801</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3071,13 +3071,13 @@
         <v>2129</v>
       </c>
       <c r="C186">
-        <v>6.3E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D186">
-        <v>9.000000000000001E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="F186">
-        <v>-0.423793</v>
+        <v>0.305052</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3085,13 +3085,13 @@
         <v>1865</v>
       </c>
       <c r="C187">
-        <v>0.000302</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D187">
-        <v>0.000222</v>
+        <v>5E-06</v>
       </c>
       <c r="F187">
-        <v>0.262469</v>
+        <v>0.6744019999999999</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3099,13 +3099,13 @@
         <v>1649</v>
       </c>
       <c r="C188">
-        <v>0.000488</v>
+        <v>6.8E-05</v>
       </c>
       <c r="D188">
-        <v>6.999999999999999E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F188">
-        <v>0.855954</v>
+        <v>0.377836</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3113,13 +3113,13 @@
         <v>1410</v>
       </c>
       <c r="C189">
-        <v>0.033771</v>
+        <v>0.00658</v>
       </c>
       <c r="D189">
-        <v>0.044657</v>
+        <v>0.008108000000000001</v>
       </c>
       <c r="F189">
-        <v>-0.322352</v>
+        <v>-0.232215</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3127,13 +3127,13 @@
         <v>1257</v>
       </c>
       <c r="C190">
-        <v>0.000296</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D190">
-        <v>0.000838</v>
+        <v>4.5E-05</v>
       </c>
       <c r="F190">
-        <v>-1.83538</v>
+        <v>-2.132527</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3141,13 +3141,13 @@
         <v>1811</v>
       </c>
       <c r="C191">
-        <v>0.00012</v>
+        <v>5E-06</v>
       </c>
       <c r="D191">
-        <v>6.7E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F191">
-        <v>0.441452</v>
+        <v>-9.109078</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3155,13 +3155,13 @@
         <v>656</v>
       </c>
       <c r="C192">
-        <v>0.018452</v>
+        <v>0.001163</v>
       </c>
       <c r="D192">
-        <v>0.024965</v>
+        <v>0.00126</v>
       </c>
       <c r="F192">
-        <v>-0.352943</v>
+        <v>-0.08294899999999999</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3169,13 +3169,13 @@
         <v>2112</v>
       </c>
       <c r="C193">
-        <v>0.007414</v>
+        <v>0.001349</v>
       </c>
       <c r="D193">
-        <v>0.006366</v>
+        <v>0.001854</v>
       </c>
       <c r="F193">
-        <v>0.141346</v>
+        <v>-0.374376</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3183,13 +3183,13 @@
         <v>1762</v>
       </c>
       <c r="C194">
-        <v>0.0009959999999999999</v>
+        <v>6.8E-05</v>
       </c>
       <c r="D194">
-        <v>0.000539</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F194">
-        <v>0.458228</v>
+        <v>0.499565</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3197,13 +3197,13 @@
         <v>1501</v>
       </c>
       <c r="C195">
-        <v>0.000739</v>
+        <v>0.000111</v>
       </c>
       <c r="D195">
-        <v>0.000537</v>
+        <v>0.000108</v>
       </c>
       <c r="F195">
-        <v>0.27389</v>
+        <v>0.028093</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3214,13 +3214,13 @@
         <v>6</v>
       </c>
       <c r="C196">
-        <v>2.8E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="D196">
-        <v>0.000119</v>
+        <v>6E-06</v>
       </c>
       <c r="F196">
-        <v>-3.24217</v>
+        <v>-4.691954</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3228,13 +3228,13 @@
         <v>2001</v>
       </c>
       <c r="C197">
-        <v>0.003618</v>
+        <v>0.0006579999999999999</v>
       </c>
       <c r="D197">
-        <v>0.001548</v>
+        <v>0.000251</v>
       </c>
       <c r="F197">
-        <v>0.572205</v>
+        <v>0.618124</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3242,13 +3242,13 @@
         <v>1143</v>
       </c>
       <c r="C198">
-        <v>0.000168</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D198">
-        <v>0.000191</v>
+        <v>9E-06</v>
       </c>
       <c r="F198">
-        <v>-0.134584</v>
+        <v>0.75673</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3256,13 +3256,13 @@
         <v>1789</v>
       </c>
       <c r="C199">
-        <v>0.000149</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D199">
-        <v>0.000469</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F199">
-        <v>-2.152711</v>
+        <v>-0.11453</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3270,13 +3270,13 @@
         <v>1708</v>
       </c>
       <c r="C200">
-        <v>0.001545</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D200">
-        <v>0.000866</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F200">
-        <v>0.439556</v>
+        <v>0.240197</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3284,13 +3284,13 @@
         <v>1355</v>
       </c>
       <c r="C201">
-        <v>3.7E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="D201">
-        <v>0.000299</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F201">
-        <v>-7.129194</v>
+        <v>-2.133875</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3298,13 +3298,13 @@
         <v>1121</v>
       </c>
       <c r="C202">
-        <v>0.115471</v>
+        <v>0.00208</v>
       </c>
       <c r="D202">
-        <v>0.009964000000000001</v>
+        <v>0.001557</v>
       </c>
       <c r="F202">
-        <v>0.913707</v>
+        <v>0.251408</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3312,13 +3312,13 @@
         <v>815</v>
       </c>
       <c r="C203">
-        <v>0.000394</v>
+        <v>3.9E-05</v>
       </c>
       <c r="D203">
-        <v>0.000263</v>
+        <v>7.499999999999999E-05</v>
       </c>
       <c r="F203">
-        <v>0.330666</v>
+        <v>-0.91376</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3326,13 +3326,13 @@
         <v>534</v>
       </c>
       <c r="C204">
-        <v>0.00313</v>
+        <v>0.000581</v>
       </c>
       <c r="D204">
-        <v>0.005042</v>
+        <v>0.000952</v>
       </c>
       <c r="F204">
-        <v>-0.610665</v>
+        <v>-0.637846</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3340,13 +3340,13 @@
         <v>1630</v>
       </c>
       <c r="C205">
-        <v>1.7E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D205">
-        <v>0.00015</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F205">
-        <v>-8.046131000000001</v>
+        <v>-7.961992</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3354,13 +3354,13 @@
         <v>59</v>
       </c>
       <c r="C206">
-        <v>0.001956</v>
+        <v>0.000139</v>
       </c>
       <c r="D206">
-        <v>0.001039</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F206">
-        <v>0.468907</v>
+        <v>0.494978</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3368,13 +3368,13 @@
         <v>2027</v>
       </c>
       <c r="C207">
-        <v>0.000339</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D207">
-        <v>0.000284</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F207">
-        <v>0.159832</v>
+        <v>0.480436</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3382,13 +3382,13 @@
         <v>30</v>
       </c>
       <c r="C208">
-        <v>4.3E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D208">
-        <v>6.8E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F208">
-        <v>-0.571375</v>
+        <v>-1.424443</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3396,13 +3396,13 @@
         <v>2047</v>
       </c>
       <c r="C209">
-        <v>2.6E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D209">
-        <v>0.000112</v>
+        <v>4E-06</v>
       </c>
       <c r="F209">
-        <v>-3.226782</v>
+        <v>-0.872244</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3410,13 +3410,13 @@
         <v>1342</v>
       </c>
       <c r="C210">
-        <v>0.010519</v>
+        <v>0.001914</v>
       </c>
       <c r="D210">
-        <v>0.008546</v>
+        <v>0.001721</v>
       </c>
       <c r="F210">
-        <v>0.187565</v>
+        <v>0.100991</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3424,13 +3424,13 @@
         <v>1182</v>
       </c>
       <c r="C211">
-        <v>0.000194</v>
+        <v>1E-05</v>
       </c>
       <c r="D211">
-        <v>0.000364</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F211">
-        <v>-0.875057</v>
+        <v>-0.370703</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3438,13 +3438,13 @@
         <v>1297</v>
       </c>
       <c r="C212">
-        <v>0.01079</v>
+        <v>0.001005</v>
       </c>
       <c r="D212">
-        <v>0.009371000000000001</v>
+        <v>0.000538</v>
       </c>
       <c r="F212">
-        <v>0.13151</v>
+        <v>0.464799</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -3452,13 +3452,13 @@
         <v>2348</v>
       </c>
       <c r="C213">
-        <v>0.004617</v>
+        <v>0.000453</v>
       </c>
       <c r="D213">
-        <v>0.004459</v>
+        <v>0.000466</v>
       </c>
       <c r="F213">
-        <v>0.034185</v>
+        <v>-0.028115</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3469,13 +3469,13 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.009362000000000001</v>
+        <v>0.001633</v>
       </c>
       <c r="D214">
-        <v>0.006955</v>
+        <v>0.001868</v>
       </c>
       <c r="F214">
-        <v>0.257102</v>
+        <v>-0.143838</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -3483,13 +3483,13 @@
         <v>1746</v>
       </c>
       <c r="C215">
-        <v>0.001625</v>
+        <v>0.000151</v>
       </c>
       <c r="D215">
-        <v>0.001116</v>
+        <v>0.000126</v>
       </c>
       <c r="F215">
-        <v>0.313141</v>
+        <v>0.164597</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -3497,13 +3497,13 @@
         <v>2364</v>
       </c>
       <c r="C216">
-        <v>0.004488</v>
+        <v>0.000354</v>
       </c>
       <c r="D216">
-        <v>0.004622</v>
+        <v>0.000427</v>
       </c>
       <c r="F216">
-        <v>-0.02998</v>
+        <v>-0.205054</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -3514,13 +3514,13 @@
         <v>6</v>
       </c>
       <c r="C217">
-        <v>0.039852</v>
+        <v>0.007011</v>
       </c>
       <c r="D217">
-        <v>0.041204</v>
+        <v>0.00671</v>
       </c>
       <c r="F217">
-        <v>-0.033925</v>
+        <v>0.042948</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -3528,13 +3528,13 @@
         <v>1471</v>
       </c>
       <c r="C218">
-        <v>0.013844</v>
+        <v>0.00178</v>
       </c>
       <c r="D218">
-        <v>0.011833</v>
+        <v>0.002041</v>
       </c>
       <c r="F218">
-        <v>0.145293</v>
+        <v>-0.146825</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -3542,13 +3542,13 @@
         <v>1991</v>
       </c>
       <c r="C219">
-        <v>0.003773</v>
+        <v>0.000687</v>
       </c>
       <c r="D219">
-        <v>0.000388</v>
+        <v>0.000275</v>
       </c>
       <c r="F219">
-        <v>0.897099</v>
+        <v>0.59937</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -3556,13 +3556,13 @@
         <v>825</v>
       </c>
       <c r="C220">
-        <v>0.036243</v>
+        <v>0.003082</v>
       </c>
       <c r="D220">
-        <v>0.023044</v>
+        <v>0.002783</v>
       </c>
       <c r="F220">
-        <v>0.364188</v>
+        <v>0.097048</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -3570,13 +3570,13 @@
         <v>998</v>
       </c>
       <c r="C221">
-        <v>0.039852</v>
+        <v>0.007011</v>
       </c>
       <c r="D221">
-        <v>0.04116</v>
+        <v>0.007071</v>
       </c>
       <c r="F221">
-        <v>-0.032828</v>
+        <v>-0.008517</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -3584,13 +3584,13 @@
         <v>1370</v>
       </c>
       <c r="C222">
-        <v>0.004013</v>
+        <v>0.001041</v>
       </c>
       <c r="D222">
-        <v>0.001924</v>
+        <v>0.000284</v>
       </c>
       <c r="F222">
-        <v>0.520634</v>
+        <v>0.727082</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -3598,13 +3598,13 @@
         <v>1432</v>
       </c>
       <c r="C223">
-        <v>0.033354</v>
+        <v>0.00991</v>
       </c>
       <c r="D223">
-        <v>0.024239</v>
+        <v>0.01041</v>
       </c>
       <c r="F223">
-        <v>0.273273</v>
+        <v>-0.050467</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -3612,13 +3612,13 @@
         <v>842</v>
       </c>
       <c r="C224">
-        <v>0.040356</v>
+        <v>0.008038999999999999</v>
       </c>
       <c r="D224">
-        <v>0.041625</v>
+        <v>0.008033999999999999</v>
       </c>
       <c r="F224">
-        <v>-0.031448</v>
+        <v>0.0006310000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -3626,13 +3626,13 @@
         <v>2245</v>
       </c>
       <c r="C225">
-        <v>0.001729</v>
+        <v>0.000118</v>
       </c>
       <c r="D225">
-        <v>0.003038</v>
+        <v>0.000165</v>
       </c>
       <c r="F225">
-        <v>-0.757248</v>
+        <v>-0.397061</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -3640,13 +3640,13 @@
         <v>1707</v>
       </c>
       <c r="C226">
-        <v>0.002011</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="D226">
-        <v>0.001088</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F226">
-        <v>0.458816</v>
+        <v>0.274759</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -3654,13 +3654,13 @@
         <v>1605</v>
       </c>
       <c r="C227">
-        <v>3.5E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="D227">
-        <v>2.6E-05</v>
+        <v>0.004829</v>
       </c>
       <c r="F227">
-        <v>0.256538</v>
+        <v>-707.104678</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3668,13 +3668,13 @@
         <v>1677</v>
       </c>
       <c r="C228">
-        <v>0.000128</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D228">
-        <v>6.4E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F228">
-        <v>0.502085</v>
+        <v>0.132947</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3682,13 +3682,13 @@
         <v>2002</v>
       </c>
       <c r="C229">
-        <v>0.002013</v>
+        <v>9.3E-05</v>
       </c>
       <c r="D229">
-        <v>0.00017</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F229">
-        <v>0.91536</v>
+        <v>0.8502769999999999</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -3696,13 +3696,13 @@
         <v>2388</v>
       </c>
       <c r="C230">
-        <v>0.005677</v>
+        <v>0.000458</v>
       </c>
       <c r="D230">
-        <v>0.005346</v>
+        <v>0.000483</v>
       </c>
       <c r="F230">
-        <v>0.05831</v>
+        <v>-0.054698</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -3710,13 +3710,13 @@
         <v>1391</v>
       </c>
       <c r="C231">
-        <v>0.00316</v>
+        <v>0.0007560000000000001</v>
       </c>
       <c r="D231">
-        <v>0.001611</v>
+        <v>0.0008</v>
       </c>
       <c r="F231">
-        <v>0.490024</v>
+        <v>-0.058651</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -3724,13 +3724,13 @@
         <v>1954</v>
       </c>
       <c r="C232">
-        <v>0.001219</v>
+        <v>7.3E-05</v>
       </c>
       <c r="D232">
-        <v>0.000954</v>
+        <v>0.001427</v>
       </c>
       <c r="F232">
-        <v>0.21758</v>
+        <v>-18.598665</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3738,13 +3738,13 @@
         <v>1415</v>
       </c>
       <c r="C233">
-        <v>0.004483</v>
+        <v>0.000712</v>
       </c>
       <c r="D233">
-        <v>0.006009</v>
+        <v>0.000966</v>
       </c>
       <c r="F233">
-        <v>-0.340462</v>
+        <v>-0.357433</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3752,13 +3752,13 @@
         <v>1614</v>
       </c>
       <c r="C234">
-        <v>8E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D234">
-        <v>2.1E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F234">
-        <v>-1.737473</v>
+        <v>-1.717701</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -3766,13 +3766,13 @@
         <v>1277</v>
       </c>
       <c r="C235">
-        <v>0.003429</v>
+        <v>0.000397</v>
       </c>
       <c r="D235">
-        <v>0.001936</v>
+        <v>0.000312</v>
       </c>
       <c r="F235">
-        <v>0.435368</v>
+        <v>0.215257</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -3780,13 +3780,13 @@
         <v>338</v>
       </c>
       <c r="C236">
-        <v>0.015196</v>
+        <v>0.005631</v>
       </c>
       <c r="D236">
-        <v>0.0092</v>
+        <v>0.005591</v>
       </c>
       <c r="F236">
-        <v>0.394567</v>
+        <v>0.007146</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -3794,13 +3794,13 @@
         <v>1830</v>
       </c>
       <c r="C237">
-        <v>0.002196</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D237">
-        <v>0.000578</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F237">
-        <v>0.736854</v>
+        <v>0.482859</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -3808,13 +3808,13 @@
         <v>896</v>
       </c>
       <c r="C238">
-        <v>0.000194</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D238">
-        <v>8.6E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F238">
-        <v>0.559209</v>
+        <v>0.353761</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -3822,13 +3822,13 @@
         <v>1540</v>
       </c>
       <c r="C239">
-        <v>0.001975</v>
+        <v>0.000331</v>
       </c>
       <c r="D239">
-        <v>0.001009</v>
+        <v>0.00018</v>
       </c>
       <c r="F239">
-        <v>0.488941</v>
+        <v>0.455241</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -3836,13 +3836,13 @@
         <v>1911</v>
       </c>
       <c r="C240">
-        <v>3E-06</v>
+        <v>2E-06</v>
       </c>
       <c r="D240">
-        <v>0.000264</v>
+        <v>5.5E-05</v>
       </c>
       <c r="F240">
-        <v>-76.024992</v>
+        <v>-27.442073</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -3850,13 +3850,13 @@
         <v>1489</v>
       </c>
       <c r="C241">
-        <v>0.000825</v>
+        <v>0.000186</v>
       </c>
       <c r="D241">
-        <v>0.000828</v>
+        <v>0.00031</v>
       </c>
       <c r="F241">
-        <v>-0.002674</v>
+        <v>-0.665987</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -3864,13 +3864,13 @@
         <v>1178</v>
       </c>
       <c r="C242">
-        <v>0.000226</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D242">
-        <v>0.00167</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F242">
-        <v>-6.375033</v>
+        <v>-3.067409</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -3878,13 +3878,13 @@
         <v>1665</v>
       </c>
       <c r="C243">
-        <v>0.000136</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D243">
-        <v>0.000334</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F243">
-        <v>-1.453525</v>
+        <v>0.092886</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -3892,13 +3892,13 @@
         <v>1281</v>
       </c>
       <c r="C244">
-        <v>8.4E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D244">
-        <v>0.000535</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F244">
-        <v>-5.372456</v>
+        <v>-3.707629</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -3906,13 +3906,13 @@
         <v>1447</v>
       </c>
       <c r="C245">
-        <v>0.062585</v>
+        <v>0.0106</v>
       </c>
       <c r="D245">
-        <v>0.062286</v>
+        <v>0.010563</v>
       </c>
       <c r="F245">
-        <v>0.00477</v>
+        <v>0.00351</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -3920,13 +3920,13 @@
         <v>597</v>
       </c>
       <c r="C246">
-        <v>0.008161</v>
+        <v>0.001426</v>
       </c>
       <c r="D246">
-        <v>0.004853</v>
+        <v>0.001064</v>
       </c>
       <c r="F246">
-        <v>0.405355</v>
+        <v>0.253785</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -3934,13 +3934,13 @@
         <v>930</v>
       </c>
       <c r="C247">
-        <v>5.1E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D247">
-        <v>0.000229</v>
+        <v>9E-06</v>
       </c>
       <c r="F247">
-        <v>-3.520959</v>
+        <v>0.039898</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -3948,13 +3948,13 @@
         <v>1435</v>
       </c>
       <c r="C248">
-        <v>0.056715</v>
+        <v>0.00181</v>
       </c>
       <c r="D248">
-        <v>0.05159</v>
+        <v>0.000887</v>
       </c>
       <c r="F248">
-        <v>0.090365</v>
+        <v>0.5099</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -3962,13 +3962,13 @@
         <v>2165</v>
       </c>
       <c r="C249">
-        <v>0.000417</v>
+        <v>5.4E-05</v>
       </c>
       <c r="D249">
-        <v>0.001405</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F249">
-        <v>-2.370166</v>
+        <v>-0.519146</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -3976,13 +3976,13 @@
         <v>1872</v>
       </c>
       <c r="C250">
-        <v>0.000129</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="D250">
-        <v>0.000252</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="F250">
-        <v>-0.9615320000000001</v>
+        <v>0.241551</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -3990,13 +3990,13 @@
         <v>935</v>
       </c>
       <c r="C251">
-        <v>0.000233</v>
+        <v>2E-05</v>
       </c>
       <c r="D251">
-        <v>0.001133</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F251">
-        <v>-3.871269</v>
+        <v>0.176719</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4004,13 +4004,13 @@
         <v>146</v>
       </c>
       <c r="C252">
-        <v>0.011033</v>
+        <v>0.001695</v>
       </c>
       <c r="D252">
-        <v>0.006717</v>
+        <v>0.001703</v>
       </c>
       <c r="F252">
-        <v>0.391162</v>
+        <v>-0.004568</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4018,13 +4018,13 @@
         <v>997</v>
       </c>
       <c r="C253">
-        <v>0.042161</v>
+        <v>0.00533</v>
       </c>
       <c r="D253">
-        <v>0.03128</v>
+        <v>0.004975</v>
       </c>
       <c r="F253">
-        <v>0.258096</v>
+        <v>0.06668</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4032,13 +4032,13 @@
         <v>1826</v>
       </c>
       <c r="C254">
-        <v>0.001309</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D254">
-        <v>0.000617</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F254">
-        <v>0.528925</v>
+        <v>-0.038132</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -4049,13 +4049,13 @@
         <v>6</v>
       </c>
       <c r="C255">
-        <v>0.003168</v>
+        <v>0.000288</v>
       </c>
       <c r="D255">
-        <v>0.002674</v>
+        <v>0.000293</v>
       </c>
       <c r="F255">
-        <v>0.155991</v>
+        <v>-0.017346</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4063,13 +4063,13 @@
         <v>2211</v>
       </c>
       <c r="C256">
-        <v>0.000544</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D256">
-        <v>0.001605</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F256">
-        <v>-1.948397</v>
+        <v>0.077335</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4077,13 +4077,13 @@
         <v>1519</v>
       </c>
       <c r="C257">
-        <v>0.000617</v>
+        <v>0.00015</v>
       </c>
       <c r="D257">
-        <v>0.000565</v>
+        <v>0.000167</v>
       </c>
       <c r="F257">
-        <v>0.083608</v>
+        <v>-0.115156</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4091,13 +4091,13 @@
         <v>1221</v>
       </c>
       <c r="C258">
-        <v>0.001003</v>
+        <v>9.899999999999999E-05</v>
       </c>
       <c r="D258">
-        <v>0.001026</v>
+        <v>0.000125</v>
       </c>
       <c r="F258">
-        <v>-0.023368</v>
+        <v>-0.258859</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4105,13 +4105,13 @@
         <v>1920</v>
       </c>
       <c r="C259">
-        <v>1.7E-05</v>
+        <v>1E-06</v>
       </c>
       <c r="D259">
-        <v>1.8E-05</v>
+        <v>0.000363</v>
       </c>
       <c r="F259">
-        <v>-0.092561</v>
+        <v>-280.677363</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4119,13 +4119,13 @@
         <v>2376</v>
       </c>
       <c r="C260">
-        <v>0.00116</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="D260">
-        <v>0.001878</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F260">
-        <v>-0.618911</v>
+        <v>0.122594</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>194</v>
       </c>
       <c r="C261">
-        <v>0.00259</v>
+        <v>0.00035</v>
       </c>
       <c r="D261">
-        <v>0.002581</v>
+        <v>0.000404</v>
       </c>
       <c r="F261">
-        <v>0.003813</v>
+        <v>-0.154691</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -4147,13 +4147,13 @@
         <v>1683</v>
       </c>
       <c r="C262">
-        <v>0.001142</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D262">
-        <v>0.000668</v>
+        <v>8.7E-05</v>
       </c>
       <c r="F262">
-        <v>0.41477</v>
+        <v>-0.389821</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4161,13 +4161,13 @@
         <v>1416</v>
       </c>
       <c r="C263">
-        <v>0.010107</v>
+        <v>0.00256</v>
       </c>
       <c r="D263">
-        <v>0.007133</v>
+        <v>0.001972</v>
       </c>
       <c r="F263">
-        <v>0.294321</v>
+        <v>0.229514</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4175,13 +4175,13 @@
         <v>1816</v>
       </c>
       <c r="C264">
-        <v>0.000334</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D264">
-        <v>0.000173</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F264">
-        <v>0.481328</v>
+        <v>-0.245945</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4189,13 +4189,13 @@
         <v>596</v>
       </c>
       <c r="C265">
-        <v>0.005871</v>
+        <v>0.0007739999999999999</v>
       </c>
       <c r="D265">
-        <v>0.003208</v>
+        <v>0.00054</v>
       </c>
       <c r="F265">
-        <v>0.453652</v>
+        <v>0.302005</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4203,13 +4203,13 @@
         <v>1709</v>
       </c>
       <c r="C266">
-        <v>0.000865</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D266">
-        <v>0.000342</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F266">
-        <v>0.604646</v>
+        <v>0.305712</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4217,13 +4217,13 @@
         <v>18</v>
       </c>
       <c r="C267">
-        <v>0.003391</v>
+        <v>0.001045</v>
       </c>
       <c r="D267">
-        <v>0.000703</v>
+        <v>0.000801</v>
       </c>
       <c r="F267">
-        <v>0.79283</v>
+        <v>0.234032</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4231,13 +4231,13 @@
         <v>1525</v>
       </c>
       <c r="C268">
-        <v>0.000357</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D268">
-        <v>0.000328</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F268">
-        <v>0.082008</v>
+        <v>0.259044</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4245,13 +4245,13 @@
         <v>693</v>
       </c>
       <c r="C269">
-        <v>0.000194</v>
+        <v>1.2E-05</v>
       </c>
       <c r="D269">
-        <v>0.000341</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F269">
-        <v>-0.760458</v>
+        <v>-0.862745</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4259,13 +4259,13 @@
         <v>1477</v>
       </c>
       <c r="C270">
-        <v>0.009254</v>
+        <v>0.00214</v>
       </c>
       <c r="D270">
-        <v>0.009155999999999999</v>
+        <v>0.00205</v>
       </c>
       <c r="F270">
-        <v>0.010553</v>
+        <v>0.042057</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>1737</v>
       </c>
       <c r="C271">
-        <v>0.001637</v>
+        <v>7.9E-05</v>
       </c>
       <c r="D271">
-        <v>0.000534</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F271">
-        <v>0.674094</v>
+        <v>0.296316</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -4287,13 +4287,13 @@
         <v>1317</v>
       </c>
       <c r="C272">
-        <v>0.006738</v>
+        <v>0.0008229999999999999</v>
       </c>
       <c r="D272">
-        <v>0.002862</v>
+        <v>0.000469</v>
       </c>
       <c r="F272">
-        <v>0.575206</v>
+        <v>0.430374</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -4301,13 +4301,13 @@
         <v>511</v>
       </c>
       <c r="C273">
-        <v>0.003707</v>
+        <v>0.000688</v>
       </c>
       <c r="D273">
-        <v>0.005189</v>
+        <v>0.001143</v>
       </c>
       <c r="F273">
-        <v>-0.399565</v>
+        <v>-0.66081</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -4315,13 +4315,13 @@
         <v>46</v>
       </c>
       <c r="C274">
-        <v>0.018168</v>
+        <v>0.002949</v>
       </c>
       <c r="D274">
-        <v>0.012306</v>
+        <v>0.003233</v>
       </c>
       <c r="F274">
-        <v>0.322654</v>
+        <v>-0.096302</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -4329,13 +4329,13 @@
         <v>1639</v>
       </c>
       <c r="C275">
-        <v>0.000127</v>
+        <v>4.5E-05</v>
       </c>
       <c r="D275">
-        <v>7.3E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F275">
-        <v>0.426716</v>
+        <v>-0.171884</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -4343,13 +4343,13 @@
         <v>657</v>
       </c>
       <c r="C276">
-        <v>0.020095</v>
+        <v>0.002748</v>
       </c>
       <c r="D276">
-        <v>0.029879</v>
+        <v>0.003598</v>
       </c>
       <c r="F276">
-        <v>-0.486862</v>
+        <v>-0.309326</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -4357,13 +4357,13 @@
         <v>926</v>
       </c>
       <c r="C277">
-        <v>0.00164</v>
+        <v>0.000297</v>
       </c>
       <c r="D277">
-        <v>0.00098</v>
+        <v>0.000193</v>
       </c>
       <c r="F277">
-        <v>0.402014</v>
+        <v>0.350373</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -4371,13 +4371,13 @@
         <v>1941</v>
       </c>
       <c r="C278">
-        <v>0.000208</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D278">
-        <v>0.000269</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F278">
-        <v>-0.288523</v>
+        <v>-1.214478</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -4385,13 +4385,13 @@
         <v>2106</v>
       </c>
       <c r="C279">
-        <v>0.002906</v>
+        <v>0.000378</v>
       </c>
       <c r="D279">
-        <v>0.003189</v>
+        <v>0.000224</v>
       </c>
       <c r="F279">
-        <v>-0.09758799999999999</v>
+        <v>0.407479</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -4399,13 +4399,13 @@
         <v>2246</v>
       </c>
       <c r="C280">
-        <v>0.0007739999999999999</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D280">
-        <v>0.0027</v>
+        <v>0.000112</v>
       </c>
       <c r="F280">
-        <v>-2.490208</v>
+        <v>-1.310243</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -4413,13 +4413,13 @@
         <v>1369</v>
       </c>
       <c r="C281">
-        <v>0.000515</v>
+        <v>0.000144</v>
       </c>
       <c r="D281">
-        <v>0.00052</v>
+        <v>0.000121</v>
       </c>
       <c r="F281">
-        <v>-0.009474</v>
+        <v>0.159641</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -4427,13 +4427,13 @@
         <v>1170</v>
       </c>
       <c r="C282">
-        <v>0.000433</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D282">
-        <v>0.001469</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F282">
-        <v>-2.39705</v>
+        <v>-1.277947</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -4441,13 +4441,13 @@
         <v>1939</v>
       </c>
       <c r="C283">
-        <v>0.000439</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D283">
-        <v>0.000119</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F283">
-        <v>0.728774</v>
+        <v>0.464577</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -4455,13 +4455,13 @@
         <v>2340</v>
       </c>
       <c r="C284">
-        <v>0.005759</v>
+        <v>0.000565</v>
       </c>
       <c r="D284">
-        <v>0.008971</v>
+        <v>0.000608</v>
       </c>
       <c r="F284">
-        <v>-0.557736</v>
+        <v>-0.075654</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -4469,13 +4469,13 @@
         <v>2262</v>
       </c>
       <c r="C285">
-        <v>0.000169</v>
+        <v>1E-05</v>
       </c>
       <c r="D285">
-        <v>0.000347</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F285">
-        <v>-1.053229</v>
+        <v>-0.02504</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -4483,13 +4483,13 @@
         <v>1276</v>
       </c>
       <c r="C286">
-        <v>0.003473</v>
+        <v>0.000419</v>
       </c>
       <c r="D286">
-        <v>0.002057</v>
+        <v>0.000337</v>
       </c>
       <c r="F286">
-        <v>0.407495</v>
+        <v>0.195729</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -4497,13 +4497,13 @@
         <v>2217</v>
       </c>
       <c r="C287">
-        <v>0.000154</v>
+        <v>8E-06</v>
       </c>
       <c r="D287">
-        <v>0.001294</v>
+        <v>8E-06</v>
       </c>
       <c r="F287">
-        <v>-7.399151</v>
+        <v>0.038559</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -4511,13 +4511,13 @@
         <v>497</v>
       </c>
       <c r="C288">
-        <v>0.025271</v>
+        <v>0.002428</v>
       </c>
       <c r="D288">
-        <v>0.030372</v>
+        <v>0.001679</v>
       </c>
       <c r="F288">
-        <v>-0.201861</v>
+        <v>0.308488</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -4525,13 +4525,13 @@
         <v>2081</v>
       </c>
       <c r="C289">
-        <v>1.9E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D289">
-        <v>6.9E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F289">
-        <v>-2.630777</v>
+        <v>-1.226258</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -4539,13 +4539,13 @@
         <v>1870</v>
       </c>
       <c r="C290">
-        <v>0.000386</v>
+        <v>0.000354</v>
       </c>
       <c r="D290">
-        <v>0.000412</v>
+        <v>0.000434</v>
       </c>
       <c r="F290">
-        <v>-0.068398</v>
+        <v>-0.226353</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -4553,13 +4553,13 @@
         <v>1882</v>
       </c>
       <c r="C291">
-        <v>0.000622</v>
+        <v>0.000873</v>
       </c>
       <c r="D291">
-        <v>0.000623</v>
+        <v>0.001429</v>
       </c>
       <c r="F291">
-        <v>-0.001698</v>
+        <v>-0.637294</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -4567,13 +4567,13 @@
         <v>1183</v>
       </c>
       <c r="C292">
-        <v>0.000101</v>
+        <v>5E-06</v>
       </c>
       <c r="D292">
-        <v>0.000283</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F292">
-        <v>-1.802987</v>
+        <v>-2.39719</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -4581,13 +4581,13 @@
         <v>2339</v>
       </c>
       <c r="C293">
-        <v>0.005988</v>
+        <v>0.000588</v>
       </c>
       <c r="D293">
-        <v>0.004726</v>
+        <v>0.000468</v>
       </c>
       <c r="F293">
-        <v>0.210831</v>
+        <v>0.203114</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4595,13 +4595,13 @@
         <v>1897</v>
       </c>
       <c r="C294">
-        <v>0.000568</v>
+        <v>0.000529</v>
       </c>
       <c r="D294">
-        <v>0.000451</v>
+        <v>0.000534</v>
       </c>
       <c r="F294">
-        <v>0.205227</v>
+        <v>-0.008666</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -4609,13 +4609,13 @@
         <v>1549</v>
       </c>
       <c r="C295">
-        <v>2E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="D295">
         <v>4E-06</v>
       </c>
       <c r="F295">
-        <v>-0.580824</v>
+        <v>-0.48333</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -4623,13 +4623,13 @@
         <v>2261</v>
       </c>
       <c r="C296">
-        <v>0.0004</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D296">
-        <v>0.000447</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F296">
-        <v>-0.119474</v>
+        <v>0.173014</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -4637,13 +4637,13 @@
         <v>2017</v>
       </c>
       <c r="C297">
-        <v>5.1E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D297">
-        <v>0.000112</v>
+        <v>4E-06</v>
       </c>
       <c r="F297">
-        <v>-1.189922</v>
+        <v>0.029979</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -4651,13 +4651,13 @@
         <v>1864</v>
       </c>
       <c r="C298">
-        <v>0.00043</v>
+        <v>3.8E-05</v>
       </c>
       <c r="D298">
-        <v>0.000345</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F298">
-        <v>0.197719</v>
+        <v>-0.227968</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -4665,13 +4665,13 @@
         <v>1616</v>
       </c>
       <c r="C299">
-        <v>3.6E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D299">
-        <v>4.3E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F299">
-        <v>-0.168093</v>
+        <v>0.173578</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -4679,13 +4679,13 @@
         <v>2312</v>
       </c>
       <c r="C300">
-        <v>0.002551</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D300">
-        <v>0.001246</v>
+        <v>0.000111</v>
       </c>
       <c r="F300">
-        <v>0.511788</v>
+        <v>-0.416289</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -4693,13 +4693,13 @@
         <v>1618</v>
       </c>
       <c r="C301">
-        <v>8.1E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D301">
-        <v>0.000174</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F301">
-        <v>-1.158187</v>
+        <v>0.118844</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -4707,13 +4707,13 @@
         <v>2402</v>
       </c>
       <c r="C302">
-        <v>3.1E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D302">
-        <v>0.000218</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F302">
-        <v>-6.041088</v>
+        <v>-0.852581</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -4724,10 +4724,10 @@
         <v>2E-06</v>
       </c>
       <c r="D303">
-        <v>1.3E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="F303">
-        <v>-5.029291</v>
+        <v>-2.585222</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4735,13 +4735,13 @@
         <v>36</v>
       </c>
       <c r="C304">
-        <v>0.000404</v>
+        <v>7.7E-05</v>
       </c>
       <c r="D304">
-        <v>0.000172</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F304">
-        <v>0.57519</v>
+        <v>0.188271</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -4749,13 +4749,13 @@
         <v>2075</v>
       </c>
       <c r="C305">
-        <v>0.000211</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D305">
-        <v>9.899999999999999E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F305">
-        <v>0.532569</v>
+        <v>-0.428461</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -4763,13 +4763,13 @@
         <v>1218</v>
       </c>
       <c r="C306">
-        <v>0.000603</v>
+        <v>5.6E-05</v>
       </c>
       <c r="D306">
-        <v>0.001076</v>
+        <v>0.00014</v>
       </c>
       <c r="F306">
-        <v>-0.784869</v>
+        <v>-1.485235</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -4777,13 +4777,13 @@
         <v>442</v>
       </c>
       <c r="C307">
-        <v>0.017826</v>
+        <v>0.001193</v>
       </c>
       <c r="D307">
-        <v>0.008355</v>
+        <v>0.0005730000000000001</v>
       </c>
       <c r="F307">
-        <v>0.531289</v>
+        <v>0.51939</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -4791,13 +4791,13 @@
         <v>808</v>
       </c>
       <c r="C308">
-        <v>0.011892</v>
+        <v>0.000589</v>
       </c>
       <c r="D308">
-        <v>0.010689</v>
+        <v>0.001616</v>
       </c>
       <c r="F308">
-        <v>0.101133</v>
+        <v>-1.744053</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -4805,13 +4805,13 @@
         <v>31</v>
       </c>
       <c r="C309">
-        <v>0.000982</v>
+        <v>0.000193</v>
       </c>
       <c r="D309">
-        <v>0.000231</v>
+        <v>0.000194</v>
       </c>
       <c r="F309">
-        <v>0.765132</v>
+        <v>-0.003595</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -4819,13 +4819,13 @@
         <v>1492</v>
       </c>
       <c r="C310">
-        <v>0.002061</v>
+        <v>0.000394</v>
       </c>
       <c r="D310">
-        <v>0.001222</v>
+        <v>0.000443</v>
       </c>
       <c r="F310">
-        <v>0.407177</v>
+        <v>-0.125032</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -4833,13 +4833,13 @@
         <v>1718</v>
       </c>
       <c r="C311">
-        <v>0.000526</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D311">
-        <v>0.000547</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F311">
-        <v>-0.039947</v>
+        <v>0.063889</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -4847,13 +4847,13 @@
         <v>1340</v>
       </c>
       <c r="C312">
-        <v>0.011167</v>
+        <v>0.002032</v>
       </c>
       <c r="D312">
-        <v>0.005784</v>
+        <v>0.058907</v>
       </c>
       <c r="F312">
-        <v>0.482064</v>
+        <v>-27.989826</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -4861,13 +4861,13 @@
         <v>1946</v>
       </c>
       <c r="C313">
-        <v>0.000101</v>
+        <v>5E-06</v>
       </c>
       <c r="D313">
-        <v>0.00013</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F313">
-        <v>-0.285269</v>
+        <v>-5.675113</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4875,13 +4875,13 @@
         <v>1622</v>
       </c>
       <c r="C314">
-        <v>3.4E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D314">
-        <v>0.000139</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F314">
-        <v>-3.052141</v>
+        <v>-0.493027</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -4889,13 +4889,13 @@
         <v>2210</v>
       </c>
       <c r="C315">
-        <v>0.000706</v>
+        <v>4.4E-05</v>
       </c>
       <c r="D315">
-        <v>0.001634</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F315">
-        <v>-1.313509</v>
+        <v>0.231871</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -4903,13 +4903,13 @@
         <v>1728</v>
       </c>
       <c r="C316">
-        <v>0.002472</v>
+        <v>0.000155</v>
       </c>
       <c r="D316">
-        <v>0.000862</v>
+        <v>0.00013</v>
       </c>
       <c r="F316">
-        <v>0.651421</v>
+        <v>0.162462</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -4917,13 +4917,13 @@
         <v>2107</v>
       </c>
       <c r="C317">
-        <v>6.7E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D317">
-        <v>0.000236</v>
+        <v>7E-06</v>
       </c>
       <c r="F317">
-        <v>-2.502572</v>
+        <v>-1.259958</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -4931,13 +4931,13 @@
         <v>1455</v>
       </c>
       <c r="C318">
-        <v>0.002895</v>
+        <v>0.00014</v>
       </c>
       <c r="D318">
-        <v>0.003157</v>
+        <v>0.000186</v>
       </c>
       <c r="F318">
-        <v>-0.090405</v>
+        <v>-0.328081</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>485</v>
       </c>
       <c r="C319">
-        <v>6.9E-05</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D319">
-        <v>9.3E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F319">
-        <v>-0.358065</v>
+        <v>-6.692608</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -4959,13 +4959,13 @@
         <v>1541</v>
       </c>
       <c r="C320">
-        <v>0.001362</v>
+        <v>0.0002</v>
       </c>
       <c r="D320">
-        <v>0.000703</v>
+        <v>0.000206</v>
       </c>
       <c r="F320">
-        <v>0.484236</v>
+        <v>-0.030327</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -4973,13 +4973,13 @@
         <v>2397</v>
       </c>
       <c r="C321">
-        <v>1.1E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D321">
-        <v>3.6E-05</v>
+        <v>0.000717</v>
       </c>
       <c r="F321">
-        <v>-2.176546</v>
+        <v>-184.362185</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -4987,13 +4987,13 @@
         <v>2008</v>
       </c>
       <c r="C322">
-        <v>0.000877</v>
+        <v>4E-05</v>
       </c>
       <c r="D322">
-        <v>0.000236</v>
+        <v>7E-06</v>
       </c>
       <c r="F322">
-        <v>0.730989</v>
+        <v>0.826427</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -5001,13 +5001,13 @@
         <v>1970</v>
       </c>
       <c r="C323">
-        <v>5.7E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D323">
-        <v>0.000188</v>
+        <v>7E-06</v>
       </c>
       <c r="F323">
-        <v>-2.269945</v>
+        <v>-2.166886</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -5015,13 +5015,13 @@
         <v>215</v>
       </c>
       <c r="C324">
-        <v>0.01814</v>
+        <v>0.003137</v>
       </c>
       <c r="D324">
-        <v>0.01382</v>
+        <v>0.002736</v>
       </c>
       <c r="F324">
-        <v>0.238136</v>
+        <v>0.127948</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -5029,13 +5029,13 @@
         <v>1861</v>
       </c>
       <c r="C325">
-        <v>0.000225</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D325">
-        <v>0.000177</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F325">
-        <v>0.213835</v>
+        <v>0.217288</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -5043,13 +5043,13 @@
         <v>2086</v>
       </c>
       <c r="C326">
-        <v>0.000296</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D326">
-        <v>0.000229</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F326">
-        <v>0.228688</v>
+        <v>0.517747</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -5057,13 +5057,13 @@
         <v>1761</v>
       </c>
       <c r="C327">
-        <v>0.001363</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D327">
-        <v>0.000616</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F327">
-        <v>0.547614</v>
+        <v>0.566566</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -5071,13 +5071,13 @@
         <v>2345</v>
       </c>
       <c r="C328">
-        <v>0.005119</v>
+        <v>0.000503</v>
       </c>
       <c r="D328">
-        <v>0.004459</v>
+        <v>0.000466</v>
       </c>
       <c r="F328">
-        <v>0.128941</v>
+        <v>0.072753</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -5085,13 +5085,13 @@
         <v>631</v>
       </c>
       <c r="C329">
-        <v>0.001962</v>
+        <v>0.000298</v>
       </c>
       <c r="D329">
-        <v>0.003291</v>
+        <v>0.000526</v>
       </c>
       <c r="F329">
-        <v>-0.6777069999999999</v>
+        <v>-0.7646579999999999</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -5099,13 +5099,13 @@
         <v>581</v>
       </c>
       <c r="C330">
-        <v>0.000167</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D330">
-        <v>0.000597</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F330">
-        <v>-2.564465</v>
+        <v>-3.271022</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -5113,13 +5113,13 @@
         <v>714</v>
       </c>
       <c r="C331">
-        <v>0.001983</v>
+        <v>0.000255</v>
       </c>
       <c r="D331">
-        <v>0.000439</v>
+        <v>0.000185</v>
       </c>
       <c r="F331">
-        <v>0.778901</v>
+        <v>0.276038</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -5127,13 +5127,13 @@
         <v>1990</v>
       </c>
       <c r="C332">
-        <v>0.001435</v>
+        <v>0.000187</v>
       </c>
       <c r="D332">
-        <v>0.00018</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F332">
-        <v>0.874397</v>
+        <v>0.907832</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -5141,13 +5141,13 @@
         <v>1206</v>
       </c>
       <c r="C333">
-        <v>0.000318</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D333">
-        <v>0.000587</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F333">
-        <v>-0.844727</v>
+        <v>-0.616304</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -5155,13 +5155,13 @@
         <v>1375</v>
       </c>
       <c r="C334">
-        <v>0.000319</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D334">
-        <v>0.000217</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F334">
-        <v>0.320659</v>
+        <v>-0.07960399999999999</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -5169,13 +5169,13 @@
         <v>987</v>
       </c>
       <c r="C335">
-        <v>0.011437</v>
+        <v>0.002314</v>
       </c>
       <c r="D335">
-        <v>0.009117</v>
+        <v>0.002636</v>
       </c>
       <c r="F335">
-        <v>0.202798</v>
+        <v>-0.139342</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -5183,13 +5183,13 @@
         <v>747</v>
       </c>
       <c r="C336">
-        <v>0.001929</v>
+        <v>5.2E-05</v>
       </c>
       <c r="D336">
-        <v>0.002401</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F336">
-        <v>-0.244967</v>
+        <v>-0.611985</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -5200,13 +5200,13 @@
         <v>6</v>
       </c>
       <c r="C337">
-        <v>0.019795</v>
+        <v>0.00217</v>
       </c>
       <c r="D337">
-        <v>0.008952999999999999</v>
+        <v>0.001177</v>
       </c>
       <c r="F337">
-        <v>0.547713</v>
+        <v>0.45779</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -5214,13 +5214,13 @@
         <v>2152</v>
       </c>
       <c r="C338">
-        <v>7.4E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D338">
-        <v>0.000388</v>
+        <v>0.000275</v>
       </c>
       <c r="F338">
-        <v>-4.253363</v>
+        <v>-19.453237</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -5228,13 +5228,13 @@
         <v>1534</v>
       </c>
       <c r="C339">
-        <v>0.000365</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D339">
-        <v>0.000376</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F339">
-        <v>-0.030605</v>
+        <v>0.26901</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -5245,13 +5245,13 @@
         <v>6</v>
       </c>
       <c r="C340">
-        <v>0.000638</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D340">
-        <v>0.001071</v>
+        <v>0.000106</v>
       </c>
       <c r="F340">
-        <v>-0.679128</v>
+        <v>-0.586188</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -5259,13 +5259,13 @@
         <v>154</v>
       </c>
       <c r="C341">
-        <v>0.002181</v>
+        <v>0.000256</v>
       </c>
       <c r="D341">
-        <v>0.001406</v>
+        <v>0.000143</v>
       </c>
       <c r="F341">
-        <v>0.35534</v>
+        <v>0.442718</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -5273,13 +5273,13 @@
         <v>1732</v>
       </c>
       <c r="C342">
-        <v>0.000887</v>
+        <v>3.4E-05</v>
       </c>
       <c r="D342">
-        <v>0.000513</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F342">
-        <v>0.42135</v>
+        <v>0.234846</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>6</v>
       </c>
       <c r="C343">
-        <v>0.007856</v>
+        <v>0.003094</v>
       </c>
       <c r="D343">
-        <v>0.007562</v>
+        <v>0.005454</v>
       </c>
       <c r="F343">
-        <v>0.037349</v>
+        <v>-0.7628</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -5304,13 +5304,13 @@
         <v>970</v>
       </c>
       <c r="C344">
-        <v>0.028257</v>
+        <v>0.00266</v>
       </c>
       <c r="D344">
-        <v>0.023747</v>
+        <v>0.00314</v>
       </c>
       <c r="F344">
-        <v>0.159621</v>
+        <v>-0.180474</v>
       </c>
     </row>
   </sheetData>

--- a/part2/tables-2/dom_validty_part-2.xlsx
+++ b/part2/tables-2/dom_validty_part-2.xlsx
@@ -426,10 +426,10 @@
         <v>0.005136</v>
       </c>
       <c r="D2">
-        <v>0.005612</v>
+        <v>0.004992</v>
       </c>
       <c r="F2">
-        <v>-0.092705</v>
+        <v>0.02812</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -440,10 +440,10 @@
         <v>0.001005</v>
       </c>
       <c r="D3">
-        <v>0.000919</v>
+        <v>0.00083</v>
       </c>
       <c r="F3">
-        <v>0.08542</v>
+        <v>0.174249</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,10 +454,10 @@
         <v>2E-05</v>
       </c>
       <c r="D4">
-        <v>0.000191</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F4">
-        <v>-8.539930999999999</v>
+        <v>-3.232109</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -468,10 +468,10 @@
         <v>0.00444</v>
       </c>
       <c r="D5">
-        <v>0.018522</v>
+        <v>0.002067</v>
       </c>
       <c r="F5">
-        <v>-3.17165</v>
+        <v>0.534379</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -482,10 +482,10 @@
         <v>2.3E-05</v>
       </c>
       <c r="D6">
-        <v>4.3E-05</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F6">
-        <v>-0.884984</v>
+        <v>-2.20455</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -496,10 +496,10 @@
         <v>4.8E-05</v>
       </c>
       <c r="D7">
-        <v>8.7E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="F7">
-        <v>-0.815779</v>
+        <v>-0.152065</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -510,10 +510,10 @@
         <v>2.7E-05</v>
       </c>
       <c r="D8">
-        <v>1.9E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F8">
-        <v>0.28353</v>
+        <v>0.163929</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -524,10 +524,10 @@
         <v>0.002918</v>
       </c>
       <c r="D9">
-        <v>0.002375</v>
+        <v>0.00206</v>
       </c>
       <c r="F9">
-        <v>0.18604</v>
+        <v>0.293918</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -538,10 +538,10 @@
         <v>5.5E-05</v>
       </c>
       <c r="D10">
-        <v>5.3E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F10">
-        <v>0.034841</v>
+        <v>0.646567</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -555,10 +555,10 @@
         <v>0.00011</v>
       </c>
       <c r="D11">
-        <v>7.1E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F11">
-        <v>0.352217</v>
+        <v>0.371164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,10 +572,10 @@
         <v>0.000781</v>
       </c>
       <c r="D12">
-        <v>0.000605</v>
+        <v>0.000575</v>
       </c>
       <c r="F12">
-        <v>0.225408</v>
+        <v>0.263912</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0.00049</v>
       </c>
       <c r="D13">
-        <v>0.000383</v>
+        <v>0.000254</v>
       </c>
       <c r="F13">
-        <v>0.217638</v>
+        <v>0.482204</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -606,10 +606,10 @@
         <v>0.002404</v>
       </c>
       <c r="D14">
-        <v>0.001009</v>
+        <v>0.001022</v>
       </c>
       <c r="F14">
-        <v>0.580452</v>
+        <v>0.574781</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -620,10 +620,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D15">
-        <v>2.6E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F15">
-        <v>-0.044433</v>
+        <v>0.114727</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -634,10 +634,10 @@
         <v>2.2E-05</v>
       </c>
       <c r="D16">
-        <v>1.4E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F16">
-        <v>0.375215</v>
+        <v>0.313111</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -648,10 +648,10 @@
         <v>0.000121</v>
       </c>
       <c r="D17">
-        <v>0.000168</v>
+        <v>0.00014</v>
       </c>
       <c r="F17">
-        <v>-0.388086</v>
+        <v>-0.15913</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -662,10 +662,10 @@
         <v>0.000108</v>
       </c>
       <c r="D18">
-        <v>0.000171</v>
+        <v>0.000119</v>
       </c>
       <c r="F18">
-        <v>-0.5868949999999999</v>
+        <v>-0.100127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -679,10 +679,10 @@
         <v>0.000769</v>
       </c>
       <c r="D19">
-        <v>0.0008899999999999999</v>
+        <v>0.001195</v>
       </c>
       <c r="F19">
-        <v>-0.156403</v>
+        <v>-0.553273</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -696,10 +696,10 @@
         <v>0.000161</v>
       </c>
       <c r="D20">
-        <v>0.000185</v>
+        <v>0.000187</v>
       </c>
       <c r="F20">
-        <v>-0.14692</v>
+        <v>-0.160445</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -710,10 +710,10 @@
         <v>0.000705</v>
       </c>
       <c r="D21">
-        <v>0.000659</v>
+        <v>0.000621</v>
       </c>
       <c r="F21">
-        <v>0.064848</v>
+        <v>0.1192</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -724,10 +724,10 @@
         <v>2E-06</v>
       </c>
       <c r="D22">
-        <v>1.7E-05</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F22">
-        <v>-7.379274</v>
+        <v>-36.039935</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -738,10 +738,10 @@
         <v>0.000646</v>
       </c>
       <c r="D23">
-        <v>0.000511</v>
+        <v>0.000454</v>
       </c>
       <c r="F23">
-        <v>0.209703</v>
+        <v>0.297976</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -752,10 +752,10 @@
         <v>0.00013</v>
       </c>
       <c r="D24">
-        <v>6.499999999999999E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F24">
-        <v>0.497236</v>
+        <v>0.456904</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -766,10 +766,10 @@
         <v>7.9E-05</v>
       </c>
       <c r="D25">
-        <v>6E-05</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F25">
-        <v>0.242314</v>
+        <v>0.143403</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -780,10 +780,10 @@
         <v>0.001565</v>
       </c>
       <c r="D26">
-        <v>0.000919</v>
+        <v>0.00037</v>
       </c>
       <c r="F26">
-        <v>0.412589</v>
+        <v>0.763716</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -794,10 +794,10 @@
         <v>0.00042</v>
       </c>
       <c r="D27">
-        <v>0.000444</v>
+        <v>0.000298</v>
       </c>
       <c r="F27">
-        <v>-0.058077</v>
+        <v>0.289615</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -811,10 +811,10 @@
         <v>0.000134</v>
       </c>
       <c r="D28">
-        <v>0.000176</v>
+        <v>0.000155</v>
       </c>
       <c r="F28">
-        <v>-0.315762</v>
+        <v>-0.156292</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -825,10 +825,10 @@
         <v>0.000139</v>
       </c>
       <c r="D29">
-        <v>0.000145</v>
+        <v>0.000126</v>
       </c>
       <c r="F29">
-        <v>-0.044894</v>
+        <v>0.088736</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -839,10 +839,10 @@
         <v>0.000174</v>
       </c>
       <c r="D30">
-        <v>0.000107</v>
+        <v>7.7E-05</v>
       </c>
       <c r="F30">
-        <v>0.385334</v>
+        <v>0.5578070000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -853,10 +853,10 @@
         <v>0.000119</v>
       </c>
       <c r="D31">
-        <v>6.600000000000001E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F31">
-        <v>0.444307</v>
+        <v>0.567016</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -870,10 +870,10 @@
         <v>0.000419</v>
       </c>
       <c r="D32">
-        <v>7.6E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F32">
-        <v>0.8182120000000001</v>
+        <v>0.894577</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -887,10 +887,10 @@
         <v>2.9E-05</v>
       </c>
       <c r="D33">
-        <v>1.8E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F33">
-        <v>0.368878</v>
+        <v>0.146141</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -901,10 +901,10 @@
         <v>8.8E-05</v>
       </c>
       <c r="D34">
-        <v>5.1E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F34">
-        <v>0.425627</v>
+        <v>0.324571</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -915,10 +915,10 @@
         <v>7.9E-05</v>
       </c>
       <c r="D35">
-        <v>5.2E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F35">
-        <v>0.343411</v>
+        <v>0.287995</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -929,10 +929,10 @@
         <v>2.2E-05</v>
       </c>
       <c r="D36">
-        <v>1.5E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F36">
-        <v>0.309998</v>
+        <v>-0.7571639999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -943,10 +943,10 @@
         <v>0.001279</v>
       </c>
       <c r="D37">
-        <v>0.000753</v>
+        <v>0.000592</v>
       </c>
       <c r="F37">
-        <v>0.411339</v>
+        <v>0.537048</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -960,10 +960,10 @@
         <v>0.000516</v>
       </c>
       <c r="D38">
-        <v>0.000466</v>
+        <v>0.000505</v>
       </c>
       <c r="F38">
-        <v>0.097012</v>
+        <v>0.020686</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -974,10 +974,10 @@
         <v>0.000157</v>
       </c>
       <c r="D39">
-        <v>8.6E-05</v>
+        <v>0.000101</v>
       </c>
       <c r="F39">
-        <v>0.453147</v>
+        <v>0.359022</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -991,10 +991,10 @@
         <v>0.014429</v>
       </c>
       <c r="D40">
-        <v>0.010953</v>
+        <v>0.010863</v>
       </c>
       <c r="F40">
-        <v>0.240884</v>
+        <v>0.247138</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1005,10 +1005,10 @@
         <v>9E-06</v>
       </c>
       <c r="D41">
-        <v>0.000158</v>
+        <v>0.000228</v>
       </c>
       <c r="F41">
-        <v>-16.600413</v>
+        <v>-24.339731</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1019,10 +1019,10 @@
         <v>0.0146</v>
       </c>
       <c r="D42">
-        <v>0.016529</v>
+        <v>0.012489</v>
       </c>
       <c r="F42">
-        <v>-0.132092</v>
+        <v>0.144586</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1033,10 +1033,10 @@
         <v>7.8E-05</v>
       </c>
       <c r="D43">
-        <v>9.500000000000001E-05</v>
+        <v>7.9E-05</v>
       </c>
       <c r="F43">
-        <v>-0.226973</v>
+        <v>-0.02103</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1050,10 +1050,10 @@
         <v>3.2E-05</v>
       </c>
       <c r="D44">
-        <v>1.5E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F44">
-        <v>0.552437</v>
+        <v>0.426166</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1064,10 +1064,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D45">
-        <v>0.000822</v>
+        <v>8E-06</v>
       </c>
       <c r="F45">
-        <v>-31.479565</v>
+        <v>0.696006</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1078,10 +1078,10 @@
         <v>0.00676</v>
       </c>
       <c r="D46">
-        <v>0.007343</v>
+        <v>0.005502</v>
       </c>
       <c r="F46">
-        <v>-0.086203</v>
+        <v>0.186037</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1092,10 +1092,10 @@
         <v>0.000773</v>
       </c>
       <c r="D47">
-        <v>8.2E-05</v>
+        <v>0.000113</v>
       </c>
       <c r="F47">
-        <v>0.893306</v>
+        <v>0.854247</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1109,10 +1109,10 @@
         <v>0.000306</v>
       </c>
       <c r="D48">
-        <v>0.000269</v>
+        <v>0.000142</v>
       </c>
       <c r="F48">
-        <v>0.120941</v>
+        <v>0.536178</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1123,10 +1123,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D49">
-        <v>1.1E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F49">
-        <v>-0.067733</v>
+        <v>-2.092535</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1137,10 +1137,10 @@
         <v>8E-06</v>
       </c>
       <c r="D50">
-        <v>1.4E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F50">
-        <v>-0.730241</v>
+        <v>-0.9022289999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1151,10 +1151,10 @@
         <v>0.000369</v>
       </c>
       <c r="D51">
-        <v>0.000167</v>
+        <v>0.000179</v>
       </c>
       <c r="F51">
-        <v>0.548712</v>
+        <v>0.514142</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1165,10 +1165,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D52">
-        <v>1.1E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F52">
-        <v>0.38713</v>
+        <v>0.201104</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1182,10 +1182,10 @@
         <v>8E-06</v>
       </c>
       <c r="D53">
-        <v>2.2E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F53">
-        <v>-1.58589</v>
+        <v>0.531324</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1196,10 +1196,10 @@
         <v>0.00741</v>
       </c>
       <c r="D54">
-        <v>0.006854</v>
+        <v>0.006425</v>
       </c>
       <c r="F54">
-        <v>0.075041</v>
+        <v>0.132986</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1210,10 +1210,10 @@
         <v>0.000865</v>
       </c>
       <c r="D55">
-        <v>0.000495</v>
+        <v>0.000301</v>
       </c>
       <c r="F55">
-        <v>0.427885</v>
+        <v>0.651926</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1224,10 +1224,10 @@
         <v>0.000125</v>
       </c>
       <c r="D56">
-        <v>0.000208</v>
+        <v>0.000249</v>
       </c>
       <c r="F56">
-        <v>-0.660794</v>
+        <v>-0.990177</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1238,10 +1238,10 @@
         <v>0.000129</v>
       </c>
       <c r="D57">
-        <v>0.0001</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F57">
-        <v>0.223376</v>
+        <v>0.351485</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1252,10 +1252,10 @@
         <v>3.6E-05</v>
       </c>
       <c r="D58">
-        <v>0.000263</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F58">
-        <v>-6.319065</v>
+        <v>0.087269</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1266,10 +1266,10 @@
         <v>0.000111</v>
       </c>
       <c r="D59">
-        <v>8.000000000000001E-05</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F59">
-        <v>0.284034</v>
+        <v>0.240472</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1280,10 +1280,10 @@
         <v>0.000504</v>
       </c>
       <c r="D60">
-        <v>0.000167</v>
+        <v>0.000179</v>
       </c>
       <c r="F60">
-        <v>0.669037</v>
+        <v>0.643685</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1297,10 +1297,10 @@
         <v>0.000505</v>
       </c>
       <c r="D61">
-        <v>0.000219</v>
+        <v>0.000186</v>
       </c>
       <c r="F61">
-        <v>0.566812</v>
+        <v>0.632857</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1311,10 +1311,10 @@
         <v>0.000248</v>
       </c>
       <c r="D62">
-        <v>0.000195</v>
+        <v>0.000154</v>
       </c>
       <c r="F62">
-        <v>0.215915</v>
+        <v>0.377831</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1325,10 +1325,10 @@
         <v>0.00169</v>
       </c>
       <c r="D63">
-        <v>0.00159</v>
+        <v>0.001279</v>
       </c>
       <c r="F63">
-        <v>0.059365</v>
+        <v>0.243185</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1339,10 +1339,10 @@
         <v>4.5E-05</v>
       </c>
       <c r="D64">
-        <v>1.7E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F64">
-        <v>0.62086</v>
+        <v>0.702272</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1356,10 +1356,10 @@
         <v>0.002556</v>
       </c>
       <c r="D65">
-        <v>0.001984</v>
+        <v>0.00213</v>
       </c>
       <c r="F65">
-        <v>0.223965</v>
+        <v>0.166747</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1370,10 +1370,10 @@
         <v>0.000347</v>
       </c>
       <c r="D66">
-        <v>0.000259</v>
+        <v>0.000171</v>
       </c>
       <c r="F66">
-        <v>0.254262</v>
+        <v>0.507232</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1384,10 +1384,10 @@
         <v>0.000119</v>
       </c>
       <c r="D67">
-        <v>8.2E-05</v>
+        <v>0.000103</v>
       </c>
       <c r="F67">
-        <v>0.307405</v>
+        <v>0.13844</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1398,10 +1398,10 @@
         <v>8.6E-05</v>
       </c>
       <c r="D68">
-        <v>2.3E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F68">
-        <v>0.72899</v>
+        <v>0.671837</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1415,10 +1415,10 @@
         <v>0.001051</v>
       </c>
       <c r="D69">
-        <v>0.000506</v>
+        <v>0.000566</v>
       </c>
       <c r="F69">
-        <v>0.518207</v>
+        <v>0.461575</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1429,10 +1429,10 @@
         <v>0.00084</v>
       </c>
       <c r="D70">
-        <v>0.001027</v>
+        <v>0.0008630000000000001</v>
       </c>
       <c r="F70">
-        <v>-0.222464</v>
+        <v>-0.027151</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0.00025</v>
       </c>
       <c r="D71">
-        <v>0.000481</v>
+        <v>0.000612</v>
       </c>
       <c r="F71">
-        <v>-0.924671</v>
+        <v>-1.447136</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1460,7 +1460,7 @@
         <v>4E-06</v>
       </c>
       <c r="F72">
-        <v>-0.109158</v>
+        <v>-0.184987</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1471,10 +1471,10 @@
         <v>1E-05</v>
       </c>
       <c r="D73">
-        <v>1.4E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F73">
-        <v>-0.500436</v>
+        <v>-0.330735</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1485,10 +1485,10 @@
         <v>5.2E-05</v>
       </c>
       <c r="D74">
-        <v>4.3E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F74">
-        <v>0.165071</v>
+        <v>0.359359</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1499,10 +1499,10 @@
         <v>0.000403</v>
       </c>
       <c r="D75">
-        <v>0.000577</v>
+        <v>0.000291</v>
       </c>
       <c r="F75">
-        <v>-0.4309</v>
+        <v>0.277611</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1513,10 +1513,10 @@
         <v>0.000122</v>
       </c>
       <c r="D76">
-        <v>0.000111</v>
+        <v>0.000117</v>
       </c>
       <c r="F76">
-        <v>0.090639</v>
+        <v>0.043243</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1527,10 +1527,10 @@
         <v>0.000315</v>
       </c>
       <c r="D77">
-        <v>0.000893</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F77">
-        <v>-1.839216</v>
+        <v>0.764059</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1541,10 +1541,10 @@
         <v>0.014</v>
       </c>
       <c r="D78">
-        <v>0.014476</v>
+        <v>0.010628</v>
       </c>
       <c r="F78">
-        <v>-0.033997</v>
+        <v>0.240841</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1555,10 +1555,10 @@
         <v>8.3E-05</v>
       </c>
       <c r="D79">
-        <v>0.000271</v>
+        <v>0.00022</v>
       </c>
       <c r="F79">
-        <v>-2.260482</v>
+        <v>-1.650964</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1569,10 +1569,10 @@
         <v>7.8E-05</v>
       </c>
       <c r="D80">
-        <v>1.2E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F80">
-        <v>0.845988</v>
+        <v>0.829768</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0.000491</v>
       </c>
       <c r="D81">
-        <v>0.001829</v>
+        <v>0.000379</v>
       </c>
       <c r="F81">
-        <v>-2.724728</v>
+        <v>0.228238</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1597,10 +1597,10 @@
         <v>0.000726</v>
       </c>
       <c r="D82">
-        <v>0.001355</v>
+        <v>0.00062</v>
       </c>
       <c r="F82">
-        <v>-0.866248</v>
+        <v>0.146163</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1611,10 +1611,10 @@
         <v>5.1E-05</v>
       </c>
       <c r="D83">
-        <v>2.9E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F83">
-        <v>0.437636</v>
+        <v>0.296904</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -1625,10 +1625,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D84">
-        <v>1.2E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F84">
-        <v>0.19801</v>
+        <v>0.657751</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1639,10 +1639,10 @@
         <v>5E-06</v>
       </c>
       <c r="D85">
-        <v>1.1E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F85">
-        <v>-1.171449</v>
+        <v>-2.010042</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1653,10 +1653,10 @@
         <v>0.001139</v>
       </c>
       <c r="D86">
-        <v>0.002296</v>
+        <v>0.001586</v>
       </c>
       <c r="F86">
-        <v>-1.016328</v>
+        <v>-0.392671</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1667,10 +1667,10 @@
         <v>6.999999999999999E-05</v>
       </c>
       <c r="D87">
-        <v>1.2E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F87">
-        <v>0.827337</v>
+        <v>0.809153</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1681,10 +1681,10 @@
         <v>3.6E-05</v>
       </c>
       <c r="D88">
-        <v>0.000151</v>
+        <v>0.000114</v>
       </c>
       <c r="F88">
-        <v>-3.148996</v>
+        <v>-2.130872</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -1698,7 +1698,7 @@
         <v>3E-06</v>
       </c>
       <c r="F89">
-        <v>-0.307548</v>
+        <v>-0.144876</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1709,10 +1709,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D90">
-        <v>5.1E-05</v>
+        <v>0.00013</v>
       </c>
       <c r="F90">
-        <v>-2.159075</v>
+        <v>-7.107525</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1726,10 +1726,10 @@
         <v>0.001428</v>
       </c>
       <c r="D91">
-        <v>0.001039</v>
+        <v>0.001498</v>
       </c>
       <c r="F91">
-        <v>0.272417</v>
+        <v>-0.048867</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -1740,10 +1740,10 @@
         <v>0.000187</v>
       </c>
       <c r="D92">
-        <v>0.000186</v>
+        <v>0.000188</v>
       </c>
       <c r="F92">
-        <v>0.005387</v>
+        <v>-0.004965</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -1754,10 +1754,10 @@
         <v>0.008486</v>
       </c>
       <c r="D93">
-        <v>0.008973999999999999</v>
+        <v>0.00814</v>
       </c>
       <c r="F93">
-        <v>-0.057478</v>
+        <v>0.040754</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -1768,10 +1768,10 @@
         <v>0.000275</v>
       </c>
       <c r="D94">
-        <v>9.3E-05</v>
+        <v>6.8E-05</v>
       </c>
       <c r="F94">
-        <v>0.663371</v>
+        <v>0.754499</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -1782,10 +1782,10 @@
         <v>2.4E-05</v>
       </c>
       <c r="D95">
-        <v>0.000171</v>
+        <v>0.000119</v>
       </c>
       <c r="F95">
-        <v>-6.188681</v>
+        <v>-3.983606</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -1796,10 +1796,10 @@
         <v>0.00117</v>
       </c>
       <c r="D96">
-        <v>0.002161</v>
+        <v>0.002589</v>
       </c>
       <c r="F96">
-        <v>-0.846635</v>
+        <v>-1.212423</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -1810,10 +1810,10 @@
         <v>3.1E-05</v>
       </c>
       <c r="D97">
-        <v>2.6E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F97">
-        <v>0.169986</v>
+        <v>-0.005484</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -1824,10 +1824,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D98">
-        <v>2.5E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F98">
-        <v>-0.526483</v>
+        <v>-0.167261</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -1838,10 +1838,10 @@
         <v>6E-06</v>
       </c>
       <c r="D99">
-        <v>8.1E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F99">
-        <v>-11.423476</v>
+        <v>-3.350799</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -1852,10 +1852,10 @@
         <v>0.001864</v>
       </c>
       <c r="D100">
-        <v>0.001523</v>
+        <v>0.001906</v>
       </c>
       <c r="F100">
-        <v>0.182818</v>
+        <v>-0.022735</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -1866,10 +1866,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D101">
-        <v>1.3E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F101">
-        <v>-0.157109</v>
+        <v>0.285338</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -1880,10 +1880,10 @@
         <v>2E-06</v>
       </c>
       <c r="D102">
-        <v>1E-06</v>
+        <v>1E-05</v>
       </c>
       <c r="F102">
-        <v>0.169392</v>
+        <v>-4.651423</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -1894,10 +1894,10 @@
         <v>0.00138</v>
       </c>
       <c r="D103">
-        <v>0.000705</v>
+        <v>0.001095</v>
       </c>
       <c r="F103">
-        <v>0.489033</v>
+        <v>0.206959</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -1908,10 +1908,10 @@
         <v>0.000166</v>
       </c>
       <c r="D104">
-        <v>0.000119</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F104">
-        <v>0.285435</v>
+        <v>0.506235</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -1925,10 +1925,10 @@
         <v>0.000238</v>
       </c>
       <c r="D105">
-        <v>0.000185</v>
+        <v>0.000187</v>
       </c>
       <c r="F105">
-        <v>0.222043</v>
+        <v>0.212869</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -1939,10 +1939,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D106">
-        <v>1.6E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F106">
-        <v>0.062054</v>
+        <v>-1.185867</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -1956,10 +1956,10 @@
         <v>6.4E-05</v>
       </c>
       <c r="D107">
-        <v>4.8E-05</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F107">
-        <v>0.249591</v>
+        <v>-0.127537</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -1970,10 +1970,10 @@
         <v>7.4E-05</v>
       </c>
       <c r="D108">
-        <v>2.3E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F108">
-        <v>0.686314</v>
+        <v>0.757528</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -1984,10 +1984,10 @@
         <v>0.001533</v>
       </c>
       <c r="D109">
-        <v>0.001772</v>
+        <v>0.00237</v>
       </c>
       <c r="F109">
-        <v>-0.155836</v>
+        <v>-0.546021</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -1998,10 +1998,10 @@
         <v>0.000105</v>
       </c>
       <c r="D110">
-        <v>9.8E-05</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F110">
-        <v>0.06857000000000001</v>
+        <v>0.219215</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2015,10 +2015,10 @@
         <v>2.3E-05</v>
       </c>
       <c r="D111">
-        <v>5.8E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F111">
-        <v>-1.551791</v>
+        <v>0.674272</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2029,10 +2029,10 @@
         <v>4E-06</v>
       </c>
       <c r="D112">
-        <v>0.326341</v>
+        <v>1E-06</v>
       </c>
       <c r="F112">
-        <v>-89933.838758</v>
+        <v>0.644612</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>5E-05</v>
       </c>
       <c r="D113">
-        <v>3E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F113">
-        <v>0.408317</v>
+        <v>0.311643</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2057,10 +2057,10 @@
         <v>4.5E-05</v>
       </c>
       <c r="D114">
-        <v>0.000133</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="F114">
-        <v>-1.990223</v>
+        <v>-1.119825</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2071,10 +2071,10 @@
         <v>9.3E-05</v>
       </c>
       <c r="D115">
-        <v>6.7E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F115">
-        <v>0.287791</v>
+        <v>0.252981</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2085,10 +2085,10 @@
         <v>2.1E-05</v>
       </c>
       <c r="D116">
-        <v>1.9E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="F116">
-        <v>0.104405</v>
+        <v>0.174636</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2099,10 +2099,10 @@
         <v>4.2E-05</v>
       </c>
       <c r="D117">
-        <v>3.3E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F117">
-        <v>0.209716</v>
+        <v>0.359589</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2113,10 +2113,10 @@
         <v>0.000464</v>
       </c>
       <c r="D118">
-        <v>0.000501</v>
+        <v>0.000589</v>
       </c>
       <c r="F118">
-        <v>-0.080818</v>
+        <v>-0.27015</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2127,10 +2127,10 @@
         <v>0.000147</v>
       </c>
       <c r="D119">
-        <v>6.600000000000001E-05</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F119">
-        <v>0.548453</v>
+        <v>0.563731</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2141,10 +2141,10 @@
         <v>2E-05</v>
       </c>
       <c r="D120">
-        <v>1.1E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F120">
-        <v>0.447863</v>
+        <v>0.479504</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2155,10 +2155,10 @@
         <v>0.000233</v>
       </c>
       <c r="D121">
-        <v>0.00022</v>
+        <v>0.000145</v>
       </c>
       <c r="F121">
-        <v>0.056396</v>
+        <v>0.377286</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2169,10 +2169,10 @@
         <v>0.000125</v>
       </c>
       <c r="D122">
-        <v>7.3E-05</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F122">
-        <v>0.416829</v>
+        <v>0.579389</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D123">
-        <v>3.6E-05</v>
+        <v>8.4E-05</v>
       </c>
       <c r="F123">
-        <v>-1.392827</v>
+        <v>-4.613942</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2197,10 +2197,10 @@
         <v>0.001803</v>
       </c>
       <c r="D124">
-        <v>0.001772</v>
+        <v>0.001882</v>
       </c>
       <c r="F124">
-        <v>0.017143</v>
+        <v>-0.043898</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2211,10 +2211,10 @@
         <v>1E-06</v>
       </c>
       <c r="D125">
-        <v>4.6E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F125">
-        <v>-38.212216</v>
+        <v>-29.090135</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2225,10 +2225,10 @@
         <v>0.000227</v>
       </c>
       <c r="D126">
-        <v>0.000252</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F126">
-        <v>-0.111548</v>
+        <v>0.7192770000000001</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2239,10 +2239,10 @@
         <v>0.001298</v>
       </c>
       <c r="D127">
-        <v>0.000569</v>
+        <v>0.000467</v>
       </c>
       <c r="F127">
-        <v>0.5617490000000001</v>
+        <v>0.640408</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2253,10 +2253,10 @@
         <v>0.000447</v>
       </c>
       <c r="D128">
-        <v>0.000316</v>
+        <v>0.000133</v>
       </c>
       <c r="F128">
-        <v>0.291715</v>
+        <v>0.701545</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2267,10 +2267,10 @@
         <v>0.001164</v>
       </c>
       <c r="D129">
-        <v>0.001378</v>
+        <v>0.000608</v>
       </c>
       <c r="F129">
-        <v>-0.184196</v>
+        <v>0.477663</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2281,10 +2281,10 @@
         <v>0.001591</v>
       </c>
       <c r="D130">
-        <v>0.001814</v>
+        <v>0.001469</v>
       </c>
       <c r="F130">
-        <v>-0.139904</v>
+        <v>0.076859</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2295,10 +2295,10 @@
         <v>0.00041</v>
       </c>
       <c r="D131">
-        <v>0.000619</v>
+        <v>0.00026</v>
       </c>
       <c r="F131">
-        <v>-0.511167</v>
+        <v>0.364601</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2309,10 +2309,10 @@
         <v>0.003023</v>
       </c>
       <c r="D132">
-        <v>0.003383</v>
+        <v>0.001882</v>
       </c>
       <c r="F132">
-        <v>-0.118965</v>
+        <v>0.37741</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2323,10 +2323,10 @@
         <v>7.6E-05</v>
       </c>
       <c r="D133">
-        <v>0.000107</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F133">
-        <v>-0.412835</v>
+        <v>0.7864</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -2337,10 +2337,10 @@
         <v>3.6E-05</v>
       </c>
       <c r="D134">
-        <v>6.9E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F134">
-        <v>-0.940925</v>
+        <v>-0.187756</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -2351,10 +2351,10 @@
         <v>0.001017</v>
       </c>
       <c r="D135">
-        <v>0.000472</v>
+        <v>0.000496</v>
       </c>
       <c r="F135">
-        <v>0.536479</v>
+        <v>0.51289</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2365,10 +2365,10 @@
         <v>0.000136</v>
       </c>
       <c r="D136">
-        <v>0.002033</v>
+        <v>0.000152</v>
       </c>
       <c r="F136">
-        <v>-13.945316</v>
+        <v>-0.117802</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -2379,10 +2379,10 @@
         <v>4.6E-05</v>
       </c>
       <c r="D137">
-        <v>1.9E-05</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F137">
-        <v>0.585686</v>
+        <v>-0.07067900000000001</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -2393,10 +2393,10 @@
         <v>7E-06</v>
       </c>
       <c r="D138">
-        <v>2.4E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F138">
-        <v>-2.280722</v>
+        <v>-6.441955</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -2407,10 +2407,10 @@
         <v>0.00013</v>
       </c>
       <c r="D139">
-        <v>2.9E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F139">
-        <v>0.780295</v>
+        <v>0.681665</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2421,10 +2421,10 @@
         <v>5E-06</v>
       </c>
       <c r="D140">
-        <v>0.001993</v>
+        <v>1E-05</v>
       </c>
       <c r="F140">
-        <v>-393.703368</v>
+        <v>-1.021996</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2435,10 +2435,10 @@
         <v>0.000129</v>
       </c>
       <c r="D141">
-        <v>0.000138</v>
+        <v>0.000134</v>
       </c>
       <c r="F141">
-        <v>-0.07013800000000001</v>
+        <v>-0.03637</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -2449,10 +2449,10 @@
         <v>8.2E-05</v>
       </c>
       <c r="D142">
-        <v>8.2E-05</v>
+        <v>8.899999999999999E-05</v>
       </c>
       <c r="F142">
-        <v>0.004361</v>
+        <v>-0.074989</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2463,10 +2463,10 @@
         <v>2.8E-05</v>
       </c>
       <c r="D143">
-        <v>7.6E-05</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F143">
-        <v>-1.751066</v>
+        <v>-0.595404</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -2477,10 +2477,10 @@
         <v>0.000243</v>
       </c>
       <c r="D144">
-        <v>0.000184</v>
+        <v>0.000122</v>
       </c>
       <c r="F144">
-        <v>0.242118</v>
+        <v>0.496124</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -2491,10 +2491,10 @@
         <v>0.00058</v>
       </c>
       <c r="D145">
-        <v>0.000413</v>
+        <v>0.00046</v>
       </c>
       <c r="F145">
-        <v>0.287218</v>
+        <v>0.206917</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -2505,10 +2505,10 @@
         <v>2.3E-05</v>
       </c>
       <c r="D146">
-        <v>2.9E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F146">
-        <v>-0.237278</v>
+        <v>0.62569</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2519,10 +2519,10 @@
         <v>0.000767</v>
       </c>
       <c r="D147">
-        <v>0.000601</v>
+        <v>0.000208</v>
       </c>
       <c r="F147">
-        <v>0.216528</v>
+        <v>0.728847</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -2536,10 +2536,10 @@
         <v>0.000355</v>
       </c>
       <c r="D148">
-        <v>0.00033</v>
+        <v>0.000392</v>
       </c>
       <c r="F148">
-        <v>0.071127</v>
+        <v>-0.10505</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2550,10 +2550,10 @@
         <v>2.3E-05</v>
       </c>
       <c r="D149">
-        <v>3.8E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F149">
-        <v>-0.655341</v>
+        <v>-0.242535</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2564,10 +2564,10 @@
         <v>0.00016</v>
       </c>
       <c r="D150">
-        <v>0.000132</v>
+        <v>0.000196</v>
       </c>
       <c r="F150">
-        <v>0.176185</v>
+        <v>-0.225388</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2578,10 +2578,10 @@
         <v>0.000891</v>
       </c>
       <c r="D151">
-        <v>0.001028</v>
+        <v>0.000842</v>
       </c>
       <c r="F151">
-        <v>-0.153276</v>
+        <v>0.055678</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -2592,10 +2592,10 @@
         <v>2.1E-05</v>
       </c>
       <c r="D152">
-        <v>2.2E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F152">
-        <v>-0.053525</v>
+        <v>-0.019087</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -2606,10 +2606,10 @@
         <v>4.5E-05</v>
       </c>
       <c r="D153">
-        <v>1.4E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F153">
-        <v>0.696365</v>
+        <v>0.666184</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2620,10 +2620,10 @@
         <v>0.000226</v>
       </c>
       <c r="D154">
-        <v>0.000125</v>
+        <v>0.000142</v>
       </c>
       <c r="F154">
-        <v>0.44587</v>
+        <v>0.371665</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -2634,10 +2634,10 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="D155">
-        <v>0.000383</v>
+        <v>0.000284</v>
       </c>
       <c r="F155">
-        <v>-3.249062</v>
+        <v>-2.156325</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -2651,10 +2651,10 @@
         <v>4E-06</v>
       </c>
       <c r="D156">
-        <v>3E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F156">
-        <v>-6.488936</v>
+        <v>-16.009488</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -2665,10 +2665,10 @@
         <v>0.000619</v>
       </c>
       <c r="D157">
-        <v>0.000605</v>
+        <v>0.000575</v>
       </c>
       <c r="F157">
-        <v>0.023378</v>
+        <v>0.071926</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -2679,10 +2679,10 @@
         <v>0.00162</v>
       </c>
       <c r="D158">
-        <v>0.001986</v>
+        <v>0.002304</v>
       </c>
       <c r="F158">
-        <v>-0.225835</v>
+        <v>-0.422142</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -2693,10 +2693,10 @@
         <v>0.00158</v>
       </c>
       <c r="D159">
-        <v>0.00152</v>
+        <v>0.001973</v>
       </c>
       <c r="F159">
-        <v>0.038227</v>
+        <v>-0.248821</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -2707,10 +2707,10 @@
         <v>1.9E-05</v>
       </c>
       <c r="D160">
-        <v>0.000507</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F160">
-        <v>-25.562555</v>
+        <v>-0.742654</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2721,10 +2721,10 @@
         <v>0.000519</v>
       </c>
       <c r="D161">
-        <v>0.000427</v>
+        <v>0.000417</v>
       </c>
       <c r="F161">
-        <v>0.177789</v>
+        <v>0.197459</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2735,10 +2735,10 @@
         <v>0.006818</v>
       </c>
       <c r="D162">
-        <v>0.005783</v>
+        <v>0.005821</v>
       </c>
       <c r="F162">
-        <v>0.151822</v>
+        <v>0.146183</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2755,7 +2755,7 @@
         <v>7E-06</v>
       </c>
       <c r="F163">
-        <v>-0.7435079999999999</v>
+        <v>-0.862565</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -2766,10 +2766,10 @@
         <v>0.000156</v>
       </c>
       <c r="D164">
-        <v>8.2E-05</v>
+        <v>0.000121</v>
       </c>
       <c r="F164">
-        <v>0.475981</v>
+        <v>0.227306</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2780,10 +2780,10 @@
         <v>0.000172</v>
       </c>
       <c r="D165">
-        <v>0.00022</v>
+        <v>0.000126</v>
       </c>
       <c r="F165">
-        <v>-0.278721</v>
+        <v>0.267435</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -2794,10 +2794,10 @@
         <v>0.007347</v>
       </c>
       <c r="D166">
-        <v>0.007846000000000001</v>
+        <v>0.007875999999999999</v>
       </c>
       <c r="F166">
-        <v>-0.06786499999999999</v>
+        <v>-0.071989</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -2808,10 +2808,10 @@
         <v>0.00302</v>
       </c>
       <c r="D167">
-        <v>0.002297</v>
+        <v>0.002361</v>
       </c>
       <c r="F167">
-        <v>0.239413</v>
+        <v>0.21824</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -2822,10 +2822,10 @@
         <v>0.00044</v>
       </c>
       <c r="D168">
-        <v>0.000435</v>
+        <v>0.000343</v>
       </c>
       <c r="F168">
-        <v>0.011416</v>
+        <v>0.218898</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -2836,10 +2836,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D169">
-        <v>1.2E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F169">
-        <v>0.199045</v>
+        <v>0.655725</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -2850,10 +2850,10 @@
         <v>0.00381</v>
       </c>
       <c r="D170">
-        <v>0.012444</v>
+        <v>0.002928</v>
       </c>
       <c r="F170">
-        <v>-2.266262</v>
+        <v>0.231371</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -2864,10 +2864,10 @@
         <v>4E-05</v>
       </c>
       <c r="D171">
-        <v>2.6E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F171">
-        <v>0.344657</v>
+        <v>0.501071</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -2878,10 +2878,10 @@
         <v>5.2E-05</v>
       </c>
       <c r="D172">
-        <v>2.9E-05</v>
+        <v>6E-05</v>
       </c>
       <c r="F172">
-        <v>0.443107</v>
+        <v>-0.151156</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -2892,10 +2892,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D173">
-        <v>3.4E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F173">
-        <v>-2.210339</v>
+        <v>-2.476074</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -2906,10 +2906,10 @@
         <v>8E-06</v>
       </c>
       <c r="D174">
-        <v>7E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F174">
-        <v>0.126712</v>
+        <v>0.265685</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -2920,10 +2920,10 @@
         <v>0.000664</v>
       </c>
       <c r="D175">
-        <v>0.000835</v>
+        <v>0.000482</v>
       </c>
       <c r="F175">
-        <v>-0.257755</v>
+        <v>0.273213</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -2934,10 +2934,10 @@
         <v>5.3E-05</v>
       </c>
       <c r="D176">
-        <v>4.3E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F176">
-        <v>0.187458</v>
+        <v>0.31208</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -2948,10 +2948,10 @@
         <v>0.001344</v>
       </c>
       <c r="D177">
-        <v>0.000251</v>
+        <v>0.000349</v>
       </c>
       <c r="F177">
-        <v>0.812905</v>
+        <v>0.739939</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -2962,10 +2962,10 @@
         <v>0.000628</v>
       </c>
       <c r="D178">
-        <v>0.000224</v>
+        <v>0.000345</v>
       </c>
       <c r="F178">
-        <v>0.643143</v>
+        <v>0.45002</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -2976,10 +2976,10 @@
         <v>0.000197</v>
       </c>
       <c r="D179">
-        <v>0.000121</v>
+        <v>0.000112</v>
       </c>
       <c r="F179">
-        <v>0.389329</v>
+        <v>0.43452</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -2990,10 +2990,10 @@
         <v>0.00509</v>
       </c>
       <c r="D180">
-        <v>0.006214</v>
+        <v>0.004289</v>
       </c>
       <c r="F180">
-        <v>-0.220791</v>
+        <v>0.15739</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3004,10 +3004,10 @@
         <v>8E-06</v>
       </c>
       <c r="D181">
-        <v>1.7E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F181">
-        <v>-1.148667</v>
+        <v>-1.792345</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3018,10 +3018,10 @@
         <v>6.3E-05</v>
       </c>
       <c r="D182">
-        <v>5E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F182">
-        <v>0.201653</v>
+        <v>0.062299</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3032,10 +3032,10 @@
         <v>3.1E-05</v>
       </c>
       <c r="D183">
-        <v>3.8E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F183">
-        <v>-0.240358</v>
+        <v>0.263131</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3046,10 +3046,10 @@
         <v>1E-06</v>
       </c>
       <c r="D184">
-        <v>2.3E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F184">
-        <v>-20.061535</v>
+        <v>-27.989915</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3060,10 +3060,10 @@
         <v>0.000543</v>
       </c>
       <c r="D185">
-        <v>0.000569</v>
+        <v>0.000463</v>
       </c>
       <c r="F185">
-        <v>-0.048801</v>
+        <v>0.147758</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3074,10 +3074,10 @@
         <v>3E-06</v>
       </c>
       <c r="D186">
-        <v>2E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="F186">
-        <v>0.305052</v>
+        <v>-0.056433</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3088,10 +3088,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D187">
-        <v>5E-06</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F187">
-        <v>0.6744019999999999</v>
+        <v>0.289681</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3102,10 +3102,10 @@
         <v>6.8E-05</v>
       </c>
       <c r="D188">
-        <v>4.2E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F188">
-        <v>0.377836</v>
+        <v>0.6705100000000001</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3116,10 +3116,10 @@
         <v>0.00658</v>
       </c>
       <c r="D189">
-        <v>0.008108000000000001</v>
+        <v>0.00814</v>
       </c>
       <c r="F189">
-        <v>-0.232215</v>
+        <v>-0.237127</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3130,10 +3130,10 @@
         <v>1.4E-05</v>
       </c>
       <c r="D190">
-        <v>4.5E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F190">
-        <v>-2.132527</v>
+        <v>-1.478381</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3144,10 +3144,10 @@
         <v>5E-06</v>
       </c>
       <c r="D191">
-        <v>4.6E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F191">
-        <v>-9.109078</v>
+        <v>-0.7773060000000001</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3158,10 +3158,10 @@
         <v>0.001163</v>
       </c>
       <c r="D192">
-        <v>0.00126</v>
+        <v>0.000966</v>
       </c>
       <c r="F192">
-        <v>-0.08294899999999999</v>
+        <v>0.169601</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3172,10 +3172,10 @@
         <v>0.001349</v>
       </c>
       <c r="D193">
-        <v>0.001854</v>
+        <v>0.001385</v>
       </c>
       <c r="F193">
-        <v>-0.374376</v>
+        <v>-0.02688</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3186,10 +3186,10 @@
         <v>6.8E-05</v>
       </c>
       <c r="D194">
-        <v>3.4E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F194">
-        <v>0.499565</v>
+        <v>0.5178700000000001</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3200,10 +3200,10 @@
         <v>0.000111</v>
       </c>
       <c r="D195">
-        <v>0.000108</v>
+        <v>8.7E-05</v>
       </c>
       <c r="F195">
-        <v>0.028093</v>
+        <v>0.211946</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3217,10 +3217,10 @@
         <v>1E-06</v>
       </c>
       <c r="D196">
-        <v>6E-06</v>
+        <v>8E-06</v>
       </c>
       <c r="F196">
-        <v>-4.691954</v>
+        <v>-6.526929</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3231,10 +3231,10 @@
         <v>0.0006579999999999999</v>
       </c>
       <c r="D197">
-        <v>0.000251</v>
+        <v>0.000349</v>
       </c>
       <c r="F197">
-        <v>0.618124</v>
+        <v>0.469194</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3245,10 +3245,10 @@
         <v>3.6E-05</v>
       </c>
       <c r="D198">
-        <v>9E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F198">
-        <v>0.75673</v>
+        <v>0.840808</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3259,10 +3259,10 @@
         <v>1.2E-05</v>
       </c>
       <c r="D199">
-        <v>1.4E-05</v>
+        <v>4.5E-05</v>
       </c>
       <c r="F199">
-        <v>-0.11453</v>
+        <v>-2.661404</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3273,10 +3273,10 @@
         <v>6.499999999999999E-05</v>
       </c>
       <c r="D200">
-        <v>4.9E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F200">
-        <v>0.240197</v>
+        <v>0.483763</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3287,10 +3287,10 @@
         <v>7E-06</v>
       </c>
       <c r="D201">
-        <v>2.3E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F201">
-        <v>-2.133875</v>
+        <v>-4.454254</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3301,10 +3301,10 @@
         <v>0.00208</v>
       </c>
       <c r="D202">
-        <v>0.001557</v>
+        <v>0.001423</v>
       </c>
       <c r="F202">
-        <v>0.251408</v>
+        <v>0.316022</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3315,10 +3315,10 @@
         <v>3.9E-05</v>
       </c>
       <c r="D203">
-        <v>7.499999999999999E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F203">
-        <v>-0.91376</v>
+        <v>0.041666</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3329,10 +3329,10 @@
         <v>0.000581</v>
       </c>
       <c r="D204">
-        <v>0.000952</v>
+        <v>0.001133</v>
       </c>
       <c r="F204">
-        <v>-0.637846</v>
+        <v>-0.950066</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>4E-06</v>
       </c>
       <c r="D205">
-        <v>3.4E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F205">
-        <v>-7.961992</v>
+        <v>-8.290514999999999</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3357,10 +3357,10 @@
         <v>0.000139</v>
       </c>
       <c r="D206">
-        <v>6.999999999999999E-05</v>
+        <v>7.8E-05</v>
       </c>
       <c r="F206">
-        <v>0.494978</v>
+        <v>0.439227</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3371,10 +3371,10 @@
         <v>2.9E-05</v>
       </c>
       <c r="D207">
-        <v>1.5E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F207">
-        <v>0.480436</v>
+        <v>0.133818</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3385,10 +3385,10 @@
         <v>6E-06</v>
       </c>
       <c r="D208">
-        <v>1.3E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F208">
-        <v>-1.424443</v>
+        <v>0.327764</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3399,10 +3399,10 @@
         <v>2E-06</v>
       </c>
       <c r="D209">
-        <v>4E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F209">
-        <v>-0.872244</v>
+        <v>-1.734941</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3413,10 +3413,10 @@
         <v>0.001914</v>
       </c>
       <c r="D210">
-        <v>0.001721</v>
+        <v>0.002783</v>
       </c>
       <c r="F210">
-        <v>0.100991</v>
+        <v>-0.453842</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3427,10 +3427,10 @@
         <v>1E-05</v>
       </c>
       <c r="D211">
-        <v>1.4E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F211">
-        <v>-0.370703</v>
+        <v>-1.729421</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3441,10 +3441,10 @@
         <v>0.001005</v>
       </c>
       <c r="D212">
-        <v>0.000538</v>
+        <v>0.000634</v>
       </c>
       <c r="F212">
-        <v>0.464799</v>
+        <v>0.368822</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -3455,10 +3455,10 @@
         <v>0.000453</v>
       </c>
       <c r="D213">
-        <v>0.000466</v>
+        <v>0.000505</v>
       </c>
       <c r="F213">
-        <v>-0.028115</v>
+        <v>-0.115017</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -3472,10 +3472,10 @@
         <v>0.001633</v>
       </c>
       <c r="D214">
-        <v>0.001868</v>
+        <v>0.001138</v>
       </c>
       <c r="F214">
-        <v>-0.143838</v>
+        <v>0.302928</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -3486,10 +3486,10 @@
         <v>0.000151</v>
       </c>
       <c r="D215">
-        <v>0.000126</v>
+        <v>0.000121</v>
       </c>
       <c r="F215">
-        <v>0.164597</v>
+        <v>0.196766</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -3500,10 +3500,10 @@
         <v>0.000354</v>
       </c>
       <c r="D216">
-        <v>0.000427</v>
+        <v>0.000351</v>
       </c>
       <c r="F216">
-        <v>-0.205054</v>
+        <v>0.011249</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -3517,10 +3517,10 @@
         <v>0.007011</v>
       </c>
       <c r="D217">
-        <v>0.00671</v>
+        <v>0.006698</v>
       </c>
       <c r="F217">
-        <v>0.042948</v>
+        <v>0.044594</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -3531,10 +3531,10 @@
         <v>0.00178</v>
       </c>
       <c r="D218">
-        <v>0.002041</v>
+        <v>0.002484</v>
       </c>
       <c r="F218">
-        <v>-0.146825</v>
+        <v>-0.395465</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -3545,10 +3545,10 @@
         <v>0.000687</v>
       </c>
       <c r="D219">
-        <v>0.000275</v>
+        <v>6E-05</v>
       </c>
       <c r="F219">
-        <v>0.59937</v>
+        <v>0.91205</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -3559,10 +3559,10 @@
         <v>0.003082</v>
       </c>
       <c r="D220">
-        <v>0.002783</v>
+        <v>0.002551</v>
       </c>
       <c r="F220">
-        <v>0.097048</v>
+        <v>0.172428</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -3573,10 +3573,10 @@
         <v>0.007011</v>
       </c>
       <c r="D221">
-        <v>0.007071</v>
+        <v>0.006812</v>
       </c>
       <c r="F221">
-        <v>-0.008517</v>
+        <v>0.028313</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -3587,10 +3587,10 @@
         <v>0.001041</v>
       </c>
       <c r="D222">
-        <v>0.000284</v>
+        <v>0.000401</v>
       </c>
       <c r="F222">
-        <v>0.727082</v>
+        <v>0.614442</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -3601,10 +3601,10 @@
         <v>0.00991</v>
       </c>
       <c r="D223">
-        <v>0.01041</v>
+        <v>0.012281</v>
       </c>
       <c r="F223">
-        <v>-0.050467</v>
+        <v>-0.239264</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -3615,10 +3615,10 @@
         <v>0.008038999999999999</v>
       </c>
       <c r="D224">
-        <v>0.008033999999999999</v>
+        <v>0.007719</v>
       </c>
       <c r="F224">
-        <v>0.0006310000000000001</v>
+        <v>0.039863</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -3629,10 +3629,10 @@
         <v>0.000118</v>
       </c>
       <c r="D225">
-        <v>0.000165</v>
+        <v>0.000134</v>
       </c>
       <c r="F225">
-        <v>-0.397061</v>
+        <v>-0.137363</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -3643,10 +3643,10 @@
         <v>9.399999999999999E-05</v>
       </c>
       <c r="D226">
-        <v>6.8E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F226">
-        <v>0.274759</v>
+        <v>0.507006</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -3657,10 +3657,10 @@
         <v>7E-06</v>
       </c>
       <c r="D227">
-        <v>0.004829</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F227">
-        <v>-707.104678</v>
+        <v>-2.862534</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -3671,10 +3671,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D228">
-        <v>2.2E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F228">
-        <v>0.132947</v>
+        <v>0.163519</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -3685,10 +3685,10 @@
         <v>9.3E-05</v>
       </c>
       <c r="D229">
-        <v>1.4E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F229">
-        <v>0.8502769999999999</v>
+        <v>0.9124989999999999</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -3699,10 +3699,10 @@
         <v>0.000458</v>
       </c>
       <c r="D230">
-        <v>0.000483</v>
+        <v>0.000433</v>
       </c>
       <c r="F230">
-        <v>-0.054698</v>
+        <v>0.053446</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -3713,10 +3713,10 @@
         <v>0.0007560000000000001</v>
       </c>
       <c r="D231">
-        <v>0.0008</v>
+        <v>0.000374</v>
       </c>
       <c r="F231">
-        <v>-0.058651</v>
+        <v>0.504645</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -3727,10 +3727,10 @@
         <v>7.3E-05</v>
       </c>
       <c r="D232">
-        <v>0.001427</v>
+        <v>7.1E-05</v>
       </c>
       <c r="F232">
-        <v>-18.598665</v>
+        <v>0.028587</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -3741,10 +3741,10 @@
         <v>0.000712</v>
       </c>
       <c r="D233">
-        <v>0.000966</v>
+        <v>0.000895</v>
       </c>
       <c r="F233">
-        <v>-0.357433</v>
+        <v>-0.256444</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -3755,10 +3755,10 @@
         <v>2E-06</v>
       </c>
       <c r="D234">
-        <v>5E-06</v>
+        <v>1E-06</v>
       </c>
       <c r="F234">
-        <v>-1.717701</v>
+        <v>0.293207</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -3769,10 +3769,10 @@
         <v>0.000397</v>
       </c>
       <c r="D235">
-        <v>0.000312</v>
+        <v>0.000228</v>
       </c>
       <c r="F235">
-        <v>0.215257</v>
+        <v>0.425613</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -3783,10 +3783,10 @@
         <v>0.005631</v>
       </c>
       <c r="D236">
-        <v>0.005591</v>
+        <v>0.003519</v>
       </c>
       <c r="F236">
-        <v>0.007146</v>
+        <v>0.375014</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -3797,10 +3797,10 @@
         <v>6.499999999999999E-05</v>
       </c>
       <c r="D237">
-        <v>3.4E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F237">
-        <v>0.482859</v>
+        <v>0.70459</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>4.3E-05</v>
       </c>
       <c r="D238">
-        <v>2.8E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F238">
-        <v>0.353761</v>
+        <v>0.701653</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -3825,10 +3825,10 @@
         <v>0.000331</v>
       </c>
       <c r="D239">
-        <v>0.00018</v>
+        <v>0.000161</v>
       </c>
       <c r="F239">
-        <v>0.455241</v>
+        <v>0.514406</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -3839,10 +3839,10 @@
         <v>2E-06</v>
       </c>
       <c r="D240">
-        <v>5.5E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F240">
-        <v>-27.442073</v>
+        <v>-65.990465</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -3853,10 +3853,10 @@
         <v>0.000186</v>
       </c>
       <c r="D241">
-        <v>0.00031</v>
+        <v>0.000147</v>
       </c>
       <c r="F241">
-        <v>-0.665987</v>
+        <v>0.21211</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -3867,10 +3867,10 @@
         <v>1.6E-05</v>
       </c>
       <c r="D242">
-        <v>6.600000000000001E-05</v>
+        <v>0.000105</v>
       </c>
       <c r="F242">
-        <v>-3.067409</v>
+        <v>-5.418577</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -3881,10 +3881,10 @@
         <v>3.1E-05</v>
       </c>
       <c r="D243">
-        <v>2.9E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F243">
-        <v>0.092886</v>
+        <v>-0.52117</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -3895,10 +3895,10 @@
         <v>9E-06</v>
       </c>
       <c r="D244">
-        <v>4.2E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F244">
-        <v>-3.707629</v>
+        <v>-3.334457</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -3909,10 +3909,10 @@
         <v>0.0106</v>
       </c>
       <c r="D245">
-        <v>0.010563</v>
+        <v>0.009422</v>
       </c>
       <c r="F245">
-        <v>0.00351</v>
+        <v>0.111085</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -3923,10 +3923,10 @@
         <v>0.001426</v>
       </c>
       <c r="D246">
-        <v>0.001064</v>
+        <v>0.001071</v>
       </c>
       <c r="F246">
-        <v>0.253785</v>
+        <v>0.249227</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -3937,10 +3937,10 @@
         <v>9E-06</v>
       </c>
       <c r="D247">
-        <v>9E-06</v>
+        <v>2.9E-05</v>
       </c>
       <c r="F247">
-        <v>0.039898</v>
+        <v>-2.283546</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -3951,10 +3951,10 @@
         <v>0.00181</v>
       </c>
       <c r="D248">
-        <v>0.000887</v>
+        <v>0.002778</v>
       </c>
       <c r="F248">
-        <v>0.5099</v>
+        <v>-0.534769</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -3965,10 +3965,10 @@
         <v>5.4E-05</v>
       </c>
       <c r="D249">
-        <v>8.2E-05</v>
+        <v>0.000113</v>
       </c>
       <c r="F249">
-        <v>-0.519146</v>
+        <v>-1.075283</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -3979,10 +3979,10 @@
         <v>8.500000000000001E-05</v>
       </c>
       <c r="D250">
-        <v>6.499999999999999E-05</v>
+        <v>0.000157</v>
       </c>
       <c r="F250">
-        <v>0.241551</v>
+        <v>-0.844262</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -3993,10 +3993,10 @@
         <v>2E-05</v>
       </c>
       <c r="D251">
-        <v>1.6E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="F251">
-        <v>0.176719</v>
+        <v>-2.109316</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4007,10 +4007,10 @@
         <v>0.001695</v>
       </c>
       <c r="D252">
-        <v>0.001703</v>
+        <v>0.001804</v>
       </c>
       <c r="F252">
-        <v>-0.004568</v>
+        <v>-0.06433800000000001</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -4021,10 +4021,10 @@
         <v>0.00533</v>
       </c>
       <c r="D253">
-        <v>0.004975</v>
+        <v>0.004422</v>
       </c>
       <c r="F253">
-        <v>0.06668</v>
+        <v>0.170394</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -4035,10 +4035,10 @@
         <v>4.9E-05</v>
       </c>
       <c r="D254">
-        <v>5.1E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F254">
-        <v>-0.038132</v>
+        <v>0.583165</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -4052,10 +4052,10 @@
         <v>0.000288</v>
       </c>
       <c r="D255">
-        <v>0.000293</v>
+        <v>0.000197</v>
       </c>
       <c r="F255">
-        <v>-0.017346</v>
+        <v>0.316825</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -4066,10 +4066,10 @@
         <v>3.3E-05</v>
       </c>
       <c r="D256">
-        <v>3.1E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F256">
-        <v>0.077335</v>
+        <v>-0.21043</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -4080,10 +4080,10 @@
         <v>0.00015</v>
       </c>
       <c r="D257">
-        <v>0.000167</v>
+        <v>0.00013</v>
       </c>
       <c r="F257">
-        <v>-0.115156</v>
+        <v>0.130281</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -4094,10 +4094,10 @@
         <v>9.899999999999999E-05</v>
       </c>
       <c r="D258">
-        <v>0.000125</v>
+        <v>0.00011</v>
       </c>
       <c r="F258">
-        <v>-0.258859</v>
+        <v>-0.109357</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -4108,10 +4108,10 @@
         <v>1E-06</v>
       </c>
       <c r="D259">
-        <v>0.000363</v>
+        <v>3E-06</v>
       </c>
       <c r="F259">
-        <v>-280.677363</v>
+        <v>-1.022196</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -4122,10 +4122,10 @@
         <v>9.000000000000001E-05</v>
       </c>
       <c r="D260">
-        <v>7.9E-05</v>
+        <v>8.6E-05</v>
       </c>
       <c r="F260">
-        <v>0.122594</v>
+        <v>0.039349</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -4136,10 +4136,10 @@
         <v>0.00035</v>
       </c>
       <c r="D261">
-        <v>0.000404</v>
+        <v>0.000327</v>
       </c>
       <c r="F261">
-        <v>-0.154691</v>
+        <v>0.065057</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -4150,10 +4150,10 @@
         <v>6.3E-05</v>
       </c>
       <c r="D262">
-        <v>8.7E-05</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F262">
-        <v>-0.389821</v>
+        <v>0.103641</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4164,10 +4164,10 @@
         <v>0.00256</v>
       </c>
       <c r="D263">
-        <v>0.001972</v>
+        <v>0.002151</v>
       </c>
       <c r="F263">
-        <v>0.229514</v>
+        <v>0.159903</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -4178,10 +4178,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D264">
-        <v>1.9E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F264">
-        <v>-0.245945</v>
+        <v>0.508378</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4192,10 +4192,10 @@
         <v>0.0007739999999999999</v>
       </c>
       <c r="D265">
-        <v>0.00054</v>
+        <v>0.000627</v>
       </c>
       <c r="F265">
-        <v>0.302005</v>
+        <v>0.189784</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -4206,10 +4206,10 @@
         <v>2.1E-05</v>
       </c>
       <c r="D266">
-        <v>1.5E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F266">
-        <v>0.305712</v>
+        <v>0.589724</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -4220,10 +4220,10 @@
         <v>0.001045</v>
       </c>
       <c r="D267">
-        <v>0.000801</v>
+        <v>0.000368</v>
       </c>
       <c r="F267">
-        <v>0.234032</v>
+        <v>0.647477</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -4234,10 +4234,10 @@
         <v>5.8E-05</v>
       </c>
       <c r="D268">
-        <v>4.3E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="F268">
-        <v>0.259044</v>
+        <v>0.346607</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4248,10 +4248,10 @@
         <v>1.2E-05</v>
       </c>
       <c r="D269">
-        <v>2.2E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F269">
-        <v>-0.862745</v>
+        <v>-0.61365</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -4262,10 +4262,10 @@
         <v>0.00214</v>
       </c>
       <c r="D270">
-        <v>0.00205</v>
+        <v>0.001806</v>
       </c>
       <c r="F270">
-        <v>0.042057</v>
+        <v>0.155916</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -4276,10 +4276,10 @@
         <v>7.9E-05</v>
       </c>
       <c r="D271">
-        <v>5.6E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F271">
-        <v>0.296316</v>
+        <v>0.495187</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -4290,10 +4290,10 @@
         <v>0.0008229999999999999</v>
       </c>
       <c r="D272">
-        <v>0.000469</v>
+        <v>0.000364</v>
       </c>
       <c r="F272">
-        <v>0.430374</v>
+        <v>0.558006</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -4304,10 +4304,10 @@
         <v>0.000688</v>
       </c>
       <c r="D273">
-        <v>0.001143</v>
+        <v>0.001224</v>
       </c>
       <c r="F273">
-        <v>-0.66081</v>
+        <v>-0.7792829999999999</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -4318,10 +4318,10 @@
         <v>0.002949</v>
       </c>
       <c r="D274">
-        <v>0.003233</v>
+        <v>0.002367</v>
       </c>
       <c r="F274">
-        <v>-0.096302</v>
+        <v>0.197303</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -4332,10 +4332,10 @@
         <v>4.5E-05</v>
       </c>
       <c r="D275">
-        <v>5.2E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F275">
-        <v>-0.171884</v>
+        <v>0.133018</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -4346,10 +4346,10 @@
         <v>0.002748</v>
       </c>
       <c r="D276">
-        <v>0.003598</v>
+        <v>0.003201</v>
       </c>
       <c r="F276">
-        <v>-0.309326</v>
+        <v>-0.164659</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -4360,10 +4360,10 @@
         <v>0.000297</v>
       </c>
       <c r="D277">
-        <v>0.000193</v>
+        <v>0.000205</v>
       </c>
       <c r="F277">
-        <v>0.350373</v>
+        <v>0.309412</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -4374,10 +4374,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D278">
-        <v>3.2E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="F278">
-        <v>-1.214478</v>
+        <v>-0.468817</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -4388,10 +4388,10 @@
         <v>0.000378</v>
       </c>
       <c r="D279">
-        <v>0.000224</v>
+        <v>0.000345</v>
       </c>
       <c r="F279">
-        <v>0.407479</v>
+        <v>0.08681899999999999</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -4402,10 +4402,10 @@
         <v>4.8E-05</v>
       </c>
       <c r="D280">
-        <v>0.000112</v>
+        <v>0.000113</v>
       </c>
       <c r="F280">
-        <v>-1.310243</v>
+        <v>-1.333917</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -4416,10 +4416,10 @@
         <v>0.000144</v>
       </c>
       <c r="D281">
-        <v>0.000121</v>
+        <v>0.000133</v>
       </c>
       <c r="F281">
-        <v>0.159641</v>
+        <v>0.081001</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -4430,10 +4430,10 @@
         <v>1.7E-05</v>
       </c>
       <c r="D282">
-        <v>3.9E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="F282">
-        <v>-1.277947</v>
+        <v>-2.257681</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -4444,10 +4444,10 @@
         <v>2.3E-05</v>
       </c>
       <c r="D283">
-        <v>1.2E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="F283">
-        <v>0.464577</v>
+        <v>0.726993</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -4458,10 +4458,10 @@
         <v>0.000565</v>
       </c>
       <c r="D284">
-        <v>0.000608</v>
+        <v>0.000866</v>
       </c>
       <c r="F284">
-        <v>-0.075654</v>
+        <v>-0.531929</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>1E-05</v>
       </c>
       <c r="D285">
-        <v>1.1E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F285">
-        <v>-0.02504</v>
+        <v>-1.699288</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -4486,10 +4486,10 @@
         <v>0.000419</v>
       </c>
       <c r="D286">
-        <v>0.000337</v>
+        <v>0.000253</v>
       </c>
       <c r="F286">
-        <v>0.195729</v>
+        <v>0.395156</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -4500,10 +4500,10 @@
         <v>8E-06</v>
       </c>
       <c r="D287">
-        <v>8E-06</v>
+        <v>2E-05</v>
       </c>
       <c r="F287">
-        <v>0.038559</v>
+        <v>-1.328723</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -4514,10 +4514,10 @@
         <v>0.002428</v>
       </c>
       <c r="D288">
-        <v>0.001679</v>
+        <v>0.001895</v>
       </c>
       <c r="F288">
-        <v>0.308488</v>
+        <v>0.219775</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -4531,7 +4531,7 @@
         <v>4E-06</v>
       </c>
       <c r="F289">
-        <v>-1.226258</v>
+        <v>-1.250724</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -4542,10 +4542,10 @@
         <v>0.000354</v>
       </c>
       <c r="D290">
-        <v>0.000434</v>
+        <v>0.000465</v>
       </c>
       <c r="F290">
-        <v>-0.226353</v>
+        <v>-0.31355</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -4556,10 +4556,10 @@
         <v>0.000873</v>
       </c>
       <c r="D291">
-        <v>0.001429</v>
+        <v>0.001116</v>
       </c>
       <c r="F291">
-        <v>-0.637294</v>
+        <v>-0.277959</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -4570,10 +4570,10 @@
         <v>5E-06</v>
       </c>
       <c r="D292">
-        <v>1.7E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F292">
-        <v>-2.39719</v>
+        <v>-3.405697</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -4584,10 +4584,10 @@
         <v>0.000588</v>
       </c>
       <c r="D293">
-        <v>0.000468</v>
+        <v>0.000429</v>
       </c>
       <c r="F293">
-        <v>0.203114</v>
+        <v>0.27069</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4598,10 +4598,10 @@
         <v>0.000529</v>
       </c>
       <c r="D294">
-        <v>0.000534</v>
+        <v>0.000267</v>
       </c>
       <c r="F294">
-        <v>-0.008666</v>
+        <v>0.495916</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -4612,10 +4612,10 @@
         <v>3E-06</v>
       </c>
       <c r="D295">
-        <v>4E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="F295">
-        <v>-0.48333</v>
+        <v>-0.001536</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -4626,10 +4626,10 @@
         <v>2.8E-05</v>
       </c>
       <c r="D296">
-        <v>2.3E-05</v>
+        <v>3.9E-05</v>
       </c>
       <c r="F296">
-        <v>0.173014</v>
+        <v>-0.423647</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -4640,10 +4640,10 @@
         <v>4E-06</v>
       </c>
       <c r="D297">
-        <v>4E-06</v>
+        <v>6E-06</v>
       </c>
       <c r="F297">
-        <v>0.029979</v>
+        <v>-0.41699</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -4654,10 +4654,10 @@
         <v>3.8E-05</v>
       </c>
       <c r="D298">
-        <v>4.6E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F298">
-        <v>-0.227968</v>
+        <v>0.111874</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -4668,10 +4668,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D299">
-        <v>1.1E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F299">
-        <v>0.173578</v>
+        <v>0.470138</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -4682,10 +4682,10 @@
         <v>7.8E-05</v>
       </c>
       <c r="D300">
-        <v>0.000111</v>
+        <v>7.8E-05</v>
       </c>
       <c r="F300">
-        <v>-0.416289</v>
+        <v>-0.000878</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -4696,10 +4696,10 @@
         <v>2.2E-05</v>
       </c>
       <c r="D301">
-        <v>1.9E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F301">
-        <v>0.118844</v>
+        <v>-2.154493</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -4710,10 +4710,10 @@
         <v>1.5E-05</v>
       </c>
       <c r="D302">
-        <v>2.8E-05</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F302">
-        <v>-0.852581</v>
+        <v>-3.413722</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -4724,10 +4724,10 @@
         <v>2E-06</v>
       </c>
       <c r="D303">
-        <v>6E-06</v>
+        <v>4E-06</v>
       </c>
       <c r="F303">
-        <v>-2.585222</v>
+        <v>-1.125282</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4738,10 +4738,10 @@
         <v>7.7E-05</v>
       </c>
       <c r="D304">
-        <v>6.3E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F304">
-        <v>0.188271</v>
+        <v>0.592704</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -4752,10 +4752,10 @@
         <v>2.7E-05</v>
       </c>
       <c r="D305">
-        <v>3.9E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F305">
-        <v>-0.428461</v>
+        <v>-0.014645</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -4766,10 +4766,10 @@
         <v>5.6E-05</v>
       </c>
       <c r="D306">
-        <v>0.00014</v>
+        <v>0.000107</v>
       </c>
       <c r="F306">
-        <v>-1.485235</v>
+        <v>-0.909944</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -4780,10 +4780,10 @@
         <v>0.001193</v>
       </c>
       <c r="D307">
-        <v>0.0005730000000000001</v>
+        <v>0.000519</v>
       </c>
       <c r="F307">
-        <v>0.51939</v>
+        <v>0.5651</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -4794,10 +4794,10 @@
         <v>0.000589</v>
       </c>
       <c r="D308">
-        <v>0.001616</v>
+        <v>0.000625</v>
       </c>
       <c r="F308">
-        <v>-1.744053</v>
+        <v>-0.060664</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -4808,10 +4808,10 @@
         <v>0.000193</v>
       </c>
       <c r="D309">
-        <v>0.000194</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F309">
-        <v>-0.003595</v>
+        <v>0.758543</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -4822,10 +4822,10 @@
         <v>0.000394</v>
       </c>
       <c r="D310">
-        <v>0.000443</v>
+        <v>0.000228</v>
       </c>
       <c r="F310">
-        <v>-0.125032</v>
+        <v>0.421155</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -4836,10 +4836,10 @@
         <v>2.1E-05</v>
       </c>
       <c r="D311">
-        <v>1.9E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F311">
-        <v>0.063889</v>
+        <v>-0.08347300000000001</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -4850,10 +4850,10 @@
         <v>0.002032</v>
       </c>
       <c r="D312">
-        <v>0.058907</v>
+        <v>0.002006</v>
       </c>
       <c r="F312">
-        <v>-27.989826</v>
+        <v>0.012578</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -4864,10 +4864,10 @@
         <v>5E-06</v>
       </c>
       <c r="D313">
-        <v>3.6E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="F313">
-        <v>-5.675113</v>
+        <v>-0.226909</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -4878,10 +4878,10 @@
         <v>8E-06</v>
       </c>
       <c r="D314">
-        <v>1.3E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F314">
-        <v>-0.493027</v>
+        <v>-3.80463</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -4892,10 +4892,10 @@
         <v>4.4E-05</v>
       </c>
       <c r="D315">
-        <v>3.3E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F315">
-        <v>0.231871</v>
+        <v>0.051434</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -4906,10 +4906,10 @@
         <v>0.000155</v>
       </c>
       <c r="D316">
-        <v>0.00013</v>
+        <v>8.2E-05</v>
       </c>
       <c r="F316">
-        <v>0.162462</v>
+        <v>0.469945</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -4920,10 +4920,10 @@
         <v>3E-06</v>
       </c>
       <c r="D317">
-        <v>7E-06</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F317">
-        <v>-1.259958</v>
+        <v>-4.247658</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -4934,10 +4934,10 @@
         <v>0.00014</v>
       </c>
       <c r="D318">
-        <v>0.000186</v>
+        <v>0.000121</v>
       </c>
       <c r="F318">
-        <v>-0.328081</v>
+        <v>0.133277</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -4948,10 +4948,10 @@
         <v>1.1E-05</v>
       </c>
       <c r="D319">
-        <v>8.500000000000001E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F319">
-        <v>-6.692608</v>
+        <v>-0.357129</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -4962,10 +4962,10 @@
         <v>0.0002</v>
       </c>
       <c r="D320">
-        <v>0.000206</v>
+        <v>0.000154</v>
       </c>
       <c r="F320">
-        <v>-0.030327</v>
+        <v>0.230612</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -4976,10 +4976,10 @@
         <v>4E-06</v>
       </c>
       <c r="D321">
-        <v>0.000717</v>
+        <v>8E-06</v>
       </c>
       <c r="F321">
-        <v>-184.362185</v>
+        <v>-1.042672</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -4990,10 +4990,10 @@
         <v>4E-05</v>
       </c>
       <c r="D322">
-        <v>7E-06</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F322">
-        <v>0.826427</v>
+        <v>0.59696</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -5007,7 +5007,7 @@
         <v>7E-06</v>
       </c>
       <c r="F323">
-        <v>-2.166886</v>
+        <v>-2.24911</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -5018,10 +5018,10 @@
         <v>0.003137</v>
       </c>
       <c r="D324">
-        <v>0.002736</v>
+        <v>0.002512</v>
       </c>
       <c r="F324">
-        <v>0.127948</v>
+        <v>0.199269</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -5032,10 +5032,10 @@
         <v>1.4E-05</v>
       </c>
       <c r="D325">
-        <v>1.1E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="F325">
-        <v>0.217288</v>
+        <v>0.249467</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -5046,10 +5046,10 @@
         <v>2.5E-05</v>
       </c>
       <c r="D326">
-        <v>1.2E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F326">
-        <v>0.517747</v>
+        <v>0.466958</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -5060,10 +5060,10 @@
         <v>9.8E-05</v>
       </c>
       <c r="D327">
-        <v>4.3E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F327">
-        <v>0.566566</v>
+        <v>0.571446</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -5074,10 +5074,10 @@
         <v>0.000503</v>
       </c>
       <c r="D328">
-        <v>0.000466</v>
+        <v>0.000505</v>
       </c>
       <c r="F328">
-        <v>0.072753</v>
+        <v>-0.005624</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -5088,10 +5088,10 @@
         <v>0.000298</v>
       </c>
       <c r="D329">
-        <v>0.000526</v>
+        <v>0.000454</v>
       </c>
       <c r="F329">
-        <v>-0.7646579999999999</v>
+        <v>-0.523054</v>
       </c>
     </row>
     <row r="330" spans="1:6">
@@ -5102,10 +5102,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D330">
-        <v>5.6E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F330">
-        <v>-3.271022</v>
+        <v>-2.932239</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -5116,10 +5116,10 @@
         <v>0.000255</v>
       </c>
       <c r="D331">
-        <v>0.000185</v>
+        <v>7.4E-05</v>
       </c>
       <c r="F331">
-        <v>0.276038</v>
+        <v>0.710901</v>
       </c>
     </row>
     <row r="332" spans="1:6">
@@ -5130,10 +5130,10 @@
         <v>0.000187</v>
       </c>
       <c r="D332">
-        <v>1.7E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F332">
-        <v>0.907832</v>
+        <v>0.927623</v>
       </c>
     </row>
     <row r="333" spans="1:6">
@@ -5144,10 +5144,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D333">
-        <v>2.1E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F333">
-        <v>-0.616304</v>
+        <v>-1.029005</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -5158,10 +5158,10 @@
         <v>5.2E-05</v>
       </c>
       <c r="D334">
-        <v>5.6E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F334">
-        <v>-0.07960399999999999</v>
+        <v>0.66127</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -5172,10 +5172,10 @@
         <v>0.002314</v>
       </c>
       <c r="D335">
-        <v>0.002636</v>
+        <v>0.001719</v>
       </c>
       <c r="F335">
-        <v>-0.139342</v>
+        <v>0.257107</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -5186,10 +5186,10 @@
         <v>5.2E-05</v>
       </c>
       <c r="D336">
-        <v>8.4E-05</v>
+        <v>6.1E-05</v>
       </c>
       <c r="F336">
-        <v>-0.611985</v>
+        <v>-0.166912</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>0.00217</v>
       </c>
       <c r="D337">
-        <v>0.001177</v>
+        <v>0.001174</v>
       </c>
       <c r="F337">
-        <v>0.45779</v>
+        <v>0.458765</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -5217,10 +5217,10 @@
         <v>1.3E-05</v>
       </c>
       <c r="D338">
-        <v>0.000275</v>
+        <v>6E-05</v>
       </c>
       <c r="F338">
-        <v>-19.453237</v>
+        <v>-3.490075</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -5231,10 +5231,10 @@
         <v>5.8E-05</v>
       </c>
       <c r="D339">
-        <v>4.2E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="F339">
-        <v>0.26901</v>
+        <v>0.363486</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -5248,10 +5248,10 @@
         <v>6.7E-05</v>
       </c>
       <c r="D340">
-        <v>0.000106</v>
+        <v>0.000127</v>
       </c>
       <c r="F340">
-        <v>-0.586188</v>
+        <v>-0.902542</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -5262,10 +5262,10 @@
         <v>0.000256</v>
       </c>
       <c r="D341">
-        <v>0.000143</v>
+        <v>0.000258</v>
       </c>
       <c r="F341">
-        <v>0.442718</v>
+        <v>-0.006069</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -5276,10 +5276,10 @@
         <v>3.4E-05</v>
       </c>
       <c r="D342">
-        <v>2.6E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F342">
-        <v>0.234846</v>
+        <v>0.405026</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -5293,10 +5293,10 @@
         <v>0.003094</v>
       </c>
       <c r="D343">
-        <v>0.005454</v>
+        <v>0.003093</v>
       </c>
       <c r="F343">
-        <v>-0.7628</v>
+        <v>0.000477</v>
       </c>
     </row>
     <row r="344" spans="1:6">
@@ -5307,10 +5307,10 @@
         <v>0.00266</v>
       </c>
       <c r="D344">
-        <v>0.00314</v>
+        <v>0.002911</v>
       </c>
       <c r="F344">
-        <v>-0.180474</v>
+        <v>-0.094511</v>
       </c>
     </row>
   </sheetData>

--- a/part2/tables-2/dom_validty_part-2.xlsx
+++ b/part2/tables-2/dom_validty_part-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="7">
   <si>
     <t>Test ID</t>
   </si>
@@ -420,4897 +420,5833 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>1078</v>
+        <v>2773</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>0.005136</v>
+        <v>0.003415</v>
       </c>
       <c r="D2">
-        <v>0.004992</v>
+        <v>0.00318</v>
       </c>
       <c r="F2">
-        <v>0.02812</v>
+        <v>0.06882199999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>212</v>
+        <v>3371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>0.001005</v>
+        <v>0.000144</v>
       </c>
       <c r="D3">
-        <v>0.00083</v>
+        <v>0.000128</v>
       </c>
       <c r="F3">
-        <v>0.174249</v>
+        <v>0.115501</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>807</v>
+        <v>4291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2E-05</v>
+        <v>0.000361</v>
       </c>
       <c r="D4">
-        <v>8.500000000000001E-05</v>
+        <v>0.000274</v>
       </c>
       <c r="F4">
-        <v>-3.232109</v>
+        <v>0.2422</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>1454</v>
+        <v>3755</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00444</v>
+        <v>0.00017</v>
       </c>
       <c r="D5">
-        <v>0.002067</v>
+        <v>0.000108</v>
       </c>
       <c r="F5">
-        <v>0.534379</v>
+        <v>0.361928</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>1175</v>
+        <v>3895</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.3E-05</v>
+        <v>0.00054</v>
       </c>
       <c r="D6">
-        <v>7.3E-05</v>
+        <v>0.000344</v>
       </c>
       <c r="F6">
-        <v>-2.20455</v>
+        <v>0.363229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>459</v>
+        <v>3835</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>4.8E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="D7">
-        <v>5.5E-05</v>
+        <v>5E-06</v>
       </c>
       <c r="F7">
-        <v>-0.152065</v>
+        <v>0.048593</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>1813</v>
+        <v>3966</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>2.7E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D8">
-        <v>2.3E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="F8">
-        <v>0.163929</v>
+        <v>-0.079905</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>1304</v>
+        <v>3316</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>0.002918</v>
+        <v>0.000497</v>
       </c>
       <c r="D9">
-        <v>0.00206</v>
+        <v>0.000148</v>
       </c>
       <c r="F9">
-        <v>0.293918</v>
+        <v>0.702263</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>1710</v>
+        <v>2865</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5.5E-05</v>
+        <v>0.001776</v>
       </c>
       <c r="D10">
-        <v>1.9E-05</v>
+        <v>0.001612</v>
       </c>
       <c r="F10">
-        <v>0.646567</v>
+        <v>0.09228</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>1938</v>
+        <v>2828</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.00011</v>
+        <v>0.00533</v>
       </c>
       <c r="D11">
-        <v>6.9E-05</v>
+        <v>0.004859</v>
       </c>
       <c r="F11">
-        <v>0.371164</v>
+        <v>0.088337</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>2328</v>
+        <v>3931</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0.000781</v>
+        <v>4E-06</v>
       </c>
       <c r="D12">
-        <v>0.000575</v>
+        <v>3E-06</v>
       </c>
       <c r="F12">
-        <v>0.263912</v>
+        <v>0.17396</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>1425</v>
+        <v>2350</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13">
-        <v>0.00049</v>
+        <v>0.000432</v>
       </c>
       <c r="D13">
-        <v>0.000254</v>
+        <v>0.000329</v>
       </c>
       <c r="F13">
-        <v>0.482204</v>
+        <v>0.238723</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>103</v>
+        <v>3657</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14">
-        <v>0.002404</v>
+        <v>6E-06</v>
       </c>
       <c r="D14">
-        <v>0.001022</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F14">
-        <v>0.574781</v>
+        <v>-2.256679</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>1917</v>
+        <v>4065</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2.5E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D15">
-        <v>2.2E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F15">
-        <v>0.114727</v>
+        <v>-0.336232</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>2060</v>
+        <v>2381</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2.2E-05</v>
+        <v>0.000109</v>
       </c>
       <c r="D16">
-        <v>1.5E-05</v>
+        <v>0.000301</v>
       </c>
       <c r="F16">
-        <v>0.313111</v>
+        <v>-1.76477</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>1692</v>
+        <v>2055</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>0.000121</v>
+        <v>0.000474</v>
       </c>
       <c r="D17">
-        <v>0.00014</v>
+        <v>0.000227</v>
       </c>
       <c r="F17">
-        <v>-0.15913</v>
+        <v>0.5201</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>2109</v>
+        <v>4392</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0.000108</v>
+        <v>0.000152</v>
       </c>
       <c r="D18">
-        <v>0.000119</v>
+        <v>0.000117</v>
       </c>
       <c r="F18">
-        <v>-0.100127</v>
+        <v>0.233027</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>514</v>
+        <v>2973</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19">
-        <v>0.000769</v>
+        <v>0.004818</v>
       </c>
       <c r="D19">
-        <v>0.001195</v>
+        <v>0.005913</v>
       </c>
       <c r="F19">
-        <v>-0.553273</v>
+        <v>-0.227252</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>2307</v>
+        <v>2942</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
-        <v>0.000161</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D20">
-        <v>0.000187</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F20">
-        <v>-0.160445</v>
+        <v>0.161772</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>109</v>
+        <v>2834</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>0.000705</v>
+        <v>0.000172</v>
       </c>
       <c r="D21">
-        <v>0.000621</v>
+        <v>0.00016</v>
       </c>
       <c r="F21">
-        <v>0.1192</v>
+        <v>0.06904399999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>966</v>
+        <v>3954</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>2E-06</v>
+        <v>4E-05</v>
       </c>
       <c r="D22">
-        <v>7.3E-05</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F22">
-        <v>-36.039935</v>
+        <v>-0.303519</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>2371</v>
+        <v>2412</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>0.000646</v>
+        <v>0.00026</v>
       </c>
       <c r="D23">
-        <v>0.000454</v>
+        <v>0.000207</v>
       </c>
       <c r="F23">
-        <v>0.297976</v>
+        <v>0.202821</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>1765</v>
+        <v>2022</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0.00013</v>
+        <v>1.1E-05</v>
       </c>
       <c r="D24">
-        <v>7.1E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F24">
-        <v>0.456904</v>
+        <v>-1.237167</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>2399</v>
+        <v>3887</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
       </c>
       <c r="C25">
-        <v>7.9E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D25">
-        <v>6.8E-05</v>
+        <v>0.000136</v>
       </c>
       <c r="F25">
-        <v>0.143403</v>
+        <v>-2.35594</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>777</v>
+        <v>3683</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>0.001565</v>
+        <v>5.3E-05</v>
       </c>
       <c r="D26">
-        <v>0.00037</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F26">
-        <v>0.763716</v>
+        <v>0.407024</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>913</v>
+        <v>2597</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
       </c>
       <c r="C27">
-        <v>0.00042</v>
+        <v>7.3E-05</v>
       </c>
       <c r="D27">
-        <v>0.000298</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F27">
-        <v>0.289615</v>
+        <v>0.229015</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>1274</v>
+        <v>3122</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
-        <v>0.000134</v>
+        <v>0.00206</v>
       </c>
       <c r="D28">
-        <v>0.000155</v>
+        <v>0.003271</v>
       </c>
       <c r="F28">
-        <v>-0.156292</v>
+        <v>-0.588063</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>2310</v>
+        <v>3354</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>0.000139</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D29">
-        <v>0.000126</v>
+        <v>2.8E-05</v>
       </c>
       <c r="F29">
-        <v>0.088736</v>
+        <v>0.144031</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>1002</v>
+        <v>3455</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>0.000174</v>
+        <v>0.00704</v>
       </c>
       <c r="D30">
-        <v>7.7E-05</v>
+        <v>0.006584</v>
       </c>
       <c r="F30">
-        <v>0.5578070000000001</v>
+        <v>0.06476899999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>1777</v>
+        <v>3317</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>0.000119</v>
+        <v>0.000302</v>
       </c>
       <c r="D31">
-        <v>5.2E-05</v>
+        <v>0.000138</v>
       </c>
       <c r="F31">
-        <v>0.567016</v>
+        <v>0.542585</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>2003</v>
+        <v>2122</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32">
-        <v>0.000419</v>
+        <v>0.000123</v>
       </c>
       <c r="D32">
-        <v>4.4E-05</v>
+        <v>0.000101</v>
       </c>
       <c r="F32">
-        <v>0.894577</v>
+        <v>0.178891</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>1866</v>
+        <v>3654</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33">
-        <v>2.9E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D33">
-        <v>2.5E-05</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F33">
-        <v>0.146141</v>
+        <v>0.236895</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>492</v>
+        <v>3724</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>8.8E-05</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D34">
-        <v>5.9E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F34">
-        <v>0.324571</v>
+        <v>0.548508</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>1693</v>
+        <v>2599</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
       </c>
       <c r="C35">
-        <v>7.9E-05</v>
+        <v>0.001426</v>
       </c>
       <c r="D35">
-        <v>5.7E-05</v>
+        <v>0.00094</v>
       </c>
       <c r="F35">
-        <v>0.287995</v>
+        <v>0.340679</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>2251</v>
+        <v>2265</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>2.2E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D36">
-        <v>3.9E-05</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F36">
-        <v>-0.7571639999999999</v>
+        <v>0.252632</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>453</v>
+        <v>2682</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
       </c>
       <c r="C37">
-        <v>0.001279</v>
+        <v>0.001436</v>
       </c>
       <c r="D37">
-        <v>0.000592</v>
+        <v>0.0009779999999999999</v>
       </c>
       <c r="F37">
-        <v>0.537048</v>
+        <v>0.318972</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>2344</v>
+        <v>3762</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38">
-        <v>0.000516</v>
+        <v>0.000147</v>
       </c>
       <c r="D38">
-        <v>0.000505</v>
+        <v>5.8E-05</v>
       </c>
       <c r="F38">
-        <v>0.020686</v>
+        <v>0.606508</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>2058</v>
+        <v>4311</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
       </c>
       <c r="C39">
-        <v>0.000157</v>
+        <v>9.8E-05</v>
       </c>
       <c r="D39">
-        <v>0.000101</v>
+        <v>0.00013</v>
       </c>
       <c r="F39">
-        <v>0.359022</v>
+        <v>-0.325315</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>341</v>
+        <v>2710</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.014429</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D40">
-        <v>0.010863</v>
+        <v>2E-05</v>
       </c>
       <c r="F40">
-        <v>0.247138</v>
+        <v>0.06443400000000001</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>354</v>
+        <v>2840</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
       </c>
       <c r="C41">
-        <v>9E-06</v>
+        <v>0.000806</v>
       </c>
       <c r="D41">
-        <v>0.000228</v>
+        <v>0.000616</v>
       </c>
       <c r="F41">
-        <v>-24.339731</v>
+        <v>0.235872</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>1445</v>
+        <v>2978</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
       </c>
       <c r="C42">
-        <v>0.0146</v>
+        <v>0.000165</v>
       </c>
       <c r="D42">
-        <v>0.012489</v>
+        <v>0.000109</v>
       </c>
       <c r="F42">
-        <v>0.144586</v>
+        <v>0.337507</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>2227</v>
+        <v>3466</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
       </c>
       <c r="C43">
-        <v>7.8E-05</v>
+        <v>0.00718</v>
       </c>
       <c r="D43">
-        <v>7.9E-05</v>
+        <v>0.007495</v>
       </c>
       <c r="F43">
-        <v>-0.02103</v>
+        <v>-0.04389</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>1934</v>
+        <v>2730</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
-        <v>3.2E-05</v>
+        <v>0.01</v>
       </c>
       <c r="D44">
-        <v>1.9E-05</v>
+        <v>0.007722</v>
       </c>
       <c r="F44">
-        <v>0.426166</v>
+        <v>0.227777</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>1675</v>
+        <v>2694</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
       </c>
       <c r="C45">
         <v>2.5E-05</v>
       </c>
       <c r="D45">
-        <v>8E-06</v>
+        <v>5E-05</v>
       </c>
       <c r="F45">
-        <v>0.696006</v>
+        <v>-1.020388</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>1463</v>
+        <v>3700</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0.00676</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D46">
-        <v>0.005502</v>
+        <v>6.7E-05</v>
       </c>
       <c r="F46">
-        <v>0.186037</v>
+        <v>-0.023239</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>2004</v>
+        <v>3373</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>0.000773</v>
+        <v>0.002851</v>
       </c>
       <c r="D47">
-        <v>0.000113</v>
+        <v>0.001741</v>
       </c>
       <c r="F47">
-        <v>0.854247</v>
+        <v>0.389177</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>440</v>
+        <v>2374</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
       </c>
       <c r="C48">
-        <v>0.000306</v>
+        <v>0.000559</v>
       </c>
       <c r="D48">
-        <v>0.000142</v>
+        <v>0.000311</v>
       </c>
       <c r="F48">
-        <v>0.536178</v>
+        <v>0.443333</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>2252</v>
+        <v>3760</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
       </c>
       <c r="C49">
-        <v>1.1E-05</v>
+        <v>7.7E-05</v>
       </c>
       <c r="D49">
-        <v>3.3E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="F49">
-        <v>-2.092535</v>
+        <v>-0.60701</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>2096</v>
+        <v>3221</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>8E-06</v>
+        <v>0.000256</v>
       </c>
       <c r="D50">
-        <v>1.5E-05</v>
+        <v>0.000196</v>
       </c>
       <c r="F50">
-        <v>-0.9022289999999999</v>
+        <v>0.233384</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>1344</v>
+        <v>4248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>6</v>
       </c>
       <c r="C51">
-        <v>0.000369</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D51">
-        <v>0.000179</v>
+        <v>0.000121</v>
       </c>
       <c r="F51">
-        <v>0.514142</v>
+        <v>-1.485956</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>2014</v>
+        <v>3319</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>1.7E-05</v>
+        <v>0.0008229999999999999</v>
       </c>
       <c r="D52">
-        <v>1.4E-05</v>
+        <v>0.000386</v>
       </c>
       <c r="F52">
-        <v>0.201104</v>
+        <v>0.531177</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>1919</v>
+        <v>3228</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
       </c>
       <c r="C53">
-        <v>8E-06</v>
+        <v>0.00037</v>
       </c>
       <c r="D53">
-        <v>4E-06</v>
+        <v>0.000389</v>
       </c>
       <c r="F53">
-        <v>0.531324</v>
+        <v>-0.049935</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>1451</v>
+        <v>3301</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>0.00741</v>
+        <v>0.00045</v>
       </c>
       <c r="D54">
-        <v>0.006425</v>
+        <v>0.000133</v>
       </c>
       <c r="F54">
-        <v>0.132986</v>
+        <v>0.70405</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>105</v>
+        <v>4394</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
       </c>
       <c r="C55">
-        <v>0.000865</v>
+        <v>0.000197</v>
       </c>
       <c r="D55">
-        <v>0.000301</v>
+        <v>0.000225</v>
       </c>
       <c r="F55">
-        <v>0.651926</v>
+        <v>-0.140431</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>374</v>
+        <v>4124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
       </c>
       <c r="C56">
-        <v>0.000125</v>
+        <v>0.000174</v>
       </c>
       <c r="D56">
-        <v>0.000249</v>
+        <v>0.000115</v>
       </c>
       <c r="F56">
-        <v>-0.990177</v>
+        <v>0.338498</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>1512</v>
+        <v>4386</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
       </c>
       <c r="C57">
-        <v>0.000129</v>
+        <v>0.000126</v>
       </c>
       <c r="D57">
-        <v>8.4E-05</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F57">
-        <v>0.351485</v>
+        <v>0.446814</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>1609</v>
+        <v>3704</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
       </c>
       <c r="C58">
-        <v>3.6E-05</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D58">
-        <v>3.3E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F58">
-        <v>0.087269</v>
+        <v>0.563764</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>2105</v>
+        <v>4040</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
       </c>
       <c r="C59">
-        <v>0.000111</v>
+        <v>0.000967</v>
       </c>
       <c r="D59">
-        <v>8.500000000000001E-05</v>
+        <v>0.000306</v>
       </c>
       <c r="F59">
-        <v>0.240472</v>
+        <v>0.683406</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>1341</v>
+        <v>2445</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
       </c>
       <c r="C60">
-        <v>0.000504</v>
+        <v>0.003023</v>
       </c>
       <c r="D60">
-        <v>0.000179</v>
+        <v>0.002099</v>
       </c>
       <c r="F60">
-        <v>0.643685</v>
+        <v>0.305536</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>38</v>
+        <v>3926</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
       </c>
       <c r="C61">
-        <v>0.000505</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D61">
-        <v>0.000186</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F61">
-        <v>0.632857</v>
+        <v>0.615253</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>1358</v>
+        <v>2680</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
       </c>
       <c r="C62">
-        <v>0.000248</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D62">
-        <v>0.000154</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F62">
-        <v>0.377831</v>
+        <v>0.009769999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>1354</v>
+        <v>4374</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
       </c>
       <c r="C63">
-        <v>0.00169</v>
+        <v>0.000633</v>
       </c>
       <c r="D63">
-        <v>0.001279</v>
+        <v>0.000886</v>
       </c>
       <c r="F63">
-        <v>0.243185</v>
+        <v>-0.401064</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>2082</v>
+        <v>3434</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
       </c>
       <c r="C64">
-        <v>4.5E-05</v>
+        <v>0.00991</v>
       </c>
       <c r="D64">
-        <v>1.4E-05</v>
+        <v>0.012013</v>
       </c>
       <c r="F64">
-        <v>0.702272</v>
+        <v>-0.212224</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>335</v>
+        <v>2349</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
       </c>
       <c r="C65">
-        <v>0.002556</v>
+        <v>0.00049</v>
       </c>
       <c r="D65">
-        <v>0.00213</v>
+        <v>0.000283</v>
       </c>
       <c r="F65">
-        <v>0.166747</v>
+        <v>0.42178</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>2241</v>
+        <v>3430</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
       </c>
       <c r="C66">
-        <v>0.000347</v>
+        <v>0.00359</v>
       </c>
       <c r="D66">
-        <v>0.000171</v>
+        <v>0.002083</v>
       </c>
       <c r="F66">
-        <v>0.507232</v>
+        <v>0.419696</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>1507</v>
+        <v>4006</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
       </c>
       <c r="C67">
-        <v>0.000119</v>
+        <v>0.000773</v>
       </c>
       <c r="D67">
-        <v>0.000103</v>
+        <v>0.000109</v>
       </c>
       <c r="F67">
-        <v>0.13844</v>
+        <v>0.8586549999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>1987</v>
+        <v>3881</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>8.6E-05</v>
+        <v>0.000216</v>
       </c>
       <c r="D68">
-        <v>2.8E-05</v>
+        <v>0.000258</v>
       </c>
       <c r="F68">
-        <v>0.671837</v>
+        <v>-0.1933</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>493</v>
+        <v>2266</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
       </c>
       <c r="C69">
-        <v>0.001051</v>
+        <v>7.2E-05</v>
       </c>
       <c r="D69">
-        <v>0.000566</v>
+        <v>4E-05</v>
       </c>
       <c r="F69">
-        <v>0.461575</v>
+        <v>0.444009</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>1883</v>
+        <v>4045</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
       </c>
       <c r="C70">
-        <v>0.00084</v>
+        <v>2E-06</v>
       </c>
       <c r="D70">
-        <v>0.0008630000000000001</v>
+        <v>3E-06</v>
       </c>
       <c r="F70">
-        <v>-0.027151</v>
+        <v>-0.658676</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>554</v>
+        <v>2496</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
       </c>
       <c r="C71">
-        <v>0.00025</v>
+        <v>0.001279</v>
       </c>
       <c r="D71">
-        <v>0.000612</v>
+        <v>0.00094</v>
       </c>
       <c r="F71">
-        <v>-1.447136</v>
+        <v>0.26488</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>2268</v>
+        <v>2044</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
       </c>
       <c r="C72">
-        <v>3E-06</v>
+        <v>0.00041</v>
       </c>
       <c r="D72">
-        <v>4E-06</v>
+        <v>0.000327</v>
       </c>
       <c r="F72">
-        <v>-0.184987</v>
+        <v>0.201312</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>1797</v>
+        <v>3927</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
       </c>
       <c r="C73">
-        <v>1E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D73">
-        <v>1.3E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="F73">
-        <v>-0.330735</v>
+        <v>0.720601</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>1739</v>
+        <v>3998</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
       </c>
       <c r="C74">
-        <v>5.2E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D74">
-        <v>3.3E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F74">
-        <v>0.359359</v>
+        <v>0.437938</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>1898</v>
+        <v>3988</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
       </c>
       <c r="C75">
-        <v>0.000403</v>
+        <v>8E-06</v>
       </c>
       <c r="D75">
-        <v>0.000291</v>
+        <v>5E-06</v>
       </c>
       <c r="F75">
-        <v>0.277611</v>
+        <v>0.323623</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>1743</v>
+        <v>3810</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
       </c>
       <c r="C76">
-        <v>0.000122</v>
+        <v>3.1E-05</v>
       </c>
       <c r="D76">
-        <v>0.000117</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F76">
-        <v>0.043243</v>
+        <v>0.124199</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>11</v>
+        <v>4088</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>0.000315</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D77">
-        <v>7.4E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F77">
-        <v>0.764059</v>
+        <v>0.057026</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>1448</v>
+        <v>4130</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
       </c>
       <c r="C78">
-        <v>0.014</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D78">
-        <v>0.010628</v>
+        <v>0.000102</v>
       </c>
       <c r="F78">
-        <v>0.240841</v>
+        <v>-5.151664</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>630</v>
+        <v>4140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>8.3E-05</v>
+        <v>0.000244</v>
       </c>
       <c r="D79">
-        <v>0.00022</v>
+        <v>0.000306</v>
       </c>
       <c r="F79">
-        <v>-1.650964</v>
+        <v>-0.252376</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>1993</v>
+        <v>3811</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
       </c>
       <c r="C80">
-        <v>7.8E-05</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D80">
-        <v>1.3E-05</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F80">
-        <v>0.829768</v>
+        <v>-0.187742</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>12</v>
+        <v>4103</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
       </c>
       <c r="C81">
-        <v>0.000491</v>
+        <v>5E-06</v>
       </c>
       <c r="D81">
-        <v>0.000379</v>
+        <v>2E-05</v>
       </c>
       <c r="F81">
-        <v>0.228238</v>
+        <v>-2.879868</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>763</v>
+        <v>2810</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
       </c>
       <c r="C82">
-        <v>0.000726</v>
+        <v>0.000589</v>
       </c>
       <c r="D82">
-        <v>0.00062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F82">
-        <v>0.146163</v>
+        <v>-0.018011</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>1848</v>
+        <v>2955</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
       </c>
       <c r="C83">
-        <v>5.1E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="D83">
-        <v>3.6E-05</v>
+        <v>0.000146</v>
       </c>
       <c r="F83">
-        <v>0.296904</v>
+        <v>-0.183939</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>1974</v>
+        <v>4371</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>1.6E-05</v>
+        <v>0.000538</v>
       </c>
       <c r="D84">
-        <v>5E-06</v>
+        <v>0.000449</v>
       </c>
       <c r="F84">
-        <v>0.657751</v>
+        <v>0.166577</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>1648</v>
+        <v>3400</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
       </c>
       <c r="C85">
-        <v>5E-06</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D85">
-        <v>1.5E-05</v>
+        <v>0.000111</v>
       </c>
       <c r="F85">
-        <v>-2.010042</v>
+        <v>-0.901373</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>1252</v>
+        <v>2952</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
       </c>
       <c r="C86">
-        <v>0.001139</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D86">
-        <v>0.001586</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F86">
-        <v>-0.392671</v>
+        <v>-0.16298</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>2024</v>
+        <v>4005</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
       </c>
       <c r="C87">
-        <v>6.999999999999999E-05</v>
+        <v>0.000419</v>
       </c>
       <c r="D87">
-        <v>1.3E-05</v>
+        <v>6.3E-05</v>
       </c>
       <c r="F87">
-        <v>0.809153</v>
+        <v>0.848489</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>1165</v>
+        <v>2398</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
       </c>
       <c r="C88">
-        <v>3.6E-05</v>
+        <v>0.000353</v>
       </c>
       <c r="D88">
-        <v>0.000114</v>
+        <v>0.000196</v>
       </c>
       <c r="F88">
-        <v>-2.130872</v>
+        <v>0.445268</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>67</v>
+        <v>2111</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
       </c>
       <c r="C89">
-        <v>2E-06</v>
+        <v>0.000705</v>
       </c>
       <c r="D89">
-        <v>3E-06</v>
+        <v>0.000659</v>
       </c>
       <c r="F89">
-        <v>-0.144876</v>
+        <v>0.06518</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>356</v>
+        <v>3712</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
       </c>
       <c r="C90">
-        <v>1.6E-05</v>
+        <v>5.5E-05</v>
       </c>
       <c r="D90">
-        <v>0.00013</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F90">
-        <v>-7.107525</v>
+        <v>0.723243</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>1188</v>
+        <v>2726</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
       </c>
       <c r="C91">
-        <v>0.001428</v>
+        <v>0.000796</v>
       </c>
       <c r="D91">
-        <v>0.001498</v>
+        <v>0.00074</v>
       </c>
       <c r="F91">
-        <v>-0.048867</v>
+        <v>0.07084799999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>2308</v>
+        <v>3343</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
       </c>
       <c r="C92">
-        <v>0.000187</v>
+        <v>0.000504</v>
       </c>
       <c r="D92">
-        <v>0.000188</v>
+        <v>0.000125</v>
       </c>
       <c r="F92">
-        <v>-0.004965</v>
+        <v>0.75119</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>767</v>
+        <v>2446</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
       </c>
       <c r="C93">
-        <v>0.008486</v>
+        <v>0.004528</v>
       </c>
       <c r="D93">
-        <v>0.00814</v>
+        <v>0.003127</v>
       </c>
       <c r="F93">
-        <v>0.040754</v>
+        <v>0.309424</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>63</v>
+        <v>3685</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
       </c>
       <c r="C94">
-        <v>0.000275</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D94">
-        <v>6.8E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F94">
-        <v>0.754499</v>
+        <v>0.08699900000000001</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>2203</v>
+        <v>3372</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
       </c>
       <c r="C95">
-        <v>2.4E-05</v>
+        <v>0.001041</v>
       </c>
       <c r="D95">
-        <v>0.000119</v>
+        <v>0.000385</v>
       </c>
       <c r="F95">
-        <v>-3.983606</v>
+        <v>0.630126</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>1406</v>
+        <v>4096</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
       </c>
       <c r="C96">
-        <v>0.00117</v>
+        <v>0.00011</v>
       </c>
       <c r="D96">
-        <v>0.002589</v>
+        <v>0.000102</v>
       </c>
       <c r="F96">
-        <v>-1.212423</v>
+        <v>0.070936</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>1517</v>
+        <v>2469</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
       </c>
       <c r="C97">
-        <v>3.1E-05</v>
+        <v>0.001239</v>
       </c>
       <c r="D97">
-        <v>3.1E-05</v>
+        <v>0.00052</v>
       </c>
       <c r="F97">
-        <v>-0.005484</v>
+        <v>0.5803</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>1951</v>
+        <v>3383</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
       </c>
       <c r="C98">
-        <v>1.6E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D98">
-        <v>1.9E-05</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F98">
-        <v>-0.167261</v>
+        <v>-1.035249</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>1608</v>
+        <v>3624</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
       </c>
       <c r="C99">
-        <v>6E-06</v>
+        <v>8E-06</v>
       </c>
       <c r="D99">
-        <v>2.8E-05</v>
+        <v>4.8E-05</v>
       </c>
       <c r="F99">
-        <v>-3.350799</v>
+        <v>-4.664855</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>1376</v>
+        <v>3247</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>0.001864</v>
+        <v>0.001869</v>
       </c>
       <c r="D100">
-        <v>0.001906</v>
+        <v>0.001526</v>
       </c>
       <c r="F100">
-        <v>-0.022735</v>
+        <v>0.183719</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>2283</v>
+        <v>3285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
       </c>
       <c r="C101">
-        <v>1.1E-05</v>
+        <v>5.1E-05</v>
       </c>
       <c r="D101">
-        <v>8E-06</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="F101">
-        <v>0.285338</v>
+        <v>-0.887115</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>2219</v>
+        <v>2502</v>
+      </c>
+      <c r="B102" t="s">
+        <v>6</v>
       </c>
       <c r="C102">
-        <v>2E-06</v>
+        <v>0.000182</v>
       </c>
       <c r="D102">
-        <v>1E-05</v>
+        <v>0.000282</v>
       </c>
       <c r="F102">
-        <v>-4.651423</v>
+        <v>-0.550793</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>1246</v>
+        <v>4143</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
       </c>
       <c r="C103">
-        <v>0.00138</v>
+        <v>0.000513</v>
       </c>
       <c r="D103">
-        <v>0.001095</v>
+        <v>0.0005419999999999999</v>
       </c>
       <c r="F103">
-        <v>0.206959</v>
+        <v>-0.055119</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>2325</v>
+        <v>3526</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>0.000166</v>
+        <v>0.000167</v>
       </c>
       <c r="D104">
-        <v>8.2E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F104">
-        <v>0.506235</v>
+        <v>0.208641</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>2319</v>
+        <v>3979</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
       </c>
       <c r="C105">
-        <v>0.000238</v>
+        <v>1.6E-05</v>
       </c>
       <c r="D105">
-        <v>0.000187</v>
+        <v>1E-05</v>
       </c>
       <c r="F105">
-        <v>0.212869</v>
+        <v>0.330037</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>1181</v>
+        <v>4074</v>
+      </c>
+      <c r="B106" t="s">
+        <v>6</v>
       </c>
       <c r="C106">
-        <v>1.7E-05</v>
+        <v>0.002147</v>
       </c>
       <c r="D106">
-        <v>3.6E-05</v>
+        <v>0.001384</v>
       </c>
       <c r="F106">
-        <v>-1.185867</v>
+        <v>0.355676</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
       </c>
       <c r="C107">
-        <v>6.4E-05</v>
+        <v>0.000288</v>
       </c>
       <c r="D107">
-        <v>7.3E-05</v>
+        <v>0.000351</v>
       </c>
       <c r="F107">
-        <v>-0.127537</v>
+        <v>-0.217475</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>1955</v>
+        <v>2375</v>
+      </c>
+      <c r="B108" t="s">
+        <v>6</v>
       </c>
       <c r="C108">
-        <v>7.4E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="D108">
-        <v>1.8E-05</v>
+        <v>7.3E-05</v>
       </c>
       <c r="F108">
-        <v>0.757528</v>
+        <v>-2.671645</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>364</v>
+        <v>4037</v>
+      </c>
+      <c r="B109" t="s">
+        <v>6</v>
       </c>
       <c r="C109">
-        <v>0.001533</v>
+        <v>0.000663</v>
       </c>
       <c r="D109">
-        <v>0.00237</v>
+        <v>0.000109</v>
       </c>
       <c r="F109">
-        <v>-0.546021</v>
+        <v>0.835313</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>1236</v>
+        <v>3933</v>
+      </c>
+      <c r="B110" t="s">
+        <v>6</v>
       </c>
       <c r="C110">
-        <v>0.000105</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D110">
-        <v>8.2E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="F110">
-        <v>0.219215</v>
+        <v>0.545315</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>10</v>
+        <v>2583</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
       </c>
       <c r="C111">
-        <v>2.3E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D111">
-        <v>7E-06</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F111">
-        <v>0.674272</v>
+        <v>-3.178141</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>9</v>
+        <v>3832</v>
+      </c>
+      <c r="B112" t="s">
+        <v>6</v>
       </c>
       <c r="C112">
-        <v>4E-06</v>
+        <v>6.499999999999999E-05</v>
       </c>
       <c r="D112">
-        <v>1E-06</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F112">
-        <v>0.644612</v>
+        <v>0.640431</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>1820</v>
+        <v>3494</v>
+      </c>
+      <c r="B113" t="s">
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>5E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="D113">
-        <v>3.5E-05</v>
+        <v>0.000276</v>
       </c>
       <c r="F113">
-        <v>0.311643</v>
+        <v>0.300718</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>1273</v>
+        <v>2043</v>
+      </c>
+      <c r="B114" t="s">
+        <v>6</v>
       </c>
       <c r="C114">
-        <v>4.5E-05</v>
+        <v>0.000657</v>
       </c>
       <c r="D114">
-        <v>9.399999999999999E-05</v>
+        <v>0.000347</v>
       </c>
       <c r="F114">
-        <v>-1.119825</v>
+        <v>0.472034</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>1697</v>
+        <v>2197</v>
+      </c>
+      <c r="B115" t="s">
+        <v>6</v>
       </c>
       <c r="C115">
-        <v>9.3E-05</v>
+        <v>0.000799</v>
       </c>
       <c r="D115">
-        <v>6.999999999999999E-05</v>
+        <v>0.000635</v>
       </c>
       <c r="F115">
-        <v>0.252981</v>
+        <v>0.205476</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>2299</v>
+        <v>3450</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>2.1E-05</v>
+        <v>0.014</v>
       </c>
       <c r="D116">
-        <v>1.7E-05</v>
+        <v>0.014157</v>
       </c>
       <c r="F116">
-        <v>0.174636</v>
+        <v>-0.01124</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>1779</v>
+        <v>3924</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
       </c>
       <c r="C117">
-        <v>4.2E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D117">
-        <v>2.7E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="F117">
-        <v>0.359589</v>
+        <v>0.677026</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>644</v>
+        <v>4380</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
       </c>
       <c r="C118">
-        <v>0.000464</v>
+        <v>0.000139</v>
       </c>
       <c r="D118">
-        <v>0.000589</v>
+        <v>0.000117</v>
       </c>
       <c r="F118">
-        <v>-0.27015</v>
+        <v>0.159141</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>1760</v>
+        <v>3807</v>
+      </c>
+      <c r="B119" t="s">
+        <v>6</v>
       </c>
       <c r="C119">
-        <v>0.000147</v>
+        <v>6.3E-05</v>
       </c>
       <c r="D119">
-        <v>6.4E-05</v>
+        <v>0.000142</v>
       </c>
       <c r="F119">
-        <v>0.563731</v>
+        <v>-1.274524</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>1933</v>
+        <v>2086</v>
+      </c>
+      <c r="B120" t="s">
+        <v>6</v>
       </c>
       <c r="C120">
-        <v>2E-05</v>
+        <v>0.003614</v>
       </c>
       <c r="D120">
-        <v>1E-05</v>
+        <v>0.003423</v>
       </c>
       <c r="F120">
-        <v>0.479504</v>
+        <v>0.052811</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>1413</v>
+        <v>2690</v>
+      </c>
+      <c r="B121" t="s">
+        <v>6</v>
       </c>
       <c r="C121">
-        <v>0.000233</v>
+        <v>0.001093</v>
       </c>
       <c r="D121">
-        <v>0.000145</v>
+        <v>0.00048</v>
       </c>
       <c r="F121">
-        <v>0.377286</v>
+        <v>0.561242</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>1780</v>
+        <v>4022</v>
+      </c>
+      <c r="B122" t="s">
+        <v>6</v>
       </c>
       <c r="C122">
-        <v>0.000125</v>
+        <v>4E-06</v>
       </c>
       <c r="D122">
-        <v>5.3E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F122">
-        <v>0.579389</v>
+        <v>0.015731</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>435</v>
+        <v>4202</v>
+      </c>
+      <c r="B123" t="s">
+        <v>6</v>
       </c>
       <c r="C123">
-        <v>1.5E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D123">
-        <v>8.4E-05</v>
+        <v>0.000106</v>
       </c>
       <c r="F123">
-        <v>-4.613942</v>
+        <v>-32.258163</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>867</v>
+        <v>3535</v>
+      </c>
+      <c r="B124" t="s">
+        <v>6</v>
       </c>
       <c r="C124">
-        <v>0.001803</v>
+        <v>0.000188</v>
       </c>
       <c r="D124">
-        <v>0.001882</v>
+        <v>0.000173</v>
       </c>
       <c r="F124">
-        <v>-0.043898</v>
+        <v>0.078972</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>2155</v>
+        <v>4213</v>
+      </c>
+      <c r="B125" t="s">
+        <v>6</v>
       </c>
       <c r="C125">
-        <v>1E-06</v>
+        <v>3.3E-05</v>
       </c>
       <c r="D125">
-        <v>3.5E-05</v>
+        <v>3.6E-05</v>
       </c>
       <c r="F125">
-        <v>-29.090135</v>
+        <v>-0.087869</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>26</v>
+        <v>4270</v>
+      </c>
+      <c r="B126" t="s">
+        <v>6</v>
       </c>
       <c r="C126">
-        <v>0.000227</v>
+        <v>3E-06</v>
       </c>
       <c r="D126">
-        <v>6.4E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="F126">
-        <v>0.7192770000000001</v>
+        <v>-0.180162</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>491</v>
+        <v>3544</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
       </c>
       <c r="C127">
-        <v>0.001298</v>
+        <v>0.000159</v>
       </c>
       <c r="D127">
-        <v>0.000467</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F127">
-        <v>0.640408</v>
+        <v>0.563531</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>17</v>
+        <v>3677</v>
+      </c>
+      <c r="B128" t="s">
+        <v>6</v>
       </c>
       <c r="C128">
-        <v>0.000447</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D128">
-        <v>0.000133</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F128">
-        <v>0.701545</v>
+        <v>-0.082815</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>441</v>
+        <v>4417</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
       </c>
       <c r="C129">
-        <v>0.001164</v>
+        <v>2E-05</v>
       </c>
       <c r="D129">
-        <v>0.000608</v>
+        <v>1E-05</v>
       </c>
       <c r="F129">
-        <v>0.477663</v>
+        <v>0.489106</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>809</v>
+        <v>2337</v>
+      </c>
+      <c r="B130" t="s">
+        <v>6</v>
       </c>
       <c r="C130">
-        <v>0.001591</v>
+        <v>0.002556</v>
       </c>
       <c r="D130">
-        <v>0.001469</v>
+        <v>0.002241</v>
       </c>
       <c r="F130">
-        <v>0.076859</v>
+        <v>0.123058</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>42</v>
+        <v>3374</v>
+      </c>
+      <c r="B131" t="s">
+        <v>6</v>
       </c>
       <c r="C131">
-        <v>0.00041</v>
+        <v>0.003763</v>
       </c>
       <c r="D131">
-        <v>0.00026</v>
+        <v>0.001632</v>
       </c>
       <c r="F131">
-        <v>0.364601</v>
+        <v>0.566182</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>443</v>
+        <v>2633</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
       </c>
       <c r="C132">
-        <v>0.003023</v>
+        <v>0.000298</v>
       </c>
       <c r="D132">
-        <v>0.001882</v>
+        <v>0.0005</v>
       </c>
       <c r="F132">
-        <v>0.37741</v>
+        <v>-0.676387</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>1656</v>
+        <v>3676</v>
+      </c>
+      <c r="B133" t="s">
+        <v>6</v>
       </c>
       <c r="C133">
-        <v>7.6E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D133">
-        <v>1.6E-05</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F133">
-        <v>0.7864</v>
+        <v>-9.105255</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>1908</v>
+        <v>2421</v>
+      </c>
+      <c r="B134" t="s">
+        <v>6</v>
       </c>
       <c r="C134">
-        <v>3.6E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D134">
-        <v>4.2E-05</v>
+        <v>0.000731</v>
       </c>
       <c r="F134">
-        <v>-0.187756</v>
+        <v>-16.011175</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>2010</v>
+        <v>3191</v>
+      </c>
+      <c r="B135" t="s">
+        <v>6</v>
       </c>
       <c r="C135">
-        <v>0.001017</v>
+        <v>0.001161</v>
       </c>
       <c r="D135">
-        <v>0.000496</v>
+        <v>0.001059</v>
       </c>
       <c r="F135">
-        <v>0.51289</v>
+        <v>0.08794</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>460</v>
+        <v>3392</v>
+      </c>
+      <c r="B136" t="s">
+        <v>6</v>
       </c>
       <c r="C136">
-        <v>0.000136</v>
+        <v>0.003414</v>
       </c>
       <c r="D136">
-        <v>0.000152</v>
+        <v>0.003483</v>
       </c>
       <c r="F136">
-        <v>-0.117802</v>
+        <v>-0.020197</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>161</v>
+        <v>3570</v>
+      </c>
+      <c r="B137" t="s">
+        <v>6</v>
       </c>
       <c r="C137">
-        <v>4.6E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="D137">
-        <v>4.9E-05</v>
+        <v>3E-06</v>
       </c>
       <c r="F137">
-        <v>-0.07067900000000001</v>
+        <v>0.053586</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>1177</v>
+        <v>3772</v>
+      </c>
+      <c r="B138" t="s">
+        <v>6</v>
       </c>
       <c r="C138">
-        <v>7E-06</v>
+        <v>0.000124</v>
       </c>
       <c r="D138">
-        <v>5.4E-05</v>
+        <v>5.9E-05</v>
       </c>
       <c r="F138">
-        <v>-6.441955</v>
+        <v>0.527944</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>463</v>
+        <v>3492</v>
+      </c>
+      <c r="B139" t="s">
+        <v>6</v>
       </c>
       <c r="C139">
-        <v>0.00013</v>
+        <v>0.000837</v>
       </c>
       <c r="D139">
-        <v>4.1E-05</v>
+        <v>0.001163</v>
       </c>
       <c r="F139">
-        <v>0.681665</v>
+        <v>-0.389297</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>1141</v>
+        <v>3078</v>
+      </c>
+      <c r="B140" t="s">
+        <v>6</v>
       </c>
       <c r="C140">
-        <v>5E-06</v>
+        <v>0.001484</v>
       </c>
       <c r="D140">
-        <v>1E-05</v>
+        <v>0.001567</v>
       </c>
       <c r="F140">
-        <v>-1.021996</v>
+        <v>-0.0558</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>1282</v>
+        <v>4170</v>
+      </c>
+      <c r="B141" t="s">
+        <v>6</v>
       </c>
       <c r="C141">
-        <v>0.000129</v>
+        <v>0.000178</v>
       </c>
       <c r="D141">
-        <v>0.000134</v>
+        <v>0.000306</v>
       </c>
       <c r="F141">
-        <v>-0.03637</v>
+        <v>-0.717571</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>1664</v>
+        <v>2608</v>
+      </c>
+      <c r="B142" t="s">
+        <v>6</v>
       </c>
       <c r="C142">
-        <v>8.2E-05</v>
+        <v>7.1E-05</v>
       </c>
       <c r="D142">
-        <v>8.899999999999999E-05</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F142">
-        <v>-0.074989</v>
+        <v>0.342076</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>2134</v>
+        <v>2397</v>
+      </c>
+      <c r="B143" t="s">
+        <v>6</v>
       </c>
       <c r="C143">
-        <v>2.8E-05</v>
+        <v>0.000357</v>
       </c>
       <c r="D143">
-        <v>4.4E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F143">
-        <v>-0.595404</v>
+        <v>0.631448</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>1530</v>
+        <v>3690</v>
+      </c>
+      <c r="B144" t="s">
+        <v>6</v>
       </c>
       <c r="C144">
-        <v>0.000243</v>
+        <v>6E-05</v>
       </c>
       <c r="D144">
-        <v>0.000122</v>
+        <v>8.500000000000001E-05</v>
       </c>
       <c r="F144">
-        <v>0.496124</v>
+        <v>-0.430562</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>391</v>
+        <v>3962</v>
+      </c>
+      <c r="B145" t="s">
+        <v>6</v>
       </c>
       <c r="C145">
-        <v>0.00058</v>
+        <v>0.000117</v>
       </c>
       <c r="D145">
-        <v>0.00046</v>
+        <v>5.1E-05</v>
       </c>
       <c r="F145">
-        <v>0.206917</v>
+        <v>0.56148</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>1930</v>
+        <v>2093</v>
+      </c>
+      <c r="B146" t="s">
+        <v>6</v>
       </c>
       <c r="C146">
-        <v>2.3E-05</v>
+        <v>0.000239</v>
       </c>
       <c r="D146">
-        <v>9E-06</v>
+        <v>0.000151</v>
       </c>
       <c r="F146">
-        <v>0.62569</v>
+        <v>0.366555</v>
       </c>
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>879</v>
+        <v>2501</v>
+      </c>
+      <c r="B147" t="s">
+        <v>6</v>
       </c>
       <c r="C147">
-        <v>0.000767</v>
+        <v>0.00107</v>
       </c>
       <c r="D147">
-        <v>0.000208</v>
+        <v>0.001265</v>
       </c>
       <c r="F147">
-        <v>0.728847</v>
+        <v>-0.181931</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>1901</v>
+        <v>2012</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
       </c>
       <c r="C148">
-        <v>0.000355</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D148">
-        <v>0.000392</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F148">
-        <v>-0.10505</v>
+        <v>0.506852</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>1689</v>
+        <v>2689</v>
+      </c>
+      <c r="B149" t="s">
+        <v>6</v>
       </c>
       <c r="C149">
-        <v>2.3E-05</v>
+        <v>0.000354</v>
       </c>
       <c r="D149">
-        <v>2.9E-05</v>
+        <v>0.000141</v>
       </c>
       <c r="F149">
-        <v>-0.242535</v>
+        <v>0.6017980000000001</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>1880</v>
+        <v>3649</v>
+      </c>
+      <c r="B150" t="s">
+        <v>6</v>
       </c>
       <c r="C150">
-        <v>0.00016</v>
+        <v>2E-05</v>
       </c>
       <c r="D150">
-        <v>0.000196</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F150">
-        <v>-0.225388</v>
+        <v>-3.012694</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>551</v>
+        <v>2087</v>
+      </c>
+      <c r="B151" t="s">
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>0.000891</v>
+        <v>0.00106</v>
       </c>
       <c r="D151">
-        <v>0.000842</v>
+        <v>0.000797</v>
       </c>
       <c r="F151">
-        <v>0.055678</v>
+        <v>0.248089</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>1676</v>
+        <v>4219</v>
+      </c>
+      <c r="B152" t="s">
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>2.1E-05</v>
+        <v>8E-06</v>
       </c>
       <c r="D152">
-        <v>2.1E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="F152">
-        <v>-0.019087</v>
+        <v>-0.801929</v>
       </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>2030</v>
+        <v>2972</v>
+      </c>
+      <c r="B153" t="s">
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>4.5E-05</v>
+        <v>0.00266</v>
       </c>
       <c r="D153">
-        <v>1.5E-05</v>
+        <v>0.00303</v>
       </c>
       <c r="F153">
-        <v>0.666184</v>
+        <v>-0.138982</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>1497</v>
+        <v>2748</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
       </c>
       <c r="C154">
-        <v>0.000226</v>
+        <v>0.000123</v>
       </c>
       <c r="D154">
-        <v>0.000142</v>
+        <v>0.000132</v>
       </c>
       <c r="F154">
-        <v>0.371665</v>
+        <v>-0.073902</v>
       </c>
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>253</v>
+        <v>4200</v>
+      </c>
+      <c r="B155" t="s">
+        <v>6</v>
       </c>
       <c r="C155">
-        <v>9.000000000000001E-05</v>
+        <v>4E-06</v>
       </c>
       <c r="D155">
-        <v>0.000284</v>
+        <v>0.000109</v>
       </c>
       <c r="F155">
-        <v>-2.156325</v>
+        <v>-23.514875</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>1635</v>
+        <v>3463</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
       </c>
       <c r="C156">
-        <v>4E-06</v>
+        <v>0.00105</v>
       </c>
       <c r="D156">
-        <v>6.9E-05</v>
+        <v>0.0009940000000000001</v>
       </c>
       <c r="F156">
-        <v>-16.009488</v>
+        <v>0.053731</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>2331</v>
+        <v>4241</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
       </c>
       <c r="C157">
-        <v>0.000619</v>
+        <v>0.000405</v>
       </c>
       <c r="D157">
-        <v>0.000575</v>
+        <v>0.000425</v>
       </c>
       <c r="F157">
-        <v>0.071926</v>
+        <v>-0.049929</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>1465</v>
+        <v>4238</v>
+      </c>
+      <c r="B158" t="s">
+        <v>6</v>
       </c>
       <c r="C158">
-        <v>0.00162</v>
+        <v>3E-06</v>
       </c>
       <c r="D158">
-        <v>0.002304</v>
+        <v>1E-05</v>
       </c>
       <c r="F158">
-        <v>-0.422142</v>
+        <v>-2.375174</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>1458</v>
+        <v>3326</v>
+      </c>
+      <c r="B159" t="s">
+        <v>6</v>
       </c>
       <c r="C159">
-        <v>0.00158</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="D159">
-        <v>0.001973</v>
+        <v>6.4E-05</v>
       </c>
       <c r="F159">
-        <v>-0.248821</v>
+        <v>0.293035</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>1899</v>
+        <v>3718</v>
+      </c>
+      <c r="B160" t="s">
+        <v>6</v>
       </c>
       <c r="C160">
-        <v>1.9E-05</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D160">
-        <v>3.3E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F160">
-        <v>-0.742654</v>
+        <v>-0.437447</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>1509</v>
+        <v>2558</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
       </c>
       <c r="C161">
-        <v>0.000519</v>
+        <v>0.001058</v>
       </c>
       <c r="D161">
-        <v>0.000417</v>
+        <v>0.001077</v>
       </c>
       <c r="F161">
-        <v>0.197459</v>
+        <v>-0.018166</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162">
-        <v>727</v>
+        <v>4283</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
       </c>
       <c r="C162">
-        <v>0.006818</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D162">
-        <v>0.005821</v>
+        <v>3.2E-05</v>
       </c>
       <c r="F162">
-        <v>0.146183</v>
+        <v>0.09975100000000001</v>
       </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163">
-        <v>2284</v>
+        <v>3396</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
       </c>
       <c r="C163">
-        <v>4E-06</v>
+        <v>3E-06</v>
       </c>
       <c r="D163">
-        <v>7E-06</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F163">
-        <v>-0.862565</v>
+        <v>-10.313467</v>
       </c>
     </row>
     <row r="164" spans="1:6">
       <c r="A164">
-        <v>89</v>
+        <v>2326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
       </c>
       <c r="C164">
-        <v>0.000156</v>
+        <v>0.000186</v>
       </c>
       <c r="D164">
-        <v>0.000121</v>
+        <v>0.000462</v>
       </c>
       <c r="F164">
-        <v>0.227306</v>
+        <v>-1.484066</v>
       </c>
     </row>
     <row r="165" spans="1:6">
       <c r="A165">
-        <v>832</v>
+        <v>4342</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
       </c>
       <c r="C165">
-        <v>0.000172</v>
+        <v>0.000565</v>
       </c>
       <c r="D165">
-        <v>0.000126</v>
+        <v>0.000706</v>
       </c>
       <c r="F165">
-        <v>0.267435</v>
+        <v>-0.248875</v>
       </c>
     </row>
     <row r="166" spans="1:6">
       <c r="A166">
-        <v>1079</v>
+        <v>3839</v>
+      </c>
+      <c r="B166" t="s">
+        <v>6</v>
       </c>
       <c r="C166">
-        <v>0.007347</v>
+        <v>6E-06</v>
       </c>
       <c r="D166">
-        <v>0.007875999999999999</v>
+        <v>6E-06</v>
       </c>
       <c r="F166">
-        <v>-0.071989</v>
+        <v>0.038931</v>
       </c>
     </row>
     <row r="167" spans="1:6">
       <c r="A167">
-        <v>1483</v>
+        <v>3747</v>
+      </c>
+      <c r="B167" t="s">
+        <v>6</v>
       </c>
       <c r="C167">
-        <v>0.00302</v>
+        <v>6.7E-05</v>
       </c>
       <c r="D167">
-        <v>0.002361</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F167">
-        <v>0.21824</v>
+        <v>0.206057</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168">
-        <v>2393</v>
+        <v>3754</v>
+      </c>
+      <c r="B168" t="s">
+        <v>6</v>
       </c>
       <c r="C168">
-        <v>0.00044</v>
+        <v>2.8E-05</v>
       </c>
       <c r="D168">
-        <v>0.000343</v>
+        <v>2.6E-05</v>
       </c>
       <c r="F168">
-        <v>0.218898</v>
+        <v>0.07989300000000001</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169">
-        <v>1977</v>
+        <v>3462</v>
+      </c>
+      <c r="B169" t="s">
+        <v>6</v>
       </c>
       <c r="C169">
-        <v>1.6E-05</v>
+        <v>0.0053</v>
       </c>
       <c r="D169">
-        <v>5E-06</v>
+        <v>0.004692</v>
       </c>
       <c r="F169">
-        <v>0.655725</v>
+        <v>0.114623</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170">
-        <v>1438</v>
+        <v>3656</v>
+      </c>
+      <c r="B170" t="s">
+        <v>6</v>
       </c>
       <c r="C170">
-        <v>0.00381</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D170">
-        <v>0.002928</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F170">
-        <v>0.231371</v>
+        <v>-0.503768</v>
       </c>
     </row>
     <row r="171" spans="1:6">
       <c r="A171">
-        <v>1776</v>
+        <v>2843</v>
+      </c>
+      <c r="B171" t="s">
+        <v>6</v>
       </c>
       <c r="C171">
-        <v>4E-05</v>
+        <v>0.00567</v>
       </c>
       <c r="D171">
-        <v>2E-05</v>
+        <v>0.005245</v>
       </c>
       <c r="F171">
-        <v>0.501071</v>
+        <v>0.075044</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172">
-        <v>954</v>
+        <v>3284</v>
+      </c>
+      <c r="B172" t="s">
+        <v>6</v>
       </c>
       <c r="C172">
-        <v>5.2E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="D172">
-        <v>6E-05</v>
+        <v>0.000132</v>
       </c>
       <c r="F172">
-        <v>-0.151156</v>
+        <v>-0.024671</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173">
-        <v>1173</v>
+        <v>3280</v>
+      </c>
+      <c r="B173" t="s">
+        <v>6</v>
       </c>
       <c r="C173">
-        <v>1.1E-05</v>
+        <v>7E-06</v>
       </c>
       <c r="D173">
-        <v>3.7E-05</v>
+        <v>4E-05</v>
       </c>
       <c r="F173">
-        <v>-2.476074</v>
+        <v>-4.531072</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174">
-        <v>1968</v>
+        <v>3310</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
       </c>
       <c r="C174">
-        <v>8E-06</v>
+        <v>0.000117</v>
       </c>
       <c r="D174">
-        <v>6E-06</v>
+        <v>0.000127</v>
       </c>
       <c r="F174">
-        <v>0.265685</v>
+        <v>-0.087784</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175">
-        <v>1259</v>
+        <v>3659</v>
+      </c>
+      <c r="B175" t="s">
+        <v>6</v>
       </c>
       <c r="C175">
-        <v>0.000664</v>
+        <v>1.4E-05</v>
       </c>
       <c r="D175">
-        <v>0.000482</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F175">
-        <v>0.273213</v>
+        <v>-0.663678</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176">
-        <v>1774</v>
+        <v>2584</v>
+      </c>
+      <c r="B176" t="s">
+        <v>6</v>
       </c>
       <c r="C176">
-        <v>5.3E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D176">
-        <v>3.6E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F176">
-        <v>0.31208</v>
+        <v>0.226826</v>
       </c>
     </row>
     <row r="177" spans="1:6">
       <c r="A177">
-        <v>2032</v>
+        <v>3912</v>
+      </c>
+      <c r="B177" t="s">
+        <v>6</v>
       </c>
       <c r="C177">
-        <v>0.001344</v>
+        <v>0.000331</v>
       </c>
       <c r="D177">
-        <v>0.000349</v>
+        <v>0.000312</v>
       </c>
       <c r="F177">
-        <v>0.739939</v>
+        <v>0.055963</v>
       </c>
     </row>
     <row r="178" spans="1:6">
       <c r="A178">
-        <v>2068</v>
+        <v>2157</v>
+      </c>
+      <c r="B178" t="s">
+        <v>6</v>
       </c>
       <c r="C178">
-        <v>0.000628</v>
+        <v>0.000177</v>
       </c>
       <c r="D178">
-        <v>0.000345</v>
+        <v>0.000137</v>
       </c>
       <c r="F178">
-        <v>0.45002</v>
+        <v>0.221655</v>
       </c>
     </row>
     <row r="179" spans="1:6">
       <c r="A179">
-        <v>2382</v>
+        <v>2139</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
       </c>
       <c r="C179">
-        <v>0.000197</v>
+        <v>0.00026</v>
       </c>
       <c r="D179">
-        <v>0.000112</v>
+        <v>0.000322</v>
       </c>
       <c r="F179">
-        <v>0.43452</v>
+        <v>-0.238211</v>
       </c>
     </row>
     <row r="180" spans="1:6">
       <c r="A180">
-        <v>1442</v>
+        <v>3332</v>
+      </c>
+      <c r="B180" t="s">
+        <v>6</v>
       </c>
       <c r="C180">
-        <v>0.00509</v>
+        <v>0.000239</v>
       </c>
       <c r="D180">
-        <v>0.004289</v>
+        <v>0.000121</v>
       </c>
       <c r="F180">
-        <v>0.15739</v>
+        <v>0.491956</v>
       </c>
     </row>
     <row r="181" spans="1:6">
       <c r="A181">
-        <v>1793</v>
+        <v>3691</v>
+      </c>
+      <c r="B181" t="s">
+        <v>6</v>
       </c>
       <c r="C181">
-        <v>8E-06</v>
+        <v>2.3E-05</v>
       </c>
       <c r="D181">
-        <v>2.2E-05</v>
+        <v>3E-05</v>
       </c>
       <c r="F181">
-        <v>-1.792345</v>
+        <v>-0.296474</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182">
-        <v>711</v>
+        <v>2041</v>
+      </c>
+      <c r="B182" t="s">
+        <v>6</v>
       </c>
       <c r="C182">
-        <v>6.3E-05</v>
+        <v>0.000198</v>
       </c>
       <c r="D182">
-        <v>5.9E-05</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F182">
-        <v>0.062299</v>
+        <v>0.636763</v>
       </c>
     </row>
     <row r="183" spans="1:6">
       <c r="A183">
-        <v>1843</v>
+        <v>3283</v>
+      </c>
+      <c r="B183" t="s">
+        <v>6</v>
       </c>
       <c r="C183">
-        <v>3.1E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D183">
-        <v>2.3E-05</v>
+        <v>4.3E-05</v>
       </c>
       <c r="F183">
-        <v>0.263131</v>
+        <v>-3.853512</v>
       </c>
     </row>
     <row r="184" spans="1:6">
       <c r="A184">
-        <v>1207</v>
+        <v>3693</v>
+      </c>
+      <c r="B184" t="s">
+        <v>6</v>
       </c>
       <c r="C184">
-        <v>1E-06</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="D184">
-        <v>3.2E-05</v>
+        <v>0.000113</v>
       </c>
       <c r="F184">
-        <v>-27.989915</v>
+        <v>-0.404887</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>1233</v>
+        <v>3237</v>
+      </c>
+      <c r="B185" t="s">
+        <v>6</v>
       </c>
       <c r="C185">
-        <v>0.000543</v>
+        <v>0.000124</v>
       </c>
       <c r="D185">
-        <v>0.000463</v>
+        <v>0.000126</v>
       </c>
       <c r="F185">
-        <v>0.147758</v>
+        <v>-0.015369</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>2129</v>
+        <v>3361</v>
+      </c>
+      <c r="B186" t="s">
+        <v>6</v>
       </c>
       <c r="C186">
-        <v>3E-06</v>
+        <v>4.3E-05</v>
       </c>
       <c r="D186">
-        <v>3E-06</v>
+        <v>4.6E-05</v>
       </c>
       <c r="F186">
-        <v>-0.056433</v>
+        <v>-0.07553</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>1865</v>
+        <v>3742</v>
+      </c>
+      <c r="B187" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
-        <v>1.7E-05</v>
+        <v>0.000109</v>
       </c>
       <c r="D187">
-        <v>1.2E-05</v>
+        <v>8.8E-05</v>
       </c>
       <c r="F187">
-        <v>0.289681</v>
+        <v>0.190696</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>1649</v>
+        <v>2135</v>
+      </c>
+      <c r="B188" t="s">
+        <v>6</v>
       </c>
       <c r="C188">
-        <v>6.8E-05</v>
+        <v>0.001924</v>
       </c>
       <c r="D188">
-        <v>2.2E-05</v>
+        <v>0.002333</v>
       </c>
       <c r="F188">
-        <v>0.6705100000000001</v>
+        <v>-0.21281</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>1410</v>
+        <v>4269</v>
+      </c>
+      <c r="B189" t="s">
+        <v>6</v>
       </c>
       <c r="C189">
-        <v>0.00658</v>
+        <v>5E-06</v>
       </c>
       <c r="D189">
-        <v>0.00814</v>
+        <v>5E-06</v>
       </c>
       <c r="F189">
-        <v>-0.237127</v>
+        <v>0.142274</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>1257</v>
+        <v>4029</v>
+      </c>
+      <c r="B190" t="s">
+        <v>6</v>
       </c>
       <c r="C190">
-        <v>1.4E-05</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D190">
-        <v>3.5E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F190">
-        <v>-1.478381</v>
+        <v>0.065375</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>1811</v>
+        <v>2436</v>
+      </c>
+      <c r="B191" t="s">
+        <v>6</v>
       </c>
       <c r="C191">
-        <v>5E-06</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D191">
-        <v>8E-06</v>
+        <v>0.000178</v>
       </c>
       <c r="F191">
-        <v>-0.7773060000000001</v>
+        <v>-1.575115</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>656</v>
+        <v>3614</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
       </c>
       <c r="C192">
-        <v>0.001163</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D192">
-        <v>0.000966</v>
+        <v>5E-05</v>
       </c>
       <c r="F192">
-        <v>0.169601</v>
+        <v>-0.219459</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>2112</v>
+        <v>2053</v>
+      </c>
+      <c r="B193" t="s">
+        <v>6</v>
       </c>
       <c r="C193">
-        <v>0.001349</v>
+        <v>0.00217</v>
       </c>
       <c r="D193">
-        <v>0.001385</v>
+        <v>0.001192</v>
       </c>
       <c r="F193">
-        <v>-0.02688</v>
+        <v>0.450828</v>
       </c>
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>1762</v>
+        <v>2251</v>
+      </c>
+      <c r="B194" t="s">
+        <v>6</v>
       </c>
       <c r="C194">
-        <v>6.8E-05</v>
+        <v>0.001878</v>
       </c>
       <c r="D194">
-        <v>3.3E-05</v>
+        <v>0.002425</v>
       </c>
       <c r="F194">
-        <v>0.5178700000000001</v>
+        <v>-0.291267</v>
       </c>
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>1501</v>
+        <v>4163</v>
+      </c>
+      <c r="B195" t="s">
+        <v>6</v>
       </c>
       <c r="C195">
-        <v>0.000111</v>
+        <v>2.9E-05</v>
       </c>
       <c r="D195">
-        <v>8.7E-05</v>
+        <v>0.000129</v>
       </c>
       <c r="F195">
-        <v>0.211946</v>
+        <v>-3.372636</v>
       </c>
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>2266</v>
+        <v>3828</v>
       </c>
       <c r="B196" t="s">
         <v>6</v>
       </c>
       <c r="C196">
-        <v>1E-06</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D196">
-        <v>8E-06</v>
+        <v>2.5E-05</v>
       </c>
       <c r="F196">
-        <v>-6.526929</v>
+        <v>0.490069</v>
       </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>2001</v>
+        <v>4262</v>
+      </c>
+      <c r="B197" t="s">
+        <v>6</v>
       </c>
       <c r="C197">
-        <v>0.0006579999999999999</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D197">
-        <v>0.000349</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F197">
-        <v>0.469194</v>
+        <v>-0.236355</v>
       </c>
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>1143</v>
+        <v>4260</v>
+      </c>
+      <c r="B198" t="s">
+        <v>6</v>
       </c>
       <c r="C198">
-        <v>3.6E-05</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D198">
-        <v>6E-06</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F198">
-        <v>0.840808</v>
+        <v>0.370455</v>
       </c>
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>1789</v>
+        <v>2872</v>
+      </c>
+      <c r="B199" t="s">
+        <v>6</v>
       </c>
       <c r="C199">
-        <v>1.2E-05</v>
+        <v>0.010002</v>
       </c>
       <c r="D199">
-        <v>4.5E-05</v>
+        <v>0.008846</v>
       </c>
       <c r="F199">
-        <v>-2.661404</v>
+        <v>0.115584</v>
       </c>
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>1708</v>
+        <v>3005</v>
+      </c>
+      <c r="B200" t="s">
+        <v>6</v>
       </c>
       <c r="C200">
-        <v>6.499999999999999E-05</v>
+        <v>0.000172</v>
       </c>
       <c r="D200">
-        <v>3.4E-05</v>
+        <v>0.000106</v>
       </c>
       <c r="F200">
-        <v>0.483763</v>
+        <v>0.38099</v>
       </c>
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>1355</v>
+        <v>3297</v>
+      </c>
+      <c r="B201" t="s">
+        <v>6</v>
       </c>
       <c r="C201">
-        <v>7E-06</v>
+        <v>0.000796</v>
       </c>
       <c r="D201">
-        <v>4E-05</v>
+        <v>0.000394</v>
       </c>
       <c r="F201">
-        <v>-4.454254</v>
+        <v>0.504283</v>
       </c>
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>1121</v>
+        <v>2403</v>
+      </c>
+      <c r="B202" t="s">
+        <v>6</v>
       </c>
       <c r="C202">
-        <v>0.00208</v>
+        <v>0.005532</v>
       </c>
       <c r="D202">
-        <v>0.001423</v>
+        <v>0.00336</v>
       </c>
       <c r="F202">
-        <v>0.316022</v>
+        <v>0.392536</v>
       </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203">
-        <v>815</v>
+        <v>3186</v>
+      </c>
+      <c r="B203" t="s">
+        <v>6</v>
       </c>
       <c r="C203">
-        <v>3.9E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="D203">
-        <v>3.7E-05</v>
+        <v>4.1E-05</v>
       </c>
       <c r="F203">
-        <v>0.041666</v>
+        <v>-0.837786</v>
       </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204">
-        <v>534</v>
+        <v>3530</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
       </c>
       <c r="C204">
-        <v>0.000581</v>
+        <v>0.000336</v>
       </c>
       <c r="D204">
-        <v>0.001133</v>
+        <v>0.000207</v>
       </c>
       <c r="F204">
-        <v>-0.950066</v>
+        <v>0.382604</v>
       </c>
     </row>
     <row r="205" spans="1:6">
       <c r="A205">
-        <v>1630</v>
+        <v>3356</v>
+      </c>
+      <c r="B205" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
-        <v>4E-06</v>
+        <v>0.00169</v>
       </c>
       <c r="D205">
-        <v>3.5E-05</v>
+        <v>0.001395</v>
       </c>
       <c r="F205">
-        <v>-8.290514999999999</v>
+        <v>0.174441</v>
       </c>
     </row>
     <row r="206" spans="1:6">
       <c r="A206">
-        <v>59</v>
+        <v>2647</v>
+      </c>
+      <c r="B206" t="s">
+        <v>6</v>
       </c>
       <c r="C206">
-        <v>0.000139</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="D206">
-        <v>7.8E-05</v>
+        <v>0.00094</v>
       </c>
       <c r="F206">
-        <v>0.439227</v>
+        <v>-0.056427</v>
       </c>
     </row>
     <row r="207" spans="1:6">
       <c r="A207">
-        <v>2027</v>
+        <v>3128</v>
+      </c>
+      <c r="B207" t="s">
+        <v>6</v>
       </c>
       <c r="C207">
-        <v>2.9E-05</v>
+        <v>0.000188</v>
       </c>
       <c r="D207">
-        <v>2.5E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="F207">
-        <v>0.133818</v>
+        <v>0.69652</v>
       </c>
     </row>
     <row r="208" spans="1:6">
       <c r="A208">
-        <v>30</v>
+        <v>3263</v>
+      </c>
+      <c r="B208" t="s">
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>6E-06</v>
+        <v>0.000292</v>
       </c>
       <c r="D208">
-        <v>4E-06</v>
+        <v>0.000315</v>
       </c>
       <c r="F208">
-        <v>0.327764</v>
+        <v>-0.079914</v>
       </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209">
-        <v>2047</v>
+        <v>2431</v>
+      </c>
+      <c r="B209" t="s">
+        <v>6</v>
       </c>
       <c r="C209">
-        <v>2E-06</v>
+        <v>0.000845</v>
       </c>
       <c r="D209">
-        <v>6E-06</v>
+        <v>0.001231</v>
       </c>
       <c r="F209">
-        <v>-1.734941</v>
+        <v>-0.456348</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210">
-        <v>1342</v>
+        <v>3885</v>
+      </c>
+      <c r="B210" t="s">
+        <v>6</v>
       </c>
       <c r="C210">
-        <v>0.001914</v>
+        <v>0.00084</v>
       </c>
       <c r="D210">
-        <v>0.002783</v>
+        <v>0.00086</v>
       </c>
       <c r="F210">
-        <v>-0.453842</v>
+        <v>-0.024129</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211">
-        <v>1182</v>
+        <v>2497</v>
+      </c>
+      <c r="B211" t="s">
+        <v>6</v>
       </c>
       <c r="C211">
-        <v>1E-05</v>
+        <v>0.002882</v>
       </c>
       <c r="D211">
-        <v>2.8E-05</v>
+        <v>0.004152</v>
       </c>
       <c r="F211">
-        <v>-1.729421</v>
+        <v>-0.440807</v>
       </c>
     </row>
     <row r="212" spans="1:6">
       <c r="A212">
-        <v>1297</v>
+        <v>2379</v>
+      </c>
+      <c r="B212" t="s">
+        <v>6</v>
       </c>
       <c r="C212">
-        <v>0.001005</v>
+        <v>0.005383</v>
       </c>
       <c r="D212">
-        <v>0.000634</v>
+        <v>0.003401</v>
       </c>
       <c r="F212">
-        <v>0.368822</v>
+        <v>0.368184</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213">
-        <v>2348</v>
+        <v>2028</v>
+      </c>
+      <c r="B213" t="s">
+        <v>6</v>
       </c>
       <c r="C213">
-        <v>0.000453</v>
+        <v>0.000227</v>
       </c>
       <c r="D213">
-        <v>0.000505</v>
+        <v>0.000125</v>
       </c>
       <c r="F213">
-        <v>-0.115017</v>
+        <v>0.448932</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214">
-        <v>914</v>
+        <v>4230</v>
       </c>
       <c r="B214" t="s">
         <v>6</v>
       </c>
       <c r="C214">
-        <v>0.001633</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D214">
-        <v>0.001138</v>
+        <v>7.2E-05</v>
       </c>
       <c r="F214">
-        <v>0.302928</v>
+        <v>-0.467501</v>
       </c>
     </row>
     <row r="215" spans="1:6">
       <c r="A215">
-        <v>1746</v>
+        <v>3637</v>
+      </c>
+      <c r="B215" t="s">
+        <v>6</v>
       </c>
       <c r="C215">
-        <v>0.000151</v>
+        <v>4E-06</v>
       </c>
       <c r="D215">
-        <v>0.000121</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F215">
-        <v>0.196766</v>
+        <v>-15.329782</v>
       </c>
     </row>
     <row r="216" spans="1:6">
       <c r="A216">
-        <v>2364</v>
+        <v>4250</v>
+      </c>
+      <c r="B216" t="s">
+        <v>6</v>
       </c>
       <c r="C216">
-        <v>0.000354</v>
+        <v>0.000111</v>
       </c>
       <c r="D216">
-        <v>0.000351</v>
+        <v>7.6E-05</v>
       </c>
       <c r="F216">
-        <v>0.011249</v>
+        <v>0.317403</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217">
-        <v>827</v>
+        <v>2492</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
       <c r="C217">
-        <v>0.007011</v>
+        <v>0.000443</v>
       </c>
       <c r="D217">
-        <v>0.006698</v>
+        <v>0.00018</v>
       </c>
       <c r="F217">
-        <v>0.044594</v>
+        <v>0.593489</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218">
-        <v>1471</v>
+        <v>3961</v>
+      </c>
+      <c r="B218" t="s">
+        <v>6</v>
       </c>
       <c r="C218">
-        <v>0.00178</v>
+        <v>3E-06</v>
       </c>
       <c r="D218">
-        <v>0.002484</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F218">
-        <v>-0.395465</v>
+        <v>-3.121329</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219">
-        <v>1991</v>
+        <v>2433</v>
+      </c>
+      <c r="B219" t="s">
+        <v>6</v>
       </c>
       <c r="C219">
-        <v>0.000687</v>
+        <v>0.000488</v>
       </c>
       <c r="D219">
-        <v>6E-05</v>
+        <v>0.000847</v>
       </c>
       <c r="F219">
-        <v>0.91205</v>
+        <v>-0.734785</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220">
-        <v>825</v>
+        <v>2919</v>
+      </c>
+      <c r="B220" t="s">
+        <v>6</v>
       </c>
       <c r="C220">
-        <v>0.003082</v>
+        <v>0.000677</v>
       </c>
       <c r="D220">
-        <v>0.002551</v>
+        <v>0.000955</v>
       </c>
       <c r="F220">
-        <v>0.172428</v>
+        <v>-0.410098</v>
       </c>
     </row>
     <row r="221" spans="1:6">
       <c r="A221">
-        <v>998</v>
+        <v>4242</v>
+      </c>
+      <c r="B221" t="s">
+        <v>6</v>
       </c>
       <c r="C221">
-        <v>0.007011</v>
+        <v>0.000291</v>
       </c>
       <c r="D221">
-        <v>0.006812</v>
+        <v>0.000396</v>
       </c>
       <c r="F221">
-        <v>0.028313</v>
+        <v>-0.357406</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222">
-        <v>1370</v>
+        <v>4339</v>
+      </c>
+      <c r="B222" t="s">
+        <v>6</v>
       </c>
       <c r="C222">
-        <v>0.001041</v>
+        <v>0.000494</v>
       </c>
       <c r="D222">
-        <v>0.000401</v>
+        <v>0.000454</v>
       </c>
       <c r="F222">
-        <v>0.614442</v>
+        <v>0.08081000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:6">
       <c r="A223">
-        <v>1432</v>
+        <v>4397</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
       </c>
       <c r="C223">
-        <v>0.00991</v>
+        <v>0.000543</v>
       </c>
       <c r="D223">
-        <v>0.012281</v>
+        <v>0.000619</v>
       </c>
       <c r="F223">
-        <v>-0.239264</v>
+        <v>-0.140019</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224">
-        <v>842</v>
+        <v>3120</v>
+      </c>
+      <c r="B224" t="s">
+        <v>6</v>
       </c>
       <c r="C224">
-        <v>0.008038999999999999</v>
+        <v>0.000594</v>
       </c>
       <c r="D224">
-        <v>0.007719</v>
+        <v>0.000381</v>
       </c>
       <c r="F224">
-        <v>0.039863</v>
+        <v>0.35938</v>
       </c>
     </row>
     <row r="225" spans="1:6">
       <c r="A225">
-        <v>2245</v>
+        <v>3765</v>
+      </c>
+      <c r="B225" t="s">
+        <v>6</v>
       </c>
       <c r="C225">
-        <v>0.000118</v>
+        <v>0.000226</v>
       </c>
       <c r="D225">
-        <v>0.000134</v>
+        <v>9.6E-05</v>
       </c>
       <c r="F225">
-        <v>-0.137363</v>
+        <v>0.576498</v>
       </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226">
-        <v>1707</v>
+        <v>3674</v>
+      </c>
+      <c r="B226" t="s">
+        <v>6</v>
       </c>
       <c r="C226">
-        <v>9.399999999999999E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D226">
-        <v>4.6E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="F226">
-        <v>0.507006</v>
+        <v>-1.476489</v>
       </c>
     </row>
     <row r="227" spans="1:6">
       <c r="A227">
-        <v>1605</v>
+        <v>3543</v>
+      </c>
+      <c r="B227" t="s">
+        <v>6</v>
       </c>
       <c r="C227">
-        <v>7E-06</v>
+        <v>0.0002</v>
       </c>
       <c r="D227">
-        <v>2.6E-05</v>
+        <v>0.000172</v>
       </c>
       <c r="F227">
-        <v>-2.862534</v>
+        <v>0.141843</v>
       </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228">
-        <v>1677</v>
+        <v>2364</v>
+      </c>
+      <c r="B228" t="s">
+        <v>6</v>
       </c>
       <c r="C228">
-        <v>2.5E-05</v>
+        <v>0.001787</v>
       </c>
       <c r="D228">
-        <v>2.1E-05</v>
+        <v>0.002285</v>
       </c>
       <c r="F228">
-        <v>0.163519</v>
+        <v>-0.278561</v>
       </c>
     </row>
     <row r="229" spans="1:6">
       <c r="A229">
-        <v>2002</v>
+        <v>3322</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
       </c>
       <c r="C229">
-        <v>9.3E-05</v>
+        <v>2.4E-05</v>
       </c>
       <c r="D229">
-        <v>8E-06</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F229">
-        <v>0.9124989999999999</v>
+        <v>-0.964652</v>
       </c>
     </row>
     <row r="230" spans="1:6">
       <c r="A230">
-        <v>2388</v>
+        <v>2216</v>
+      </c>
+      <c r="B230" t="s">
+        <v>6</v>
       </c>
       <c r="C230">
-        <v>0.000458</v>
+        <v>0.004608</v>
       </c>
       <c r="D230">
-        <v>0.000433</v>
+        <v>0.005156</v>
       </c>
       <c r="F230">
-        <v>0.053446</v>
+        <v>-0.118964</v>
       </c>
     </row>
     <row r="231" spans="1:6">
       <c r="A231">
-        <v>1391</v>
+        <v>3346</v>
+      </c>
+      <c r="B231" t="s">
+        <v>6</v>
       </c>
       <c r="C231">
-        <v>0.0007560000000000001</v>
+        <v>0.000369</v>
       </c>
       <c r="D231">
-        <v>0.000374</v>
+        <v>0.000125</v>
       </c>
       <c r="F231">
-        <v>0.504645</v>
+        <v>0.660732</v>
       </c>
     </row>
     <row r="232" spans="1:6">
       <c r="A232">
-        <v>1954</v>
+        <v>2676</v>
+      </c>
+      <c r="B232" t="s">
+        <v>6</v>
       </c>
       <c r="C232">
-        <v>7.3E-05</v>
+        <v>3.8E-05</v>
       </c>
       <c r="D232">
-        <v>7.1E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F232">
-        <v>0.028587</v>
+        <v>-0.416898</v>
       </c>
     </row>
     <row r="233" spans="1:6">
       <c r="A233">
-        <v>1415</v>
+        <v>3803</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
       </c>
       <c r="C233">
-        <v>0.000712</v>
+        <v>1.9E-05</v>
       </c>
       <c r="D233">
-        <v>0.000895</v>
+        <v>1.3E-05</v>
       </c>
       <c r="F233">
-        <v>-0.256444</v>
+        <v>0.326755</v>
       </c>
     </row>
     <row r="234" spans="1:6">
       <c r="A234">
-        <v>1614</v>
+        <v>3775</v>
+      </c>
+      <c r="B234" t="s">
+        <v>6</v>
       </c>
       <c r="C234">
-        <v>2E-06</v>
+        <v>0.000156</v>
       </c>
       <c r="D234">
-        <v>1E-06</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F234">
-        <v>0.293207</v>
+        <v>0.576445</v>
       </c>
     </row>
     <row r="235" spans="1:6">
       <c r="A235">
-        <v>1277</v>
+        <v>3914</v>
+      </c>
+      <c r="B235" t="s">
+        <v>6</v>
       </c>
       <c r="C235">
-        <v>0.000397</v>
+        <v>0.000507</v>
       </c>
       <c r="D235">
-        <v>0.000228</v>
+        <v>0.000922</v>
       </c>
       <c r="F235">
-        <v>0.425613</v>
+        <v>-0.818824</v>
       </c>
     </row>
     <row r="236" spans="1:6">
       <c r="A236">
-        <v>338</v>
+        <v>2537</v>
+      </c>
+      <c r="B236" t="s">
+        <v>6</v>
       </c>
       <c r="C236">
-        <v>0.005631</v>
+        <v>0.000176</v>
       </c>
       <c r="D236">
-        <v>0.003519</v>
+        <v>0.000525</v>
       </c>
       <c r="F236">
-        <v>0.375014</v>
+        <v>-1.979904</v>
       </c>
     </row>
     <row r="237" spans="1:6">
       <c r="A237">
-        <v>1830</v>
+        <v>3884</v>
+      </c>
+      <c r="B237" t="s">
+        <v>6</v>
       </c>
       <c r="C237">
-        <v>6.499999999999999E-05</v>
+        <v>0.000873</v>
       </c>
       <c r="D237">
-        <v>1.9E-05</v>
+        <v>0.001165</v>
       </c>
       <c r="F237">
-        <v>0.70459</v>
+        <v>-0.334106</v>
       </c>
     </row>
     <row r="238" spans="1:6">
       <c r="A238">
-        <v>896</v>
+        <v>3785</v>
+      </c>
+      <c r="B238" t="s">
+        <v>6</v>
       </c>
       <c r="C238">
-        <v>4.3E-05</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D238">
-        <v>1.3E-05</v>
+        <v>3.4E-05</v>
       </c>
       <c r="F238">
-        <v>0.701653</v>
+        <v>0.409723</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239">
-        <v>1540</v>
+        <v>4098</v>
+      </c>
+      <c r="B239" t="s">
+        <v>6</v>
       </c>
       <c r="C239">
-        <v>0.000331</v>
+        <v>8E-06</v>
       </c>
       <c r="D239">
-        <v>0.000161</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F239">
-        <v>0.514406</v>
+        <v>-1.421093</v>
       </c>
     </row>
     <row r="240" spans="1:6">
       <c r="A240">
-        <v>1911</v>
+        <v>2727</v>
+      </c>
+      <c r="B240" t="s">
+        <v>6</v>
       </c>
       <c r="C240">
-        <v>2E-06</v>
+        <v>0.001803</v>
       </c>
       <c r="D240">
-        <v>0.000129</v>
+        <v>0.001342</v>
       </c>
       <c r="F240">
-        <v>-65.990465</v>
+        <v>0.25559</v>
       </c>
     </row>
     <row r="241" spans="1:6">
       <c r="A241">
-        <v>1489</v>
+        <v>3422</v>
+      </c>
+      <c r="B241" t="s">
+        <v>6</v>
       </c>
       <c r="C241">
-        <v>0.000186</v>
+        <v>0.0004</v>
       </c>
       <c r="D241">
-        <v>0.000147</v>
+        <v>0.000182</v>
       </c>
       <c r="F241">
-        <v>0.21211</v>
+        <v>0.543863</v>
       </c>
     </row>
     <row r="242" spans="1:6">
       <c r="A242">
-        <v>1178</v>
+        <v>2224</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
       </c>
       <c r="C242">
-        <v>1.6E-05</v>
+        <v>0.00154</v>
       </c>
       <c r="D242">
-        <v>0.000105</v>
+        <v>0.001095</v>
       </c>
       <c r="F242">
-        <v>-5.418577</v>
+        <v>0.288942</v>
       </c>
     </row>
     <row r="243" spans="1:6">
       <c r="A243">
-        <v>1665</v>
+        <v>2049</v>
+      </c>
+      <c r="B243" t="s">
+        <v>6</v>
       </c>
       <c r="C243">
-        <v>3.1E-05</v>
+        <v>0.000932</v>
       </c>
       <c r="D243">
-        <v>4.8E-05</v>
+        <v>0.000709</v>
       </c>
       <c r="F243">
-        <v>-0.52117</v>
+        <v>0.239298</v>
       </c>
     </row>
     <row r="244" spans="1:6">
       <c r="A244">
-        <v>1281</v>
+        <v>3801</v>
+      </c>
+      <c r="B244" t="s">
+        <v>6</v>
       </c>
       <c r="C244">
-        <v>9E-06</v>
+        <v>5.7E-05</v>
       </c>
       <c r="D244">
-        <v>3.8E-05</v>
+        <v>6.2E-05</v>
       </c>
       <c r="F244">
-        <v>-3.334457</v>
+        <v>-0.095858</v>
       </c>
     </row>
     <row r="245" spans="1:6">
       <c r="A245">
-        <v>1447</v>
+        <v>2456</v>
+      </c>
+      <c r="B245" t="s">
+        <v>6</v>
       </c>
       <c r="C245">
-        <v>0.0106</v>
+        <v>0.003042</v>
       </c>
       <c r="D245">
-        <v>0.009422</v>
+        <v>0.002389</v>
       </c>
       <c r="F245">
-        <v>0.111085</v>
+        <v>0.214548</v>
       </c>
     </row>
     <row r="246" spans="1:6">
       <c r="A246">
-        <v>597</v>
+        <v>2549</v>
+      </c>
+      <c r="B246" t="s">
+        <v>6</v>
       </c>
       <c r="C246">
-        <v>0.001426</v>
+        <v>0.002602</v>
       </c>
       <c r="D246">
-        <v>0.001071</v>
+        <v>0.004339</v>
       </c>
       <c r="F246">
-        <v>0.249227</v>
+        <v>-0.667537</v>
       </c>
     </row>
     <row r="247" spans="1:6">
       <c r="A247">
-        <v>930</v>
+        <v>2353</v>
+      </c>
+      <c r="B247" t="s">
+        <v>6</v>
       </c>
       <c r="C247">
-        <v>9E-06</v>
+        <v>0.000672</v>
       </c>
       <c r="D247">
-        <v>2.9E-05</v>
+        <v>0.000804</v>
       </c>
       <c r="F247">
-        <v>-2.283546</v>
+        <v>-0.19694</v>
       </c>
     </row>
     <row r="248" spans="1:6">
       <c r="A248">
-        <v>1435</v>
+        <v>3159</v>
+      </c>
+      <c r="B248" t="s">
+        <v>6</v>
       </c>
       <c r="C248">
-        <v>0.00181</v>
+        <v>5.8E-05</v>
       </c>
       <c r="D248">
-        <v>0.002778</v>
+        <v>0.001224</v>
       </c>
       <c r="F248">
-        <v>-0.534769</v>
+        <v>-20.026656</v>
       </c>
     </row>
     <row r="249" spans="1:6">
       <c r="A249">
-        <v>2165</v>
+        <v>3703</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
       </c>
       <c r="C249">
-        <v>5.4E-05</v>
+        <v>0.000123</v>
       </c>
       <c r="D249">
-        <v>0.000113</v>
+        <v>0.000107</v>
       </c>
       <c r="F249">
-        <v>-1.075283</v>
+        <v>0.130614</v>
       </c>
     </row>
     <row r="250" spans="1:6">
       <c r="A250">
-        <v>1872</v>
+        <v>2051</v>
+      </c>
+      <c r="B250" t="s">
+        <v>6</v>
       </c>
       <c r="C250">
-        <v>8.500000000000001E-05</v>
+        <v>0.000242</v>
       </c>
       <c r="D250">
-        <v>0.000157</v>
+        <v>0.000185</v>
       </c>
       <c r="F250">
-        <v>-0.844262</v>
+        <v>0.234355</v>
       </c>
     </row>
     <row r="251" spans="1:6">
       <c r="A251">
-        <v>935</v>
+        <v>2629</v>
+      </c>
+      <c r="B251" t="s">
+        <v>6</v>
       </c>
       <c r="C251">
-        <v>2E-05</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D251">
-        <v>6.2E-05</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F251">
-        <v>-2.109316</v>
+        <v>-1.776635</v>
       </c>
     </row>
     <row r="252" spans="1:6">
       <c r="A252">
-        <v>146</v>
+        <v>4172</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
       </c>
       <c r="C252">
-        <v>0.001695</v>
+        <v>6.9E-05</v>
       </c>
       <c r="D252">
-        <v>0.001804</v>
+        <v>0.000126</v>
       </c>
       <c r="F252">
-        <v>-0.06433800000000001</v>
+        <v>-0.8358449999999999</v>
       </c>
     </row>
     <row r="253" spans="1:6">
       <c r="A253">
-        <v>997</v>
+        <v>3851</v>
+      </c>
+      <c r="B253" t="s">
+        <v>6</v>
       </c>
       <c r="C253">
-        <v>0.00533</v>
+        <v>8.3E-05</v>
       </c>
       <c r="D253">
-        <v>0.004422</v>
+        <v>4.9E-05</v>
       </c>
       <c r="F253">
-        <v>0.170394</v>
+        <v>0.415641</v>
       </c>
     </row>
     <row r="254" spans="1:6">
       <c r="A254">
-        <v>1826</v>
+        <v>2182</v>
+      </c>
+      <c r="B254" t="s">
+        <v>6</v>
       </c>
       <c r="C254">
-        <v>4.9E-05</v>
+        <v>0.000743</v>
       </c>
       <c r="D254">
-        <v>2E-05</v>
+        <v>0.001058</v>
       </c>
       <c r="F254">
-        <v>0.583165</v>
+        <v>-0.424074</v>
       </c>
     </row>
     <row r="255" spans="1:6">
       <c r="A255">
-        <v>2288</v>
+        <v>4287</v>
       </c>
       <c r="B255" t="s">
         <v>6</v>
       </c>
       <c r="C255">
-        <v>0.000288</v>
+        <v>4E-06</v>
       </c>
       <c r="D255">
-        <v>0.000197</v>
+        <v>5E-06</v>
       </c>
       <c r="F255">
-        <v>0.316825</v>
+        <v>-0.184019</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>2211</v>
+        <v>3224</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
       </c>
       <c r="C256">
-        <v>3.3E-05</v>
+        <v>0.000509</v>
       </c>
       <c r="D256">
-        <v>4E-05</v>
+        <v>0.000344</v>
       </c>
       <c r="F256">
-        <v>-0.21043</v>
+        <v>0.323809</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>1519</v>
+        <v>3491</v>
+      </c>
+      <c r="B257" t="s">
+        <v>6</v>
       </c>
       <c r="C257">
-        <v>0.00015</v>
+        <v>0.000186</v>
       </c>
       <c r="D257">
-        <v>0.00013</v>
+        <v>0.000217</v>
       </c>
       <c r="F257">
-        <v>0.130281</v>
+        <v>-0.165165</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>1221</v>
+        <v>4375</v>
+      </c>
+      <c r="B258" t="s">
+        <v>6</v>
       </c>
       <c r="C258">
-        <v>9.899999999999999E-05</v>
+        <v>0.000651</v>
       </c>
       <c r="D258">
-        <v>0.00011</v>
+        <v>0.000924</v>
       </c>
       <c r="F258">
-        <v>-0.109357</v>
+        <v>-0.420008</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>1920</v>
+        <v>2994</v>
+      </c>
+      <c r="B259" t="s">
+        <v>6</v>
       </c>
       <c r="C259">
-        <v>1E-06</v>
+        <v>7E-06</v>
       </c>
       <c r="D259">
-        <v>3E-06</v>
+        <v>1.4E-05</v>
       </c>
       <c r="F259">
-        <v>-1.022196</v>
+        <v>-0.971641</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>2376</v>
+        <v>3477</v>
+      </c>
+      <c r="B260" t="s">
+        <v>6</v>
       </c>
       <c r="C260">
-        <v>9.000000000000001E-05</v>
+        <v>0.000558</v>
       </c>
       <c r="D260">
-        <v>8.6E-05</v>
+        <v>0.000525</v>
       </c>
       <c r="F260">
-        <v>0.039349</v>
+        <v>0.059672</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>194</v>
+        <v>2025</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
       </c>
       <c r="C261">
-        <v>0.00035</v>
+        <v>0.001464</v>
       </c>
       <c r="D261">
-        <v>0.000327</v>
+        <v>0.001333</v>
       </c>
       <c r="F261">
-        <v>0.065057</v>
+        <v>0.089617</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>1683</v>
+        <v>4259</v>
+      </c>
+      <c r="B262" t="s">
+        <v>6</v>
       </c>
       <c r="C262">
-        <v>6.3E-05</v>
+        <v>9.500000000000001E-05</v>
       </c>
       <c r="D262">
         <v>5.6E-05</v>
       </c>
       <c r="F262">
-        <v>0.103641</v>
+        <v>0.408623</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>1416</v>
+        <v>2332</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
       </c>
       <c r="C263">
-        <v>0.00256</v>
+        <v>0.004426</v>
       </c>
       <c r="D263">
-        <v>0.002151</v>
+        <v>0.005695</v>
       </c>
       <c r="F263">
-        <v>0.159903</v>
+        <v>-0.286613</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>1816</v>
+        <v>4323</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
       </c>
       <c r="C264">
-        <v>1.5E-05</v>
+        <v>0.000144</v>
       </c>
       <c r="D264">
-        <v>7E-06</v>
+        <v>0.00013</v>
       </c>
       <c r="F264">
-        <v>0.508378</v>
+        <v>0.094614</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>596</v>
+        <v>3208</v>
+      </c>
+      <c r="B265" t="s">
+        <v>6</v>
       </c>
       <c r="C265">
-        <v>0.0007739999999999999</v>
+        <v>1.3E-05</v>
       </c>
       <c r="D265">
-        <v>0.000627</v>
+        <v>2E-05</v>
       </c>
       <c r="F265">
-        <v>0.189784</v>
+        <v>-0.548472</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>1709</v>
+        <v>2585</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
       </c>
       <c r="C266">
-        <v>2.1E-05</v>
+        <v>0.000205</v>
       </c>
       <c r="D266">
-        <v>9E-06</v>
+        <v>0.000164</v>
       </c>
       <c r="F266">
-        <v>0.589724</v>
+        <v>0.200265</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>18</v>
+        <v>3986</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
       </c>
       <c r="C267">
-        <v>0.001045</v>
+        <v>4.1E-05</v>
       </c>
       <c r="D267">
-        <v>0.000368</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F267">
-        <v>0.647477</v>
+        <v>0.43392</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>1525</v>
+        <v>2439</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
       </c>
       <c r="C268">
-        <v>5.8E-05</v>
+        <v>0.001122</v>
       </c>
       <c r="D268">
-        <v>3.8E-05</v>
+        <v>0.000557</v>
       </c>
       <c r="F268">
-        <v>0.346607</v>
+        <v>0.503288</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>693</v>
+        <v>3679</v>
+      </c>
+      <c r="B269" t="s">
+        <v>6</v>
       </c>
       <c r="C269">
-        <v>1.2E-05</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D269">
-        <v>1.9E-05</v>
+        <v>1.8E-05</v>
       </c>
       <c r="F269">
-        <v>-0.61365</v>
+        <v>0.274513</v>
       </c>
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>1477</v>
+        <v>2592</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
       </c>
       <c r="C270">
-        <v>0.00214</v>
+        <v>8.8E-05</v>
       </c>
       <c r="D270">
-        <v>0.001806</v>
+        <v>5.3E-05</v>
       </c>
       <c r="F270">
-        <v>0.155916</v>
+        <v>0.401834</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>1737</v>
+        <v>3898</v>
+      </c>
+      <c r="B271" t="s">
+        <v>6</v>
       </c>
       <c r="C271">
-        <v>7.9E-05</v>
+        <v>0.000142</v>
       </c>
       <c r="D271">
-        <v>4E-05</v>
+        <v>9.7E-05</v>
       </c>
       <c r="F271">
-        <v>0.495187</v>
+        <v>0.315046</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>1317</v>
+        <v>3402</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
       </c>
       <c r="C272">
-        <v>0.0008229999999999999</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D272">
-        <v>0.000364</v>
+        <v>4.2E-05</v>
       </c>
       <c r="F272">
-        <v>0.558006</v>
+        <v>-0.141791</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>511</v>
+        <v>3085</v>
+      </c>
+      <c r="B273" t="s">
+        <v>6</v>
       </c>
       <c r="C273">
-        <v>0.000688</v>
+        <v>0.000145</v>
       </c>
       <c r="D273">
-        <v>0.001224</v>
+        <v>0.000123</v>
       </c>
       <c r="F273">
-        <v>-0.7792829999999999</v>
+        <v>0.148689</v>
       </c>
     </row>
     <row r="274" spans="1:6">
       <c r="A274">
-        <v>46</v>
+        <v>4350</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
       </c>
       <c r="C274">
-        <v>0.002949</v>
+        <v>0.000453</v>
       </c>
       <c r="D274">
-        <v>0.002367</v>
+        <v>0.000513</v>
       </c>
       <c r="F274">
-        <v>0.197303</v>
+        <v>-0.131285</v>
       </c>
     </row>
     <row r="275" spans="1:6">
       <c r="A275">
-        <v>1639</v>
+        <v>3728</v>
+      </c>
+      <c r="B275" t="s">
+        <v>6</v>
       </c>
       <c r="C275">
-        <v>4.5E-05</v>
+        <v>0.00011</v>
       </c>
       <c r="D275">
-        <v>3.9E-05</v>
+        <v>6.1E-05</v>
       </c>
       <c r="F275">
-        <v>0.133018</v>
+        <v>0.44976</v>
       </c>
     </row>
     <row r="276" spans="1:6">
       <c r="A276">
-        <v>657</v>
+        <v>3167</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
       </c>
       <c r="C276">
-        <v>0.002748</v>
+        <v>3.6E-05</v>
       </c>
       <c r="D276">
-        <v>0.003201</v>
+        <v>0.000138</v>
       </c>
       <c r="F276">
-        <v>-0.164659</v>
+        <v>-2.789009</v>
       </c>
     </row>
     <row r="277" spans="1:6">
       <c r="A277">
-        <v>926</v>
+        <v>2262</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
       </c>
       <c r="C277">
-        <v>0.000297</v>
+        <v>4.7E-05</v>
       </c>
       <c r="D277">
-        <v>0.000205</v>
+        <v>4E-05</v>
       </c>
       <c r="F277">
-        <v>0.309412</v>
+        <v>0.146915</v>
       </c>
     </row>
     <row r="278" spans="1:6">
       <c r="A278">
-        <v>1941</v>
+        <v>3610</v>
+      </c>
+      <c r="B278" t="s">
+        <v>6</v>
       </c>
       <c r="C278">
-        <v>1.5E-05</v>
+        <v>6E-06</v>
       </c>
       <c r="D278">
-        <v>2.1E-05</v>
+        <v>3.5E-05</v>
       </c>
       <c r="F278">
-        <v>-0.468817</v>
+        <v>-4.316261</v>
       </c>
     </row>
     <row r="279" spans="1:6">
       <c r="A279">
-        <v>2106</v>
+        <v>3799</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
       </c>
       <c r="C279">
-        <v>0.000378</v>
+        <v>1E-05</v>
       </c>
       <c r="D279">
-        <v>0.000345</v>
+        <v>1.2E-05</v>
       </c>
       <c r="F279">
-        <v>0.08681899999999999</v>
+        <v>-0.25244</v>
       </c>
     </row>
     <row r="280" spans="1:6">
       <c r="A280">
-        <v>2246</v>
+        <v>4377</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
       </c>
       <c r="C280">
-        <v>4.8E-05</v>
+        <v>0.000758</v>
       </c>
       <c r="D280">
-        <v>0.000113</v>
+        <v>0.001178</v>
       </c>
       <c r="F280">
-        <v>-1.333917</v>
+        <v>-0.553002</v>
       </c>
     </row>
     <row r="281" spans="1:6">
       <c r="A281">
-        <v>1369</v>
+        <v>4245</v>
+      </c>
+      <c r="B281" t="s">
+        <v>6</v>
       </c>
       <c r="C281">
-        <v>0.000144</v>
+        <v>0.000222</v>
       </c>
       <c r="D281">
-        <v>0.000133</v>
+        <v>0.000181</v>
       </c>
       <c r="F281">
-        <v>0.081001</v>
+        <v>0.187269</v>
       </c>
     </row>
     <row r="282" spans="1:6">
       <c r="A282">
-        <v>1170</v>
+        <v>2050</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
       </c>
       <c r="C282">
-        <v>1.7E-05</v>
+        <v>0.000417</v>
       </c>
       <c r="D282">
-        <v>5.5E-05</v>
+        <v>0.000338</v>
       </c>
       <c r="F282">
-        <v>-2.257681</v>
+        <v>0.18863</v>
       </c>
     </row>
     <row r="283" spans="1:6">
       <c r="A283">
-        <v>1939</v>
+        <v>4234</v>
+      </c>
+      <c r="B283" t="s">
+        <v>6</v>
       </c>
       <c r="C283">
-        <v>2.3E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D283">
-        <v>6E-06</v>
+        <v>3E-05</v>
       </c>
       <c r="F283">
-        <v>0.726993</v>
+        <v>0.191809</v>
       </c>
     </row>
     <row r="284" spans="1:6">
       <c r="A284">
-        <v>2340</v>
+        <v>3172</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
       </c>
       <c r="C284">
-        <v>0.000565</v>
+        <v>1.7E-05</v>
       </c>
       <c r="D284">
-        <v>0.000866</v>
+        <v>4.7E-05</v>
       </c>
       <c r="F284">
-        <v>-0.531929</v>
+        <v>-1.756942</v>
       </c>
     </row>
     <row r="285" spans="1:6">
       <c r="A285">
-        <v>2262</v>
+        <v>4369</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
       </c>
       <c r="C285">
-        <v>1E-05</v>
+        <v>0.000633</v>
       </c>
       <c r="D285">
-        <v>2.8E-05</v>
+        <v>0.000598</v>
       </c>
       <c r="F285">
-        <v>-1.699288</v>
+        <v>0.054815</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286">
-        <v>1276</v>
+        <v>2491</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
       </c>
       <c r="C286">
-        <v>0.000419</v>
+        <v>4.8E-05</v>
       </c>
       <c r="D286">
-        <v>0.000253</v>
+        <v>2E-05</v>
       </c>
       <c r="F286">
-        <v>0.395156</v>
+        <v>0.589943</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287">
-        <v>2217</v>
+        <v>2401</v>
+      </c>
+      <c r="B287" t="s">
+        <v>6</v>
       </c>
       <c r="C287">
-        <v>8E-06</v>
+        <v>0.000589</v>
       </c>
       <c r="D287">
-        <v>2E-05</v>
+        <v>0.000376</v>
       </c>
       <c r="F287">
-        <v>-1.328723</v>
+        <v>0.362361</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288">
-        <v>497</v>
+        <v>3722</v>
+      </c>
+      <c r="B288" t="s">
+        <v>6</v>
       </c>
       <c r="C288">
-        <v>0.002428</v>
+        <v>9.399999999999999E-05</v>
       </c>
       <c r="D288">
-        <v>0.001895</v>
+        <v>6.9E-05</v>
       </c>
       <c r="F288">
-        <v>0.219775</v>
+        <v>0.271484</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289">
-        <v>2081</v>
+        <v>4215</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
       </c>
       <c r="C289">
-        <v>2E-06</v>
+        <v>1.5E-05</v>
       </c>
       <c r="D289">
-        <v>4E-06</v>
+        <v>3.3E-05</v>
       </c>
       <c r="F289">
-        <v>-1.250724</v>
+        <v>-1.267009</v>
       </c>
     </row>
     <row r="290" spans="1:6">
       <c r="A290">
-        <v>1870</v>
+        <v>3499</v>
+      </c>
+      <c r="B290" t="s">
+        <v>6</v>
       </c>
       <c r="C290">
-        <v>0.000354</v>
+        <v>0.000226</v>
       </c>
       <c r="D290">
-        <v>0.000465</v>
+        <v>0.000162</v>
       </c>
       <c r="F290">
-        <v>-0.31355</v>
+        <v>0.284233</v>
       </c>
     </row>
     <row r="291" spans="1:6">
       <c r="A291">
-        <v>1882</v>
+        <v>3853</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
       </c>
       <c r="C291">
-        <v>0.000873</v>
+        <v>2.6E-05</v>
       </c>
       <c r="D291">
-        <v>0.001116</v>
+        <v>4.4E-05</v>
       </c>
       <c r="F291">
-        <v>-0.277959</v>
+        <v>-0.667131</v>
       </c>
     </row>
     <row r="292" spans="1:6">
       <c r="A292">
-        <v>1183</v>
+        <v>4077</v>
+      </c>
+      <c r="B292" t="s">
+        <v>6</v>
       </c>
       <c r="C292">
-        <v>5E-06</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D292">
-        <v>2.2E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F292">
-        <v>-3.405697</v>
+        <v>0.145975</v>
       </c>
     </row>
     <row r="293" spans="1:6">
       <c r="A293">
-        <v>2339</v>
+        <v>2218</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
       </c>
       <c r="C293">
-        <v>0.000588</v>
+        <v>0.002012</v>
       </c>
       <c r="D293">
-        <v>0.000429</v>
+        <v>0.001376</v>
       </c>
       <c r="F293">
-        <v>0.27069</v>
+        <v>0.315936</v>
       </c>
     </row>
     <row r="294" spans="1:6">
       <c r="A294">
-        <v>1897</v>
+        <v>3897</v>
+      </c>
+      <c r="B294" t="s">
+        <v>6</v>
       </c>
       <c r="C294">
-        <v>0.000529</v>
+        <v>0.000415</v>
       </c>
       <c r="D294">
-        <v>0.000267</v>
+        <v>0.000226</v>
       </c>
       <c r="F294">
-        <v>0.495916</v>
+        <v>0.45621</v>
       </c>
     </row>
     <row r="295" spans="1:6">
       <c r="A295">
-        <v>1549</v>
+        <v>2936</v>
+      </c>
+      <c r="B295" t="s">
+        <v>6</v>
       </c>
       <c r="C295">
-        <v>3E-06</v>
+        <v>0.000676</v>
       </c>
       <c r="D295">
-        <v>3E-06</v>
+        <v>0.000473</v>
       </c>
       <c r="F295">
-        <v>-0.001536</v>
+        <v>0.300433</v>
       </c>
     </row>
     <row r="296" spans="1:6">
       <c r="A296">
-        <v>2261</v>
+        <v>3411</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
       </c>
       <c r="C296">
-        <v>2.8E-05</v>
+        <v>0.00366</v>
       </c>
       <c r="D296">
-        <v>3.9E-05</v>
+        <v>0.005098</v>
       </c>
       <c r="F296">
-        <v>-0.423647</v>
+        <v>-0.393027</v>
       </c>
     </row>
     <row r="297" spans="1:6">
       <c r="A297">
-        <v>2017</v>
+        <v>2993</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
       </c>
       <c r="C297">
-        <v>4E-06</v>
+        <v>2.7E-05</v>
       </c>
       <c r="D297">
-        <v>6E-06</v>
+        <v>1.1E-05</v>
       </c>
       <c r="F297">
-        <v>-0.41699</v>
+        <v>0.577145</v>
       </c>
     </row>
     <row r="298" spans="1:6">
       <c r="A298">
-        <v>1864</v>
+        <v>2118</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
       </c>
       <c r="C298">
-        <v>3.8E-05</v>
+        <v>0.000108</v>
       </c>
       <c r="D298">
-        <v>3.3E-05</v>
+        <v>0.000111</v>
       </c>
       <c r="F298">
-        <v>0.111874</v>
+        <v>-0.027072</v>
       </c>
     </row>
     <row r="299" spans="1:6">
       <c r="A299">
-        <v>1616</v>
+        <v>4101</v>
+      </c>
+      <c r="B299" t="s">
+        <v>6</v>
       </c>
       <c r="C299">
-        <v>1.3E-05</v>
+        <v>0.000127</v>
       </c>
       <c r="D299">
-        <v>7E-06</v>
+        <v>0.000129</v>
       </c>
       <c r="F299">
-        <v>0.470138</v>
+        <v>-0.016541</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300">
-        <v>2312</v>
+        <v>4325</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
       </c>
       <c r="C300">
-        <v>7.8E-05</v>
+        <v>0.000197</v>
       </c>
       <c r="D300">
-        <v>7.8E-05</v>
+        <v>0.000136</v>
       </c>
       <c r="F300">
-        <v>-0.000878</v>
+        <v>0.311405</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301">
-        <v>1618</v>
+        <v>2754</v>
+      </c>
+      <c r="B301" t="s">
+        <v>6</v>
       </c>
       <c r="C301">
-        <v>2.2E-05</v>
+        <v>0.008333</v>
       </c>
       <c r="D301">
-        <v>6.999999999999999E-05</v>
+        <v>0.007076</v>
       </c>
       <c r="F301">
-        <v>-2.154493</v>
+        <v>0.150797</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302">
-        <v>2402</v>
+        <v>3298</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
       </c>
       <c r="C302">
-        <v>1.5E-05</v>
+        <v>0.00143</v>
       </c>
       <c r="D302">
-        <v>6.7E-05</v>
+        <v>0.000781</v>
       </c>
       <c r="F302">
-        <v>-3.413722</v>
+        <v>0.45415</v>
       </c>
     </row>
     <row r="303" spans="1:6">
       <c r="A303">
-        <v>1576</v>
+        <v>3873</v>
+      </c>
+      <c r="B303" t="s">
+        <v>6</v>
       </c>
       <c r="C303">
-        <v>2E-06</v>
+        <v>0.000239</v>
       </c>
       <c r="D303">
-        <v>4E-06</v>
+        <v>0.000324</v>
       </c>
       <c r="F303">
-        <v>-1.125282</v>
+        <v>-0.353776</v>
       </c>
     </row>
     <row r="304" spans="1:6">
       <c r="A304">
-        <v>36</v>
+        <v>4216</v>
+      </c>
+      <c r="B304" t="s">
+        <v>6</v>
       </c>
       <c r="C304">
-        <v>7.7E-05</v>
+        <v>1E-05</v>
       </c>
       <c r="D304">
         <v>3.2E-05</v>
       </c>
       <c r="F304">
-        <v>0.592704</v>
+        <v>-2.168903</v>
       </c>
     </row>
     <row r="305" spans="1:6">
       <c r="A305">
-        <v>2075</v>
+        <v>2347</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
       </c>
       <c r="C305">
-        <v>2.7E-05</v>
+        <v>0.002078</v>
       </c>
       <c r="D305">
-        <v>2.8E-05</v>
+        <v>0.000523</v>
       </c>
       <c r="F305">
-        <v>-0.014645</v>
+        <v>0.748151</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306">
-        <v>1218</v>
+        <v>2393</v>
+      </c>
+      <c r="B306" t="s">
+        <v>6</v>
       </c>
       <c r="C306">
-        <v>5.6E-05</v>
+        <v>0.00058</v>
       </c>
       <c r="D306">
-        <v>0.000107</v>
+        <v>0.000331</v>
       </c>
       <c r="F306">
-        <v>-0.909944</v>
+        <v>0.42849</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307">
-        <v>442</v>
+        <v>2772</v>
+      </c>
+      <c r="B307" t="s">
+        <v>6</v>
       </c>
       <c r="C307">
-        <v>0.001193</v>
+        <v>0.001879</v>
       </c>
       <c r="D307">
-        <v>0.000519</v>
+        <v>0.001209</v>
       </c>
       <c r="F307">
-        <v>0.5651</v>
+        <v>0.356419</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308">
-        <v>808</v>
+        <v>4229</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
       </c>
       <c r="C308">
-        <v>0.000589</v>
+        <v>7.8E-05</v>
       </c>
       <c r="D308">
-        <v>0.000625</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F308">
-        <v>-0.060664</v>
+        <v>-0.035793</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
-        <v>31</v>
+        <v>4376</v>
+      </c>
+      <c r="B309" t="s">
+        <v>6</v>
       </c>
       <c r="C309">
-        <v>0.000193</v>
+        <v>0.000722</v>
       </c>
       <c r="D309">
-        <v>4.7E-05</v>
+        <v>0.001132</v>
       </c>
       <c r="F309">
-        <v>0.758543</v>
+        <v>-0.56746</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310">
-        <v>1492</v>
+        <v>4099</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
       </c>
       <c r="C310">
-        <v>0.000394</v>
+        <v>8E-06</v>
       </c>
       <c r="D310">
-        <v>0.000228</v>
+        <v>1.9E-05</v>
       </c>
       <c r="F310">
-        <v>0.421155</v>
+        <v>-1.52524</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311">
-        <v>1718</v>
+        <v>2779</v>
+      </c>
+      <c r="B311" t="s">
+        <v>6</v>
       </c>
       <c r="C311">
-        <v>2.1E-05</v>
+        <v>0.001565</v>
       </c>
       <c r="D311">
-        <v>2.2E-05</v>
+        <v>0.000399</v>
       </c>
       <c r="F311">
-        <v>-0.08347300000000001</v>
+        <v>0.745024</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312">
-        <v>1340</v>
+        <v>4299</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
       </c>
       <c r="C312">
-        <v>0.002032</v>
+        <v>6.4E-05</v>
       </c>
       <c r="D312">
-        <v>0.002006</v>
+        <v>6.600000000000001E-05</v>
       </c>
       <c r="F312">
-        <v>0.012578</v>
+        <v>-0.043947</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313">
-        <v>1946</v>
+        <v>2576</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
       </c>
       <c r="C313">
-        <v>5E-06</v>
+        <v>4.6E-05</v>
       </c>
       <c r="D313">
-        <v>7E-06</v>
+        <v>5.6E-05</v>
       </c>
       <c r="F313">
-        <v>-0.226909</v>
+        <v>-0.223767</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314">
-        <v>1622</v>
+        <v>2188</v>
+      </c>
+      <c r="B314" t="s">
+        <v>6</v>
       </c>
       <c r="C314">
-        <v>8E-06</v>
+        <v>0.003216</v>
       </c>
       <c r="D314">
-        <v>4.1E-05</v>
+        <v>0.003814</v>
       </c>
       <c r="F314">
-        <v>-3.80463</v>
+        <v>-0.186089</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315">
-        <v>2210</v>
+        <v>3313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>6</v>
       </c>
       <c r="C315">
-        <v>4.4E-05</v>
+        <v>0.001965</v>
       </c>
       <c r="D315">
-        <v>4.1E-05</v>
+        <v>0.000355</v>
       </c>
       <c r="F315">
-        <v>0.051434</v>
+        <v>0.819102</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316">
-        <v>1728</v>
+        <v>3321</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
       </c>
       <c r="C316">
-        <v>0.000155</v>
+        <v>5.9E-05</v>
       </c>
       <c r="D316">
-        <v>8.2E-05</v>
+        <v>6.999999999999999E-05</v>
       </c>
       <c r="F316">
-        <v>0.469945</v>
+        <v>-0.194573</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317">
-        <v>2107</v>
+        <v>3255</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
       </c>
       <c r="C317">
-        <v>3E-06</v>
+        <v>0.002335</v>
       </c>
       <c r="D317">
-        <v>1.6E-05</v>
+        <v>0.001107</v>
       </c>
       <c r="F317">
-        <v>-4.247658</v>
+        <v>0.525702</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318">
-        <v>1455</v>
+        <v>4379</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
       </c>
       <c r="C318">
-        <v>0.00014</v>
+        <v>0.000103</v>
       </c>
       <c r="D318">
-        <v>0.000121</v>
+        <v>9.3E-05</v>
       </c>
       <c r="F318">
-        <v>0.133277</v>
+        <v>0.09807100000000001</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319">
-        <v>485</v>
+        <v>4301</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
       </c>
       <c r="C319">
-        <v>1.1E-05</v>
+        <v>2.1E-05</v>
       </c>
       <c r="D319">
-        <v>1.5E-05</v>
+        <v>2.3E-05</v>
       </c>
       <c r="F319">
-        <v>-0.357129</v>
+        <v>-0.06965300000000001</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320">
-        <v>1541</v>
+        <v>3433</v>
+      </c>
+      <c r="B320" t="s">
+        <v>6</v>
       </c>
       <c r="C320">
-        <v>0.0002</v>
+        <v>0.00516</v>
       </c>
       <c r="D320">
-        <v>0.000154</v>
+        <v>0.003741</v>
       </c>
       <c r="F320">
-        <v>0.230612</v>
+        <v>0.275021</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321">
-        <v>2397</v>
+        <v>3417</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
       </c>
       <c r="C321">
-        <v>4E-06</v>
+        <v>0.000712</v>
       </c>
       <c r="D321">
-        <v>8E-06</v>
+        <v>0.000905</v>
       </c>
       <c r="F321">
-        <v>-1.042672</v>
+        <v>-0.270389</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322">
-        <v>2008</v>
+        <v>3497</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
       </c>
       <c r="C322">
-        <v>4E-05</v>
+        <v>0.000362</v>
       </c>
       <c r="D322">
-        <v>1.6E-05</v>
+        <v>0.000222</v>
       </c>
       <c r="F322">
-        <v>0.59696</v>
+        <v>0.385802</v>
       </c>
     </row>
     <row r="323" spans="1:6">
       <c r="A323">
-        <v>1970</v>
+        <v>2371</v>
+      </c>
+      <c r="B323" t="s">
+        <v>6</v>
       </c>
       <c r="C323">
-        <v>2E-06</v>
+        <v>0.000489</v>
       </c>
       <c r="D323">
-        <v>7E-06</v>
+        <v>0.000868</v>
       </c>
       <c r="F323">
-        <v>-2.24911</v>
+        <v>-0.775374</v>
       </c>
     </row>
     <row r="324" spans="1:6">
       <c r="A324">
-        <v>215</v>
+        <v>3999</v>
+      </c>
+      <c r="B324" t="s">
+        <v>6</v>
       </c>
       <c r="C324">
-        <v>0.003137</v>
+        <v>0.000266</v>
       </c>
       <c r="D324">
-        <v>0.002512</v>
+        <v>0.000102</v>
       </c>
       <c r="F324">
-        <v>0.199269</v>
+        <v>0.615275</v>
       </c>
     </row>
     <row r="325" spans="1:6">
       <c r="A325">
-        <v>1861</v>
+        <v>2594</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
       </c>
       <c r="C325">
-        <v>1.4E-05</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D325">
-        <v>1E-05</v>
+        <v>2.2E-05</v>
       </c>
       <c r="F325">
-        <v>0.249467</v>
+        <v>0.413021</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326">
-        <v>2086</v>
+        <v>2833</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
       </c>
       <c r="C326">
-        <v>2.5E-05</v>
+        <v>0.000174</v>
       </c>
       <c r="D326">
-        <v>1.3E-05</v>
+        <v>0.00014</v>
       </c>
       <c r="F326">
-        <v>0.466958</v>
+        <v>0.197522</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327">
-        <v>1761</v>
+        <v>4094</v>
+      </c>
+      <c r="B327" t="s">
+        <v>6</v>
       </c>
       <c r="C327">
-        <v>9.8E-05</v>
+        <v>9E-06</v>
       </c>
       <c r="D327">
-        <v>4.2E-05</v>
+        <v>2.7E-05</v>
       </c>
       <c r="F327">
-        <v>0.571446</v>
+        <v>-1.861138</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328">
-        <v>2345</v>
+        <v>2753</v>
+      </c>
+      <c r="B328" t="s">
+        <v>6</v>
       </c>
       <c r="C328">
-        <v>0.000503</v>
+        <v>0.006959</v>
       </c>
       <c r="D328">
-        <v>0.000505</v>
+        <v>0.004703</v>
       </c>
       <c r="F328">
-        <v>-0.005624</v>
+        <v>0.324168</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329">
-        <v>631</v>
+        <v>3889</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
       </c>
       <c r="C329">
-        <v>0.000298</v>
+        <v>8E-06</v>
       </c>
       <c r="D329">
-        <v>0.000454</v>
+        <v>9E-06</v>
       </c>
       <c r="F329">
-        <v>-0.523054</v>
+        <v>-0.207341</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330">
-        <v>581</v>
+        <v>2714</v>
+      </c>
+      <c r="B330" t="s">
+        <v>6</v>
       </c>
       <c r="C330">
-        <v>1.3E-05</v>
+        <v>0.000652</v>
       </c>
       <c r="D330">
-        <v>5.1E-05</v>
+        <v>0.000536</v>
       </c>
       <c r="F330">
-        <v>-2.932239</v>
+        <v>0.17747</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331">
-        <v>714</v>
+        <v>2346</v>
+      </c>
+      <c r="B331" t="s">
+        <v>6</v>
       </c>
       <c r="C331">
-        <v>0.000255</v>
+        <v>0.000783</v>
       </c>
       <c r="D331">
-        <v>7.4E-05</v>
+        <v>0.000337</v>
       </c>
       <c r="F331">
-        <v>0.710901</v>
+        <v>0.570197</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332">
-        <v>1990</v>
+        <v>3613</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
       </c>
       <c r="C332">
-        <v>0.000187</v>
+        <v>2E-06</v>
       </c>
       <c r="D332">
-        <v>1.4E-05</v>
+        <v>2E-05</v>
       </c>
       <c r="F332">
-        <v>0.927623</v>
+        <v>-7.836829</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333">
-        <v>1206</v>
+        <v>2644</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
       </c>
       <c r="C333">
-        <v>1.3E-05</v>
+        <v>0.000406</v>
       </c>
       <c r="D333">
-        <v>2.7E-05</v>
+        <v>0.00049</v>
       </c>
       <c r="F333">
-        <v>-1.029005</v>
+        <v>-0.206306</v>
       </c>
     </row>
     <row r="334" spans="1:6">
       <c r="A334">
-        <v>1375</v>
+        <v>2956</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
       </c>
       <c r="C334">
         <v>5.2E-05</v>
       </c>
       <c r="D334">
-        <v>1.8E-05</v>
+        <v>5.4E-05</v>
       </c>
       <c r="F334">
-        <v>0.66127</v>
+        <v>-0.038752</v>
       </c>
     </row>
     <row r="335" spans="1:6">
       <c r="A335">
-        <v>987</v>
+        <v>3636</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
       </c>
       <c r="C335">
-        <v>0.002314</v>
+        <v>9E-06</v>
       </c>
       <c r="D335">
-        <v>0.001719</v>
+        <v>8.000000000000001E-05</v>
       </c>
       <c r="F335">
-        <v>0.257107</v>
+        <v>-8.286986000000001</v>
       </c>
     </row>
     <row r="336" spans="1:6">
       <c r="A336">
-        <v>747</v>
+        <v>3147</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
       </c>
       <c r="C336">
-        <v>5.2E-05</v>
+        <v>0.000421</v>
       </c>
       <c r="D336">
-        <v>6.1E-05</v>
+        <v>0.000315</v>
       </c>
       <c r="F336">
-        <v>-0.166912</v>
+        <v>0.252728</v>
       </c>
     </row>
     <row r="337" spans="1:6">
       <c r="A337">
-        <v>51</v>
+        <v>3819</v>
       </c>
       <c r="B337" t="s">
         <v>6</v>
       </c>
       <c r="C337">
-        <v>0.00217</v>
+        <v>2.5E-05</v>
       </c>
       <c r="D337">
-        <v>0.001174</v>
+        <v>1.6E-05</v>
       </c>
       <c r="F337">
-        <v>0.458765</v>
+        <v>0.381196</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338">
-        <v>2152</v>
+        <v>2385</v>
+      </c>
+      <c r="B338" t="s">
+        <v>6</v>
       </c>
       <c r="C338">
-        <v>1.3E-05</v>
+        <v>0.000529</v>
       </c>
       <c r="D338">
-        <v>6E-05</v>
+        <v>0.000784</v>
       </c>
       <c r="F338">
-        <v>-3.490075</v>
+        <v>-0.481938</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339">
-        <v>1534</v>
+        <v>4334</v>
+      </c>
+      <c r="B339" t="s">
+        <v>6</v>
       </c>
       <c r="C339">
-        <v>5.8E-05</v>
+        <v>0.000754</v>
       </c>
       <c r="D339">
-        <v>3.7E-05</v>
+        <v>0.000706</v>
       </c>
       <c r="F339">
-        <v>0.363486</v>
+        <v>0.063427</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340">
-        <v>1275</v>
+        <v>3578</v>
       </c>
       <c r="B340" t="s">
         <v>6</v>
       </c>
       <c r="C340">
-        <v>6.7E-05</v>
+        <v>2E-06</v>
       </c>
       <c r="D340">
-        <v>0.000127</v>
+        <v>4E-06</v>
       </c>
       <c r="F340">
-        <v>-0.902542</v>
+        <v>-1.407243</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341">
-        <v>154</v>
+        <v>2687</v>
+      </c>
+      <c r="B341" t="s">
+        <v>6</v>
       </c>
       <c r="C341">
-        <v>0.000256</v>
+        <v>3.7E-05</v>
       </c>
       <c r="D341">
-        <v>0.000258</v>
+        <v>3.1E-05</v>
       </c>
       <c r="F341">
-        <v>-0.006069</v>
+        <v>0.169824</v>
       </c>
     </row>
     <row r="342" spans="1:6">
       <c r="A342">
-        <v>1732</v>
+        <v>2849</v>
+      </c>
+      <c r="B342" t="s">
+        <v>6</v>
       </c>
       <c r="C342">
-        <v>3.4E-05</v>
+        <v>0.00042</v>
       </c>
       <c r="D342">
-        <v>2E-05</v>
+        <v>0.000259</v>
       </c>
       <c r="F342">
-        <v>0.405026</v>
+        <v>0.382526</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343">
-        <v>363</v>
+        <v>2914</v>
       </c>
       <c r="B343" t="s">
         <v>6</v>
       </c>
       <c r="C343">
-        <v>0.003094</v>
+        <v>9E-06</v>
       </c>
       <c r="D343">
-        <v>0.003093</v>
+        <v>5.2E-05</v>
       </c>
       <c r="F343">
-        <v>0.000477</v>
+        <v>-4.756389</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344">
-        <v>970</v>
+        <v>3883</v>
+      </c>
+      <c r="B344" t="s">
+        <v>6</v>
       </c>
       <c r="C344">
-        <v>0.00266</v>
+        <v>4.9E-05</v>
       </c>
       <c r="D344">
-        <v>0.002911</v>
+        <v>0.000108</v>
       </c>
       <c r="F344">
-        <v>-0.094511</v>
+        <v>-1.197628</v>
       </c>
     </row>
   </sheetData>
